--- a/data/02_intermediate/cleaned_B.B._Jacques_songs.xlsx
+++ b/data/02_intermediate/cleaned_B.B._Jacques_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Let's go Cest parti, frère Zandvoort Palace Ma mère, elle m'l'avait pourtant dit Babe, jai pris une suite à 400 eu', ce soir, j'culpabilise On s'fout d'l'argent, en vrai, mais il fallait qu'j'en parle sur quinze sons pour quenfin jdésacralise Ma mère, elle m'lavait pourtant dit, j'étais comme vous, j'pouvais pas l'croire On aurait pu sperdre, aveuglés dans une tour d'ivoire Quand l'harmonie nous donne ce p'tit truc d'ivresse J'sais on est des bonhommes tout ça, mon reuf Mais quand tu souffres faut l'dire, mon frère Souffl, c'est pas si noir dehors C'est just sur nos curs, y a tant d'poussière Putain, mais comment j'ai pu prendre autant sans rendre un peu ? J'ai croisé un ange sur l'parking, il m'a fait tellement d'bien Il avait pas qu'ça à foutre Seul, il d'vait prendre soin d'ses quatre enfants Cinquante-et-une piges Quatre anges dans l'coffre, deux autres dans l'ciel Un ange sur l'parking, il m'a fait tellement d'bien Il avait pas qu'ça à foutre Il d'vait prendre soin d'ses quatre enfants Cinquante-et-une piges, quatre anges dans l'coffre Deux autres dans l'ciel Amen You might also like Il avait cette façon d'donner propre à ceux qui ont rien L'enfer, y a ceux qui y vont et ceux qui en r'viennent Hey, Sofiane, faut qu'on arrête de bosser, qu'on souffle, qu'on r'garde des films Le souvenir d'une nuit d'été sous l'regard des astres J'voulais m'noyer dans ses yeux, on s'est perdus dans l'regard des autres J'écoute la mer, j'écris, un verre d'vin blanc m'réchauffe le cur En vrai, j'ai pas tout c'mérite, j'suis qu'le messager d'un truc plus grand Demain, le ciel s'ra p't-être plus clair, tamise la pièce qu'on voit l'charme d'la ville Un coup, c'est toi qui la baises, un coup, c'est elle, c'est comme ça, c'est le charme d'la vie C'qui a changé, c'est comment on m'perçoit, okay, j'avoue, y a c'qu'on dépense, c'qu'on perçoit On est lâches, on voulait être quelqu'un, on n'avait pas l'courage d'être personne Eh, fils de pute, tu crois qu'c'pas du pe-ra, tu crois qu'j'slame ? Fallait qu'j'donne, il faut j'donne, putain J'peux pas juste dire merci Nique sa mère, c'est ma faute J'ai dit douze fois de suite que j'voulais vivre de ça Dieu merci, il m'reste la foi Ça fait deux ans qu'j'frôle le burn-out toutes les semaines LNSC, PDP, NBOW elle est belle la B.O d'ma vie Comme Tesson, j'me suis senti vivre en frôlant la mort depuis les toits d'ma ville Condamné à briller comme l'étoile d'David Y a des rimes qui nous rapprochent comme l'étoile d'Ayane J'dors pas, j'profite d'la vue Tout ça, c'est éphémère, comme les doutes d'la veille Tiens, prenez mon argent, prenez toute la fame Tu vas t'perdre dans des illusions au bout d'deux semaines Tu veux faire l'artiste qu'est investi crari Allez tiens, prends les notes de frais Maintenant, avant d'réécouter c't album Prends dix minutes, juste, essaie d'écrire deux phases Quand ça en fera trente et qu'ta page s'ra blanche Là, t'auras compris qu'NBOW s'ra grand Eh, j'aurais pu leur foutre des sous-titres, en vrai, j'ai rien prévu, j'ai tout senti T'façon j'vous baise, qu'ce soit en TN ou en santiags, non merci, là, j'm'éclate Putain j'm'écarte merde, j'ferais mieux d'm'arrêter là Soir-ce, j'me sens bien comme si t'étais là Laisse-les couler, t'es pas obligée d'essuyer tes larmes Elle avait quand même un sourire au bout d'tes lèvres J'ai mis un peu d'nous dans cet album J't'ai encore caché dans quelques lignes Par pudeur, tu connais l'histoire, elle est déjà dans quelques livres Il est six heures, faut qu'j'trouve l'sommeil, j'suis censé rendre la chambre à dix Le soleil qui s'lève nous réchauffera-t-il ? C'est nous, on arrivait comme les parcs à thèmes T'imagines pas les sacrifices qu'j'ai faits, pas l'temps pour les regrets, j'sais, c'est fait Love, vu qu'tout l'monde est fake, crois-moi, j'ai dû en tter-j', des cahiers, avant d'avoir cette plume Redlight, deux heures, j'prends sur moi pour pas aller voir cette pute Deux heures vingt-deux, j'demande du champagne, on m'le ramène avec du r'tard et pas assez de bulles On brillait malgré nous comme les yeux d'cet aigle Désolé, babe, mais tu rentres pas dans l'planning d'cette semaine C'est l'cques-J' et elle coûte cher cette semence J'te regarde jouir le temps d'un instant, qu'tu quittes ce monde À deux doigts d'leur faire signer des contrats avant d'les ken J'me suis mis un telle pression pour décembre j'ai failli finir l'bum-al avant c't été Elle portait le poids de sa beauté, les p'tits, ils disaient au revoir aux oiseaux qui leur chiaient dessus Parfois, c'est comme ça, la vie, c'est belle Fais le tour de la ville, sur un VanMoof et puis nique sa mère J'ai croisé un ange sur l'parking et il m'a fait tellement d'bien Il avait pas qu'ça à foutre Seul, il d'vait prendre soin d'ses quatre enfants Cinquante-et-une piges Quatre anges dans l'coffre, deux autres dans l'ciel Mohamed Il avait cette façon d'donner propre à ceux qui ont rien</t>
+          <t>Let's go Cest parti, frère Zandvoort Palace Ma mère, elle m'l'avait pourtant dit Babe, jai pris une suite à 400 eu', ce soir, j'culpabilise On s'fout d'l'argent, en vrai, mais il fallait qu'j'en parle sur quinze sons pour quenfin jdésacralise Ma mère, elle m'lavait pourtant dit, j'étais comme vous, j'pouvais pas l'croire On aurait pu sperdre, aveuglés dans une tour d'ivoire Quand l'harmonie nous donne ce p'tit truc d'ivresse J'sais on est des bonhommes tout ça, mon reuf Mais quand tu souffres faut l'dire, mon frère Souffl, c'est pas si noir dehors C'est just sur nos curs, y a tant d'poussière Putain, mais comment j'ai pu prendre autant sans rendre un peu ? J'ai croisé un ange sur l'parking, il m'a fait tellement d'bien Il avait pas qu'ça à foutre Seul, il d'vait prendre soin d'ses quatre enfants Cinquante-et-une piges Quatre anges dans l'coffre, deux autres dans l'ciel Un ange sur l'parking, il m'a fait tellement d'bien Il avait pas qu'ça à foutre Il d'vait prendre soin d'ses quatre enfants Cinquante-et-une piges, quatre anges dans l'coffre Deux autres dans l'ciel Amen Il avait cette façon d'donner propre à ceux qui ont rien L'enfer, y a ceux qui y vont et ceux qui en r'viennent Hey, Sofiane, faut qu'on arrête de bosser, qu'on souffle, qu'on r'garde des films Le souvenir d'une nuit d'été sous l'regard des astres J'voulais m'noyer dans ses yeux, on s'est perdus dans l'regard des autres J'écoute la mer, j'écris, un verre d'vin blanc m'réchauffe le cur En vrai, j'ai pas tout c'mérite, j'suis qu'le messager d'un truc plus grand Demain, le ciel s'ra p't-être plus clair, tamise la pièce qu'on voit l'charme d'la ville Un coup, c'est toi qui la baises, un coup, c'est elle, c'est comme ça, c'est le charme d'la vie C'qui a changé, c'est comment on m'perçoit, okay, j'avoue, y a c'qu'on dépense, c'qu'on perçoit On est lâches, on voulait être quelqu'un, on n'avait pas l'courage d'être personne Eh, fils de pute, tu crois qu'c'pas du pe-ra, tu crois qu'j'slame ? Fallait qu'j'donne, il faut j'donne, putain J'peux pas juste dire merci Nique sa mère, c'est ma faute J'ai dit douze fois de suite que j'voulais vivre de ça Dieu merci, il m'reste la foi Ça fait deux ans qu'j'frôle le burn-out toutes les semaines LNSC, PDP, NBOW elle est belle la B.O d'ma vie Comme Tesson, j'me suis senti vivre en frôlant la mort depuis les toits d'ma ville Condamné à briller comme l'étoile d'David Y a des rimes qui nous rapprochent comme l'étoile d'Ayane J'dors pas, j'profite d'la vue Tout ça, c'est éphémère, comme les doutes d'la veille Tiens, prenez mon argent, prenez toute la fame Tu vas t'perdre dans des illusions au bout d'deux semaines Tu veux faire l'artiste qu'est investi crari Allez tiens, prends les notes de frais Maintenant, avant d'réécouter c't album Prends dix minutes, juste, essaie d'écrire deux phases Quand ça en fera trente et qu'ta page s'ra blanche Là, t'auras compris qu'NBOW s'ra grand Eh, j'aurais pu leur foutre des sous-titres, en vrai, j'ai rien prévu, j'ai tout senti T'façon j'vous baise, qu'ce soit en TN ou en santiags, non merci, là, j'm'éclate Putain j'm'écarte merde, j'ferais mieux d'm'arrêter là Soir-ce, j'me sens bien comme si t'étais là Laisse-les couler, t'es pas obligée d'essuyer tes larmes Elle avait quand même un sourire au bout d'tes lèvres J'ai mis un peu d'nous dans cet album J't'ai encore caché dans quelques lignes Par pudeur, tu connais l'histoire, elle est déjà dans quelques livres Il est six heures, faut qu'j'trouve l'sommeil, j'suis censé rendre la chambre à dix Le soleil qui s'lève nous réchauffera-t-il ? C'est nous, on arrivait comme les parcs à thèmes T'imagines pas les sacrifices qu'j'ai faits, pas l'temps pour les regrets, j'sais, c'est fait Love, vu qu'tout l'monde est fake, crois-moi, j'ai dû en tter-j', des cahiers, avant d'avoir cette plume Redlight, deux heures, j'prends sur moi pour pas aller voir cette pute Deux heures vingt-deux, j'demande du champagne, on m'le ramène avec du r'tard et pas assez de bulles On brillait malgré nous comme les yeux d'cet aigle Désolé, babe, mais tu rentres pas dans l'planning d'cette semaine C'est l'cques-J' et elle coûte cher cette semence J'te regarde jouir le temps d'un instant, qu'tu quittes ce monde À deux doigts d'leur faire signer des contrats avant d'les ken J'me suis mis un telle pression pour décembre j'ai failli finir l'bum-al avant c't été Elle portait le poids de sa beauté, les p'tits, ils disaient au revoir aux oiseaux qui leur chiaient dessus Parfois, c'est comme ça, la vie, c'est belle Fais le tour de la ville, sur un VanMoof et puis nique sa mère J'ai croisé un ange sur l'parking et il m'a fait tellement d'bien Il avait pas qu'ça à foutre Seul, il d'vait prendre soin d'ses quatre enfants Cinquante-et-une piges Quatre anges dans l'coffre, deux autres dans l'ciel Mohamed Il avait cette façon d'donner propre à ceux qui ont rien</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J'compte pas reprendre rendez-vous auprès d'la CAF Seul, depuis qu'mes ambitions ont pris d'la place L'amour a des raisons qu'j'ai compris quand j'ai vu l'prix d'la 'tasse Bref j'arrive, j'arrive, encore une fois je me dois d'aiguiser mes canines Jsais que t'es câline, câline, que l'excès t'abîme Parce que le stress t'habite, bref, je sais c'est pas facile t'es stressée Hyperactive, bref, j'sais c'est pas facile t'es stressée On sait bien que s'il y a une Ford qui passe c'est chaud. y a des portes qui claquent chez nous J'déplore cqui cloche chez vous J'investis, tu claques tes sous, elle t'plaque t'es soûl En attendant, d'ma dette j'm'acquitte J'ai fait un rêve où ma tête jla quitte J'ai bâti mon empire au lieu d'tenir les murs d'mon bâtiment J'travaille plus que mes rivaux, c'est fatigant Nos regards se croisent quand nos ch'mins s'emmêlent Table basse se boise, on paye cash sans peine Baby cache ma conso' dans l'sac Lancel On s'entend comme Rocco et Marc Dorcel Ton prétexte est bon quand les fringues s'enlèvent Quand l'loup rôde, on laisse pas l'chien sans laisse J'laisse Pense avec quatre anglaises Y a pas d'sous métier, y a pas d'taff sans stress L'rap çais-fran s'fait ken avec l'accent belge Ici, c'est Paris y a pas dark angel Bébé, j'deviens dark quand j'aime Hein Ai-je moins à perdre qu'à gagner ? J'cause avec mes démons, j'perds la tête comme Kanye Poupée, t'étais où quand j'écrivais ces phases ? Le bisou sur la bouche devient l'baiser du diable L'histoire, y a ceux qui l'écrivent et y a ceux qui la pleurent Suis-je un artiste si j'deviens un rappeur ? Authentique ou acteur ? Ceci étant dit mon bébé est en pleurs Pleure pas, sois forte, j'rendrais pas nympho une autre que toi Tout est dans l'geste, mon bébé en string veut un bébé Pamper's J'f'rais un mini Jacques dès qu'j'ai fini l'banger Et puis pété tant pis, j'mesure pas l'ampleur Qu'est-ce que t'en dis ? Hein, qu'est-ce que rancur ? Y stairont à jamais si j'lève la voix On s'en r'met à qui si on délaisse la foi ? Sans aucune insistance, j'vous baise, y a quoi ? J'ai pris d'la distance, laisse la boire Elle m'dit qu'la vie est belle, j'lui dis laisse-moi l'croire You might also like Café ou verre de sky ? Ouh, ouh Réduis pas la culture à Fred de Sky', hein Café ou verre de sky ? Café ou verre de sky ? Réduis pas la culture à Fred de Sky' J'me défoule sur un violon qui m'baise la tête, p't-êt' Il a un truc à s'reprocher quand j'lui parle, il baisse la tête, p't-êt' Et j'me défoule sur un violon qui m'baise la tête, p't-êt' Il a un truc à s'reprocher quand j'lui parle, il baisse la tête, p't-êt' Fuck le buzz, j'ai r'fusé d'vanter l'épaisseur d'ma kichta sur d'la drill J'me suis juré d'rendre accessible c'que j'ai pas à ma portée En espérant qu'l'à dessus, on soit corda Ce soir, un grossiste est mort, il restait d'la résine sur l'couteau qui l'a planté 18 Plan A, aucun plan B Un dix-huit ans d'âge à ta santé3</t>
+          <t>J'compte pas reprendre rendez-vous auprès d'la CAF Seul, depuis qu'mes ambitions ont pris d'la place L'amour a des raisons qu'j'ai compris quand j'ai vu l'prix d'la 'tasse Bref j'arrive, j'arrive, encore une fois je me dois d'aiguiser mes canines Jsais que t'es câline, câline, que l'excès t'abîme Parce que le stress t'habite, bref, je sais c'est pas facile t'es stressée Hyperactive, bref, j'sais c'est pas facile t'es stressée On sait bien que s'il y a une Ford qui passe c'est chaud. y a des portes qui claquent chez nous J'déplore cqui cloche chez vous J'investis, tu claques tes sous, elle t'plaque t'es soûl En attendant, d'ma dette j'm'acquitte J'ai fait un rêve où ma tête jla quitte J'ai bâti mon empire au lieu d'tenir les murs d'mon bâtiment J'travaille plus que mes rivaux, c'est fatigant Nos regards se croisent quand nos ch'mins s'emmêlent Table basse se boise, on paye cash sans peine Baby cache ma conso' dans l'sac Lancel On s'entend comme Rocco et Marc Dorcel Ton prétexte est bon quand les fringues s'enlèvent Quand l'loup rôde, on laisse pas l'chien sans laisse J'laisse Pense avec quatre anglaises Y a pas d'sous métier, y a pas d'taff sans stress L'rap çais-fran s'fait ken avec l'accent belge Ici, c'est Paris y a pas dark angel Bébé, j'deviens dark quand j'aime Hein Ai-je moins à perdre qu'à gagner ? J'cause avec mes démons, j'perds la tête comme Kanye Poupée, t'étais où quand j'écrivais ces phases ? Le bisou sur la bouche devient l'baiser du diable L'histoire, y a ceux qui l'écrivent et y a ceux qui la pleurent Suis-je un artiste si j'deviens un rappeur ? Authentique ou acteur ? Ceci étant dit mon bébé est en pleurs Pleure pas, sois forte, j'rendrais pas nympho une autre que toi Tout est dans l'geste, mon bébé en string veut un bébé Pamper's J'f'rais un mini Jacques dès qu'j'ai fini l'banger Et puis pété tant pis, j'mesure pas l'ampleur Qu'est-ce que t'en dis ? Hein, qu'est-ce que rancur ? Y stairont à jamais si j'lève la voix On s'en r'met à qui si on délaisse la foi ? Sans aucune insistance, j'vous baise, y a quoi ? J'ai pris d'la distance, laisse la boire Elle m'dit qu'la vie est belle, j'lui dis laisse-moi l'croire Café ou verre de sky ? Ouh, ouh Réduis pas la culture à Fred de Sky', hein Café ou verre de sky ? Café ou verre de sky ? Réduis pas la culture à Fred de Sky' J'me défoule sur un violon qui m'baise la tête, p't-êt' Il a un truc à s'reprocher quand j'lui parle, il baisse la tête, p't-êt' Et j'me défoule sur un violon qui m'baise la tête, p't-êt' Il a un truc à s'reprocher quand j'lui parle, il baisse la tête, p't-êt' Fuck le buzz, j'ai r'fusé d'vanter l'épaisseur d'ma kichta sur d'la drill J'me suis juré d'rendre accessible c'que j'ai pas à ma portée En espérant qu'l'à dessus, on soit corda Ce soir, un grossiste est mort, il restait d'la résine sur l'couteau qui l'a planté 18 Plan A, aucun plan B Un dix-huit ans d'âge à ta santé3</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Eh Regarde c'que j'ai fait avec 10k, imagine c'que j'peux faire avec 450 À toutes ces canettes qui ont fini en cendar, à tous ces mecs à qui on volait l'goûter qui ont fini gendarmes Si j'pose mes mains sur ton visage quand j't'embrasse, c'est qu'tu comptes, quand j'écris, j'sais qu'tu comptes Laisse pas traîner ta prod' à la fin s'tu veux pas qu'd'autres la baisent J'ai toujours rêvé d'une be-bar et d'faire du rap, on baise trop intensément pour qu'ça s'avère durable Viens, maint'nant, on parle des vraies choses, j'ai plus à dire que j'suis l'meilleur, vu que vous l'savez Let's go Si y a bien un mec qu'faut pas zehef, c'est l'cques-J Est-ce que j'détaille les coups d'pute ou j'dois rester chic ? Contrat avec L'Oréal, prod de Seak, artiste, prof de 'sique, c'est dur de vivre de ça On m'paye pour qu'j'vide le sac, une vie d'artiste, une vie d'laud-sa J't'avais dit qu'on s'barrait vers Lausanne, j'tais seul L'cques-Ja, c'est pas Lyonzon, de base, j'viens pas d'ici J'fais relire l'contrat par une équipe de six qui sort d'Assas, c'était écrit, on l'réalise Personne n'a fait l'cques-Ja, j'l'écris, j'le réalise On tente de m'ken, j'réadapte De base, j'avais che', putain, de base, j'avais fini l'bum-al, enculé Mais c'comme une pulsion qui m'réanime, c'était d'la ppe-f' de Paname que j't-écla à Naples Tête sur la fenêtre du RER qui s'déplace jusqu'à Gouss' You might also like J'essaie d'capturer en quelques mots c'qui nécessitait deux chapitres Le buzz, j'le v'-esqui, est-ce nécessaire qu'j'm'y attarde au milieu d'dix atomes ? Rodéo urbain qui devient l'début d'quelque chose Refuse une propal' à cinq chiffres, pas l'temps d'enchaîner cinq shits Ils veulent les droits des sons qu'j'ai alignés quand j'enchaînais cinq shifts Fuck off, le Jacques, c'est pas le S, c'est pas qu'j'veux pas, c'est juste qu'j'ai plus l'temps d'mentir 1200 billets, 120K en liasse de cent, c'est pas une signature, c'est un mercato Volume 3, j'baise le mannequin tokyoïte du clip d'Opium, partie 1 À deux doigts d'spoiler Netflix, mais j'peux pas encore khalass les baveux d'Lionel Bref, point santé c't'enculé, il s'est mis aux champis, 0-2-3-22 7-31, l'été s'ra triste, fin d'prise, il est où mon champagne ? Il est où mon champagne ? Ça y est, c'est décidé, pas l'temps pour les excuses, j'vais l'faire avec un iPhone, garage, Audacity Hell on Earth, Mobb Deep, j'branchais l'mic', j'dormais à l'hôtel Dix-huit piges, vu qu'j'sais pas cracker, j'nique la bourse du CROUS pour FL J'commence le pe-ra sans autotune, sans FX On fait les cons, on boit d'la pisse à trois balles au Syphax Quelques années plus tard, j'vois qu'en fait, c'était à cinq minutes d'Sony Le Jacques, c'est pas Zola, t'es mort si d'base t'es pas solide Deux jours que j'dors plus, j'finis l'rhum d'Jean Morel</t>
+          <t>Eh Regarde c'que j'ai fait avec 10k, imagine c'que j'peux faire avec 450 À toutes ces canettes qui ont fini en cendar, à tous ces mecs à qui on volait l'goûter qui ont fini gendarmes Si j'pose mes mains sur ton visage quand j't'embrasse, c'est qu'tu comptes, quand j'écris, j'sais qu'tu comptes Laisse pas traîner ta prod' à la fin s'tu veux pas qu'd'autres la baisent J'ai toujours rêvé d'une be-bar et d'faire du rap, on baise trop intensément pour qu'ça s'avère durable Viens, maint'nant, on parle des vraies choses, j'ai plus à dire que j'suis l'meilleur, vu que vous l'savez Let's go Si y a bien un mec qu'faut pas zehef, c'est l'cques-J Est-ce que j'détaille les coups d'pute ou j'dois rester chic ? Contrat avec L'Oréal, prod de Seak, artiste, prof de 'sique, c'est dur de vivre de ça On m'paye pour qu'j'vide le sac, une vie d'artiste, une vie d'laud-sa J't'avais dit qu'on s'barrait vers Lausanne, j'tais seul L'cques-Ja, c'est pas Lyonzon, de base, j'viens pas d'ici J'fais relire l'contrat par une équipe de six qui sort d'Assas, c'était écrit, on l'réalise Personne n'a fait l'cques-Ja, j'l'écris, j'le réalise On tente de m'ken, j'réadapte De base, j'avais che', putain, de base, j'avais fini l'bum-al, enculé Mais c'comme une pulsion qui m'réanime, c'était d'la ppe-f' de Paname que j't-écla à Naples Tête sur la fenêtre du RER qui s'déplace jusqu'à Gouss' J'essaie d'capturer en quelques mots c'qui nécessitait deux chapitres Le buzz, j'le v'-esqui, est-ce nécessaire qu'j'm'y attarde au milieu d'dix atomes ? Rodéo urbain qui devient l'début d'quelque chose Refuse une propal' à cinq chiffres, pas l'temps d'enchaîner cinq shits Ils veulent les droits des sons qu'j'ai alignés quand j'enchaînais cinq shifts Fuck off, le Jacques, c'est pas le S, c'est pas qu'j'veux pas, c'est juste qu'j'ai plus l'temps d'mentir 1200 billets, 120K en liasse de cent, c'est pas une signature, c'est un mercato Volume 3, j'baise le mannequin tokyoïte du clip d'Opium, partie 1 À deux doigts d'spoiler Netflix, mais j'peux pas encore khalass les baveux d'Lionel Bref, point santé c't'enculé, il s'est mis aux champis, 0-2-3-22 7-31, l'été s'ra triste, fin d'prise, il est où mon champagne ? Il est où mon champagne ? Ça y est, c'est décidé, pas l'temps pour les excuses, j'vais l'faire avec un iPhone, garage, Audacity Hell on Earth, Mobb Deep, j'branchais l'mic', j'dormais à l'hôtel Dix-huit piges, vu qu'j'sais pas cracker, j'nique la bourse du CROUS pour FL J'commence le pe-ra sans autotune, sans FX On fait les cons, on boit d'la pisse à trois balles au Syphax Quelques années plus tard, j'vois qu'en fait, c'était à cinq minutes d'Sony Le Jacques, c'est pas Zola, t'es mort si d'base t'es pas solide Deux jours que j'dors plus, j'finis l'rhum d'Jean Morel</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eh Auditeurs et auditrices de c'rap de merde Éros, comment va ? J'espère que tu vas bien C'était juste pour savoir, ça dit quoi ? C'est ce soir qu'vous allez au studio pour... pour l'enregistrement du morceau ? Hé, faut qu'il nous fasse un morceau incroyable, hein Eh, PDP 2, l'portable, il a failli crasher B.B. Jacques, Booska-P, j'suis pas dans l'11 à suivre, fuck off Let's go OB, como está, coño ? J'ai envie d'remettre en question c'qui m'anime Écrivain, producteur, réal, faut que j'prenn du temps pour oi-m Les sons, ils s'sont pas fais tout seuls un pur d'amnésia On a déjà raté l'batau pour l'Tennessee, l'prochain, c'est pour la Louisiane Quatre heures du mat', Artemis Dutch Design Restait plus d'suites sur Leidseplein, j'en prends une autre dans l'Est J'ai toujours volé différemment des autres oiseaux Écris avec en tête la vue sur l'ciel qui croise la mer sous prétexte d'horizon Trois heures, j'suis perdu dans l'Vondel', j'regarde brûler les astres J'bois pas dans l'verre d'Ezra On est biens dans l'B2B, j'suis pas là pour m'faire des shabs J'aurais pu danser, avec elle, mais j'danse avec les shtars J'm'étouffe, la beuh est plus forte que la veille Le cques-J' est plus fort que la veille, j'finance PDP 2 avec le 1 J'réinvestis tout c'que j'gagne Y a un daron qui pêche au Vondel' juste avec son fils J'dois vivre avec une famille, trois équipes de six Tout ça avec des mots, j'viens d'perdre un texte que j'écris depuis dix minutes You might also like La patience me fatigue, j'viens d'claquer 4K Mais l'compte, même pas il diminue Booska freestyle, j'l'ai pas fait en une heure mais en dix minutes Fais l'signe avec une main À la recherche d'un je-ne-sais-quoi d'plus 20, 05 release, quand la bêtise atteint un certain niveau, ça d'vient du génie Eh Quand j'étais p'tit, l'daron, il lisait les panneaux sur la route On parlait peu, j'le prévenais que si j'voyais une Subaru Juste envie d'se barrer, vivre l'amour À la maison, ça gueule mais ils veulent pas s'séparer, si t'aimes pas, c'est pareil J'aurais dû passer par elle, P'tit Ange comme chez Dareal Eh Jacques, où est-ce qu'elle est, ta rage ? Alors, comme ça, t'es un arabe ? Nous, on savait pas ça, on voyait bien qu't'avais l'brassard, on pensait qu't'allais l'passer Gère ton buzz avant qu'il t'échappe Pour l'moment, j'suis qu'un pauvre avec problèmes de riches J'renverse du rouge en driftant dans l'benzo sur l'costume Céline Encore à 'dam, on prolonge de deux jours tous les deux jours, t'inquiète, on est large J'rentre, boum, boum, Booska-P, eh J'finance PDP 2 avec le 1 J'fais du pe-ra, pas d'la musique urbaine Les sons, ils s'sont pas fais tout seuls Quatre heures du mat', Artemis Dutch Design Restait plus d'suites sur Leidseplein PDP 2, l'portable, il a failli crasher B.B. Jacques, Booska-P</t>
+          <t>Eh Auditeurs et auditrices de c'rap de merde Éros, comment va ? J'espère que tu vas bien C'était juste pour savoir, ça dit quoi ? C'est ce soir qu'vous allez au studio pour... pour l'enregistrement du morceau ? Hé, faut qu'il nous fasse un morceau incroyable, hein Eh, PDP 2, l'portable, il a failli crasher B.B. Jacques, Booska-P, j'suis pas dans l'11 à suivre, fuck off Let's go OB, como está, coño ? J'ai envie d'remettre en question c'qui m'anime Écrivain, producteur, réal, faut que j'prenn du temps pour oi-m Les sons, ils s'sont pas fais tout seuls un pur d'amnésia On a déjà raté l'batau pour l'Tennessee, l'prochain, c'est pour la Louisiane Quatre heures du mat', Artemis Dutch Design Restait plus d'suites sur Leidseplein, j'en prends une autre dans l'Est J'ai toujours volé différemment des autres oiseaux Écris avec en tête la vue sur l'ciel qui croise la mer sous prétexte d'horizon Trois heures, j'suis perdu dans l'Vondel', j'regarde brûler les astres J'bois pas dans l'verre d'Ezra On est biens dans l'B2B, j'suis pas là pour m'faire des shabs J'aurais pu danser, avec elle, mais j'danse avec les shtars J'm'étouffe, la beuh est plus forte que la veille Le cques-J' est plus fort que la veille, j'finance PDP 2 avec le 1 J'réinvestis tout c'que j'gagne Y a un daron qui pêche au Vondel' juste avec son fils J'dois vivre avec une famille, trois équipes de six Tout ça avec des mots, j'viens d'perdre un texte que j'écris depuis dix minutes La patience me fatigue, j'viens d'claquer 4K Mais l'compte, même pas il diminue Booska freestyle, j'l'ai pas fait en une heure mais en dix minutes Fais l'signe avec une main À la recherche d'un je-ne-sais-quoi d'plus 20, 05 release, quand la bêtise atteint un certain niveau, ça d'vient du génie Eh Quand j'étais p'tit, l'daron, il lisait les panneaux sur la route On parlait peu, j'le prévenais que si j'voyais une Subaru Juste envie d'se barrer, vivre l'amour À la maison, ça gueule mais ils veulent pas s'séparer, si t'aimes pas, c'est pareil J'aurais dû passer par elle, P'tit Ange comme chez Dareal Eh Jacques, où est-ce qu'elle est, ta rage ? Alors, comme ça, t'es un arabe ? Nous, on savait pas ça, on voyait bien qu't'avais l'brassard, on pensait qu't'allais l'passer Gère ton buzz avant qu'il t'échappe Pour l'moment, j'suis qu'un pauvre avec problèmes de riches J'renverse du rouge en driftant dans l'benzo sur l'costume Céline Encore à 'dam, on prolonge de deux jours tous les deux jours, t'inquiète, on est large J'rentre, boum, boum, Booska-P, eh J'finance PDP 2 avec le 1 J'fais du pe-ra, pas d'la musique urbaine Les sons, ils s'sont pas fais tout seuls Quatre heures du mat', Artemis Dutch Design Restait plus d'suites sur Leidseplein PDP 2, l'portable, il a failli crasher B.B. Jacques, Booska-P</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Poèmes saturniens, Fleurs du Hram Y a pas de quoi être gêné pour un fuck baby Gros, je te voulais du bien Jétais même prêt à tgratter un 16 Livré à moi, je dois faire rentrer seul Ce quils doivent gratter à 16 Jésavais bien que la patience ferait la diff Dieu merci, il y a honey qui mrappelle Jaccomplis seul ce quils peuvent pas faire à 10 Si taimes tant que ça ton block, tu fermes ta gueule, tu vas mfaire un 10 Pèse le poids d tes mots si tu tiens à gratter un 16 Hy gros, jte voulais du bien Jétais même prêt à tgratter un 16 Livré à moi, jdois faire rentrer seul ce quils doivent gratter à 16 Aujourdhui, jai vu la fille de mon reuf Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club Livré à moi, jdois faire rentrer seul ce quils doivent gratter à 16 Aujourdhui, jai vu la fille de mon reuf Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club You might also like Enfant seul dOxmo Écoute avec joie Enfance gâchée dSalif Cest souvent le plus timide qui savère à laise La relation avec toi même Cest la plus longue que tu vivras jamais Sah jla cite Ensuite, la ligne, jla saute Sah jla cite Ensuite, la ligne, jla saute Affamés je les vois regarder dans dautres assiettes Hors de question de poser mon cul près de la cour dAssises Il y a des choses qui ne sapprennent pas dans les cours dAssas Exemple quand tes chargé et que tu les as au cul bah tu cours ta race Sinon il faut passer de zéro à 100 Un V6 rattrapera jamais un double V12 Je les vois bicrave leurs âmes sur W9 Si demain jai plus de DA, jdouble le bénéf La fougue triomphe toujours du manque de panache Jfinis mon texte sur l'pont de Puteaux Fuck off Aujourdhui, il ny a pas de plus tard Vis comme un Dieu parmi les hommes Et tu touches plus terre Lautre soir, jai pensé à toi Jespère que tu tousses plus trop Et que largent que tas coffré Cest pas parce que tu pousses plus gros Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club Jai laissé saccumuler ces nuits dfatigue Le stress cumulé savère fatal Les décisions restent instinctives Face à moi-même Les doutes sont intrinsèques Je me suis consumé comme un grain de shit Je voulais pas masquer le goût avec un grain de sel On dissimule les sentiments Jme souviens de tes pieds sous des grains de sable Elle me menace de son départ On partage le gâteau sur mes parts À chacun sa madeleine de Proust Nous, on sembrouille avant ldessert Nous, on attendait naïvement un bateau dans ldésert Jai cru voir un semblant dharmonie dans ce désordre Jai besoin daide Cest la chose la plus vraie que jai jamais dite Jregrette pas les erreurs commises Mais les erreurs jamais faites On sest séparé de tellement de chose qu'on croyait vitales Mais on ne vit pas longtemps damour et dVittel Mais si tu veux, on essaie et on rit si on scasse la gueule Habille toi comme tu veux Celui qui regarde de travers wAllah jlui casse la gueule Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club Habille toi comme tu veux Celui qui regarde de travers wAllah jlui casse la gueule Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club1</t>
+          <t>Poèmes saturniens, Fleurs du Hram Y a pas de quoi être gêné pour un fuck baby Gros, je te voulais du bien Jétais même prêt à tgratter un 16 Livré à moi, je dois faire rentrer seul Ce quils doivent gratter à 16 Jésavais bien que la patience ferait la diff Dieu merci, il y a honey qui mrappelle Jaccomplis seul ce quils peuvent pas faire à 10 Si taimes tant que ça ton block, tu fermes ta gueule, tu vas mfaire un 10 Pèse le poids d tes mots si tu tiens à gratter un 16 Hy gros, jte voulais du bien Jétais même prêt à tgratter un 16 Livré à moi, jdois faire rentrer seul ce quils doivent gratter à 16 Aujourdhui, jai vu la fille de mon reuf Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club Livré à moi, jdois faire rentrer seul ce quils doivent gratter à 16 Aujourdhui, jai vu la fille de mon reuf Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club Enfant seul dOxmo Écoute avec joie Enfance gâchée dSalif Cest souvent le plus timide qui savère à laise La relation avec toi même Cest la plus longue que tu vivras jamais Sah jla cite Ensuite, la ligne, jla saute Sah jla cite Ensuite, la ligne, jla saute Affamés je les vois regarder dans dautres assiettes Hors de question de poser mon cul près de la cour dAssises Il y a des choses qui ne sapprennent pas dans les cours dAssas Exemple quand tes chargé et que tu les as au cul bah tu cours ta race Sinon il faut passer de zéro à 100 Un V6 rattrapera jamais un double V12 Je les vois bicrave leurs âmes sur W9 Si demain jai plus de DA, jdouble le bénéf La fougue triomphe toujours du manque de panache Jfinis mon texte sur l'pont de Puteaux Fuck off Aujourdhui, il ny a pas de plus tard Vis comme un Dieu parmi les hommes Et tu touches plus terre Lautre soir, jai pensé à toi Jespère que tu tousses plus trop Et que largent que tas coffré Cest pas parce que tu pousses plus gros Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club Jai laissé saccumuler ces nuits dfatigue Le stress cumulé savère fatal Les décisions restent instinctives Face à moi-même Les doutes sont intrinsèques Je me suis consumé comme un grain de shit Je voulais pas masquer le goût avec un grain de sel On dissimule les sentiments Jme souviens de tes pieds sous des grains de sable Elle me menace de son départ On partage le gâteau sur mes parts À chacun sa madeleine de Proust Nous, on sembrouille avant ldessert Nous, on attendait naïvement un bateau dans ldésert Jai cru voir un semblant dharmonie dans ce désordre Jai besoin daide Cest la chose la plus vraie que jai jamais dite Jregrette pas les erreurs commises Mais les erreurs jamais faites On sest séparé de tellement de chose qu'on croyait vitales Mais on ne vit pas longtemps damour et dVittel Mais si tu veux, on essaie et on rit si on scasse la gueule Habille toi comme tu veux Celui qui regarde de travers wAllah jlui casse la gueule Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club Habille toi comme tu veux Celui qui regarde de travers wAllah jlui casse la gueule Gare-ci vanille, jazz club Gare-ci, gare-ci vanille, jazz club1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eh Check Elle a p't-être une voix qui traine sur des prods qu'on aime Sexe, mais comportements d'grand connard Un son classe, un hit, un grand calu Nouvel album, ensuite, grande cavale Qui était là dans les grandes galères ? Le cques-J' en chemise au milieu d'grandes colonnes J'te trouve un emploi fictif s'tu l'souhaites Toujours en r'tard, j'ai l'malheur d'me faire attendre Au moins, j'l'ai fait à temps, viens on r'part à 'dam Laisse cicatriser, mts l'sparadrap Ça m'coûterait trop cher d'me ratr, elle a c'truc d'Em' Rata' Est-ce-que j'pars ou j'reste là ? Babe, viens, on en reste là J'ai eu la naïveté d'croire qu'il m'reste deux lignes On fait des kich', le whisky prend de l'âge V'nez, prenez tout, destinés à être prolétaires mais on a rompu ça Cadeau, robe de signature, saoul, le soleil se lève On était beaux mais on était si esseulés Et si j'revenais à la base ? Et si j'revenais à la base ? Revenais à la base, revenais à la base You might also like Eh Suis-je en r'tard sur les feuilles qu'd'autres critiquent ? Celles qui valent plus qu'100k Si j'retire le béret, ta meuf s'envole Au Bercy, si on crie fuck off ensemble, on frôle neuf cents volts Et merde, j'viens d'faire une rime J'compte les jours mais LNS n'a pas pris une ride Ce soir, j'me mets une race Elle, elle veut qu'j'lui mette des claques Eh, babe, j'suis pas comme tous ces clones, hier, tout était calme J'ai douté de moi, j'aurais pu douter d'mes gars Non, j'dehak, j'aurais dû douter d'mes gars J'suis un twittos sans PP, un artiste incroyable À titre exceptionnel, tu peux mettre des glaçons dans l'verre du cques-J' Nique sa mère, j'suis bon qu'à faire du cash Ce, malgré moi, en voulant faire de l'art Dans dix ans, t'as un livre si t'écris chaque jour deux lignes Retire ton pull en laine, roule un pilon épais Silence rompu, parce qu'il fait tousser l'cône À deux doigts d'tout éteindre Est-ce-qu'il casse un buzz ou il donne de l'aide ? Putain, c'qu'on donne de nous, le cques-J' un homme tenace Triple fuck off, du jour au lendemain dans la lumière De base, un homme de l'ombre Est-ce-qu'on est censés faire du biff ou faire de l'art ? On est dimanche, au stud', y a sonne-per LCS, ça fait trois s'maines qu'il est qué-blo sur l'périph' Trente minutes qu'il essaye d'garer l'camion, putain J'ai même plus l'temps d'perdre du time, NBOW, CDI On m'roule des pét', on m'fait du thé Envoie le plus stock, qu'il vienne par là, qu'il essaye d'me faire douter Ta marraine la pénaliste, me3lich J'sais, de base, c'était un fan J'vois plus dans l'rétro, allez, pédalez La fin d'un couplet ou l'début d'un autre La fin d'album qui marque le début d'un autre J'arrête pas depuis l'début d'année On est des artistes, on n'est pas des putes à clic, putain J'm'en sens plus capable Non j'dehak, j'suis fais pour les per-ta J'suis dans l'divertissement, j'en peux plus d'vos bêtises J'étais en train de tter-gra Jacques fatigue, NBOW s'pérennise Update elle s'appelait Palo, elle s'appelait pas Bérénice J'étais en train d'tter-gra, j'ai p't-être trop bédave Jacques fatigue, NBOW s'pérennise Update elle s'appelait Palo, elle s'appelait pas Bérénice J'prends un Uber, direction les Pyrénées Y a des équipes de six, prêtes à t'voler ton Apollo, à t'fracturer l'péroné J'm'arrache dès qu'j'suis trop cramé Dans l'périmètre, on gagne pas une chose sans en perdre une autre Putain, j'pourrais niquer l'argent d'Fuck off Et j'suis là à Berlin comme un con, à essayer d'être pertinent J'suis dans l'divertissement mais j'en peux plus d'vos bêtises Jacques fatigue, NBOW s'pérennise J'suis dans l'divertissement, j'en peux plus d'vos bêtises Tu veux pper-ra comme moi ? Encore un joueur de flûte qui s'croit trompettiste J'finis même plus mes cônes J'finis même plus mes sons J'finis même plus mes phases Jacques fatigue, NBOW s'pérénise Update elle s'appelait Palo, elle s'appelait pas Bérénice Nouvel album, ensuite, grande cavale, ensuite, grande cavale Fuck off</t>
+          <t>Eh Check Elle a p't-être une voix qui traine sur des prods qu'on aime Sexe, mais comportements d'grand connard Un son classe, un hit, un grand calu Nouvel album, ensuite, grande cavale Qui était là dans les grandes galères ? Le cques-J' en chemise au milieu d'grandes colonnes J'te trouve un emploi fictif s'tu l'souhaites Toujours en r'tard, j'ai l'malheur d'me faire attendre Au moins, j'l'ai fait à temps, viens on r'part à 'dam Laisse cicatriser, mts l'sparadrap Ça m'coûterait trop cher d'me ratr, elle a c'truc d'Em' Rata' Est-ce-que j'pars ou j'reste là ? Babe, viens, on en reste là J'ai eu la naïveté d'croire qu'il m'reste deux lignes On fait des kich', le whisky prend de l'âge V'nez, prenez tout, destinés à être prolétaires mais on a rompu ça Cadeau, robe de signature, saoul, le soleil se lève On était beaux mais on était si esseulés Et si j'revenais à la base ? Et si j'revenais à la base ? Revenais à la base, revenais à la base Eh Suis-je en r'tard sur les feuilles qu'd'autres critiquent ? Celles qui valent plus qu'100k Si j'retire le béret, ta meuf s'envole Au Bercy, si on crie fuck off ensemble, on frôle neuf cents volts Et merde, j'viens d'faire une rime J'compte les jours mais LNS n'a pas pris une ride Ce soir, j'me mets une race Elle, elle veut qu'j'lui mette des claques Eh, babe, j'suis pas comme tous ces clones, hier, tout était calme J'ai douté de moi, j'aurais pu douter d'mes gars Non, j'dehak, j'aurais dû douter d'mes gars J'suis un twittos sans PP, un artiste incroyable À titre exceptionnel, tu peux mettre des glaçons dans l'verre du cques-J' Nique sa mère, j'suis bon qu'à faire du cash Ce, malgré moi, en voulant faire de l'art Dans dix ans, t'as un livre si t'écris chaque jour deux lignes Retire ton pull en laine, roule un pilon épais Silence rompu, parce qu'il fait tousser l'cône À deux doigts d'tout éteindre Est-ce-qu'il casse un buzz ou il donne de l'aide ? Putain, c'qu'on donne de nous, le cques-J' un homme tenace Triple fuck off, du jour au lendemain dans la lumière De base, un homme de l'ombre Est-ce-qu'on est censés faire du biff ou faire de l'art ? On est dimanche, au stud', y a sonne-per LCS, ça fait trois s'maines qu'il est qué-blo sur l'périph' Trente minutes qu'il essaye d'garer l'camion, putain J'ai même plus l'temps d'perdre du time, NBOW, CDI On m'roule des pét', on m'fait du thé Envoie le plus stock, qu'il vienne par là, qu'il essaye d'me faire douter Ta marraine la pénaliste, me3lich J'sais, de base, c'était un fan J'vois plus dans l'rétro, allez, pédalez La fin d'un couplet ou l'début d'un autre La fin d'album qui marque le début d'un autre J'arrête pas depuis l'début d'année On est des artistes, on n'est pas des putes à clic, putain J'm'en sens plus capable Non j'dehak, j'suis fais pour les per-ta J'suis dans l'divertissement, j'en peux plus d'vos bêtises J'étais en train de tter-gra Jacques fatigue, NBOW s'pérennise Update elle s'appelait Palo, elle s'appelait pas Bérénice J'étais en train d'tter-gra, j'ai p't-être trop bédave Jacques fatigue, NBOW s'pérennise Update elle s'appelait Palo, elle s'appelait pas Bérénice J'prends un Uber, direction les Pyrénées Y a des équipes de six, prêtes à t'voler ton Apollo, à t'fracturer l'péroné J'm'arrache dès qu'j'suis trop cramé Dans l'périmètre, on gagne pas une chose sans en perdre une autre Putain, j'pourrais niquer l'argent d'Fuck off Et j'suis là à Berlin comme un con, à essayer d'être pertinent J'suis dans l'divertissement mais j'en peux plus d'vos bêtises Jacques fatigue, NBOW s'pérennise J'suis dans l'divertissement, j'en peux plus d'vos bêtises Tu veux pper-ra comme moi ? Encore un joueur de flûte qui s'croit trompettiste J'finis même plus mes cônes J'finis même plus mes sons J'finis même plus mes phases Jacques fatigue, NBOW s'pérénise Update elle s'appelait Palo, elle s'appelait pas Bérénice Nouvel album, ensuite, grande cavale, ensuite, grande cavale Fuck off</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check Si tu m'vois en boîte, c'est pour mon propre showcase Ça a l'air sympa d'être avec nous l'temps d'un soir C'coup-ci, faut les per-ta s'ils r'tendent la joue Dites à l'agent qu'j'refuse la GAV Chez nous, on fait pas d'sport de glisse Ils vont t'porter dans leurs curs avant d'te porter l'3in On pourra pas dire qu'nos vies ont manqué d'charme On t'monte aussi vite qu'on t'descend Fuck une pulsion poétique, il m'reste le fragment d'un désir Qu'tard j'estompe, igo, toi et moi, on fait pas l'même sport J'travaille, j'ai changé d'step Off, il est gentil l'type, mais d'vant les cam's, c'était pas l'même boug J'étais pas en battle contre toi, j'me battais contre tout l'game Fuck off, le cques-Ja a plus d'une touche-car Babe, tu peux m'regarder mais tu m'touches pas Les flows, ils sont tout jdid Y a des récits sur des feuilles volantes, des punchlines sur des Post-it J'fais du business avec mes idoles, pas des selfies Il est mort noyé dans l'zeit zeitoun, l'enculé qui a insulté mon peuple Prends mes paillettes, j'garde ma D.A Prends mon buzz, j'garde ma plume You might also like Ce soir, j'me noie dans des packs de prod J'bois du Henny, j'ai arrêté les packs de seize J'fais du bif grâce à ma voix, j'l'entretiens mais cette semaine, elle s'est cassée je n'sais où Vendredi en showcase, je n'sais où C'est un luxe de dire non et j'peux m'l'offrir La vie, c'est une grande gaufrette, parfois, rien qu'c'est noir Parfois, rien qu'c'est noir Pour toutes les p'tites salopes sur la route J'boxe avec les mots, Ärsenik NBOW, Jacques, Wenger, Arsenal, numéro 22, capitaine J'vais les r'pousser jusqu'à c'qu'ils capitulent Proprio des masters, détenteur du capital Les baiser, c'est capital Oui Mets les récits du jeune cques-J' dans une mallette discrète Pas un sac Vuitton, il voit qu'ça avance, il m'dit Frère, featons Fuck off, j'le répète, c'est p't-être vital J'commence à sentir une pression nouvelle sur mes épaules La prochaine, c'est la bonne, faut qu'j'me sé-po J'commence à sentir une pression nouvelle sur mes épaules</t>
+          <t>Check Si tu m'vois en boîte, c'est pour mon propre showcase Ça a l'air sympa d'être avec nous l'temps d'un soir C'coup-ci, faut les per-ta s'ils r'tendent la joue Dites à l'agent qu'j'refuse la GAV Chez nous, on fait pas d'sport de glisse Ils vont t'porter dans leurs curs avant d'te porter l'3in On pourra pas dire qu'nos vies ont manqué d'charme On t'monte aussi vite qu'on t'descend Fuck une pulsion poétique, il m'reste le fragment d'un désir Qu'tard j'estompe, igo, toi et moi, on fait pas l'même sport J'travaille, j'ai changé d'step Off, il est gentil l'type, mais d'vant les cam's, c'était pas l'même boug J'étais pas en battle contre toi, j'me battais contre tout l'game Fuck off, le cques-Ja a plus d'une touche-car Babe, tu peux m'regarder mais tu m'touches pas Les flows, ils sont tout jdid Y a des récits sur des feuilles volantes, des punchlines sur des Post-it J'fais du business avec mes idoles, pas des selfies Il est mort noyé dans l'zeit zeitoun, l'enculé qui a insulté mon peuple Prends mes paillettes, j'garde ma D.A Prends mon buzz, j'garde ma plume Ce soir, j'me noie dans des packs de prod J'bois du Henny, j'ai arrêté les packs de seize J'fais du bif grâce à ma voix, j'l'entretiens mais cette semaine, elle s'est cassée je n'sais où Vendredi en showcase, je n'sais où C'est un luxe de dire non et j'peux m'l'offrir La vie, c'est une grande gaufrette, parfois, rien qu'c'est noir Parfois, rien qu'c'est noir Pour toutes les p'tites salopes sur la route J'boxe avec les mots, Ärsenik NBOW, Jacques, Wenger, Arsenal, numéro 22, capitaine J'vais les r'pousser jusqu'à c'qu'ils capitulent Proprio des masters, détenteur du capital Les baiser, c'est capital Oui Mets les récits du jeune cques-J' dans une mallette discrète Pas un sac Vuitton, il voit qu'ça avance, il m'dit Frère, featons Fuck off, j'le répète, c'est p't-être vital J'commence à sentir une pression nouvelle sur mes épaules La prochaine, c'est la bonne, faut qu'j'me sé-po J'commence à sentir une pression nouvelle sur mes épaules</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eh Y a p't-être une voix qui traine sur des prods qu'on aime Sexe mais comportements d'grand connard Un son classe, un hit, un grand calu Nouvel album, ensuite, grande cavale Qui était là dans les grandes galères ? Le cques-J' en chemise au milieu d'grandes colonnes J'te trouve un emploi fictif s'tu l'souhaites Toujours en r'tard, j'ai l'malheur d'me faire attendre Au moins, j'l'ai fait à temps, viens, on r'part à 'dam Laisse cicatriser, mets l'sparadrap Ça m'coûterait trop chr d'me rater, ell a c'truc d'Em' Rata' J'ai fais plus d'une rature Est-ce-que j'pars ou j'reste là ? Babe, viens, on en reste là J'ai eu la naïveté d'croire qu'il m'reste deux lignes C'est l'heure de prendre le large On fait des kich', le whisky prend de l'âge V'nez, prenez tout, destinés à être prolétaires, mais on a rompu ça Cadeau, robe de signature, 5.47 saoul, le soleil se lève On était beaux mais on était si esseulés Là, j'me casse la voix, pose des notes, j'one shot après C'est fini mais tu fais quoi c't'aprèm ? Est-ce qu'on s'barre, ou on pousse la voix ? Et si j'revenais à la base ? Et si j'revenais à la base ? You might also like Suis-je en r'tard sur les feuilles qu'd'autres critiquent ? Celles qui valent plus qu'100k Si j'retire le béret, ta meuf s'envole Au Bercy, si on crie fuck off ensemble, on frôle neufs-cents volts Et merde, j'viens d'faire une rime J'compte les jours mais LNSC n'a pas pris une ride Soir-ce, j'me mets une race Elle, elle veut qu'j'lui mette des claques Eh, babe, j'suis pas comme tous ces clones, hier, tout était calme J'ai douté d'moi, j'aurais pu douter d'mes gars Non, j'dehak, j'aurais dû douter d'mes gars J'suis un twittos sans PP, un artiste incroyable À titre exceptionnel, tu peux mettre des glaçons dans l'verre du cques-J' Nique sa mère, j'suis bon qu'à faire du cash Ce, malgré moi, en voulant faire de l'art Dans dix ans, t'as un livre si t'écris chaque jour deux lignes Babe, retire ton pull en laine, roule un pilon épais Silence rompu, parce qu'il fait tousser l'cône À deux doigts d'tout éteindre Est-ce-qu'il casse un buzz ou il donne de l'aide ? Putain, c'qu'on donne de nous, le cques-J' un homme tenace Triple fuck off, du jour au lendemain dans la lumière De base, un homme de l'ombre Est-ce qu'on est censés faire du biff ou faire de l'art ? On est samedi, nan, on est dimanche, au stud', y a sonne-per LCS, ça fait deux s'maines qu'il est qué-blo sur l'périph' Trente minutes qu'il essaye d'garer l'camion, mais qu'est-ce qui m'a pris d'peu-ra ? J'ai même plus l'temps d'perdre du time, NBOW, CDI On m'roule des pét', on m'fait du thé Envoie l'plus stock, qu'il vienne par là, qu'il essaye d'me faire douter Ta marraine la pénaliste, me3lich J'sais, de base, c'était un fan J'vois plus dans l'rétro, allez, pédalez La fin d'un couplet ou l'début d'un autre La fin d'album qui marque le début d'un autre J'arrête pas depuis l'début d'année On est des artistes, on n'est pas des putes à clic, fuck off J'm'en sens pas capable Non j'dehak, j'suis fais pour les per-ta J'étais en train de tter-gra, j'ai p't'être trop bédave, j'peux plus mettre le béret Jacques fatigue, NBOW s'pérennise Update elle s'appelait Palo, elle s'appelait pas Bérénice Elle s'appelait Palo, elle s'appelait pas Bérénice Jacques fatigue, NBOW s'pérennise J'quitte le stud' à Bastille, j'prends un Uber direction les Pyrénées Y a des équipes de six, prêtes à t'voler ton Apollo, à t'fracturer l'péroné J'm'arrache dès qu'j'suis trop cramé Dans l'périmètre, on gagne pas une chose sans en perdre une autre Putain, j'pourrais niquer l'argent d'Fuck off Mais j'suis là comme un grand con, à essayer d'être pertinent Ça fais trois heures qu'ils composent, quatre qu'j'écris J'suis dans l'divertissement mais j'en peux plus d'vos bêtises Tu veux pper-ra comme moi ? Encore un joueur de flûte qui s'croit trompettiste J'suis dans l'divertissement mais j'en peux plus d'vos bêtises On est des artistes, on est pas des putaclicks J'finis même plus mes cônes J'finis même plus mes sons J'finis même plus mes phases Y a p't-être une voix qui traine sur des prods qu'on aime Sexe mais comportements de grand connard Un son classe, un hit, un grand calu Nouvel album, ensuite, grande cavale, ensuite, grande cavale</t>
+          <t>Eh Y a p't-être une voix qui traine sur des prods qu'on aime Sexe mais comportements d'grand connard Un son classe, un hit, un grand calu Nouvel album, ensuite, grande cavale Qui était là dans les grandes galères ? Le cques-J' en chemise au milieu d'grandes colonnes J'te trouve un emploi fictif s'tu l'souhaites Toujours en r'tard, j'ai l'malheur d'me faire attendre Au moins, j'l'ai fait à temps, viens, on r'part à 'dam Laisse cicatriser, mets l'sparadrap Ça m'coûterait trop chr d'me rater, ell a c'truc d'Em' Rata' J'ai fais plus d'une rature Est-ce-que j'pars ou j'reste là ? Babe, viens, on en reste là J'ai eu la naïveté d'croire qu'il m'reste deux lignes C'est l'heure de prendre le large On fait des kich', le whisky prend de l'âge V'nez, prenez tout, destinés à être prolétaires, mais on a rompu ça Cadeau, robe de signature, 5.47 saoul, le soleil se lève On était beaux mais on était si esseulés Là, j'me casse la voix, pose des notes, j'one shot après C'est fini mais tu fais quoi c't'aprèm ? Est-ce qu'on s'barre, ou on pousse la voix ? Et si j'revenais à la base ? Et si j'revenais à la base ? Suis-je en r'tard sur les feuilles qu'd'autres critiquent ? Celles qui valent plus qu'100k Si j'retire le béret, ta meuf s'envole Au Bercy, si on crie fuck off ensemble, on frôle neufs-cents volts Et merde, j'viens d'faire une rime J'compte les jours mais LNSC n'a pas pris une ride Soir-ce, j'me mets une race Elle, elle veut qu'j'lui mette des claques Eh, babe, j'suis pas comme tous ces clones, hier, tout était calme J'ai douté d'moi, j'aurais pu douter d'mes gars Non, j'dehak, j'aurais dû douter d'mes gars J'suis un twittos sans PP, un artiste incroyable À titre exceptionnel, tu peux mettre des glaçons dans l'verre du cques-J' Nique sa mère, j'suis bon qu'à faire du cash Ce, malgré moi, en voulant faire de l'art Dans dix ans, t'as un livre si t'écris chaque jour deux lignes Babe, retire ton pull en laine, roule un pilon épais Silence rompu, parce qu'il fait tousser l'cône À deux doigts d'tout éteindre Est-ce-qu'il casse un buzz ou il donne de l'aide ? Putain, c'qu'on donne de nous, le cques-J' un homme tenace Triple fuck off, du jour au lendemain dans la lumière De base, un homme de l'ombre Est-ce qu'on est censés faire du biff ou faire de l'art ? On est samedi, nan, on est dimanche, au stud', y a sonne-per LCS, ça fait deux s'maines qu'il est qué-blo sur l'périph' Trente minutes qu'il essaye d'garer l'camion, mais qu'est-ce qui m'a pris d'peu-ra ? J'ai même plus l'temps d'perdre du time, NBOW, CDI On m'roule des pét', on m'fait du thé Envoie l'plus stock, qu'il vienne par là, qu'il essaye d'me faire douter Ta marraine la pénaliste, me3lich J'sais, de base, c'était un fan J'vois plus dans l'rétro, allez, pédalez La fin d'un couplet ou l'début d'un autre La fin d'album qui marque le début d'un autre J'arrête pas depuis l'début d'année On est des artistes, on n'est pas des putes à clic, fuck off J'm'en sens pas capable Non j'dehak, j'suis fais pour les per-ta J'étais en train de tter-gra, j'ai p't'être trop bédave, j'peux plus mettre le béret Jacques fatigue, NBOW s'pérennise Update elle s'appelait Palo, elle s'appelait pas Bérénice Elle s'appelait Palo, elle s'appelait pas Bérénice Jacques fatigue, NBOW s'pérennise J'quitte le stud' à Bastille, j'prends un Uber direction les Pyrénées Y a des équipes de six, prêtes à t'voler ton Apollo, à t'fracturer l'péroné J'm'arrache dès qu'j'suis trop cramé Dans l'périmètre, on gagne pas une chose sans en perdre une autre Putain, j'pourrais niquer l'argent d'Fuck off Mais j'suis là comme un grand con, à essayer d'être pertinent Ça fais trois heures qu'ils composent, quatre qu'j'écris J'suis dans l'divertissement mais j'en peux plus d'vos bêtises Tu veux pper-ra comme moi ? Encore un joueur de flûte qui s'croit trompettiste J'suis dans l'divertissement mais j'en peux plus d'vos bêtises On est des artistes, on est pas des putaclicks J'finis même plus mes cônes J'finis même plus mes sons J'finis même plus mes phases Y a p't-être une voix qui traine sur des prods qu'on aime Sexe mais comportements de grand connard Un son classe, un hit, un grand calu Nouvel album, ensuite, grande cavale, ensuite, grande cavale</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parfois sur mon visage, y'a de drôles d'expressions Parfois sur mon nuage, j'ai de drôles de façons On me trouve sage, des fois un peu sauvage Pas de mon âge ou même un peu volage Pensées pas saines qui me traversent la tête Des sortes de migraines qu'empêchent de faire la fête J'ai l'impression que ton ombre me suit Je me rtourne, je ne vois qu la mienne C'est peut-être elle au fond que je dois fuir Ou bien c'est moi qui dois suivre la tienne Solo sur ma route, j'avançais sur une pente raide Où seront passés les keumés qui m'disaient on s'entraide m'disaient on s'entraide m'disaient on s'entraide Laisse ton carré juste pour rentrer dans l'cercle Laisse ton carré juste pour rentrer dans l'- Laisse ton carré juste pour rentrer dans l'cercle Laisse ton carré juste pour rentrer dans l'- You might also like Bébé dis moi tout J'ai vu s'tourner des ste-ve comme des nunchakus Faut que j'l'avoue Je regarde tes fesses et j'écoute Selah Sue Mais toi tu sais ça Tu fais ça T'appelles ça fou Et quand tu t'pé-ssa tu sais qu'ça attire la foule Ce soir j'vais m'faire un dix balles et regarder passer les astres Si tu fais une erreur avant moi J'voulais faire passer tous les autres J'ai frappé 206 fois pour leur casser tous les os allez, dis moi tout Puis si ça se sait Ça se sait Ça se sent Ça s'assume Ça s'refait Pas d'histoire, sans ratures Pas d'levrette, sans fessée Ils ont marqué nos visages, on les cache Lunettes de soleil quand l'soleil se cache Ils ont marqué nos visages, on les cache Lunettes de soleil quand l'soleil se cache Ils ont marqué nos visages, on les cache Lunettes de soleil quand l'soleil se cache Ils ont marqué nos visages, on les caches Viens on s'casse, on s'fout du reste On f'rait mieux d'partir si tu veux vivre de c'foutu rêve Si tu veux qu'on avance, faut qu'tu restes Le ciel est gris, la zone est rouge Le sable est fin, l'alcool est fort Viens on s'casse, on s'fout du reste On f'rait mieux d'partir si tu veux vivre de c'foutu rêve Si tu veux qu'on avance, faut qu'tu restes Le ciel est gris, la zone est rouge Le sable est fin, l'alcool est fort J'ai l'impression que ton ombre me suit Je me retourne, je ne vois que la mienne C'est peut-être elle au fond que je dois fuir Ou bien c'est moi qui dois suivre la tienne Dignity and culture</t>
+          <t>Parfois sur mon visage, y'a de drôles d'expressions Parfois sur mon nuage, j'ai de drôles de façons On me trouve sage, des fois un peu sauvage Pas de mon âge ou même un peu volage Pensées pas saines qui me traversent la tête Des sortes de migraines qu'empêchent de faire la fête J'ai l'impression que ton ombre me suit Je me rtourne, je ne vois qu la mienne C'est peut-être elle au fond que je dois fuir Ou bien c'est moi qui dois suivre la tienne Solo sur ma route, j'avançais sur une pente raide Où seront passés les keumés qui m'disaient on s'entraide m'disaient on s'entraide m'disaient on s'entraide Laisse ton carré juste pour rentrer dans l'cercle Laisse ton carré juste pour rentrer dans l'- Laisse ton carré juste pour rentrer dans l'cercle Laisse ton carré juste pour rentrer dans l'- Bébé dis moi tout J'ai vu s'tourner des ste-ve comme des nunchakus Faut que j'l'avoue Je regarde tes fesses et j'écoute Selah Sue Mais toi tu sais ça Tu fais ça T'appelles ça fou Et quand tu t'pé-ssa tu sais qu'ça attire la foule Ce soir j'vais m'faire un dix balles et regarder passer les astres Si tu fais une erreur avant moi J'voulais faire passer tous les autres J'ai frappé 206 fois pour leur casser tous les os allez, dis moi tout Puis si ça se sait Ça se sait Ça se sent Ça s'assume Ça s'refait Pas d'histoire, sans ratures Pas d'levrette, sans fessée Ils ont marqué nos visages, on les cache Lunettes de soleil quand l'soleil se cache Ils ont marqué nos visages, on les cache Lunettes de soleil quand l'soleil se cache Ils ont marqué nos visages, on les cache Lunettes de soleil quand l'soleil se cache Ils ont marqué nos visages, on les caches Viens on s'casse, on s'fout du reste On f'rait mieux d'partir si tu veux vivre de c'foutu rêve Si tu veux qu'on avance, faut qu'tu restes Le ciel est gris, la zone est rouge Le sable est fin, l'alcool est fort Viens on s'casse, on s'fout du reste On f'rait mieux d'partir si tu veux vivre de c'foutu rêve Si tu veux qu'on avance, faut qu'tu restes Le ciel est gris, la zone est rouge Le sable est fin, l'alcool est fort J'ai l'impression que ton ombre me suit Je me retourne, je ne vois que la mienne C'est peut-être elle au fond que je dois fuir Ou bien c'est moi qui dois suivre la tienne Dignity and culture</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>On revient on vous baise, wAllah Dignity and culture Eh, j'revois ces photos qui traînent, j'essaye de rester focus Quand y a les feu-meu qui craquent, tétanise le public lorsqu'il glousse Baby, tu passeras un salam au S J'aurais pu m'écrouler sans les conseils de Yous' mais Dieu merci le Jacques est fort Eh, un peu d'nous deux dans chaque effort, ni autotune, ni l'moindre FX J'écris en attendant sur tout c'que, le temps efface J'me suis promis une carrière digne des grands, sans manager avec mes couilles mes tripes, que la DA fuck la trap Ah, Voluptyk si j'l'attrape Eh, que la DA fuck la trap Azy, Voluptyk si j'l'attrape Parfois demain, paraît plus loin qu'hier J'aurais mieux fait de te retenir à deux mains J'ai été naïf, j'voulais te redire à demain Faut qu'je nachave, qu'j'me fasse à l'idée qu'tu s'ras pas là demain Finalement, j'irai seul à Saint-Domingue Vivons, léger, rien n'est, fatidique ce sera Oh, eh, oh eh eh Ce soir la nuit s'ra calme faut qu'je bosse, au bar et que j'pète des 100's à dix balles Ca y est bébé, c'est fini, tu m'as dit c'est fade On finit par fatiguer d'maquiller ses fautes Toi, t'en as assez d'camoufler tes plaies J'vois des sourires sur des visages, un horizon derrière l'rivage Prends mon album comme ultime refuge, dès qu'les souvenirs r'font surface En fait, l'amour, c'est surfait C'est Tino qui t'aime, Jacques c'était une surprise, eh Zéro blague aucun sarcasme, on a qu'à s'quitter, près d'la rue du Bac J'aimais beaucoup quand on s'promenait, près de l'Avenue du Maine, près des allées humides Fuck off, c'est bon, ça y est j'ai mal You might also like Aquarius pas Gémeaux, est-ce elle que j'entends gémir J'refuse le poste de porte-parole de ceux qu'on entend jamais Fuck off baby on m'entend d'jà pas mal En fait y a rien d'garanti, j'sors tout d'ma poche jusqu'à c'qu'ça d'vienne rentable J'secoue les murs du game jusqu'à c'qu'ça d'vienne bancal, qu'on vienne de Beyrouth ou qu'on vienne de Belgrade Une belle athlète, une belle cadre, deux zéro deux J'tiens à rester dans l'cur d'Paname, ou à défaut dans l'cur d'madame, eh J'vais pas rentrer de suite, c'est fini tu peux garder mes sweat J'te laisse regarder mon feat si tu fais douze squats Pas l'temps d'm'embrouiller sur des trucs tout bêtes Check, c'est fini, eh On aurait rendu malade jusqu'à douze toubibs Du jour au lendemain on a tout stoppé Un rêve, une réalité, une dystopie, t'es fraîche j'aurais dû t'stopper Un album, 19 prods disloquées, 19 chapitres édités via Distrokid Au moins une fois riche on s'ra triste au calme, j'peux pas tout cramer dans palaces, grands hôtels J'ai sans doute manqué d'malice et d'consensus en croyant que t'y avais consenti J'en dis pas plus, le reste les autres s'en tapent Sur l'compte, y avait pas trente-quatre mais douze centimes Le souvenir d'ta présence comme ultime refuge Les draps que j'ai brûlés avec une autre salope, tu vas quand même pas r'faire ta vie avec un autre salaud Eh J'fais c'que j'ai à faire, et j'reviens j't'emmène comme un grand salaud L'incertitude, tu sais qu'ça use, dans l'peu-ra quand t'es l'meilleur tu sais qu'ça bank Ce soir j'vais trinquer aux amours de jeunesse qui s'cassent la gueule Garde mon pull et garde la pêche Ta tête sur mon épaule, c'étaient les dernières larmes, comme un couteau, comme une énième lame Au temps emporte le vent, le vent emporte tout Le temps t'emporte toi, mais dis-moi comment te portes-tu? Est-ce que les relations s'entretiennent quand on, décide de rompre Ma vie c'était un film de cul, notre relation en chaise roulante désacralise l'amour Cupidon il fume des roulées c'grand bâtard, j'l'ai croisé mi-septembre j'l'ai dérouillé Maintenant qu'y a plus personne il faut qu'j'focus J'fais l'tour d'Paname à pied, fuck la Mondeo, la Ford Focus Elle est bonne, fais moi un grand focal, j'vais tout régler avec un grand vocal Y a un passant qui m'fait un sourire, tiens, prends une feuille</t>
+          <t>On revient on vous baise, wAllah Dignity and culture Eh, j'revois ces photos qui traînent, j'essaye de rester focus Quand y a les feu-meu qui craquent, tétanise le public lorsqu'il glousse Baby, tu passeras un salam au S J'aurais pu m'écrouler sans les conseils de Yous' mais Dieu merci le Jacques est fort Eh, un peu d'nous deux dans chaque effort, ni autotune, ni l'moindre FX J'écris en attendant sur tout c'que, le temps efface J'me suis promis une carrière digne des grands, sans manager avec mes couilles mes tripes, que la DA fuck la trap Ah, Voluptyk si j'l'attrape Eh, que la DA fuck la trap Azy, Voluptyk si j'l'attrape Parfois demain, paraît plus loin qu'hier J'aurais mieux fait de te retenir à deux mains J'ai été naïf, j'voulais te redire à demain Faut qu'je nachave, qu'j'me fasse à l'idée qu'tu s'ras pas là demain Finalement, j'irai seul à Saint-Domingue Vivons, léger, rien n'est, fatidique ce sera Oh, eh, oh eh eh Ce soir la nuit s'ra calme faut qu'je bosse, au bar et que j'pète des 100's à dix balles Ca y est bébé, c'est fini, tu m'as dit c'est fade On finit par fatiguer d'maquiller ses fautes Toi, t'en as assez d'camoufler tes plaies J'vois des sourires sur des visages, un horizon derrière l'rivage Prends mon album comme ultime refuge, dès qu'les souvenirs r'font surface En fait, l'amour, c'est surfait C'est Tino qui t'aime, Jacques c'était une surprise, eh Zéro blague aucun sarcasme, on a qu'à s'quitter, près d'la rue du Bac J'aimais beaucoup quand on s'promenait, près de l'Avenue du Maine, près des allées humides Fuck off, c'est bon, ça y est j'ai mal Aquarius pas Gémeaux, est-ce elle que j'entends gémir J'refuse le poste de porte-parole de ceux qu'on entend jamais Fuck off baby on m'entend d'jà pas mal En fait y a rien d'garanti, j'sors tout d'ma poche jusqu'à c'qu'ça d'vienne rentable J'secoue les murs du game jusqu'à c'qu'ça d'vienne bancal, qu'on vienne de Beyrouth ou qu'on vienne de Belgrade Une belle athlète, une belle cadre, deux zéro deux J'tiens à rester dans l'cur d'Paname, ou à défaut dans l'cur d'madame, eh J'vais pas rentrer de suite, c'est fini tu peux garder mes sweat J'te laisse regarder mon feat si tu fais douze squats Pas l'temps d'm'embrouiller sur des trucs tout bêtes Check, c'est fini, eh On aurait rendu malade jusqu'à douze toubibs Du jour au lendemain on a tout stoppé Un rêve, une réalité, une dystopie, t'es fraîche j'aurais dû t'stopper Un album, 19 prods disloquées, 19 chapitres édités via Distrokid Au moins une fois riche on s'ra triste au calme, j'peux pas tout cramer dans palaces, grands hôtels J'ai sans doute manqué d'malice et d'consensus en croyant que t'y avais consenti J'en dis pas plus, le reste les autres s'en tapent Sur l'compte, y avait pas trente-quatre mais douze centimes Le souvenir d'ta présence comme ultime refuge Les draps que j'ai brûlés avec une autre salope, tu vas quand même pas r'faire ta vie avec un autre salaud Eh J'fais c'que j'ai à faire, et j'reviens j't'emmène comme un grand salaud L'incertitude, tu sais qu'ça use, dans l'peu-ra quand t'es l'meilleur tu sais qu'ça bank Ce soir j'vais trinquer aux amours de jeunesse qui s'cassent la gueule Garde mon pull et garde la pêche Ta tête sur mon épaule, c'étaient les dernières larmes, comme un couteau, comme une énième lame Au temps emporte le vent, le vent emporte tout Le temps t'emporte toi, mais dis-moi comment te portes-tu? Est-ce que les relations s'entretiennent quand on, décide de rompre Ma vie c'était un film de cul, notre relation en chaise roulante désacralise l'amour Cupidon il fume des roulées c'grand bâtard, j'l'ai croisé mi-septembre j'l'ai dérouillé Maintenant qu'y a plus personne il faut qu'j'focus J'fais l'tour d'Paname à pied, fuck la Mondeo, la Ford Focus Elle est bonne, fais moi un grand focal, j'vais tout régler avec un grand vocal Y a un passant qui m'fait un sourire, tiens, prends une feuille</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Auditeurs et auditrices de c'rap de merde Fuck off Cques-Ja, c'est un personnage, askip, j'vous baise, rien d'personnel Vingt-quatre heures de sons, un tournage, j'bosse Viens, on profite avant qu'tout l'monde le sache J'pourrais tripler mes stats en un appel devenir une re-sta, c'est sans moi Focus sur les regards qui s'échangent J'reconnais l'bonheur au bruit qu'il fait quand il s'échappe Une veste autour des hanches, quand ses collants s'déchirent À trois-cinquante, la fraise sur son dessert J'ai toujours eu c'que j'désire J'finis l'calu' l'temps qu'elle s'désape Y a KX qui appelle fier de lui, il parait que l'mix est bon J'slalome, on s'téléphone, entre des couples qui s'aiment qui s'pavanent Deuxième album, toujours pas d'bureau, j'dois gratter sur l'pavé Sur un coup de tête, j'te mets sur un cheval blanc Avant qu'tu défiles à Milan pour Gucci Passer t'voir, fuck off, il m'fallait un bon bout d'shit Mais ça m'f'rait un bien d'fou Mais d'abord, y a des concerts, y a des bains d'foule Si j'signe, y a des gains d'fou J'ai plus l'temps d'boire des pintes, plus l'temps d'croire des tains-p' Et souvent, les plus grandes tains-p', c'est la plupart des types S'aimer, c'était la plus grande étape LNSC, PDP, c'est bien plus qu'des 'tapes WAllah, y aura l'physique On bosse dans les pires décors en buvant dans les plus belles 'teilles Et tu fais quoi quand elles sont deux et qu'c'est la plus belle qui taille ? J'reste dehors vu que j'ai nulle part où aller, restons simple, t'étais où ? J'écris sur l'chemin qui mène au stud', ce soir, la nuit sera belle C'est comme un truc que j'sens qu'une fois qu'la lune est pleine You might also like Paris est vide, j'en profite J'suis plus dans l'art que dans l'profit Plus sur Paname qu'sur Deauville Il faut qu'j'écrive, j'fais trois fois l'tour d'la Porte Dauphine Même dans la jungle, y a des règles Gros, belek à tes rêves, uh, belek à tes rêves Plus sur Paname qu'sur Deauville Plus dans l'art qu'dans l'profit Il faut qu'j'écrive Trois fois, j'fais l'tour d'la Porte Dauphine Dans la jungle, y a des règles Gros, belek à tes rêves Il parait qu'c'est pas rentable, un Bercy, on lance un opéra Un verre de Sancerre à treize balles, j'performe Comme un boug qui baise depuis ses treize piges Superstitieux comme Jérôme Rothen, j'arrache toujours la dernière quand j'écris treize pages T'inquiète, quand j'écris, stresse pas L'équipe est digne, t'nez lcoup, fuck Et même après tout ça, j'peux pas prétendre qu'j'ai tout dit Quand j'étais p'tit, on rêvait d'me vicos J'parlerai de ces fils de pute un peu plus tard, là, faut qu'j'rappelle Sony d'puis chez Nico J'dors plus, t'as intérêt à t'lever tôt s'tu veux m'niquer J'peux refaire deux sons en deux heures J'm'en bats les couilles, Jacques ACTU, tu peux leaker Tu peux leaker Paris est vide, j'en profite Plus dans l'art qu'dans l'profit Plus sur Paname qu'sur Deauville Dans la jungle, y a des règles, belek à tes rêves Même dans la jungle, y a des règles Gros, belek à tes rêves Plus sur Paname qu'sur Deauville Plus dans l'art que dans l'profit Même dans la jungle, y a des règles Gros, belek à tes rêves LCS, cques-Ja Fuck off On réédite, on vous embrasse, wAllah PDP, Netflix</t>
+          <t>Auditeurs et auditrices de c'rap de merde Fuck off Cques-Ja, c'est un personnage, askip, j'vous baise, rien d'personnel Vingt-quatre heures de sons, un tournage, j'bosse Viens, on profite avant qu'tout l'monde le sache J'pourrais tripler mes stats en un appel devenir une re-sta, c'est sans moi Focus sur les regards qui s'échangent J'reconnais l'bonheur au bruit qu'il fait quand il s'échappe Une veste autour des hanches, quand ses collants s'déchirent À trois-cinquante, la fraise sur son dessert J'ai toujours eu c'que j'désire J'finis l'calu' l'temps qu'elle s'désape Y a KX qui appelle fier de lui, il parait que l'mix est bon J'slalome, on s'téléphone, entre des couples qui s'aiment qui s'pavanent Deuxième album, toujours pas d'bureau, j'dois gratter sur l'pavé Sur un coup de tête, j'te mets sur un cheval blanc Avant qu'tu défiles à Milan pour Gucci Passer t'voir, fuck off, il m'fallait un bon bout d'shit Mais ça m'f'rait un bien d'fou Mais d'abord, y a des concerts, y a des bains d'foule Si j'signe, y a des gains d'fou J'ai plus l'temps d'boire des pintes, plus l'temps d'croire des tains-p' Et souvent, les plus grandes tains-p', c'est la plupart des types S'aimer, c'était la plus grande étape LNSC, PDP, c'est bien plus qu'des 'tapes WAllah, y aura l'physique On bosse dans les pires décors en buvant dans les plus belles 'teilles Et tu fais quoi quand elles sont deux et qu'c'est la plus belle qui taille ? J'reste dehors vu que j'ai nulle part où aller, restons simple, t'étais où ? J'écris sur l'chemin qui mène au stud', ce soir, la nuit sera belle C'est comme un truc que j'sens qu'une fois qu'la lune est pleine Paris est vide, j'en profite J'suis plus dans l'art que dans l'profit Plus sur Paname qu'sur Deauville Il faut qu'j'écrive, j'fais trois fois l'tour d'la Porte Dauphine Même dans la jungle, y a des règles Gros, belek à tes rêves, uh, belek à tes rêves Plus sur Paname qu'sur Deauville Plus dans l'art qu'dans l'profit Il faut qu'j'écrive Trois fois, j'fais l'tour d'la Porte Dauphine Dans la jungle, y a des règles Gros, belek à tes rêves Il parait qu'c'est pas rentable, un Bercy, on lance un opéra Un verre de Sancerre à treize balles, j'performe Comme un boug qui baise depuis ses treize piges Superstitieux comme Jérôme Rothen, j'arrache toujours la dernière quand j'écris treize pages T'inquiète, quand j'écris, stresse pas L'équipe est digne, t'nez lcoup, fuck Et même après tout ça, j'peux pas prétendre qu'j'ai tout dit Quand j'étais p'tit, on rêvait d'me vicos J'parlerai de ces fils de pute un peu plus tard, là, faut qu'j'rappelle Sony d'puis chez Nico J'dors plus, t'as intérêt à t'lever tôt s'tu veux m'niquer J'peux refaire deux sons en deux heures J'm'en bats les couilles, Jacques ACTU, tu peux leaker Tu peux leaker Paris est vide, j'en profite Plus dans l'art qu'dans l'profit Plus sur Paname qu'sur Deauville Dans la jungle, y a des règles, belek à tes rêves Même dans la jungle, y a des règles Gros, belek à tes rêves Plus sur Paname qu'sur Deauville Plus dans l'art que dans l'profit Même dans la jungle, y a des règles Gros, belek à tes rêves LCS, cques-Ja Fuck off On réédite, on vous embrasse, wAllah PDP, Netflix</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ouais, mon kho, j'sais, elle t'manque Fuck, on m'tire dessus depuis qu'j'ai les couilles d'être moi Elle, elle veut t'protéger, elle t'ment Eux, ils rêveraient d'être nous 22-23, en voulant l'sauver, j'l'ai sauté, l'rap FR Et sur la vie d'ma mère, j'aimerais pas être en face Y a aucune pute qui parle dans mon dos qui est venue me l'dire en face Aucune Aucune, aucune, aucune Tu pourras jamais t'ls faire sans qu'le débat s'ouvre L débat s'ouvre, le débat s'ouvre Prends mes paillettes si t'es incapable de prendre le trône Babe, démarre le Tesla, j'finis le stud', j'peux plus prendre le tro-m' Le statut, il a changé Remets-nous l'Sancerre, j't'ai senti insensible On aurait pu vivre d'eau fraîche et d'Sacem Mais nique sa mère Nique sa mère, nique sa mère, nique sa mère Mais j'sais, elle t'manque Nique sa mère J'sais, elle t'manque J'sais, elle t'manque, j'sais, elle t'manque, j'sais, elle t'manque Mais nique sa mère Nique sa mère, nique sa mère, nique sa mère Mais j'sais, elle t'manque Nique sa mère J'sais, elle t'manque J'sais, elle t'manque, j'sais, elle t'manque, j'sais, elle t'manque You might also like Eh, pétasse, j'aurais pu tout mettre à ton nom J'commence à pe-ra suivi par vingt-cinq pèlerins et mon ombre Pas assez niais pour vous dire Aimons-nous Une fois qu'tu perces, tu d'viens plus humble Sinon, espèce de hmar, tu vois plus rien, fuck off J'blindais des salles en refusant de croire qu'ils étaient là pour oi-m On faisait des vux en j'tant dans les fontaines c'qu'on nous laissait même pas en pourboire Et dire que de base j'voulais rien sortir, eh J'veux plus voir le daron en classe économique Si t'aimes pas, unfollow me 22-23 mais té-ma l'phénomène J'voulais vous faire du sale Remercie Dieu, elles nous ont bien élevés, nos mères Quand ta carrière tient à des feats, tu fermes ta gueule J'étais pas entouré, j'étais seul comme rat des villes Moi, c'est pas j'aime pas, c'est juste j'm'en bats les couilles Moi, c'est pas j'aime pas, c'est juste j'm'en bats les couilles Nique sa mère Nique sa mère, nique sa mère, nique sa mère Mais j'sais, elle t'manque Nique sa mère J'sais, elle t'manque J'sais, elle t'manque, j'sais, elle t'manque, j'sais, elle t'manque Mais nique sa mère Nique sa mère, nique sa mère, nique sa mère Mais j'sais, elle t'manque Nique sa mère J'sais, elle t'manque J'sais, elle t'manque, j'sais, elle t'manque, j'sais, elle t'manque Si j'me lâchais sur des notes plus ternes Est-ce que j'fais face à moi ou à un autre putain ? J'ai encore pris une somme folle pour d'autres bêtises Décore l'armoire avec des 'teilles qu'on n'a pas l'temps d'vider On a mis l'argent du pe-ra dans des lofts J'ai mis sur l'bum-al c'que j'aurais dû foutre dans des livres Babe, on s'revoit dans dix lignes Twins', mets du délai Mets du délai, mets du délai Elle avait mon nom au bout d'ses lèvres On voulait vivre d'art, on a dû être célèbre Viens, on arrête d'leur dire qu'on est deux quand on est seuls Fais l'tour d'la ville s'il est tard Des textes à 200 dans l'Goyard Pérennise un terrain NBOW, c'est pas une boîte d'intérim Gros, y a d'l'argent qui dort</t>
+          <t>Ouais, mon kho, j'sais, elle t'manque Fuck, on m'tire dessus depuis qu'j'ai les couilles d'être moi Elle, elle veut t'protéger, elle t'ment Eux, ils rêveraient d'être nous 22-23, en voulant l'sauver, j'l'ai sauté, l'rap FR Et sur la vie d'ma mère, j'aimerais pas être en face Y a aucune pute qui parle dans mon dos qui est venue me l'dire en face Aucune Aucune, aucune, aucune Tu pourras jamais t'ls faire sans qu'le débat s'ouvre L débat s'ouvre, le débat s'ouvre Prends mes paillettes si t'es incapable de prendre le trône Babe, démarre le Tesla, j'finis le stud', j'peux plus prendre le tro-m' Le statut, il a changé Remets-nous l'Sancerre, j't'ai senti insensible On aurait pu vivre d'eau fraîche et d'Sacem Mais nique sa mère Nique sa mère, nique sa mère, nique sa mère Mais j'sais, elle t'manque Nique sa mère J'sais, elle t'manque J'sais, elle t'manque, j'sais, elle t'manque, j'sais, elle t'manque Mais nique sa mère Nique sa mère, nique sa mère, nique sa mère Mais j'sais, elle t'manque Nique sa mère J'sais, elle t'manque J'sais, elle t'manque, j'sais, elle t'manque, j'sais, elle t'manque Eh, pétasse, j'aurais pu tout mettre à ton nom J'commence à pe-ra suivi par vingt-cinq pèlerins et mon ombre Pas assez niais pour vous dire Aimons-nous Une fois qu'tu perces, tu d'viens plus humble Sinon, espèce de hmar, tu vois plus rien, fuck off J'blindais des salles en refusant de croire qu'ils étaient là pour oi-m On faisait des vux en j'tant dans les fontaines c'qu'on nous laissait même pas en pourboire Et dire que de base j'voulais rien sortir, eh J'veux plus voir le daron en classe économique Si t'aimes pas, unfollow me 22-23 mais té-ma l'phénomène J'voulais vous faire du sale Remercie Dieu, elles nous ont bien élevés, nos mères Quand ta carrière tient à des feats, tu fermes ta gueule J'étais pas entouré, j'étais seul comme rat des villes Moi, c'est pas j'aime pas, c'est juste j'm'en bats les couilles Moi, c'est pas j'aime pas, c'est juste j'm'en bats les couilles Nique sa mère Nique sa mère, nique sa mère, nique sa mère Mais j'sais, elle t'manque Nique sa mère J'sais, elle t'manque J'sais, elle t'manque, j'sais, elle t'manque, j'sais, elle t'manque Mais nique sa mère Nique sa mère, nique sa mère, nique sa mère Mais j'sais, elle t'manque Nique sa mère J'sais, elle t'manque J'sais, elle t'manque, j'sais, elle t'manque, j'sais, elle t'manque Si j'me lâchais sur des notes plus ternes Est-ce que j'fais face à moi ou à un autre putain ? J'ai encore pris une somme folle pour d'autres bêtises Décore l'armoire avec des 'teilles qu'on n'a pas l'temps d'vider On a mis l'argent du pe-ra dans des lofts J'ai mis sur l'bum-al c'que j'aurais dû foutre dans des livres Babe, on s'revoit dans dix lignes Twins', mets du délai Mets du délai, mets du délai Elle avait mon nom au bout d'ses lèvres On voulait vivre d'art, on a dû être célèbre Viens, on arrête d'leur dire qu'on est deux quand on est seuls Fais l'tour d'la ville s'il est tard Des textes à 200 dans l'Goyard Pérennise un terrain NBOW, c'est pas une boîte d'intérim Gros, y a d'l'argent qui dort</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tino, elle m'dit trois fois oui En fait 24 carats c'était que 3x8 hey Money Time, trois points switch Bonnie Clyde, trois pintes, cuite Elle a l'il sur mon cadrant suisse Jeune actionnaire, bientôt cadre en Suisse Toi c'était Grey Goose, moi j'étais Whisky à sec hein Comme dirait l'autre, j'reste debout, j'fais ma p'tite place On a toujours eu des couilles, on a pas toujours eu des p'tites liasses Elle nous préfère sans doute dans des p'tites J'voulais m'entourer J'me suis entouré, d'leaders, d'jeunes patrons yeah J'suis venu distribuer des middles sur les jeunes garçons hey J'fais mon entrée comme leader sous pleine passion Du poids sur mes épaules et peu d'patience Le plafond, me tombe sur la tête j'en veux pas d'ta science J'ai mal au pe-ra, j'étais à deux doigts d'crier Vive la trance Cône dans la boca comme d'hab J'ai besoin d'un avocat comme Jacques Trop loin jattends plus qu'elle come back Grosse tchoin, gros joint, roule et coupe le contact Donc baby, j'arrive en balle Discret, malicieux comme trafiquant d'armes J'demande pardon à Dieu, à mes rents-pa J'ai la tête dans les cieux comme Willy Wonka You might also like Me parle pas d'amour si c'est pas pour l'faire si c'est pas pour l'faire Cigarette à la bouche après quelques verres J'ai gardé d'la fougue pour que les rôles s'inversent J'en ai plus rien à foutre que le blues m'atteigne Où étiez vous quand Tino n'était qu'une maquette ? Il nous d'mandes, ça passe Vérité a ses vertus, tu d'mandes ça cash Le gars qui s'est perdu se fait prendre sa place Fais pas cette tête, viens, prends la digéré bien vite 12 messages vocaux, trop désirer un feat Faut créer l'pogo quand ils attendent un beat Frapper dans la lucarne quand ils soudoient l'arbitre Pleure, comme le ciel qui s'cache L'soir d'vant les keufs 'y a des caisses qui s'crashent 'Y a des frères qui s'lâchent Face au plafond d'verre en plexiglass Et si seulement j'avais su, y aurait pas de Qu'est-ce qui s'passe ? Tu r'gardes passer l'Aston tu dis Qu'est ce qui brasse On dit pas s'qu'on ves-qui, on dit pas s'qu'on cache Il ramasse son veston, ramasse son cash On dit pas s'qu'on ves-qui, on dit pas s'qu'on cache Non, monsieur l'agent, c'est pas un pète mais c'est juste une clope Non, bébé c'est pas une pute mais c'est juste une pote À mon arc, moi j'ai plus qu'une corde À ton âge, j'aurai plus qu'une Ford Pur sang, arabe assure plus qu'une cote Pur sans tabac, tu d'viens plus qu'une pote Profondeur de mes phrases caresse plus qu'une glotte Me parle pas d'amour si c'est pas pour l'faire pas pour l'faire Cigarette à la bouche après quelques verres J'ai gardé d'la fougue pour que les rôles s'inversent J'en ai plus rien à foutre que le blues m'atteigne Où étiez vous quand Tino n'était qu'une maquette ? Tino, elle m'dit trois fois oui Trois fois oui Tino, elle m'dit trois fois oui Trois fois oui</t>
+          <t>Tino, elle m'dit trois fois oui En fait 24 carats c'était que 3x8 hey Money Time, trois points switch Bonnie Clyde, trois pintes, cuite Elle a l'il sur mon cadrant suisse Jeune actionnaire, bientôt cadre en Suisse Toi c'était Grey Goose, moi j'étais Whisky à sec hein Comme dirait l'autre, j'reste debout, j'fais ma p'tite place On a toujours eu des couilles, on a pas toujours eu des p'tites liasses Elle nous préfère sans doute dans des p'tites J'voulais m'entourer J'me suis entouré, d'leaders, d'jeunes patrons yeah J'suis venu distribuer des middles sur les jeunes garçons hey J'fais mon entrée comme leader sous pleine passion Du poids sur mes épaules et peu d'patience Le plafond, me tombe sur la tête j'en veux pas d'ta science J'ai mal au pe-ra, j'étais à deux doigts d'crier Vive la trance Cône dans la boca comme d'hab J'ai besoin d'un avocat comme Jacques Trop loin jattends plus qu'elle come back Grosse tchoin, gros joint, roule et coupe le contact Donc baby, j'arrive en balle Discret, malicieux comme trafiquant d'armes J'demande pardon à Dieu, à mes rents-pa J'ai la tête dans les cieux comme Willy Wonka Me parle pas d'amour si c'est pas pour l'faire si c'est pas pour l'faire Cigarette à la bouche après quelques verres J'ai gardé d'la fougue pour que les rôles s'inversent J'en ai plus rien à foutre que le blues m'atteigne Où étiez vous quand Tino n'était qu'une maquette ? Il nous d'mandes, ça passe Vérité a ses vertus, tu d'mandes ça cash Le gars qui s'est perdu se fait prendre sa place Fais pas cette tête, viens, prends la digéré bien vite 12 messages vocaux, trop désirer un feat Faut créer l'pogo quand ils attendent un beat Frapper dans la lucarne quand ils soudoient l'arbitre Pleure, comme le ciel qui s'cache L'soir d'vant les keufs 'y a des caisses qui s'crashent 'Y a des frères qui s'lâchent Face au plafond d'verre en plexiglass Et si seulement j'avais su, y aurait pas de Qu'est-ce qui s'passe ? Tu r'gardes passer l'Aston tu dis Qu'est ce qui brasse On dit pas s'qu'on ves-qui, on dit pas s'qu'on cache Il ramasse son veston, ramasse son cash On dit pas s'qu'on ves-qui, on dit pas s'qu'on cache Non, monsieur l'agent, c'est pas un pète mais c'est juste une clope Non, bébé c'est pas une pute mais c'est juste une pote À mon arc, moi j'ai plus qu'une corde À ton âge, j'aurai plus qu'une Ford Pur sang, arabe assure plus qu'une cote Pur sans tabac, tu d'viens plus qu'une pote Profondeur de mes phrases caresse plus qu'une glotte Me parle pas d'amour si c'est pas pour l'faire pas pour l'faire Cigarette à la bouche après quelques verres J'ai gardé d'la fougue pour que les rôles s'inversent J'en ai plus rien à foutre que le blues m'atteigne Où étiez vous quand Tino n'était qu'une maquette ? Tino, elle m'dit trois fois oui Trois fois oui Tino, elle m'dit trois fois oui Trois fois oui</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dignity and culture Un, deux et fuck off Cest même pas fini mais ça commence Cest pas le Jacques cest une romance Fuck off On réédite on vous baise wAllah Une nuit dété pendant laquelle jme cherche Jdois prendre un peu de largent dNBOW pour partir seul Avec moi jai pris quelques prods et quelques teilles Jréecris Poésie dune pulsion dans une chambre dhôtel LNSC a fait plusieurs otages NBOW Records sur plusieurs étages Jtravaille sur divers projets Jai r'fusé d'mettre ma belle gueule sur plusieurs pochettes Mais quest ce qui mreste si ce nest une plume et deux ou trois principes On va pas reparler d'business Jcrois que tout le monde a capté Que cest moi qui injecte Jai du talent depuis que jle travaille Le charisme, on en parle pas, on le dégage Fuck off Si taimes pas cest simple gros tu dégages La solitude cest quand tu peux bouffer ce que tu veux mais que personne peut taider si tavales de travers À défaut des sentiments, les balles ttraversent Jhésite à mabriter, le temps de laverse Parfois jme trouve naïf, dès demain jressers la vis Et fuck la poésie en fait jsuis comme tout le monde jai juste envie de lâcher des baise ta mère Et au fait je m'appelle Jacques parce que c'était déjà pris Nique Ta Mère Jcrois que ten veux aux autres hein Ya des tombes sur lesquelles jirais verser du black Bird Sky Et jrevois le film de tout ce que jai fait sur un coup dtête Il me reste 10 pages à écrire et peu dtabac Je tai vu tapprocher avec un semblant dempathie Fuck off la qualité a un coût donc jen pâtis De moins en moins de liberté comme en 14 Cet été jdois hiberner pour en ressortir quatorze Des cernes depuis 2014 Jai pas eu besoin du peu-ra pour me faire des frappes Et depuis trois volumes, trois paires de baffes J'lève la tête Jprends sur moi pour pas regarder sa paire de fesses Merde et pourquoi je te parle de ça ? Méfie toi de la bouteille quand elle te rend si saoul On la fait avec trois francs, six sous Et un nom dscène francisé Le temps quil reconstruise Beyrouth jirais jusquen Sicile ou pas Les yeux dans le vide, les yeux vers loin dici Tinquiète cest pas grave, on a le droit dêtre indécis Mais cest ta faute enfoiré si tes un imbécile Et toi t'es un grand trou d'balle hein Et je me demande déjà si ça vaut le coup encore que je me casse la tête Jai fais des dégâts à des gows et des gars Y a plus grand monde à té-cô Jai déco le phone-tel On sretrouve à De Pijp, on part vers lVondel On part vers l'Vondel On sretrouve vers De Pijp, on part vers lVondel You might also like LNSC cest que la première brique Il mreste plusieurs étapes Elle est bonne la première prise Pour déstresser jen refais quatre En vrai mais quai-je à leur envier? Le seul mérite que jai cest celui dêtre parti Sans être sûr de revenir entier Et faut pas croire le trou dballe qui avant mon peu-cli va tapprendre en six étapes comment devenir rentier Mais cest comme ça on est tous les mêmes Fuck off Mon premier mérite cest celui dêtre pas comme eux Mon second dêtre peu commun Et mon dernier dêtre peu connu1</t>
+          <t>Dignity and culture Un, deux et fuck off Cest même pas fini mais ça commence Cest pas le Jacques cest une romance Fuck off On réédite on vous baise wAllah Une nuit dété pendant laquelle jme cherche Jdois prendre un peu de largent dNBOW pour partir seul Avec moi jai pris quelques prods et quelques teilles Jréecris Poésie dune pulsion dans une chambre dhôtel LNSC a fait plusieurs otages NBOW Records sur plusieurs étages Jtravaille sur divers projets Jai r'fusé d'mettre ma belle gueule sur plusieurs pochettes Mais quest ce qui mreste si ce nest une plume et deux ou trois principes On va pas reparler d'business Jcrois que tout le monde a capté Que cest moi qui injecte Jai du talent depuis que jle travaille Le charisme, on en parle pas, on le dégage Fuck off Si taimes pas cest simple gros tu dégages La solitude cest quand tu peux bouffer ce que tu veux mais que personne peut taider si tavales de travers À défaut des sentiments, les balles ttraversent Jhésite à mabriter, le temps de laverse Parfois jme trouve naïf, dès demain jressers la vis Et fuck la poésie en fait jsuis comme tout le monde jai juste envie de lâcher des baise ta mère Et au fait je m'appelle Jacques parce que c'était déjà pris Nique Ta Mère Jcrois que ten veux aux autres hein Ya des tombes sur lesquelles jirais verser du black Bird Sky Et jrevois le film de tout ce que jai fait sur un coup dtête Il me reste 10 pages à écrire et peu dtabac Je tai vu tapprocher avec un semblant dempathie Fuck off la qualité a un coût donc jen pâtis De moins en moins de liberté comme en 14 Cet été jdois hiberner pour en ressortir quatorze Des cernes depuis 2014 Jai pas eu besoin du peu-ra pour me faire des frappes Et depuis trois volumes, trois paires de baffes J'lève la tête Jprends sur moi pour pas regarder sa paire de fesses Merde et pourquoi je te parle de ça ? Méfie toi de la bouteille quand elle te rend si saoul On la fait avec trois francs, six sous Et un nom dscène francisé Le temps quil reconstruise Beyrouth jirais jusquen Sicile ou pas Les yeux dans le vide, les yeux vers loin dici Tinquiète cest pas grave, on a le droit dêtre indécis Mais cest ta faute enfoiré si tes un imbécile Et toi t'es un grand trou d'balle hein Et je me demande déjà si ça vaut le coup encore que je me casse la tête Jai fais des dégâts à des gows et des gars Y a plus grand monde à té-cô Jai déco le phone-tel On sretrouve à De Pijp, on part vers lVondel On part vers l'Vondel On sretrouve vers De Pijp, on part vers lVondel LNSC cest que la première brique Il mreste plusieurs étapes Elle est bonne la première prise Pour déstresser jen refais quatre En vrai mais quai-je à leur envier? Le seul mérite que jai cest celui dêtre parti Sans être sûr de revenir entier Et faut pas croire le trou dballe qui avant mon peu-cli va tapprendre en six étapes comment devenir rentier Mais cest comme ça on est tous les mêmes Fuck off Mon premier mérite cest celui dêtre pas comme eux Mon second dêtre peu commun Et mon dernier dêtre peu connu1</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Check Quand les larmes coulent des yeux d'un homme qui taffe PDP, c'est le braquage d'un Don Quichotte Kho, quand on m'baise, j'anticipe Ça fait longtemps que je suis plus un gentil gars J'baise les gens qui rabaissent, j'envie ceux qui ramassent Soir-ce, on baise sur du Lana J'renvoie l'rouge s'il est trop tanique Ciao baby en fait c'est mieux ça-comme C'est rien, c'est juste un coeur qui csse de battre J'mts tout il m'reste deux bat', l'mektoub, ça se v'-esqui pas J'mets tout il m'reste deux bat', l'mektoub ça se ves-qui pas Ciao, bébé, en fait, c'est mieux ça-comme Hey, Fuck off, c'est pas du russe Putain, en fait j'vais p't-être prendre un Urus Hey, moi, j'l'ai vu, de base, c'était pour pas s'faire comprendre qu'on vous parlait en arabe J'lance un café soluble, lâchez les colombes En voilà un qui a fait son île, un whisky a fait son âge J'suis pas paro, regarde c'qu'a fait Universal à Solaar Askip, il s'alcoolise Faut r'mettre d'la gasoline J'ai pas l'génie de Nolan Menace de mort comme celle d'Youss à Zemmour J'me retiens de me griller Je sens qu'vous m'donnez de la force J'écrase ma clope, j'fais des pompes Y a des concerts, j'dois r'trouver la forme Faut p't-être que j'pionce Mon dieu qu'elle est niaise Encore une peine qu'un flow éteint You might also like Est-ce qu'on serait pas heureux si on était niais ? Pour que les étoiles s'allument faut que tout s'éteigne Où trouves-tu tous ces termes ? C'est comme une bouffée d'air C'est comme un excès d'âme J'vais signer, envoyer les masters et m'barrer en Hollande Tu crois qu'j'ai du talent, j'crois qu'faut qu'tu t'alignes J'ai racheté du taga à neuf heures J'suis au café on discute d'l'Ukraine, du Mali, Kiev à Bamako, hey Elle aime beaucoup Karim, l'autre elle aime beaucoup Nadal Algérienne Espagnol, Hamdoullah de nada À quinze ans, j'vois les vitrines, collecte J'appelle la daronne, elle capte pas J'lui donne les prix, elle capte pas La vision d'un homme ne s'élève pas avec les ailes d'un autre Fuck off, c'est pas du russe Que Dieu nous guide, guide, guide Que Dieu nous guide, guide, guide Que Dieu nous guide Ambitieux depuis kid Meneur comme Jason Kidd Cudi Jour et nuit big booty Pour ma presta' que d'la cheese Bouddha Je t'aime n'est pas sain sans un Ciao puta Hey, c'est l'cques-J', c'est pas Léonard Quand les larmes coulent des yeux d'un homme qui taffe PDP, c'est le braquage d'un Don Quichotte</t>
+          <t>Check Quand les larmes coulent des yeux d'un homme qui taffe PDP, c'est le braquage d'un Don Quichotte Kho, quand on m'baise, j'anticipe Ça fait longtemps que je suis plus un gentil gars J'baise les gens qui rabaissent, j'envie ceux qui ramassent Soir-ce, on baise sur du Lana J'renvoie l'rouge s'il est trop tanique Ciao baby en fait c'est mieux ça-comme C'est rien, c'est juste un coeur qui csse de battre J'mts tout il m'reste deux bat', l'mektoub, ça se v'-esqui pas J'mets tout il m'reste deux bat', l'mektoub ça se ves-qui pas Ciao, bébé, en fait, c'est mieux ça-comme Hey, Fuck off, c'est pas du russe Putain, en fait j'vais p't-être prendre un Urus Hey, moi, j'l'ai vu, de base, c'était pour pas s'faire comprendre qu'on vous parlait en arabe J'lance un café soluble, lâchez les colombes En voilà un qui a fait son île, un whisky a fait son âge J'suis pas paro, regarde c'qu'a fait Universal à Solaar Askip, il s'alcoolise Faut r'mettre d'la gasoline J'ai pas l'génie de Nolan Menace de mort comme celle d'Youss à Zemmour J'me retiens de me griller Je sens qu'vous m'donnez de la force J'écrase ma clope, j'fais des pompes Y a des concerts, j'dois r'trouver la forme Faut p't-être que j'pionce Mon dieu qu'elle est niaise Encore une peine qu'un flow éteint Est-ce qu'on serait pas heureux si on était niais ? Pour que les étoiles s'allument faut que tout s'éteigne Où trouves-tu tous ces termes ? C'est comme une bouffée d'air C'est comme un excès d'âme J'vais signer, envoyer les masters et m'barrer en Hollande Tu crois qu'j'ai du talent, j'crois qu'faut qu'tu t'alignes J'ai racheté du taga à neuf heures J'suis au café on discute d'l'Ukraine, du Mali, Kiev à Bamako, hey Elle aime beaucoup Karim, l'autre elle aime beaucoup Nadal Algérienne Espagnol, Hamdoullah de nada À quinze ans, j'vois les vitrines, collecte J'appelle la daronne, elle capte pas J'lui donne les prix, elle capte pas La vision d'un homme ne s'élève pas avec les ailes d'un autre Fuck off, c'est pas du russe Que Dieu nous guide, guide, guide Que Dieu nous guide, guide, guide Que Dieu nous guide Ambitieux depuis kid Meneur comme Jason Kidd Cudi Jour et nuit big booty Pour ma presta' que d'la cheese Bouddha Je t'aime n'est pas sain sans un Ciao puta Hey, c'est l'cques-J', c'est pas Léonard Quand les larmes coulent des yeux d'un homme qui taffe PDP, c'est le braquage d'un Don Quichotte</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brevis G Phénix Phénix Eh, sept peufs, une semaine Let's go Si j'grattais l'texte d'une vie dès ce soir Il reste sept sons à rentrer, chaque mot d'vient décisif Tas l'air confiant, t'es sur un siège Claque la porte, quitte ça C'est l'cques-Ja qui t'parle, 2k22 j'arrête de compter les pertes J'irai enfiler les perles dès qu'PDP s'achève Ah putain, s'ils savaient Restons formels, j'réponds par si ça va, y'a 200k sur bl-ta J'ai pas quitté la zone, y'a l'Sale qui m'appell Indignité et culture, il a bloqué les pistes À trois semaines d'la release, arrêter l'cques-Ja, impossible Quitte à ce que vous vous comportiez comme des putes Vous allez m'voir bé-ton, merci d'avoir fait d'moi une putain d'machine Fuck off, regarde où j'en suis, imagine c'que t'aurais pu faire J'supprime cinq sons, j'en refais dix, Océan Sonore, c'était prophétique You might also like Ce soir, j'suis peu bavard, encore un livre dans l'quel tu peux pas lire Derrière moi, j'ai plus personne depuis qu'j'ai plus Palo Quand t'aimes vraiment quelqu'un, tu l'laisses partir L'gamin qu'j'étais il savait, mais y s'doutait pas J'parle plus aux fils de pute, j'me referme à tout débat L'gamin qu'j'étais il savait, il s'doutait pas J'parle plus aux fils de pute, j'me referme à tout débat À deux doigts d'tout baiser, j'en ai oublié l'plaisir Avant, on baisait sur des mix Marie Plassard, après, j'suis devenu busy, ça s'est fini, j't'ai pas remplacée J'double les postes, j'fais jouer des remplaçants qui s'avèrent décisifs Tu t'souviens, l'bateau à Disney, j'croyais qu'il partait vers l'Tennessee À deux doigts de tout baiser, j'en ai oublié l'plaisir Avant, on baisait sur Marie Plassard, ensuite, j'suis devenu busy, ça s'est fini, j't'ai même pas remplacée J'double les postes, j'fais jouer des remplaçants qui s'avèrent décisifs Tu t'souviens, l'bateau à Disney, j'croyais qu'il partait vers l'Tennessee J'brûle, ça fait beaucoup d'gaz délaissé Une semaine sabotée changement d'DJ, Izen, il s'est fait péter le MSI Si tu veux en vivre, faut aimer ça J'en peux plus des appels, j'en peux plus des messages J'ai investi, j'ai pas attendu d'mécène Sans reverb, sans delay, d'la ppe-fra dans l'denim, Carhartt J'bosse, j'peux plus t'cala, j'écris, j'finis l'calu' Capuché, ppe-fra d'Cali que d'la frappe J'double les postes, j'fais jouer des remplaçants qui s'avèrent décisifs Tu t'souviens, l'bateau à Disney, j'croyais qu'il partait vers l'Tennessee À deux doigts de tout baiser, j'en ai oublié l'plaisir J'parle plus aux fils de pute, j'me referme à tout débat L'gamin qu'j'étais, il savait, mais y s'doutait pas Tu t'souviens, l'bateau à Disney, j'croyais qu'il partait vers l'Tennessee J'brûle, ça fait beaucoup d'gaz délaissé Semaine sabotée Changement d'DJ Si tu veux en vivre, faut aimer ça</t>
+          <t>Brevis G Phénix Phénix Eh, sept peufs, une semaine Let's go Si j'grattais l'texte d'une vie dès ce soir Il reste sept sons à rentrer, chaque mot d'vient décisif Tas l'air confiant, t'es sur un siège Claque la porte, quitte ça C'est l'cques-Ja qui t'parle, 2k22 j'arrête de compter les pertes J'irai enfiler les perles dès qu'PDP s'achève Ah putain, s'ils savaient Restons formels, j'réponds par si ça va, y'a 200k sur bl-ta J'ai pas quitté la zone, y'a l'Sale qui m'appell Indignité et culture, il a bloqué les pistes À trois semaines d'la release, arrêter l'cques-Ja, impossible Quitte à ce que vous vous comportiez comme des putes Vous allez m'voir bé-ton, merci d'avoir fait d'moi une putain d'machine Fuck off, regarde où j'en suis, imagine c'que t'aurais pu faire J'supprime cinq sons, j'en refais dix, Océan Sonore, c'était prophétique Ce soir, j'suis peu bavard, encore un livre dans l'quel tu peux pas lire Derrière moi, j'ai plus personne depuis qu'j'ai plus Palo Quand t'aimes vraiment quelqu'un, tu l'laisses partir L'gamin qu'j'étais il savait, mais y s'doutait pas J'parle plus aux fils de pute, j'me referme à tout débat L'gamin qu'j'étais il savait, il s'doutait pas J'parle plus aux fils de pute, j'me referme à tout débat À deux doigts d'tout baiser, j'en ai oublié l'plaisir Avant, on baisait sur des mix Marie Plassard, après, j'suis devenu busy, ça s'est fini, j't'ai pas remplacée J'double les postes, j'fais jouer des remplaçants qui s'avèrent décisifs Tu t'souviens, l'bateau à Disney, j'croyais qu'il partait vers l'Tennessee À deux doigts de tout baiser, j'en ai oublié l'plaisir Avant, on baisait sur Marie Plassard, ensuite, j'suis devenu busy, ça s'est fini, j't'ai même pas remplacée J'double les postes, j'fais jouer des remplaçants qui s'avèrent décisifs Tu t'souviens, l'bateau à Disney, j'croyais qu'il partait vers l'Tennessee J'brûle, ça fait beaucoup d'gaz délaissé Une semaine sabotée changement d'DJ, Izen, il s'est fait péter le MSI Si tu veux en vivre, faut aimer ça J'en peux plus des appels, j'en peux plus des messages J'ai investi, j'ai pas attendu d'mécène Sans reverb, sans delay, d'la ppe-fra dans l'denim, Carhartt J'bosse, j'peux plus t'cala, j'écris, j'finis l'calu' Capuché, ppe-fra d'Cali que d'la frappe J'double les postes, j'fais jouer des remplaçants qui s'avèrent décisifs Tu t'souviens, l'bateau à Disney, j'croyais qu'il partait vers l'Tennessee À deux doigts de tout baiser, j'en ai oublié l'plaisir J'parle plus aux fils de pute, j'me referme à tout débat L'gamin qu'j'étais, il savait, mais y s'doutait pas Tu t'souviens, l'bateau à Disney, j'croyais qu'il partait vers l'Tennessee J'brûle, ça fait beaucoup d'gaz délaissé Semaine sabotée Changement d'DJ Si tu veux en vivre, faut aimer ça</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hier j't'ai stalké, j'ai vu qu't'écartais les jambes Eh ouais, t'écartais les jambes Hier j't'ai stalké, j'ai vu qu't'écartais les jambes Mais là j'dois tout casser, putain c'était beau Cassis Babe, j't'ai vu faire l'tour et puis t'zipper ta veste Grünt d'or, la dernière fois vous nous voyez à deux J'donne tout de base c'était qu'un rêve Quand les brunes elles parlent espagnol, ça me rappelle toi Peut-être tu baises avec un autre mais ma3lich allez rappelle-toi Y'a des phass qui font plus mal que d'autres J'ai jeté l lit qu'on a cassé, fait les streams depuis qu'on a cassé Fuck le love, mais là j'dois tout casser Putain c'était beau Cassis, écrire j'suis bon qu'à ça PDP un cahier qui vaut un Urus, un Cayenne Je l'ai écrit quand il caillait Trois jours après LNSC y'a RF J'finis l'calu dans la chambre d'hôtel, avant d'l'aérer Si tu veux écrire faut galérer Le bum-al je l'ai fini sur Paname, demain sur un coup de tête aux Baléares Du whisky sans cola, sinon j'deviens bucolique On est frais, j'me refais Vendredi c'est Hennessy C'est pas l'album mature mais celui dans lequel il m'reste d'l'innocence J'vais pas t'la faire tu connais l'chanson Le coupable est innocent Hier j'ai craqué, je t'ai stalké, j'ai vu qu't'écartais les jambes C'est soit il te manque des DMs, soit que t'étais ivre J'nous souhaite d'l'amour mais pas ensemble J'écris mieux, quand on n'est pas ensemble C'est réel, sans mise en scène, de base j'étais pas sensible Ce soir les rues sont pleines, la nuit sera courte, mais belle Babe tu sais qu'j'les aime, avec du charme Dans l'tabac, y'a du shit, j'vais m'ranger comme Dushane Sur l'prochain, j'vais chanter comme 2 Chainz et glisser Ox' dessus You might also like PDP 2 comme des tox dessus Qui aurait cru qu'on pouvait, vivre de ça KX, revois les mixs de ça Wesh le cques-j, c'est quand qu'tu signes Il est tard, je l'sais que tu sers Y'a l'batteur qui est fonce-dé, au shit Dites à OB qu'y aura pas d'type JuL Sur la prod comme un jeune tchétchène, 2-2-2 rallume un grand pétard 2, 0-2-7, j'prends la présidence C'tait pas la même quand j'l'ai connue, ils s'souviennent de ta valeur que une fois qu't'arrêtes d'les cala Rares, sont ceux qui m'ont vu à deux Elle, elle m'lâche des r'gards Jacques Brel du Liban c'est un bad boy d'Beyrouth et il t'baise ta mère Jacques Brel du Liban c'est un bad boy d'Beyrouth et il t'baise ta mère Putain c'est fou j'ai toujours pas fini d'gratter Ça fait 17 peu-fra, qu'j'aurais pu trer-ren Faut qu'j'me présente, nan, il faut qu'j'me préserve Que j'me fasse plus rare, à la limite, du burn-out Il faut qu'j'vive du rap 2k22, j'ai glissé mes rêves sur des notes Hier encore j'avais 20 ans tout allait On s'revoit pas, après un tout à l'heure Quand j'prends tout t'chantes, en fait ça va Mon cur tu sais j'ai mal C'est pas la prod qui chante, c'est toi qu'j'entends gémir La beauté d'Paname, j'quitte le stud' pour m'balader 14 piges, iPod Nano, prod dans l'baladeur Si c'est fini m'prends pas la tête J'renvoie l'argent, j'en déduis la taxe Fuck off, elle a lâge des rgards J'réponds plus, pourquoi, tu m'appelles Y'a pas qu'la voix, qu'j'abîme, vive, nous deux fuck l'amour Soir-ce, j'me lamine, une odeur d'beuher une odeur d'lavande Brut comme l'éclair, vif comme le reste On voulait pas, vivre, comme le reste Des contours de porte en or claqué J'ai passé l'âge de tiser du rhum low cost Même pas sûr d't'attraper, à l'occas'1</t>
+          <t>Hier j't'ai stalké, j'ai vu qu't'écartais les jambes Eh ouais, t'écartais les jambes Hier j't'ai stalké, j'ai vu qu't'écartais les jambes Mais là j'dois tout casser, putain c'était beau Cassis Babe, j't'ai vu faire l'tour et puis t'zipper ta veste Grünt d'or, la dernière fois vous nous voyez à deux J'donne tout de base c'était qu'un rêve Quand les brunes elles parlent espagnol, ça me rappelle toi Peut-être tu baises avec un autre mais ma3lich allez rappelle-toi Y'a des phass qui font plus mal que d'autres J'ai jeté l lit qu'on a cassé, fait les streams depuis qu'on a cassé Fuck le love, mais là j'dois tout casser Putain c'était beau Cassis, écrire j'suis bon qu'à ça PDP un cahier qui vaut un Urus, un Cayenne Je l'ai écrit quand il caillait Trois jours après LNSC y'a RF J'finis l'calu dans la chambre d'hôtel, avant d'l'aérer Si tu veux écrire faut galérer Le bum-al je l'ai fini sur Paname, demain sur un coup de tête aux Baléares Du whisky sans cola, sinon j'deviens bucolique On est frais, j'me refais Vendredi c'est Hennessy C'est pas l'album mature mais celui dans lequel il m'reste d'l'innocence J'vais pas t'la faire tu connais l'chanson Le coupable est innocent Hier j'ai craqué, je t'ai stalké, j'ai vu qu't'écartais les jambes C'est soit il te manque des DMs, soit que t'étais ivre J'nous souhaite d'l'amour mais pas ensemble J'écris mieux, quand on n'est pas ensemble C'est réel, sans mise en scène, de base j'étais pas sensible Ce soir les rues sont pleines, la nuit sera courte, mais belle Babe tu sais qu'j'les aime, avec du charme Dans l'tabac, y'a du shit, j'vais m'ranger comme Dushane Sur l'prochain, j'vais chanter comme 2 Chainz et glisser Ox' dessus PDP 2 comme des tox dessus Qui aurait cru qu'on pouvait, vivre de ça KX, revois les mixs de ça Wesh le cques-j, c'est quand qu'tu signes Il est tard, je l'sais que tu sers Y'a l'batteur qui est fonce-dé, au shit Dites à OB qu'y aura pas d'type JuL Sur la prod comme un jeune tchétchène, 2-2-2 rallume un grand pétard 2, 0-2-7, j'prends la présidence C'tait pas la même quand j'l'ai connue, ils s'souviennent de ta valeur que une fois qu't'arrêtes d'les cala Rares, sont ceux qui m'ont vu à deux Elle, elle m'lâche des r'gards Jacques Brel du Liban c'est un bad boy d'Beyrouth et il t'baise ta mère Jacques Brel du Liban c'est un bad boy d'Beyrouth et il t'baise ta mère Putain c'est fou j'ai toujours pas fini d'gratter Ça fait 17 peu-fra, qu'j'aurais pu trer-ren Faut qu'j'me présente, nan, il faut qu'j'me préserve Que j'me fasse plus rare, à la limite, du burn-out Il faut qu'j'vive du rap 2k22, j'ai glissé mes rêves sur des notes Hier encore j'avais 20 ans tout allait On s'revoit pas, après un tout à l'heure Quand j'prends tout t'chantes, en fait ça va Mon cur tu sais j'ai mal C'est pas la prod qui chante, c'est toi qu'j'entends gémir La beauté d'Paname, j'quitte le stud' pour m'balader 14 piges, iPod Nano, prod dans l'baladeur Si c'est fini m'prends pas la tête J'renvoie l'argent, j'en déduis la taxe Fuck off, elle a lâge des rgards J'réponds plus, pourquoi, tu m'appelles Y'a pas qu'la voix, qu'j'abîme, vive, nous deux fuck l'amour Soir-ce, j'me lamine, une odeur d'beuher une odeur d'lavande Brut comme l'éclair, vif comme le reste On voulait pas, vivre, comme le reste Des contours de porte en or claqué J'ai passé l'âge de tiser du rhum low cost Même pas sûr d't'attraper, à l'occas'1</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eh, bébé On travaille pendant que d'autres dorment On travaille pendant que d'autres mangent Trois bourbons plus tard et j'me sens toujours aussi vide Tu t'souviens d'nos conneries au Syphax À défaut de l'écrire dans le sable Ton nom je l'ai gravé au silex Je vais pas leur donner ton nom Mais j'en chante les syllabes Et quand on s'casse la gueule J'romance les idylles En attendant l'Jacques il donne J'me lève, j'aligne trois signs C'est bon, y'a le bon Dieu comm seul idole Y'a du beau monde dans l'corridor Sur un coup de tête j'me projette dans son corps de rêve Ce qu'elle aime le plus chez moi quand j'suis borderline J'étais à deux doigts de fumer l'enculé qui t'apportait la coke J'écris au 26 sur un quai de Seine dont j'ignore le nom Ou peut-être que j'le connais Et qu'j'refuse de le dire On sait jamais si demain j'y crèche On m'a béni, y'a pas d'magie noire Mais rien qu'c'est sombre J'ai même plus l'temps d'écrire sur feuille Mon taff c'est au quotidien J'me réveille et j'me dis Il faut qu'j'les baise Ils ont pas l'quart d'mon talent J'ai pas l'tiers d'leurs streams B.B. Jacques un boxeur surdoué Un artiste sensible Fuck off Est-ce qu'il reste l'amour dans le sexe ? Baby, y'a ton blaze à la fin du film Tu connais, on a tué le reu-beu Avant la fin du film J'suis en route, vers le trône, y a comme une place vacante Du charbon, pas d'vacances, j'dois péter le Awa Gang Un salam à Yotwiin, un salam à Hype mais la DA j'la chapeaute J'suis en route vers le trône, y a comme une place vacante Du charbon, pas d'vacances, j'dois péter le Awa Gang Eh You might also like Bonne soirée jeune homme, attends faut qu'j't'explique La phase sur Alcatraz Fuck off, t'as pas l'temps, il faut qu't'avances Quand tu tombes, faut qu't'avises J'ai pas grand monde à part mon père Y a la tour qui brille, changement d'texte J'la regarde j'roule mon teh Seul, loin des mouvements d'foule Seul, comme Limsa, qui vous parle à vous Regarde ce que j'ai fait par haine imagine c'que j'peux faire par amour PDP, 2-2-2, dès novembre 21 baby faut qu'j'l'annonce Regarde ce que j'ai fait avec ma haine imagine c'que j'peux faire par amour Imagine J'réponds plus aux messages, gros Ils savent qu'j'travaille et j'remercie moi-même pour les travaux J'ai trouvé du charme à ses travers Accélère, ou ralentis l'trafic et ce sera pour une autre Le risotto à la tour d'argent J'voulais trouver l'amour avant d'trouver l'argent J'suis bien trop idéaliste et j'me d'mande c'que tu dis quand tu vois des couples qui s'pavanent Vous méprenez pas, j'vante les mérites du rap belge mais j'viens d'Paname Tu sais là, où tout l'monde fait la gueule Là où c'est cher, mais c'est beau Tenter d'm'barrer seul aux Seychelles sah j'hésite Avant fallait y m'parler pour m'connaître aujourd'hui on m'Shazam Il paraît qu'avant c'était dur Surtout avec ton nom dans la bouche d'Claire Chazal J'ai pas l'génie d'Damien Chazelle L'ironie c'est d'dessiner un arbre sur papier puis d'le tej' T'as laissé un vide énorme, j'comble en écrivant des seize Mon album un classique on m'demande Kho tu parles du quel ?</t>
+          <t>Eh, bébé On travaille pendant que d'autres dorment On travaille pendant que d'autres mangent Trois bourbons plus tard et j'me sens toujours aussi vide Tu t'souviens d'nos conneries au Syphax À défaut de l'écrire dans le sable Ton nom je l'ai gravé au silex Je vais pas leur donner ton nom Mais j'en chante les syllabes Et quand on s'casse la gueule J'romance les idylles En attendant l'Jacques il donne J'me lève, j'aligne trois signs C'est bon, y'a le bon Dieu comm seul idole Y'a du beau monde dans l'corridor Sur un coup de tête j'me projette dans son corps de rêve Ce qu'elle aime le plus chez moi quand j'suis borderline J'étais à deux doigts de fumer l'enculé qui t'apportait la coke J'écris au 26 sur un quai de Seine dont j'ignore le nom Ou peut-être que j'le connais Et qu'j'refuse de le dire On sait jamais si demain j'y crèche On m'a béni, y'a pas d'magie noire Mais rien qu'c'est sombre J'ai même plus l'temps d'écrire sur feuille Mon taff c'est au quotidien J'me réveille et j'me dis Il faut qu'j'les baise Ils ont pas l'quart d'mon talent J'ai pas l'tiers d'leurs streams B.B. Jacques un boxeur surdoué Un artiste sensible Fuck off Est-ce qu'il reste l'amour dans le sexe ? Baby, y'a ton blaze à la fin du film Tu connais, on a tué le reu-beu Avant la fin du film J'suis en route, vers le trône, y a comme une place vacante Du charbon, pas d'vacances, j'dois péter le Awa Gang Un salam à Yotwiin, un salam à Hype mais la DA j'la chapeaute J'suis en route vers le trône, y a comme une place vacante Du charbon, pas d'vacances, j'dois péter le Awa Gang Eh Bonne soirée jeune homme, attends faut qu'j't'explique La phase sur Alcatraz Fuck off, t'as pas l'temps, il faut qu't'avances Quand tu tombes, faut qu't'avises J'ai pas grand monde à part mon père Y a la tour qui brille, changement d'texte J'la regarde j'roule mon teh Seul, loin des mouvements d'foule Seul, comme Limsa, qui vous parle à vous Regarde ce que j'ai fait par haine imagine c'que j'peux faire par amour PDP, 2-2-2, dès novembre 21 baby faut qu'j'l'annonce Regarde ce que j'ai fait avec ma haine imagine c'que j'peux faire par amour Imagine J'réponds plus aux messages, gros Ils savent qu'j'travaille et j'remercie moi-même pour les travaux J'ai trouvé du charme à ses travers Accélère, ou ralentis l'trafic et ce sera pour une autre Le risotto à la tour d'argent J'voulais trouver l'amour avant d'trouver l'argent J'suis bien trop idéaliste et j'me d'mande c'que tu dis quand tu vois des couples qui s'pavanent Vous méprenez pas, j'vante les mérites du rap belge mais j'viens d'Paname Tu sais là, où tout l'monde fait la gueule Là où c'est cher, mais c'est beau Tenter d'm'barrer seul aux Seychelles sah j'hésite Avant fallait y m'parler pour m'connaître aujourd'hui on m'Shazam Il paraît qu'avant c'était dur Surtout avec ton nom dans la bouche d'Claire Chazal J'ai pas l'génie d'Damien Chazelle L'ironie c'est d'dessiner un arbre sur papier puis d'le tej' T'as laissé un vide énorme, j'comble en écrivant des seize Mon album un classique on m'demande Kho tu parles du quel ?</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>J'le fais avec sang froid dans la paix la plus totale J'le fais avec des appuis financiers avec la pluie totale Fuck off J'vais les rendre barges dans la paix la plus totale Fuck off, j'vais t'baiser dans la paix la plus totale J'suis venu les rendre barges dans la paix la plus totale J't'ai baisée dans la paix la plus totale Marseille, Paris, Messi, Payet Tiens, prends mes paillettes Avant qu'j'te renvoie pied au cul à Cassis Fuck off, j'sais même pas comment tu t'appelles Wesh le s, c'est qui ? C'est fini, fin d'étape, sors C'est moi qui sors Tu t'poses des questions, pas les bonnes T'aurais mieux fait d'aller les poser à l'école J'suis avec des lauds-sa pas des nonnes Sauvage comme Jacqueline quand son enculé d'mari cogne J'en ai vu tomber des forts, des faibles La merde depuis l'bord de fenêtre Ils nous ferment la porte on passe par les fenêtres Ils attendent de moi que j'loupe la suite mais faut qu'j'remplisse l'assiette Fini bébé, m'en parle pas M'en parle pas T'es peinée bébé, m'en parle pas T'es peinée bébé m'en parle pas, y'a personne qui vaut ton papa M'en parle pas J'ai bien moins à dire qu'à faire Dieu est grand mais me protège-t-il quand j'fais mes petites affaires ? Cur d'acier, ça m'glace J'quitte la capitale, j'me barre ailleurs J'compte plus qu'sur moi, ma baraqua J'achète résidence pour plus voir l'bailleur Du mal à dire que j'vise le but Est-ce ma faute ? Celle des fils de pute ? J'te casse le cur quand j'brise des uc' Des femmes en larmes, des mecs en sang J'ai bien plus à raconter que c'que tu crois En fait c'que tu es dépend d'c'que tu bois Fuck off Elle plaque tout, elle veut danser La monnaie elle veut la dépenser Elle plaque tout, elle veut danser Elle a d'la monnaie elle veut la dépenser Et j'me fais chier dans l'rap cé-fran, j'le fais en espagnol Non mais sérieux, j'crois qu'ma tête j'l'ai perdue à cause d'cette espagnole J'ai fait des erreurs, j'ai fait des fautes Que Dieu m'pardonne, j'pardonne les autres Dès qu'j'me fais chier dans l'rap çais-fran, j'le fais en anglais Putain j'crois qu'j'ai perdu la tête à cause de cette putain d'anglaise J'ai fait des erreurs, j'ai fait des fautes Que Dieu m'pardonne et j'pardonnerai les autres Non mais sérieux, j'crois qu'j'perds la tête Que des envieux qui veulent ma quête Fuck off, j'regarde même pas si tu bouges la tête Si t'as la flemme t'as pas la flamme J'ai décidé d'prendre mon temps pour décimer ton gang Issu d'un quartier bourbeux où traîne la police D'un quartier bourbeux où traîne la police L'Homme descend du singe, tu connais d'jà la fin, c'est seul qu'j'opère J'la joue rockstar comme Kurt Cobain Dans nos pochtars tu trouveras pas d'cocaine Suis-je devenu c'que j'voulais être ? Du fruit défendu j'fais l'objet d'ma quête Trop de perdus pour si peu qui perdure Drogue et désir, plaisir, torture, excédent d'salive dans ma bouche Excédent d'panique dans ta fouffe Ca s'est passé dans une douceur absolue J'enlève sa dentelle, qu'elle est belle quand elle est nue J'accélère quand elle niaxe, merde Fils de pute, c'est l'Jacques, j'ai l'jack sévère Quand l'regard se fige j'vois qu'le 9 s'enraille Fils de pute, c'est l'Jacques, j'ai l'jack sévère J'accélère pendant qu'je niaxe Quand l'regard se fige et qu'le 9 s'enraille ma voix aussi J'fais confiance que quand ma gadji elle est tie-par J'ai pas 900 kheys, 24 joueurs mais pas 24 postes et 24 centimesYou might also like</t>
+          <t>J'le fais avec sang froid dans la paix la plus totale J'le fais avec des appuis financiers avec la pluie totale Fuck off J'vais les rendre barges dans la paix la plus totale Fuck off, j'vais t'baiser dans la paix la plus totale J'suis venu les rendre barges dans la paix la plus totale J't'ai baisée dans la paix la plus totale Marseille, Paris, Messi, Payet Tiens, prends mes paillettes Avant qu'j'te renvoie pied au cul à Cassis Fuck off, j'sais même pas comment tu t'appelles Wesh le s, c'est qui ? C'est fini, fin d'étape, sors C'est moi qui sors Tu t'poses des questions, pas les bonnes T'aurais mieux fait d'aller les poser à l'école J'suis avec des lauds-sa pas des nonnes Sauvage comme Jacqueline quand son enculé d'mari cogne J'en ai vu tomber des forts, des faibles La merde depuis l'bord de fenêtre Ils nous ferment la porte on passe par les fenêtres Ils attendent de moi que j'loupe la suite mais faut qu'j'remplisse l'assiette Fini bébé, m'en parle pas M'en parle pas T'es peinée bébé, m'en parle pas T'es peinée bébé m'en parle pas, y'a personne qui vaut ton papa M'en parle pas J'ai bien moins à dire qu'à faire Dieu est grand mais me protège-t-il quand j'fais mes petites affaires ? Cur d'acier, ça m'glace J'quitte la capitale, j'me barre ailleurs J'compte plus qu'sur moi, ma baraqua J'achète résidence pour plus voir l'bailleur Du mal à dire que j'vise le but Est-ce ma faute ? Celle des fils de pute ? J'te casse le cur quand j'brise des uc' Des femmes en larmes, des mecs en sang J'ai bien plus à raconter que c'que tu crois En fait c'que tu es dépend d'c'que tu bois Fuck off Elle plaque tout, elle veut danser La monnaie elle veut la dépenser Elle plaque tout, elle veut danser Elle a d'la monnaie elle veut la dépenser Et j'me fais chier dans l'rap cé-fran, j'le fais en espagnol Non mais sérieux, j'crois qu'ma tête j'l'ai perdue à cause d'cette espagnole J'ai fait des erreurs, j'ai fait des fautes Que Dieu m'pardonne, j'pardonne les autres Dès qu'j'me fais chier dans l'rap çais-fran, j'le fais en anglais Putain j'crois qu'j'ai perdu la tête à cause de cette putain d'anglaise J'ai fait des erreurs, j'ai fait des fautes Que Dieu m'pardonne et j'pardonnerai les autres Non mais sérieux, j'crois qu'j'perds la tête Que des envieux qui veulent ma quête Fuck off, j'regarde même pas si tu bouges la tête Si t'as la flemme t'as pas la flamme J'ai décidé d'prendre mon temps pour décimer ton gang Issu d'un quartier bourbeux où traîne la police D'un quartier bourbeux où traîne la police L'Homme descend du singe, tu connais d'jà la fin, c'est seul qu'j'opère J'la joue rockstar comme Kurt Cobain Dans nos pochtars tu trouveras pas d'cocaine Suis-je devenu c'que j'voulais être ? Du fruit défendu j'fais l'objet d'ma quête Trop de perdus pour si peu qui perdure Drogue et désir, plaisir, torture, excédent d'salive dans ma bouche Excédent d'panique dans ta fouffe Ca s'est passé dans une douceur absolue J'enlève sa dentelle, qu'elle est belle quand elle est nue J'accélère quand elle niaxe, merde Fils de pute, c'est l'Jacques, j'ai l'jack sévère Quand l'regard se fige j'vois qu'le 9 s'enraille Fils de pute, c'est l'Jacques, j'ai l'jack sévère J'accélère pendant qu'je niaxe Quand l'regard se fige et qu'le 9 s'enraille ma voix aussi J'fais confiance que quand ma gadji elle est tie-par J'ai pas 900 kheys, 24 joueurs mais pas 24 postes et 24 centimes</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Le soleil est couché, madame aussi Des cadavres de bouteilles jonchent le sol Si demain j'craque, j'fous la SACEM du Wu-Tang dans l'coupé sport Ce matin l'soleil a troué l'store Ce matin l'soleil a troué l'store Surprenant comme un outsider On m'a dit Tino faut cibler les 15-25 2-2 Fuck le club 27 Elle a les yeux d'la même couleur qu'mon Get 27 Des enquêtes se résolvent Concernant des bougzers que personne ne raisonne J'te suis dans les grandes lignes, on s'perd dans les détails J'fixe les échéances, j'annonce les délais Pas mal de caprices Auxquels elle veut qu'je cède Quant à la tendance, j'refuse d'la suivre Ça prendra l'temps qu'ça prendra pour qu'ils captent C'est normal si en attendant les doutes s'immiscent L'histoire est telle quelle A moins que je ne rédige une autre genèse Ecrire, c'est un luxe qui peut te permettre de revivre une autre jeunesse Ah L'univers est balzacien L'avocat est Arabe, le présumé coupable est alsacien Enfoiré, j'fais pas d'freestyle en soirée J'vais commencer par vider ma tête et mes vidanges Avec le temps, certaines choses me paraissent évidentes Y a certaines trajectoires à éviter Mentir par amour, faut éviter Parfois c'est clair et parfois faut hésiter Anthropologue comme Lévis Strauss Je l'ai mis sur feuille avant d'le mettre sur Distro' Focus y a que son cul qui m'a distrait Sur le qui-vive comme un boug' dans une relation à distance Ils y ont vu de l'engouement, elle y a vu de la tristesse You might also like Le dîner est céleste Comme Camus j'ai dîné chez Céleste Tellement vilain J'suis même pas sûr qu'ils puissent baiser une fois riches et célèbres Au moins quand ils sont éméchés, ils sont sincères Y aura pas d'feat Peu d'basses, pas d'love, peu d'ponts Le jeune Jacques craque J'me suis versé ma propre paye NBOW assure unique boss J'y ai investi mes propres pesos Y a d'la beauté dans d'grands désastres Mais à côté les lovés c'est dur Il faut qu'les disques se vendent Récemment j'ai appris qu'les sorties s'fêtent J'fais un rêve où j'regarde ni les prix ni les chiffres de vente Loin des vices de procédure et des vices de forme Des mecs vivent en sursis A la fin du mois, la mâchoire comme la ceinture est serrée Hein C'est fini si y a une erreur dans l'sérum Ils mettent 22 secondes à regarder l'CV Fuck off Ça jacte hein Rien qu'ça jacte Ça jacte hein Rien qu'ça jacte Ça jacte hein Rien qu'ça jacte1</t>
+          <t>Le soleil est couché, madame aussi Des cadavres de bouteilles jonchent le sol Si demain j'craque, j'fous la SACEM du Wu-Tang dans l'coupé sport Ce matin l'soleil a troué l'store Ce matin l'soleil a troué l'store Surprenant comme un outsider On m'a dit Tino faut cibler les 15-25 2-2 Fuck le club 27 Elle a les yeux d'la même couleur qu'mon Get 27 Des enquêtes se résolvent Concernant des bougzers que personne ne raisonne J'te suis dans les grandes lignes, on s'perd dans les détails J'fixe les échéances, j'annonce les délais Pas mal de caprices Auxquels elle veut qu'je cède Quant à la tendance, j'refuse d'la suivre Ça prendra l'temps qu'ça prendra pour qu'ils captent C'est normal si en attendant les doutes s'immiscent L'histoire est telle quelle A moins que je ne rédige une autre genèse Ecrire, c'est un luxe qui peut te permettre de revivre une autre jeunesse Ah L'univers est balzacien L'avocat est Arabe, le présumé coupable est alsacien Enfoiré, j'fais pas d'freestyle en soirée J'vais commencer par vider ma tête et mes vidanges Avec le temps, certaines choses me paraissent évidentes Y a certaines trajectoires à éviter Mentir par amour, faut éviter Parfois c'est clair et parfois faut hésiter Anthropologue comme Lévis Strauss Je l'ai mis sur feuille avant d'le mettre sur Distro' Focus y a que son cul qui m'a distrait Sur le qui-vive comme un boug' dans une relation à distance Ils y ont vu de l'engouement, elle y a vu de la tristesse Le dîner est céleste Comme Camus j'ai dîné chez Céleste Tellement vilain J'suis même pas sûr qu'ils puissent baiser une fois riches et célèbres Au moins quand ils sont éméchés, ils sont sincères Y aura pas d'feat Peu d'basses, pas d'love, peu d'ponts Le jeune Jacques craque J'me suis versé ma propre paye NBOW assure unique boss J'y ai investi mes propres pesos Y a d'la beauté dans d'grands désastres Mais à côté les lovés c'est dur Il faut qu'les disques se vendent Récemment j'ai appris qu'les sorties s'fêtent J'fais un rêve où j'regarde ni les prix ni les chiffres de vente Loin des vices de procédure et des vices de forme Des mecs vivent en sursis A la fin du mois, la mâchoire comme la ceinture est serrée Hein C'est fini si y a une erreur dans l'sérum Ils mettent 22 secondes à regarder l'CV Fuck off Ça jacte hein Rien qu'ça jacte Ça jacte hein Rien qu'ça jacte Ça jacte hein Rien qu'ça jacte1</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Et si on imitait la marche des astres après une nuit calme sous l'reflet d'la lune On s'promenait dans l'froid, café brûlant sur l'quai d'la gare J't'ai aimée, le temps d'ma lead C'était hors de question d'leur tendre la joue Il paraît que c'était que de la gueule Y avait la manière, y avait pas d'fond On s'est accommodés aux regards qui pèsent Ciao, t'es sans doute dans l'train qui passe J'fatigue mais j'lâche des 16 Est-ce qu'on touche du bois ou on enlace des chênes ? On aurait dû s'passer des mots et s'en remettre aux signes Une fois l'album bouclé, j'dois l'mettre en scène À deux doigts d'se perdre, on a oublié d'dire à nos reufs qu'on est fiers d'eux La pente, elle était plus que raide Ouais, babe, j'suis pas là, y a l'album qui arrive J'veux ni faire l'poète ni faire l'cain-ri À deux doigts d'se perdre Une fois l'album bouclé, j'dois l'mettre en scène On a oublié d'dire à nos reufs qu'on est fiers d'eux La pente, elle était plus que raide You might also like J'ai parlé d'moi, t'façon, il fallait qu'j'vous parle d'quelque chose Laisse passer le temps, on regardera la lune avec un verre de rouge Les images passaient tellement vite J'quitte le stud', le soleil se lève Premier arrivé, dernier ti-par Il m'reste une session et un dernier dix balles Y a d'la poussière sur les photos aux murs J'ai oublié la finalité d'toutes ces merdes Il est cinq heures vingt-deux Ça aurait dû être qu'une connerie d'plus J'm'efface, laisse traîner la prod</t>
+          <t>Et si on imitait la marche des astres après une nuit calme sous l'reflet d'la lune On s'promenait dans l'froid, café brûlant sur l'quai d'la gare J't'ai aimée, le temps d'ma lead C'était hors de question d'leur tendre la joue Il paraît que c'était que de la gueule Y avait la manière, y avait pas d'fond On s'est accommodés aux regards qui pèsent Ciao, t'es sans doute dans l'train qui passe J'fatigue mais j'lâche des 16 Est-ce qu'on touche du bois ou on enlace des chênes ? On aurait dû s'passer des mots et s'en remettre aux signes Une fois l'album bouclé, j'dois l'mettre en scène À deux doigts d'se perdre, on a oublié d'dire à nos reufs qu'on est fiers d'eux La pente, elle était plus que raide Ouais, babe, j'suis pas là, y a l'album qui arrive J'veux ni faire l'poète ni faire l'cain-ri À deux doigts d'se perdre Une fois l'album bouclé, j'dois l'mettre en scène On a oublié d'dire à nos reufs qu'on est fiers d'eux La pente, elle était plus que raide J'ai parlé d'moi, t'façon, il fallait qu'j'vous parle d'quelque chose Laisse passer le temps, on regardera la lune avec un verre de rouge Les images passaient tellement vite J'quitte le stud', le soleil se lève Premier arrivé, dernier ti-par Il m'reste une session et un dernier dix balles Y a d'la poussière sur les photos aux murs J'ai oublié la finalité d'toutes ces merdes Il est cinq heures vingt-deux Ça aurait dû être qu'une connerie d'plus J'm'efface, laisse traîner la prod</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tout ça j'l'ai fait pour le gamin qu'je risque d'avoir Check J'hésite à tout livrer sur des notes de piano qui frôlent la drill Fuck off, j'suis pas un poète mais un enfant d'la trap J'en veux pas de ton tapis rouge, triple la somme J'en veux pas de ton tapis rouge, triple la somme Faut l'vivre pour l'comprendre Ils veulent bloquer ma sortie comme celle du Sale sur l'périph' On finit Bourges direction Stuttgart Passe par l'Bas-Rhin Gros t'auras ni vingt ni vingt-cinq Passe moi l'parrain Vas faire la queue avec tes potes qui rêvent de m'ken Prends ton seum en patience mais cache le SI j'passe en Golf dédicace à personne Fallait être là, soit dit en passant Surtout si la BAC passe en Passat On terrasse tête dans l'business J'regarde même plus les passants J'vois c'daron avec son gamin Couleur métisse et c'est plus beau qu'le ciel J'ai mis trop d'âme pour que ce soit juste du son Eh frère c'est d'l'art, c'est pas juste du sale J'ai jeté les cadavres de bouteilles qui jonchaient le sol Eh frère c'est d'l'art, c'est pas juste du sale Un éclair brut vient de fendre le ciel J'avais un rêve j'y ai cru assez fort pour tenter de vivre de ça Celle-là c'est pour les tits-pe qui rêvent de vivre de ça J'en ai fait un bum-al j'aurais pu faire deux livres de ça J'signe, j'envoie les masters j'lance une ligne de sapes You might also like J'répète un éclair brut vient de fendre le ciel J'avais un rêve j'y ai cru assez fort pour tenter de vivre de ça Celle-là c'est pour les gamins qui rêvent de vivre de ça J'en ai fait un bum-al j'aurais pu faire deux livres de ça J'signe, j'envoie les masters j'lance une ligne de sapes Mais tu connais t'es un ingrat, t'es un ingrat, t'es un ingrat Askip Fuck off c'est pas du russe J'hésite entre un fuck off ou un let's go mais parlons-en Y a plus de monde dans l'cimetière d'NBOW qu'au sein d'l'équipe Poto, on vient d'Nanterre on sort pas d'Descartes J'vous dit plus qu'à ces fous, quartiers libres Belek aux feu-meu qui créent le problème À vingt-deux j'avais un plan élaboré entre mes quinze-vingt piges Vingt-quatre j'écris un peu plus vite mes quinze-vingt pages Poto, hier encore j'avais à peine quinze-vingt balles Et vu qu'j'ai personne à qui en parler il faut qu'j'me livre PDP, tellement viscérale qu'j'ai pas eu l'besoin d'le r'lire Putain c'est plus facile si j'verse une larme Dès qu'j'suis mé-cra sur Paris j'me casse dans l'sud Pétasse quand j'suis pété j'écris ton blaze dans l'sable Dès qu'j'suis mé-cra sur Paris j'me casse dans l'sud Eh pétasse quand j'suis pété j'écris ton blaze dans l'sable Deux-zéro-deux-un j'rentre dans l'game avec mes couilles, ma plume, mes propres placements J'émerge à peine, ils s'comportent d'jà comme des chiens Putain, j'imagine pas l'platine Eh kho si tu veux pas qu'j'te fume tends pas l'bâton Regardes c'que j'ai fait avec cinq milles Imagines c'que j'peux faire avec cinquante NRP sur Paname pour mes vingt-cinq ans Ouais j'sais, vingt-quatre ans C'est bizarre tu mets plus de Coca dans ton verre d'Captain T'imagines pas tout ce que cache les têtes d'affiches T'auras beau mettre tout ton coeur pour m'baiser J'suis payé pour les hagar mais j'aurais pu le faire juste pour l'plaisir NBOW combien de traitres il reste au sein d'l'équipe? Aujourd'hui j'réponds ni aux messages ni aux appels C'est dimanche c'est béni J'lance le béret dans l'sac sinon ils vont m'bénir Ils vont mé-cra, j'sais plus J'ai viré tout l'livret jeune sur l'compte courant L'showcase de c'week-end poto, c'est l'strict minimum Arrêter l'ques-Jac c'est s'mettre sur la route d'une Aston lancée à 220, sur l'périph' Bébé ça vaut pas l'coup qu'tu verses des larmes S'tu r'gardes bien tu trouveras de l'amour dans ces versets là C'est pas que d'la haine que j'ai versé Le Blackbird est déversé C'est pas que...d'la haine que j'ai versé Tout ça j'l'ai fait pour l'gamin que j'risque d'avoir Qu'risque d'avoir Aller viens on s'casse on s'fout du reste J't'avais dit on f'rait mieux d'partir si tu veux vivre de c'foutu rêve Viens on s'casse on s'fout du reste LNS, écrit entre mes quinze-vingt piges j't'avais d'jà dit Il faut qu'on s'casse Si tu veux qu'on vive de c'foutu rêve Mais là c'est mort Si je le fais seul on dira Fuck off Là c'est fort Viens on s'casse on s'fout du reste LNS écrit entre mes quinze-vingt piges Viens on s'casse on s'fout du rêve Viens on s'casse on s'fout du reste Si tu veux vivre de c'foutu rêve Si tu veux vivre de c'foutu rêve</t>
+          <t>Tout ça j'l'ai fait pour le gamin qu'je risque d'avoir Check J'hésite à tout livrer sur des notes de piano qui frôlent la drill Fuck off, j'suis pas un poète mais un enfant d'la trap J'en veux pas de ton tapis rouge, triple la somme J'en veux pas de ton tapis rouge, triple la somme Faut l'vivre pour l'comprendre Ils veulent bloquer ma sortie comme celle du Sale sur l'périph' On finit Bourges direction Stuttgart Passe par l'Bas-Rhin Gros t'auras ni vingt ni vingt-cinq Passe moi l'parrain Vas faire la queue avec tes potes qui rêvent de m'ken Prends ton seum en patience mais cache le SI j'passe en Golf dédicace à personne Fallait être là, soit dit en passant Surtout si la BAC passe en Passat On terrasse tête dans l'business J'regarde même plus les passants J'vois c'daron avec son gamin Couleur métisse et c'est plus beau qu'le ciel J'ai mis trop d'âme pour que ce soit juste du son Eh frère c'est d'l'art, c'est pas juste du sale J'ai jeté les cadavres de bouteilles qui jonchaient le sol Eh frère c'est d'l'art, c'est pas juste du sale Un éclair brut vient de fendre le ciel J'avais un rêve j'y ai cru assez fort pour tenter de vivre de ça Celle-là c'est pour les tits-pe qui rêvent de vivre de ça J'en ai fait un bum-al j'aurais pu faire deux livres de ça J'signe, j'envoie les masters j'lance une ligne de sapes J'répète un éclair brut vient de fendre le ciel J'avais un rêve j'y ai cru assez fort pour tenter de vivre de ça Celle-là c'est pour les gamins qui rêvent de vivre de ça J'en ai fait un bum-al j'aurais pu faire deux livres de ça J'signe, j'envoie les masters j'lance une ligne de sapes Mais tu connais t'es un ingrat, t'es un ingrat, t'es un ingrat Askip Fuck off c'est pas du russe J'hésite entre un fuck off ou un let's go mais parlons-en Y a plus de monde dans l'cimetière d'NBOW qu'au sein d'l'équipe Poto, on vient d'Nanterre on sort pas d'Descartes J'vous dit plus qu'à ces fous, quartiers libres Belek aux feu-meu qui créent le problème À vingt-deux j'avais un plan élaboré entre mes quinze-vingt piges Vingt-quatre j'écris un peu plus vite mes quinze-vingt pages Poto, hier encore j'avais à peine quinze-vingt balles Et vu qu'j'ai personne à qui en parler il faut qu'j'me livre PDP, tellement viscérale qu'j'ai pas eu l'besoin d'le r'lire Putain c'est plus facile si j'verse une larme Dès qu'j'suis mé-cra sur Paris j'me casse dans l'sud Pétasse quand j'suis pété j'écris ton blaze dans l'sable Dès qu'j'suis mé-cra sur Paris j'me casse dans l'sud Eh pétasse quand j'suis pété j'écris ton blaze dans l'sable Deux-zéro-deux-un j'rentre dans l'game avec mes couilles, ma plume, mes propres placements J'émerge à peine, ils s'comportent d'jà comme des chiens Putain, j'imagine pas l'platine Eh kho si tu veux pas qu'j'te fume tends pas l'bâton Regardes c'que j'ai fait avec cinq milles Imagines c'que j'peux faire avec cinquante NRP sur Paname pour mes vingt-cinq ans Ouais j'sais, vingt-quatre ans C'est bizarre tu mets plus de Coca dans ton verre d'Captain T'imagines pas tout ce que cache les têtes d'affiches T'auras beau mettre tout ton coeur pour m'baiser J'suis payé pour les hagar mais j'aurais pu le faire juste pour l'plaisir NBOW combien de traitres il reste au sein d'l'équipe? Aujourd'hui j'réponds ni aux messages ni aux appels C'est dimanche c'est béni J'lance le béret dans l'sac sinon ils vont m'bénir Ils vont mé-cra, j'sais plus J'ai viré tout l'livret jeune sur l'compte courant L'showcase de c'week-end poto, c'est l'strict minimum Arrêter l'ques-Jac c'est s'mettre sur la route d'une Aston lancée à 220, sur l'périph' Bébé ça vaut pas l'coup qu'tu verses des larmes S'tu r'gardes bien tu trouveras de l'amour dans ces versets là C'est pas que d'la haine que j'ai versé Le Blackbird est déversé C'est pas que...d'la haine que j'ai versé Tout ça j'l'ai fait pour l'gamin que j'risque d'avoir Qu'risque d'avoir Aller viens on s'casse on s'fout du reste J't'avais dit on f'rait mieux d'partir si tu veux vivre de c'foutu rêve Viens on s'casse on s'fout du reste LNS, écrit entre mes quinze-vingt piges j't'avais d'jà dit Il faut qu'on s'casse Si tu veux qu'on vive de c'foutu rêve Mais là c'est mort Si je le fais seul on dira Fuck off Là c'est fort Viens on s'casse on s'fout du reste LNS écrit entre mes quinze-vingt piges Viens on s'casse on s'fout du rêve Viens on s'casse on s'fout du reste Si tu veux vivre de c'foutu rêve Si tu veux vivre de c'foutu rêve</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'ai de la peine mon ange J'repense au temps où c'était pas pareil Après la pluie, le beau temps mais juste avant la sale averse J'ai de la peine mon ange J'repense au temps où c'était pas pareil Avant la pluie, le beau temps mais juste avant la sale averse Espèce d'enculé J'peux pas louper l'drop après tout ce que j'ai enduré Efface l cur que j'ai dessiné sur la fenêtr embuée Arrête de courir après l'argent, vers l'or est la ruée Celui qui dit que le rap est mort a prétendu l'avoir tué On m'a demandé de frapper fort donc si j'dégaine c'est pour tuer J'm'énerve j'te laisse muer Ce dont j'ai souffert moi j'l'ai pas vu s'accentuer Le bien ne s'fait pas sans suer Le prince ne s'fait pas censurer Double vie, maman m'a dit t'sais Tino faut rester chic Faut qu'tu m'expliques c'est quoi les snitchs Oh, t'inquiète c'est rien Allo ? Allo ? Toujours là ? Non ? Bon bah eh t'inquiète ça fait rien Bébé m'demande c'est qui c't'enculé d'B.B. Jacques ? Eh Elle m'fait r'marquer qu'y a deux cheveux blonds ondulés sur c'putain d'drap Et là j'explique que B.B. Jacques c'est l'gars qui m'parle quand bébé jacte Le gars qui toque quand Tino part Est-ce-que j'casse des gueules à défaut d'casser la porte ? Est-ce-que, parce que j'ai bu que je la vois double Ou c'est juste une femme assez forte ? Double vie, maman m'a dit t'sais Tino il faut rester chic Faut rester chic J'me sens seul Une fois seul chez moi j'aimerais être ailleurs Donc j'vous emmerde J'vous lève tous mes doigts J'soulève tous les poids Dites moi au juste vous m'voulez quoi ? J'renonce à elle, moi j'voulais d'toi You might also like Comment tu peux rentrer chez toi, si t'as pas d'caisse Quand l'rap français a du style, c'est du rap belge Elle enlève son pull gris, elle garde son bas beige Faut qu'j'dilate ses pupilles, pour que j'm'apaise Comment tu peux rentrer chez toi, si t'as pas d'caisse Quand l'rap français a du style, c'est du rap belge Elle enlève son pull gris, elle garde son bas beige Faut qu'j'dilate ses pupilles, pour que j'm'apaise Une fois mêlé à la foule j'fais tache Quand tu mets d'la, liqueur dans ma bouche fait gaffe J'ai dû faire ce que trop peu s'permettent J'suis resté chic qu'ils aillent tous s'faire mettre J'ai écrit sur un chaos qu'j'ai nommé Tout ce que les autres font mal Un 32 de qualité c'est devenu une denrée rare Que calor, vámos a la jonquera Et alors ? J'regarde flotter l'black bandera En fait Beyrouth c'était Pompéi Soit on s'armait soit on périt Et dire qu'on vit tout c'qu'on pe-ra Le peu qu'on possède, on l'mérite L'argent, y a ceux qui courent après Ceux qui naissent avec et ceux qui en héritent J'ai horreur d'l'argent quand on l'étale, moi J'ai d'la peine mon ange j'repense au temps où c'était pas pareil Après la pluie, le beau temps mais juste avant la sale averse J'ai d'la peine mon ange j'repense au temps où c'était pas pareil Avant la pluie, le beau temps mais juste avant la sale averse1</t>
+          <t>J'ai de la peine mon ange J'repense au temps où c'était pas pareil Après la pluie, le beau temps mais juste avant la sale averse J'ai de la peine mon ange J'repense au temps où c'était pas pareil Avant la pluie, le beau temps mais juste avant la sale averse Espèce d'enculé J'peux pas louper l'drop après tout ce que j'ai enduré Efface l cur que j'ai dessiné sur la fenêtr embuée Arrête de courir après l'argent, vers l'or est la ruée Celui qui dit que le rap est mort a prétendu l'avoir tué On m'a demandé de frapper fort donc si j'dégaine c'est pour tuer J'm'énerve j'te laisse muer Ce dont j'ai souffert moi j'l'ai pas vu s'accentuer Le bien ne s'fait pas sans suer Le prince ne s'fait pas censurer Double vie, maman m'a dit t'sais Tino faut rester chic Faut qu'tu m'expliques c'est quoi les snitchs Oh, t'inquiète c'est rien Allo ? Allo ? Toujours là ? Non ? Bon bah eh t'inquiète ça fait rien Bébé m'demande c'est qui c't'enculé d'B.B. Jacques ? Eh Elle m'fait r'marquer qu'y a deux cheveux blonds ondulés sur c'putain d'drap Et là j'explique que B.B. Jacques c'est l'gars qui m'parle quand bébé jacte Le gars qui toque quand Tino part Est-ce-que j'casse des gueules à défaut d'casser la porte ? Est-ce-que, parce que j'ai bu que je la vois double Ou c'est juste une femme assez forte ? Double vie, maman m'a dit t'sais Tino il faut rester chic Faut rester chic J'me sens seul Une fois seul chez moi j'aimerais être ailleurs Donc j'vous emmerde J'vous lève tous mes doigts J'soulève tous les poids Dites moi au juste vous m'voulez quoi ? J'renonce à elle, moi j'voulais d'toi Comment tu peux rentrer chez toi, si t'as pas d'caisse Quand l'rap français a du style, c'est du rap belge Elle enlève son pull gris, elle garde son bas beige Faut qu'j'dilate ses pupilles, pour que j'm'apaise Comment tu peux rentrer chez toi, si t'as pas d'caisse Quand l'rap français a du style, c'est du rap belge Elle enlève son pull gris, elle garde son bas beige Faut qu'j'dilate ses pupilles, pour que j'm'apaise Une fois mêlé à la foule j'fais tache Quand tu mets d'la, liqueur dans ma bouche fait gaffe J'ai dû faire ce que trop peu s'permettent J'suis resté chic qu'ils aillent tous s'faire mettre J'ai écrit sur un chaos qu'j'ai nommé Tout ce que les autres font mal Un 32 de qualité c'est devenu une denrée rare Que calor, vámos a la jonquera Et alors ? J'regarde flotter l'black bandera En fait Beyrouth c'était Pompéi Soit on s'armait soit on périt Et dire qu'on vit tout c'qu'on pe-ra Le peu qu'on possède, on l'mérite L'argent, y a ceux qui courent après Ceux qui naissent avec et ceux qui en héritent J'ai horreur d'l'argent quand on l'étale, moi J'ai d'la peine mon ange j'repense au temps où c'était pas pareil Après la pluie, le beau temps mais juste avant la sale averse J'ai d'la peine mon ange j'repense au temps où c'était pas pareil Avant la pluie, le beau temps mais juste avant la sale averse1</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Eh Eh Dignity and culture Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan cest pas sain Passons, on tombe on s'relève, on devient balaise Le passé un gouffre, on en a fait un bassin Je passais boire un verre, avant qu'elle dévoile ses formes PDP, ma DA sous toutes ses formes Les rires, qui éclatent dans la chambre ne proviennent plus de la nôtre Jécris, fais vivre, un peu ctte histoire qu'est la nôtr Toi et moi à Amsterdam, cette nuit je dois écrire Demain y'a le stud' très tôt Après le whisky, un calu', un ristretto Un missile m'allume, pendant que le missile s'allume Je l'emmenais regarder le ciel, avant de lui montrer le plafond Béret, lunettes, je vais aller Errer des heures, vu quà deux heures, dehors cest désert Depuis ma fenêtre, une Fiat colle un Scénic Un gamin marche trois mètres devant ses parents Mais vu qu'ils sont ensemble il peut pas se plaindre Du coup il avance, Nessbeal nous à prévenu À chaque jour suffit sa peine Chaque inspi est suivie de sa panne Mais moi je dois gratter, je vais en dire un peu plus sans en dire trop La poésie dune pulsion à l'étage d'un bistrot Une bouteille bleu cristal emportée par les vagues Qui résiste, malgré elle, au mistral Jacques, malgré moi dans le mystère, Habibi ta race, j'suis pas une petite star You might also like Je vais faire le buzz en chantant fuck le buzz, sur une grosse scène Je vais te dire yavait qui dans le public pour la première scène Le monde, je transgresse les règles, je monte Le plus dur c'est pas de té-mon mais c'est quand tu chutes Ils seront contre, même si tu as le remède, regarde les anti-vax Fuck off, depuis ma fenêtre Eh J'me suis écroulé de fatigue, ma feuille, j'avais la tête dessus Sur le prochain, Oxmo, sera peut-être dessus Mon amour tu seras peut-être déçu, c'est la dernière fois q'tu retires tes sapes Tout, ce désir m'échappe, tout ce que, mes dires manifestent Cruelle comme une erreur manifeste qu'on refuse de voir Au début t'es dans le déni, que tu refuses de le croire Nous est redevenu je, je me suis affranchi des règles du jeu Et je refuse de le croire Et je refuse de le croire Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Le passé, un gouffre, j'en ai fait un bassin Je dois en faire le deuil mais c'est pas simple J'en ai fait un bassin Tout garder pour moi, nan c'est pas sain Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Je dois en faire le deuil mais c'est pas simple Je crois qu'elle a pas capté Je crois qu'elle a pas capté</t>
+          <t>Eh Eh Dignity and culture Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan cest pas sain Passons, on tombe on s'relève, on devient balaise Le passé un gouffre, on en a fait un bassin Je passais boire un verre, avant qu'elle dévoile ses formes PDP, ma DA sous toutes ses formes Les rires, qui éclatent dans la chambre ne proviennent plus de la nôtre Jécris, fais vivre, un peu ctte histoire qu'est la nôtr Toi et moi à Amsterdam, cette nuit je dois écrire Demain y'a le stud' très tôt Après le whisky, un calu', un ristretto Un missile m'allume, pendant que le missile s'allume Je l'emmenais regarder le ciel, avant de lui montrer le plafond Béret, lunettes, je vais aller Errer des heures, vu quà deux heures, dehors cest désert Depuis ma fenêtre, une Fiat colle un Scénic Un gamin marche trois mètres devant ses parents Mais vu qu'ils sont ensemble il peut pas se plaindre Du coup il avance, Nessbeal nous à prévenu À chaque jour suffit sa peine Chaque inspi est suivie de sa panne Mais moi je dois gratter, je vais en dire un peu plus sans en dire trop La poésie dune pulsion à l'étage d'un bistrot Une bouteille bleu cristal emportée par les vagues Qui résiste, malgré elle, au mistral Jacques, malgré moi dans le mystère, Habibi ta race, j'suis pas une petite star Je vais faire le buzz en chantant fuck le buzz, sur une grosse scène Je vais te dire yavait qui dans le public pour la première scène Le monde, je transgresse les règles, je monte Le plus dur c'est pas de té-mon mais c'est quand tu chutes Ils seront contre, même si tu as le remède, regarde les anti-vax Fuck off, depuis ma fenêtre Eh J'me suis écroulé de fatigue, ma feuille, j'avais la tête dessus Sur le prochain, Oxmo, sera peut-être dessus Mon amour tu seras peut-être déçu, c'est la dernière fois q'tu retires tes sapes Tout, ce désir m'échappe, tout ce que, mes dires manifestent Cruelle comme une erreur manifeste qu'on refuse de voir Au début t'es dans le déni, que tu refuses de le croire Nous est redevenu je, je me suis affranchi des règles du jeu Et je refuse de le croire Et je refuse de le croire Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Le passé, un gouffre, j'en ai fait un bassin Je dois en faire le deuil mais c'est pas simple J'en ai fait un bassin Tout garder pour moi, nan c'est pas sain Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Je dois en faire le deuil mais c'est pas simple Je crois qu'elle a pas capté Je crois qu'elle a pas capté</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C'est Baudelaire qui écrit des choses très belles, qui dit enivrez-vous Il dit - cest ce que je pense vraiment Il dit Il faut être toujours ivre Tout est là C'est l'unique question Pour ne pas sentir lhorrible fardeau du temps qui brise vos épaules et vous penche vers la terre Il faut vous enivrer sans trêve Mais de quo i? De vin, de poésie, ou de vertu à votre guise J'ai perdu des potes, des sosses hein La justice elle garde des sots Pourquoi 'y a pas d'chauffage dans l'quartier chaud ? T'arrives dubitatif mais tu r'part qué-cho Ils y rationalisent, un ient-cli r'part pécho Kir au cassis avec Garde des Sceaux Elle mdit nan Jlui dis bah si là c'est chaud On ma dit d'faire un classique, là j'm'échauffe La nuit quand jsuis seul j'écris, j'crame des bozes On m'a dit d'faire un classique, là j'm'échauffe Dis-moi mon grand, t'as quoi d'plus qu'eux ? T'as quoi ? Hein ? Perdent leurs temps, ils savent pas c'qu'ils veulent nan Font les méchants, ils savent pas c'qu'ils volent Ils sont usés, ils savent pas c'qu'ils valent J'creuse l'écart, j'mets des distances, fils NBOW baby, c'est expansif Les fleurs fanent, et les liens s'encrassent Une fois l'effort fait les gains s'entassent Never domestiqué comme chien sans cage Des empires bâtis par des types sans cash Hey, est-ce qu'j'tombe ou j'poucave ? You might also like Y a les bons, y a les coupables J'hésite entre la teen et la cougar Avec ma latine dans les beaux quartiers d'Cuba Si on m'assassine Mes gavas plombent le coupable On compte les victimes tant qu'on sait pas d'où les coups partent Chic et espiègle Si elle est chaude elle reste tienne Baby-o c'est le D-I-N J'dors, sur l'potentiel commercial d'N.I.N J'rêve de, Megan, Megan Celle, d'Harry l'Anglais Aucune fille vénale, qui veut m'parler d'entraide Au cul un flic vegan qui veut m'parler d'l'enquête Ouh, fuck off J'suis dans l'Jazz Club Elle m'dit Tino Qué tal? D'vant l'bar y a un tas d'keufs mmh Aussitôt j'décale Les mecs, perdent les pédales quand les fleurs du mal perdent leurs pétales Les pleurs d'une femme ou l'sourire d'une pétasse Les fous inspirent les foules Les zouzs inspirent les soûls Les foules inspirent les fous Le gris inspire le blue Et fuck off J'vous donne c'que j'ai acquis Condamné à être libre comme Sartre Fils, belek 'y a des flics en bas Vas-y laisse moi seul Quand j'vais faire la somme J'te connais par cur J'en ai connu par tonnes J'veux la Eva de Parker Mais j'suis que Joey Barton Plus rien ne me fait peur Si ce n'est crasher l'Aston</t>
+          <t>C'est Baudelaire qui écrit des choses très belles, qui dit enivrez-vous Il dit - cest ce que je pense vraiment Il dit Il faut être toujours ivre Tout est là C'est l'unique question Pour ne pas sentir lhorrible fardeau du temps qui brise vos épaules et vous penche vers la terre Il faut vous enivrer sans trêve Mais de quo i? De vin, de poésie, ou de vertu à votre guise J'ai perdu des potes, des sosses hein La justice elle garde des sots Pourquoi 'y a pas d'chauffage dans l'quartier chaud ? T'arrives dubitatif mais tu r'part qué-cho Ils y rationalisent, un ient-cli r'part pécho Kir au cassis avec Garde des Sceaux Elle mdit nan Jlui dis bah si là c'est chaud On ma dit d'faire un classique, là j'm'échauffe La nuit quand jsuis seul j'écris, j'crame des bozes On m'a dit d'faire un classique, là j'm'échauffe Dis-moi mon grand, t'as quoi d'plus qu'eux ? T'as quoi ? Hein ? Perdent leurs temps, ils savent pas c'qu'ils veulent nan Font les méchants, ils savent pas c'qu'ils volent Ils sont usés, ils savent pas c'qu'ils valent J'creuse l'écart, j'mets des distances, fils NBOW baby, c'est expansif Les fleurs fanent, et les liens s'encrassent Une fois l'effort fait les gains s'entassent Never domestiqué comme chien sans cage Des empires bâtis par des types sans cash Hey, est-ce qu'j'tombe ou j'poucave ? Y a les bons, y a les coupables J'hésite entre la teen et la cougar Avec ma latine dans les beaux quartiers d'Cuba Si on m'assassine Mes gavas plombent le coupable On compte les victimes tant qu'on sait pas d'où les coups partent Chic et espiègle Si elle est chaude elle reste tienne Baby-o c'est le D-I-N J'dors, sur l'potentiel commercial d'N.I.N J'rêve de, Megan, Megan Celle, d'Harry l'Anglais Aucune fille vénale, qui veut m'parler d'entraide Au cul un flic vegan qui veut m'parler d'l'enquête Ouh, fuck off J'suis dans l'Jazz Club Elle m'dit Tino Qué tal? D'vant l'bar y a un tas d'keufs mmh Aussitôt j'décale Les mecs, perdent les pédales quand les fleurs du mal perdent leurs pétales Les pleurs d'une femme ou l'sourire d'une pétasse Les fous inspirent les foules Les zouzs inspirent les soûls Les foules inspirent les fous Le gris inspire le blue Et fuck off J'vous donne c'que j'ai acquis Condamné à être libre comme Sartre Fils, belek 'y a des flics en bas Vas-y laisse moi seul Quand j'vais faire la somme J'te connais par cur J'en ai connu par tonnes J'veux la Eva de Parker Mais j'suis que Joey Barton Plus rien ne me fait peur Si ce n'est crasher l'Aston</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mannequin espagnole en doggy sur une chaise scandinave T'as fait l'con, elle a voulu s'venger Nique sa mère nique sa mère, nique sa mère J'ai baisé ta fiancée toute la night Check Les néons du loft éclairent le sol Ouais, j'l'ai fait, j'vais être clair, le sang J'avance sur l'parcours que d'autres retracent Y a des couleurs qui jaillissent de nos peintures Et plus de lumières sur nos ombres, on a r'fusé les aides Là, j'suis sur l'album, j'vais dire non à ds scènes J'suis libre quand j'dis non à dix balles à dix balls Que la D.A, j'refuse des showcases à 10k à 10k Si tu m'vois sur les Champs, c'est juste pour Adidas pour Adidas J'fais pas ça pour l'argent mais quand même Sinon, j'm'enferme, j'fais des dix titres Depuis Paname jusqu'au Tennessee L'odeur du bourbon nous caresse Merci à ceux qu'on croise et qui font semblant d'pas nous cala Nique sa mère J'fais pas ça pour l'argent mais quand même Mannequin espagnole en doggy sur une chaise scandinave Mannequin espagnole en doggy sur une chaise scandinave You might also like Laisse traîner notes de piano, nique la prise On a fait assez d'cash pour dire Nique la prime J'reste dans mon coin, il faut qu'j'écrive la suite Viens, on baise près d'Bir Hakeim comme avant, quand on prenait la 6 L'autre, il voulait mon buzz et l'agent, il veut ma cons', mes lacets Ça s'est fini, y a trop d'passif Ils ont cassé l'9.2, nos gamins grandiront près d'Passy L'ambiance, elle était tendue, presque malsaine Tu veux l'cques-Ja, ça fait cher la pub Elle t'a coûté ta r'lation, ça fait cher la pute Ils ont cassé l'9.2, nos gamins grandiront près d'Passy L'ambiance, elle était tendue, presque malsaine Tu veux l'cques-Ja, ça fait cher la pub Elle t'a coûté ta r'lation, ça fait cher la Tu peux laisser des messages, crois pas qu'j'rappelle Avant qu'j'fasse rentrer les sous, l'daron, il savait pas qu'j'rappais NBOW, des snipers, des grands rates-pi On est des bad boys bénis, sans l'moindre tatouage Elle est tie-par, tu peux t'en prendre qu'à toi La nuit s'ra noire mais créative Elle veut l'faire d'façon créative C'est fini, c'est passé, c'était récréatif Fuck off, j'te baisais dans les parcs à thème 2006, j'étais seul sur l'embarcadère Et viens, on cache nos gueules L'temps file entre les mains d'celui qui cherche les termes Tu veux l'cques-Ja, ça fait cher la pub Elle t'a coûté ta r'lation, ça fait cher la pute</t>
+          <t>Mannequin espagnole en doggy sur une chaise scandinave T'as fait l'con, elle a voulu s'venger Nique sa mère nique sa mère, nique sa mère J'ai baisé ta fiancée toute la night Check Les néons du loft éclairent le sol Ouais, j'l'ai fait, j'vais être clair, le sang J'avance sur l'parcours que d'autres retracent Y a des couleurs qui jaillissent de nos peintures Et plus de lumières sur nos ombres, on a r'fusé les aides Là, j'suis sur l'album, j'vais dire non à ds scènes J'suis libre quand j'dis non à dix balles à dix balls Que la D.A, j'refuse des showcases à 10k à 10k Si tu m'vois sur les Champs, c'est juste pour Adidas pour Adidas J'fais pas ça pour l'argent mais quand même Sinon, j'm'enferme, j'fais des dix titres Depuis Paname jusqu'au Tennessee L'odeur du bourbon nous caresse Merci à ceux qu'on croise et qui font semblant d'pas nous cala Nique sa mère J'fais pas ça pour l'argent mais quand même Mannequin espagnole en doggy sur une chaise scandinave Mannequin espagnole en doggy sur une chaise scandinave Laisse traîner notes de piano, nique la prise On a fait assez d'cash pour dire Nique la prime J'reste dans mon coin, il faut qu'j'écrive la suite Viens, on baise près d'Bir Hakeim comme avant, quand on prenait la 6 L'autre, il voulait mon buzz et l'agent, il veut ma cons', mes lacets Ça s'est fini, y a trop d'passif Ils ont cassé l'9.2, nos gamins grandiront près d'Passy L'ambiance, elle était tendue, presque malsaine Tu veux l'cques-Ja, ça fait cher la pub Elle t'a coûté ta r'lation, ça fait cher la pute Ils ont cassé l'9.2, nos gamins grandiront près d'Passy L'ambiance, elle était tendue, presque malsaine Tu veux l'cques-Ja, ça fait cher la pub Elle t'a coûté ta r'lation, ça fait cher la Tu peux laisser des messages, crois pas qu'j'rappelle Avant qu'j'fasse rentrer les sous, l'daron, il savait pas qu'j'rappais NBOW, des snipers, des grands rates-pi On est des bad boys bénis, sans l'moindre tatouage Elle est tie-par, tu peux t'en prendre qu'à toi La nuit s'ra noire mais créative Elle veut l'faire d'façon créative C'est fini, c'est passé, c'était récréatif Fuck off, j'te baisais dans les parcs à thème 2006, j'étais seul sur l'embarcadère Et viens, on cache nos gueules L'temps file entre les mains d'celui qui cherche les termes Tu veux l'cques-Ja, ça fait cher la pub Elle t'a coûté ta r'lation, ça fait cher la pute</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Eh Jsors du café, jtraverse paname du 19 au 6 Les regards qui s'posent sur moi, jles balaie, jles épouse Jfinis ma clope devant lPaki', cest lmême que celui dans lclip dOpium Le correcteur, cet enculé, il mparle encore d'Palo Javancerais plus si jétais plus malin, babe, jfais d'lart et d'la mala Patron comme Dawala Très peu d'flex, aucun laisser aller NBOW, jpasse à lacte, jai un blase à pas salir La musique, un sport de riche, des notes à 200k dans lbordereau Eh, taisz-vous, que jpuisse écrire Aujourdhui, on fum dla beuh dans les bureaux que dautres nous ouvrent Laisse la porte entrouverte Mets un violon, une trompette, un trombone, jm'en bas les couilles Avant, lexcuse, cétait qu'javais pas les K Jai pas attendu dles prendre pour maffranchir des codes Jsuis pas venu divertir mais mettre des claques Eh l'X, si t'es venu en gov', prends une Bud, prends un Jack De base, j'étais pas civil De base, j'étais pas cynique De base, j'étais pas signé Kho, j'captais pas l'signal J'me torche le cul avec vos avis sur ma façon d'poser Alvaro, il casse un buzz, parait qu'j'vais devenir une star Fuck off Eh Diabi, tu connais l'guet-apens Le photographe, il capture, il leak, ça buzz Dire qu'y avait même pas d'ingé' à la base Ta meuf est fan, t'inquiète, j'la check, j'lui ferai pas la bise J'reste dans ma bulle malgré tout l'buzz autour Et dire qu'le Sale a eu quinze piges You might also like Eh J'ai juste à vous écouter parler pour écrire quinze pages J'ai dû parler d'moi pour vous parler à vous Putain, c'que j'cause Putain, c'que j'cause Et dire qu'j'dois réfléchir à chaque fois avant, de base, c'est un album, pas un film C'était un frère, pas un fan, putain c'est quoi la diff' ? D'un artiste et un fou, si ce n'est l'uvre Arrêtez de cendrer dans mon verre de 'sky C'est un son d'plus, c'est pas un verre de trop Y a d'quoi être fier de nous, le ques-J', c'est l'fer de lance Y a d'quoi être fier de nous, l'autre con, il veut m'booker pour l'jour de l'an Demain à Lyon, deux s'maines après à Nice Meilleur d'années en années, y a des épingles sur le costume d'un créateur Isole-toi, essaie d'être créatif, au début, t'auras juste l'air d'un con Ils veulent voir le ques-J' sur d'la drill ou de la baile funk Et nique sa mère, j'reste au stud', j'charbonne Non, Éros, j'vais pas aux events, j'mettrai les papiers au sol pour l'zénith Que la D.A, j'ai même pas encore flex en Céline J'suis bon quand ça lag J'me jette dans mer salée Reste occupé à croire que ça use à peine, mais wesh c'est qui là-ui'c ? Fais d'l'art, j'm'en fous d'qui t'as fait Album en porte-à-faux, que l'vent emporte ma fougue Et qu'est devenu ta femme ? Et les débats dans l'couloir quand j'tente de tter-gra Combien d'textes j'ai enterrés ? J'té-cla en terrasse chez Sony, elle est pas bonne la terrine ? O.B, Sagnol, latéral, ils écoutent la prod, ils sont atterrés Tu veux faire du rap, c'est à tes risques, ni taff ni intérim Est-ce qu'ils sont là pour l'art ou l'intérêt ? Fuck off J'laisse périmer les WeTransfer, laisse-les jacter, j'm'occupe du reste, j'bosse J'm'occupe du rêve, babe, est-c'qu'il t'reste du rouge ? Est-c'que j'vais durer ? Combien d'temps j'vais vivre du rap ? Fallait qu'tu restes, y a une pression dans le fait qu'tu tapes C'est d'l'art ,c'est pictural Y a l'pic avant l'creux d'la vague, sur le prochain, j'me lâche Putain, faut qu'j'pose toutes ces merdes J'sais pas si c'est un début ou une fin d'semaine Paraît qu'j'ai divisé J'les vois, ils sont à deux, ils s'tournent autour Comme si c'était encore l'début Nan, frère, j'suis pas dans les temps, fin d'débat J'le voulais, j'le feintais pas Le ques-J', un grand débat J'suis l'gun et les balles, c'est juste qu'avant, on m'connaissait pas Laissez des pourboires aux serveurs, bande de rats J'dégage une fumée plus épaisse que certains culs Une phrase, un aphorisme La fin d'chaque son, y a comme un truc Mais nique sa mère Eh J'ai parlé d'moi pour vous parler à vous Dire qu'le Sale a eu quinze piges Eh Diabi, tu connais l'guet-apens Fuck le buzz1</t>
+          <t>Eh Jsors du café, jtraverse paname du 19 au 6 Les regards qui s'posent sur moi, jles balaie, jles épouse Jfinis ma clope devant lPaki', cest lmême que celui dans lclip dOpium Le correcteur, cet enculé, il mparle encore d'Palo Javancerais plus si jétais plus malin, babe, jfais d'lart et d'la mala Patron comme Dawala Très peu d'flex, aucun laisser aller NBOW, jpasse à lacte, jai un blase à pas salir La musique, un sport de riche, des notes à 200k dans lbordereau Eh, taisz-vous, que jpuisse écrire Aujourdhui, on fum dla beuh dans les bureaux que dautres nous ouvrent Laisse la porte entrouverte Mets un violon, une trompette, un trombone, jm'en bas les couilles Avant, lexcuse, cétait qu'javais pas les K Jai pas attendu dles prendre pour maffranchir des codes Jsuis pas venu divertir mais mettre des claques Eh l'X, si t'es venu en gov', prends une Bud, prends un Jack De base, j'étais pas civil De base, j'étais pas cynique De base, j'étais pas signé Kho, j'captais pas l'signal J'me torche le cul avec vos avis sur ma façon d'poser Alvaro, il casse un buzz, parait qu'j'vais devenir une star Fuck off Eh Diabi, tu connais l'guet-apens Le photographe, il capture, il leak, ça buzz Dire qu'y avait même pas d'ingé' à la base Ta meuf est fan, t'inquiète, j'la check, j'lui ferai pas la bise J'reste dans ma bulle malgré tout l'buzz autour Et dire qu'le Sale a eu quinze piges Eh J'ai juste à vous écouter parler pour écrire quinze pages J'ai dû parler d'moi pour vous parler à vous Putain, c'que j'cause Putain, c'que j'cause Et dire qu'j'dois réfléchir à chaque fois avant, de base, c'est un album, pas un film C'était un frère, pas un fan, putain c'est quoi la diff' ? D'un artiste et un fou, si ce n'est l'uvre Arrêtez de cendrer dans mon verre de 'sky C'est un son d'plus, c'est pas un verre de trop Y a d'quoi être fier de nous, le ques-J', c'est l'fer de lance Y a d'quoi être fier de nous, l'autre con, il veut m'booker pour l'jour de l'an Demain à Lyon, deux s'maines après à Nice Meilleur d'années en années, y a des épingles sur le costume d'un créateur Isole-toi, essaie d'être créatif, au début, t'auras juste l'air d'un con Ils veulent voir le ques-J' sur d'la drill ou de la baile funk Et nique sa mère, j'reste au stud', j'charbonne Non, Éros, j'vais pas aux events, j'mettrai les papiers au sol pour l'zénith Que la D.A, j'ai même pas encore flex en Céline J'suis bon quand ça lag J'me jette dans mer salée Reste occupé à croire que ça use à peine, mais wesh c'est qui là-ui'c ? Fais d'l'art, j'm'en fous d'qui t'as fait Album en porte-à-faux, que l'vent emporte ma fougue Et qu'est devenu ta femme ? Et les débats dans l'couloir quand j'tente de tter-gra Combien d'textes j'ai enterrés ? J'té-cla en terrasse chez Sony, elle est pas bonne la terrine ? O.B, Sagnol, latéral, ils écoutent la prod, ils sont atterrés Tu veux faire du rap, c'est à tes risques, ni taff ni intérim Est-ce qu'ils sont là pour l'art ou l'intérêt ? Fuck off J'laisse périmer les WeTransfer, laisse-les jacter, j'm'occupe du reste, j'bosse J'm'occupe du rêve, babe, est-c'qu'il t'reste du rouge ? Est-c'que j'vais durer ? Combien d'temps j'vais vivre du rap ? Fallait qu'tu restes, y a une pression dans le fait qu'tu tapes C'est d'l'art ,c'est pictural Y a l'pic avant l'creux d'la vague, sur le prochain, j'me lâche Putain, faut qu'j'pose toutes ces merdes J'sais pas si c'est un début ou une fin d'semaine Paraît qu'j'ai divisé J'les vois, ils sont à deux, ils s'tournent autour Comme si c'était encore l'début Nan, frère, j'suis pas dans les temps, fin d'débat J'le voulais, j'le feintais pas Le ques-J', un grand débat J'suis l'gun et les balles, c'est juste qu'avant, on m'connaissait pas Laissez des pourboires aux serveurs, bande de rats J'dégage une fumée plus épaisse que certains culs Une phrase, un aphorisme La fin d'chaque son, y a comme un truc Mais nique sa mère Eh J'ai parlé d'moi pour vous parler à vous Dire qu'le Sale a eu quinze piges Eh Diabi, tu connais l'guet-apens Fuck le buzz1</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Faut que j'me débrouille Avant d'vivre d'mon art L'bruit court que le silencieux sort, oui J'aime entendre le silence quand j'vide mon âme Faut que j'me débrouille Avant d'vivre d'mon art L'bruit court que le silencieux sort, oui J'aime entendre le silence quand j'vide mon âme D'humeur changeante, comme les vitrines des galeris D'une ville devnue fantôme, avant que la lumière cesse Ce soir le soleil s'est couché, avant 1916 J'te rejoins, après 19 seizes Elle veut loger dans le 9 mais j'ai à peine de quoi m'projeter dans le 19ème T'façon elle veut pas vivre dans le 19ème J'regarde la page noircie Du mal à la retourner pour revoir vierge la feuille Le lapsus est révélateur, j'ai écrit femme Y a le loup, l'agneau et celui qui écrit fallait 1960, on calmait les gosses en imbibant la tétine On fumait partout Un cigare à la bouche un autre à la mort C'est d'la bêtise You might also like Oh Hey Comme dirait l'autre ça fait Oh Hey Oh Hey Rien d'bien mon bébé qu'ton no way Ils veulent m'inquiéter It's Okay Oh Hey Rien d'bien mon bébé qu'ton no way Ils veulent m'inquiéter It's Okay La fin est proche, du moins c'est c'que l'Kook' m'a dit Je l'ai écouté, peu importe c'que l'boug' m'a dit Kho, merci pour l'taff que t'as fait Cette nuit j'ai écrit six textes sur trois prods Prépare moi donc quatre cafés A chaque fois que j'finis un volume j'ai l'cafard J'reste un guerrier peu importe c'est qui l'couffard Quand t'as tout perdu, t'as pas l'choix tu repars à zéro P't'être que j'ai manqué de zèle Ma daronne leur a servi un festin Aujourd'hui ils m'regardent l'air de dire qu'il manquait d'sel Mon frère au passé, pour l'refrain faudra r'passer J'accorderai pas une seconde de silence aux MCs que j'ai froissés Une promesse intenable tenue par un ami d'passage Le peu d'haine que j'avais A fait de l'ombre à tant de passions Et l'virage est serré sur la route qui mène à l'appartement Qu'elle veut qu'j'achète Toi, tu penses compenser ton manque de charisme avec les liasses que t'agites ? Hey, on sait c'qu'on fait Buteur sur ma propre passe dé' Ah bah ouais mon reuf Elle parle de toi au passé Toi, tu veux pas t'en passer Un futur, un présent que j't'ai vu laisser passer Ah bah ouais mon reuf P't'être qu'elle t'ment depuis l'début Ah bah ouais mon reuf Un café serré à huit heures et quart Un allongé à quatre Ils pourront pas m'allonger Même si ils s'y mettent à quatre Pendant qu'le D découpe la quête On s'prodigue des conseils On évite les crises La nuit sera calme car les seules promesses tenues ont été celles de l'aube Les deux personnes que j'vois l'plus sont unanimes J'inverse les rôles C'est p't'être devenu une manie Confonds pas Tino c'est celui qui t'lâche pas des yeux Jacques c'est l'autre, c'est celui qui inverse les rimes Récemment j'ai compris Qu'on avance plus vite à trois Ca m'évite de tenir six rames Faut que j'me débrouille Avant d'vivre d'mon art L'bruit court que le silencieux sort, oui J'aime entendre le silence quand je vide mon âme Faut que j'me débrouille Avant d'vivre d'mon art L'bruit court que le silencieux sort, oui J'aime entendre le silence quand je vide mon âme C'est pas tout l'monde qui est visé Entre les phases y a des ellipses Conçu, au d'ssus d'un resto chic Sur l'quel y a des éloges On y vit, on y taffe, on y dort J'aurais pu m'arrêter pour t'laisser un 8 Qu'tu nous dises à quel point t'es un brigand Ferme ta gueule T'as une chance sur deux d'paraître intriguant</t>
+          <t>Faut que j'me débrouille Avant d'vivre d'mon art L'bruit court que le silencieux sort, oui J'aime entendre le silence quand j'vide mon âme Faut que j'me débrouille Avant d'vivre d'mon art L'bruit court que le silencieux sort, oui J'aime entendre le silence quand j'vide mon âme D'humeur changeante, comme les vitrines des galeris D'une ville devnue fantôme, avant que la lumière cesse Ce soir le soleil s'est couché, avant 1916 J'te rejoins, après 19 seizes Elle veut loger dans le 9 mais j'ai à peine de quoi m'projeter dans le 19ème T'façon elle veut pas vivre dans le 19ème J'regarde la page noircie Du mal à la retourner pour revoir vierge la feuille Le lapsus est révélateur, j'ai écrit femme Y a le loup, l'agneau et celui qui écrit fallait 1960, on calmait les gosses en imbibant la tétine On fumait partout Un cigare à la bouche un autre à la mort C'est d'la bêtise Oh Hey Comme dirait l'autre ça fait Oh Hey Oh Hey Rien d'bien mon bébé qu'ton no way Ils veulent m'inquiéter It's Okay Oh Hey Rien d'bien mon bébé qu'ton no way Ils veulent m'inquiéter It's Okay La fin est proche, du moins c'est c'que l'Kook' m'a dit Je l'ai écouté, peu importe c'que l'boug' m'a dit Kho, merci pour l'taff que t'as fait Cette nuit j'ai écrit six textes sur trois prods Prépare moi donc quatre cafés A chaque fois que j'finis un volume j'ai l'cafard J'reste un guerrier peu importe c'est qui l'couffard Quand t'as tout perdu, t'as pas l'choix tu repars à zéro P't'être que j'ai manqué de zèle Ma daronne leur a servi un festin Aujourd'hui ils m'regardent l'air de dire qu'il manquait d'sel Mon frère au passé, pour l'refrain faudra r'passer J'accorderai pas une seconde de silence aux MCs que j'ai froissés Une promesse intenable tenue par un ami d'passage Le peu d'haine que j'avais A fait de l'ombre à tant de passions Et l'virage est serré sur la route qui mène à l'appartement Qu'elle veut qu'j'achète Toi, tu penses compenser ton manque de charisme avec les liasses que t'agites ? Hey, on sait c'qu'on fait Buteur sur ma propre passe dé' Ah bah ouais mon reuf Elle parle de toi au passé Toi, tu veux pas t'en passer Un futur, un présent que j't'ai vu laisser passer Ah bah ouais mon reuf P't'être qu'elle t'ment depuis l'début Ah bah ouais mon reuf Un café serré à huit heures et quart Un allongé à quatre Ils pourront pas m'allonger Même si ils s'y mettent à quatre Pendant qu'le D découpe la quête On s'prodigue des conseils On évite les crises La nuit sera calme car les seules promesses tenues ont été celles de l'aube Les deux personnes que j'vois l'plus sont unanimes J'inverse les rôles C'est p't'être devenu une manie Confonds pas Tino c'est celui qui t'lâche pas des yeux Jacques c'est l'autre, c'est celui qui inverse les rimes Récemment j'ai compris Qu'on avance plus vite à trois Ca m'évite de tenir six rames Faut que j'me débrouille Avant d'vivre d'mon art L'bruit court que le silencieux sort, oui J'aime entendre le silence quand je vide mon âme Faut que j'me débrouille Avant d'vivre d'mon art L'bruit court que le silencieux sort, oui J'aime entendre le silence quand je vide mon âme C'est pas tout l'monde qui est visé Entre les phases y a des ellipses Conçu, au d'ssus d'un resto chic Sur l'quel y a des éloges On y vit, on y taffe, on y dort J'aurais pu m'arrêter pour t'laisser un 8 Qu'tu nous dises à quel point t'es un brigand Ferme ta gueule T'as une chance sur deux d'paraître intriguant</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Il insiste, pour qu'j'boucle la mixtape à laquelle j'réfléchis d'puis deux ans en une semaine Sur un coup d'tête, j'peux faire en deux jours c'qu'ils sont incapables de faire en douze semaines Pour ramener le client, au début t'es généreux Le pe-ra c'est comme la drogue Le pe-ra, le pe-ra c'est comme la drogue Hey J'ai une plum mais j'ai pas d'locks J'ai du talent mais j'ai pas d'potes J'savais où ça allait m'menr j'suis pas bête Soit j'rentre dans la légende, soit j'rentre chez moi Soit j'me formate pour l'succès, soit j'rentre chez moi Ils m'ont même pas reconnu Poto reste, c'est moi Faut qu'tu partes Faut qu'tu partes J'allais lui offrir la lune pour ses 23 ans Dans mon coeur t'es la première, mais sur le papier t'es la vingt-troisième J'nique le moral des troupes comme une lucarne à la vingt-troisième L'orgasme est buccal La structure est archaïque Quand j'veux un son j'en écrit quatre Si on s'regarde dans les yeux, ça en fait quatre Deux traîtres plus deux traîtres ça en fait quatre Du P2 au so-per Du T2 au T4 Quand j'veux un son j'en écrit quatre Si on s'regarde dans les yeux, ça en fait quatre Deux traîtres plus deux traîtres ça en fait quatre Du P2 au so-per Du T2 au T4 You might also like Babe, j'fatigue On s'accoutume au délit d'faciès, à l'excès d'fatigue J'refuse d'attendre le rayon du soleil de demain J'ai cru tenir un rayon d'soleil entre mes deux mains Mais j'avais faux sur toute la ligne La tête contre la vitre du métro, j'me réveille à l'autre bout d'la ligne J'ai fait trois fois l'tour du parc J'refuse d'expliquer l'pourquoi du comment, mais faut qu'tu partes J'lai fait par amour du geste, pour garder l'innocence du coupable J'recompte les mégots, j'recompte les coup-bas La fougue ne se puise qu'avec les deux pieds dans la merde Si j't'ai promis la lune j'irai la décrocher D'la fac, j'ai une dizaine de raisons d'décrocher J'leur donne tort quand j'montre l'exemple On a de la route mets plus d'essence On s'arrêtera même pas pour pisser Trace J'vais en mettre 5 j'aurais pu en faire un 17 tracks Bellek t'as pas à trinquer quand l'17 traque Baby j'ai tellement l'blues Dignity and culture Il m'reste deux pets dans un pot terre cuite 22 d'batterie et 2k A deux doigts d'mettre un SMIC dans un pe-cli J'tais à ça d'cut la prod pas un speech à l'aveuglette J'peux pas nommer les fleuves sur lesquels on a vogués Mais j'me souviens des villes dans lesquelles on a fuck, baby</t>
+          <t>Il insiste, pour qu'j'boucle la mixtape à laquelle j'réfléchis d'puis deux ans en une semaine Sur un coup d'tête, j'peux faire en deux jours c'qu'ils sont incapables de faire en douze semaines Pour ramener le client, au début t'es généreux Le pe-ra c'est comme la drogue Le pe-ra, le pe-ra c'est comme la drogue Hey J'ai une plum mais j'ai pas d'locks J'ai du talent mais j'ai pas d'potes J'savais où ça allait m'menr j'suis pas bête Soit j'rentre dans la légende, soit j'rentre chez moi Soit j'me formate pour l'succès, soit j'rentre chez moi Ils m'ont même pas reconnu Poto reste, c'est moi Faut qu'tu partes Faut qu'tu partes J'allais lui offrir la lune pour ses 23 ans Dans mon coeur t'es la première, mais sur le papier t'es la vingt-troisième J'nique le moral des troupes comme une lucarne à la vingt-troisième L'orgasme est buccal La structure est archaïque Quand j'veux un son j'en écrit quatre Si on s'regarde dans les yeux, ça en fait quatre Deux traîtres plus deux traîtres ça en fait quatre Du P2 au so-per Du T2 au T4 Quand j'veux un son j'en écrit quatre Si on s'regarde dans les yeux, ça en fait quatre Deux traîtres plus deux traîtres ça en fait quatre Du P2 au so-per Du T2 au T4 Babe, j'fatigue On s'accoutume au délit d'faciès, à l'excès d'fatigue J'refuse d'attendre le rayon du soleil de demain J'ai cru tenir un rayon d'soleil entre mes deux mains Mais j'avais faux sur toute la ligne La tête contre la vitre du métro, j'me réveille à l'autre bout d'la ligne J'ai fait trois fois l'tour du parc J'refuse d'expliquer l'pourquoi du comment, mais faut qu'tu partes J'lai fait par amour du geste, pour garder l'innocence du coupable J'recompte les mégots, j'recompte les coup-bas La fougue ne se puise qu'avec les deux pieds dans la merde Si j't'ai promis la lune j'irai la décrocher D'la fac, j'ai une dizaine de raisons d'décrocher J'leur donne tort quand j'montre l'exemple On a de la route mets plus d'essence On s'arrêtera même pas pour pisser Trace J'vais en mettre 5 j'aurais pu en faire un 17 tracks Bellek t'as pas à trinquer quand l'17 traque Baby j'ai tellement l'blues Dignity and culture Il m'reste deux pets dans un pot terre cuite 22 d'batterie et 2k A deux doigts d'mettre un SMIC dans un pe-cli J'tais à ça d'cut la prod pas un speech à l'aveuglette J'peux pas nommer les fleuves sur lesquels on a vogués Mais j'me souviens des villes dans lesquelles on a fuck, baby</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gère tout c't'oseille comme si j'étais né avec Gère tout c't'oseille comme si j'tais né avec Rien d'normal dans nos lifes, ma belle J'suis pas là l'cash m'appelle Quej' dans l'cortège, une Aston cache la Benz Prochain bum-al, j'vais laisser l'pe-ra en prothèse Derrière tout grand bonhomme, y a une fe-meu qui l'protège Fuck off, on est même pas russophile NBOW, j'viens d'verser un Urus au fisc On est des hommes, on s'démerd, fait rentrer l'cash On rentr tard, on baise nos femmes No paye, no fan, on paie nos prestas, nos erreurs T'inquiète j'suis pas pressé, ils comprendront plus tard C'est comme un film d'Nolan Christopher Eh cousin j'l'aime, j'ai beau chanter NO LOVE Tout ça on en parlera plus tard Incapable d'dire love you sans dire puta Elle t'mérite pas cette grosse salope J'aurais pu voir la psy J'suis au stud' sur l'prochain titre Avant j'étais un mec bien, kho Tu t'es fait baiser, t'étais trop gentil J'aurais pu t'chanter l'amour mais j'l'ai plus ressenti Faut qu'j'belek, si j'y met trop d'moi même, j'peux plus l'sortir You might also like Plus l'sortir, plus l'sortir, plus l'sortir, plus l'sortir, plus ressenti Faut qu'j'belek, si j'y met trop d'moi même, j'peux plus l'sortir HORIZON 25, abats l'bon-char comme 25 On dira pas aux gosses qu'on était riches avant 25 J'lève les yeuz', objectif premier, pas dans les 25 J'lève les yeuz', objectif premier, pas dans les 25 HORIZON 25, abats l'bon-char comme 25 On dira pas aux gosses qu'on était riches avant 25 J'lève les yeuz', objectif premier, pas dans les 25 J'lève les yeuz', objectif premier, pas dans les 25 Premier, pas dans les 25</t>
+          <t>Gère tout c't'oseille comme si j'étais né avec Gère tout c't'oseille comme si j'tais né avec Rien d'normal dans nos lifes, ma belle J'suis pas là l'cash m'appelle Quej' dans l'cortège, une Aston cache la Benz Prochain bum-al, j'vais laisser l'pe-ra en prothèse Derrière tout grand bonhomme, y a une fe-meu qui l'protège Fuck off, on est même pas russophile NBOW, j'viens d'verser un Urus au fisc On est des hommes, on s'démerd, fait rentrer l'cash On rentr tard, on baise nos femmes No paye, no fan, on paie nos prestas, nos erreurs T'inquiète j'suis pas pressé, ils comprendront plus tard C'est comme un film d'Nolan Christopher Eh cousin j'l'aime, j'ai beau chanter NO LOVE Tout ça on en parlera plus tard Incapable d'dire love you sans dire puta Elle t'mérite pas cette grosse salope J'aurais pu voir la psy J'suis au stud' sur l'prochain titre Avant j'étais un mec bien, kho Tu t'es fait baiser, t'étais trop gentil J'aurais pu t'chanter l'amour mais j'l'ai plus ressenti Faut qu'j'belek, si j'y met trop d'moi même, j'peux plus l'sortir Plus l'sortir, plus l'sortir, plus l'sortir, plus l'sortir, plus ressenti Faut qu'j'belek, si j'y met trop d'moi même, j'peux plus l'sortir HORIZON 25, abats l'bon-char comme 25 On dira pas aux gosses qu'on était riches avant 25 J'lève les yeuz', objectif premier, pas dans les 25 J'lève les yeuz', objectif premier, pas dans les 25 HORIZON 25, abats l'bon-char comme 25 On dira pas aux gosses qu'on était riches avant 25 J'lève les yeuz', objectif premier, pas dans les 25 J'lève les yeuz', objectif premier, pas dans les 25 Premier, pas dans les 25</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>J'vais pas commencer avec les tu te souviens Mais quand même, tu te souviens ? Et si j'partais à sec, me promener sur la côte avant d'péter les scores Ah l'batard les ailes au sol à l'image d'un albatros Demain on a des sous mais on est pas l'Qatar Demain on a des sous mais on est pas l'Qatar Ah l'batard les ailes au sol à l'image d'un albatros Demain on a des sous mais on est pas l'Qatar Demain on a des sous mais on est pas l'Qatar Avant d'péter les scores Et si j'partais à sec, me promener sur la côt avant d'péter les scores Ah l'batard ls ailes au sol à l'image d'un albatrosYou might also like</t>
+          <t>J'vais pas commencer avec les tu te souviens Mais quand même, tu te souviens ? Et si j'partais à sec, me promener sur la côte avant d'péter les scores Ah l'batard les ailes au sol à l'image d'un albatros Demain on a des sous mais on est pas l'Qatar Demain on a des sous mais on est pas l'Qatar Ah l'batard les ailes au sol à l'image d'un albatros Demain on a des sous mais on est pas l'Qatar Demain on a des sous mais on est pas l'Qatar Avant d'péter les scores Et si j'partais à sec, me promener sur la côt avant d'péter les scores Ah l'batard ls ailes au sol à l'image d'un albatros</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Let's go Hey Triple fuck off Ré-accorde les guitares, laisse d'la place Viens, on s'promène dans l'quartier classe Laisse un clavier dans les caves d'Paname, fini l'piano On parle des films qui nous ont bercés Le temps, il passait tellement vite ensemble On était forts, on en avait peur d'être faibles Vient, on sort à l'heure où tout l'monde est fait Tout ça, ça t'nait à une ligne très fine J'sors d'une nuit agitée, ça t'nait qu'à un Je t'aime Et j'étais prêt, à peu près C'était un pote, c'était un te-traî J'aurais pu faire un dix titres, y a l'fond, y a l'attitude J'étais dans le fond d'la salle, j'mourais d'lassitude On faisait l'tour d'la city à l'heure et les lumières d'la ville s'éteignent Troisième album, pourquoi j'm'étale ? Eh, fuck le love Va falloir qu'on s'en passe, ma gueule On essaye, on s'casse la gueule Dans tous les cas, c'est la même You might also like T'sais, de base, elle, c'était la mienne Et vas-y, cry, bébé, et vas-y, cry Au pire, on essaye, on s'casse la gueule Viens, on ride, viens, on ride J'ai deux appart' et y a personne dans la chambre On vit nos rêves en gagnant de l'argent Si tu veux, c'est que d'la chance Allez, viens, on ride Ensuite cry, bébé, cry La ville s'réveille, j'quitte la chambre Un bum-al, c'est comme la gue-dro prends c'que t'as à prendre et embrouille pas celui qui t'la vends Viens, on s'enferme sous le poids d'nos seizes et vos conneries elles ont fait qu'déteindre Triple fuck off fuck off, fuck off, fuck off J'bosse, j'ai même plus l'temps d'me faire des tains-p' Il était beau mais il était triste l'été Il est p't-être pas trop tard T'es bon mais y avait pas trop d'âme Y avait un film mais y avait pas d'scénar' Change la rythmique, j'en veux pas d'ces nappes Je l'sais, c'est noir mais faut qu'tu nous épargne ces larmes Est-ce qu'on a besoin d'se barrer loin pour s'sentir vivre ? On aurait pu s'projeter sur un chantier vide Il nous reste une heure pour casser la chambre d'hôtel tiens, eh Fini l'Sancerre à la bouteille, y a pas d'rre-ve rien L'mode de vie, il est pas très sain J'tais comme l'autre, j'tais en batt'rie faible Allez, viens, on ride, viens, on ride Un café, elle s'lève tôt, elle s'étire À cinq heures, elle détale, le reste, c'est un détail Y a pas d'charme quand c'est impeccable J'écoutais l'océan, tout c'qu'j'entendais, c'était toi Les réponses, elles étaient juste là Allez, viens, on ride, s'tu veux, c'est que d'la chance Allez, viens, on ride Avant, j'étais fauché, j'étais attachant Allez, viens, on ride, hey Viens, on s'barre S'tu veux, c'est que d'la chance Avant, j'étais fauché, j'étais attachant Un bum-al, c'est comme la gue-dro tu prends c'que t'as à prendre et embrouille pas celui qui t'la vends NBOW1</t>
+          <t>Let's go Hey Triple fuck off Ré-accorde les guitares, laisse d'la place Viens, on s'promène dans l'quartier classe Laisse un clavier dans les caves d'Paname, fini l'piano On parle des films qui nous ont bercés Le temps, il passait tellement vite ensemble On était forts, on en avait peur d'être faibles Vient, on sort à l'heure où tout l'monde est fait Tout ça, ça t'nait à une ligne très fine J'sors d'une nuit agitée, ça t'nait qu'à un Je t'aime Et j'étais prêt, à peu près C'était un pote, c'était un te-traî J'aurais pu faire un dix titres, y a l'fond, y a l'attitude J'étais dans le fond d'la salle, j'mourais d'lassitude On faisait l'tour d'la city à l'heure et les lumières d'la ville s'éteignent Troisième album, pourquoi j'm'étale ? Eh, fuck le love Va falloir qu'on s'en passe, ma gueule On essaye, on s'casse la gueule Dans tous les cas, c'est la même T'sais, de base, elle, c'était la mienne Et vas-y, cry, bébé, et vas-y, cry Au pire, on essaye, on s'casse la gueule Viens, on ride, viens, on ride J'ai deux appart' et y a personne dans la chambre On vit nos rêves en gagnant de l'argent Si tu veux, c'est que d'la chance Allez, viens, on ride Ensuite cry, bébé, cry La ville s'réveille, j'quitte la chambre Un bum-al, c'est comme la gue-dro prends c'que t'as à prendre et embrouille pas celui qui t'la vends Viens, on s'enferme sous le poids d'nos seizes et vos conneries elles ont fait qu'déteindre Triple fuck off fuck off, fuck off, fuck off J'bosse, j'ai même plus l'temps d'me faire des tains-p' Il était beau mais il était triste l'été Il est p't-être pas trop tard T'es bon mais y avait pas trop d'âme Y avait un film mais y avait pas d'scénar' Change la rythmique, j'en veux pas d'ces nappes Je l'sais, c'est noir mais faut qu'tu nous épargne ces larmes Est-ce qu'on a besoin d'se barrer loin pour s'sentir vivre ? On aurait pu s'projeter sur un chantier vide Il nous reste une heure pour casser la chambre d'hôtel tiens, eh Fini l'Sancerre à la bouteille, y a pas d'rre-ve rien L'mode de vie, il est pas très sain J'tais comme l'autre, j'tais en batt'rie faible Allez, viens, on ride, viens, on ride Un café, elle s'lève tôt, elle s'étire À cinq heures, elle détale, le reste, c'est un détail Y a pas d'charme quand c'est impeccable J'écoutais l'océan, tout c'qu'j'entendais, c'était toi Les réponses, elles étaient juste là Allez, viens, on ride, s'tu veux, c'est que d'la chance Allez, viens, on ride Avant, j'étais fauché, j'étais attachant Allez, viens, on ride, hey Viens, on s'barre S'tu veux, c'est que d'la chance Avant, j'étais fauché, j'étais attachant Un bum-al, c'est comme la gue-dro tu prends c'que t'as à prendre et embrouille pas celui qui t'la vends NBOW1</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Allez viens, on s'arrache ou on nachave Avant qu'les frontières toutes se ferment Dignity and culture Les sondages le disent J'refuse de m'faire baiser sur l'pourcentage du deal Pendant qu'le 12 ans d'âge se tise Des femmes réclament le sexe, des femmes réclament le texte Mais l'Jacques a besoin du calme Un cendrier, terre-par des bouteilles vides J'en fais plus qu'à ma tête et j'regarde bouder l'flic J'en veux plus à ma belle, j'en peux plus d'la macrelle Est-ce que j'décroche ou j'rappelle ? 22 appels manqués Le constat est clair, tu m'as à peine manqué La batterie est faible et l'MC est assermenté J'suis juste descendu pour mieux t'monter Détendu pour mieux t'monter L'étendue d'un peu d'bonté, tiens, ramène-moi l'bon thé On esthétise mal-être chez nous, dans une mallette j'mets tout On esthétise mal-être chez nous, dans une mallette j'mets tout Soit j'me casse soit j'étouffe T'es une chienne, j'suis un loup bébé T'es une chienne, j'suis un loup bébé Soit j'me casse soit j'étouffe Dans une mallette j'mets tout, on esthétise mal-être chez nous T'es une chienne, j'suis un loup bébé You might also like Aloha, collier d'fleurs que je souffre Aloha, collier d'fleurs que je souffre Une identité, 4 facettes Une identité, 4 facettes Son reflet s'réfléchit dans mes yeux Un nuage s'épaissit dans les cieux Encore une once d'plaisir dans un pieu Rongé par l'désir ou juste envie de mieux J'vous emmerde, j'vous lève tous mes doigts J'soulève tous les poids Dites-moi au juste, vous m'voulez quoi ? J'vous emmerde, j'vous lève tous mes doigts J'soulève tous les poids Dites-moi au juste, vous m'voulez quoi ? J'renonce à elle moi j'voulais d'toi Aloha, collier d'fleurs que je souffre Aloha</t>
+          <t>Allez viens, on s'arrache ou on nachave Avant qu'les frontières toutes se ferment Dignity and culture Les sondages le disent J'refuse de m'faire baiser sur l'pourcentage du deal Pendant qu'le 12 ans d'âge se tise Des femmes réclament le sexe, des femmes réclament le texte Mais l'Jacques a besoin du calme Un cendrier, terre-par des bouteilles vides J'en fais plus qu'à ma tête et j'regarde bouder l'flic J'en veux plus à ma belle, j'en peux plus d'la macrelle Est-ce que j'décroche ou j'rappelle ? 22 appels manqués Le constat est clair, tu m'as à peine manqué La batterie est faible et l'MC est assermenté J'suis juste descendu pour mieux t'monter Détendu pour mieux t'monter L'étendue d'un peu d'bonté, tiens, ramène-moi l'bon thé On esthétise mal-être chez nous, dans une mallette j'mets tout On esthétise mal-être chez nous, dans une mallette j'mets tout Soit j'me casse soit j'étouffe T'es une chienne, j'suis un loup bébé T'es une chienne, j'suis un loup bébé Soit j'me casse soit j'étouffe Dans une mallette j'mets tout, on esthétise mal-être chez nous T'es une chienne, j'suis un loup bébé Aloha, collier d'fleurs que je souffre Aloha, collier d'fleurs que je souffre Une identité, 4 facettes Une identité, 4 facettes Son reflet s'réfléchit dans mes yeux Un nuage s'épaissit dans les cieux Encore une once d'plaisir dans un pieu Rongé par l'désir ou juste envie de mieux J'vous emmerde, j'vous lève tous mes doigts J'soulève tous les poids Dites-moi au juste, vous m'voulez quoi ? J'vous emmerde, j'vous lève tous mes doigts J'soulève tous les poids Dites-moi au juste, vous m'voulez quoi ? J'renonce à elle moi j'voulais d'toi Aloha, collier d'fleurs que je souffre Aloha</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Les jambes bronzées par l'soleil du Sud L'amertume d'un café atténuée par douceur de sucre Cet Hiver j'irai pisser en 2-7, j'te prends un billet dès que j'ai rempli 2 sacs On a toujours sus s'habiller sans avoir à claquer 2 smics J'broie 11 prods j'claque 22 fesses J'mettrais le monde à ses pieds juste pour ses 22 ans Un éclair brut vient d'fendre le ciel J'tai pris un bout d'paradis pour t'revendre le ciel Avc du sang froid, y'a aucun stress dans l'sasYou might also like</t>
+          <t>Les jambes bronzées par l'soleil du Sud L'amertume d'un café atténuée par douceur de sucre Cet Hiver j'irai pisser en 2-7, j'te prends un billet dès que j'ai rempli 2 sacs On a toujours sus s'habiller sans avoir à claquer 2 smics J'broie 11 prods j'claque 22 fesses J'mettrais le monde à ses pieds juste pour ses 22 ans Un éclair brut vient d'fendre le ciel J'tai pris un bout d'paradis pour t'revendre le ciel Avc du sang froid, y'a aucun stress dans l'sas</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>J'écris fuck off avec traces de doigts sur la vitre Tu pourras tter-doig avec une vue imprenable sur la ville Si y a l'feu, les pompiers ils font pas l'poids face à léchelle de Richter J'veux pas être riche si les impôts me pigeonnent comme une michto C'est des salopes sur ma vie, y a ma tête sur l'affiche Benjamin Franklin sur la kish' Deux doigts dans la bouche, puissant comme un glock dès qu'ça tire J'écris fuck off avec traces de doigts sur la vitre Tu pourras t'ter-doig avec une vue imprenable sur la ville Fuck off eh Risotto à 24 plus quinfect On idéalisait cette merde cest plus qu'un fait Obligé dte mentir, de t'faire du mal J'fais l'tour du monde puis jrentre chez moi avec un blues de ouf Moins d'temps plus de Houss Le rap fr en doggy dans un club de house On est pas censé trouver l'amour dans un clip de rap Est-ce que tu restes si j'me rate eh Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites C'est juste j'étais seul J'voulais être l'fils de personne j'étais l'pote de qui Le Quej', force à la next gen bande de geeks You might also like Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites hein On va tous vous faire Si on doit repasser on t'sort le fer Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites On va tous vous faire Si on doit repasser on t'sort le fer Plus ou moins conscient, ça m'est égal Dépendance tah Mané au Sénégal Arrivage d'émotion, provoque le drame Dans la prairie, j'suis Charles Ingalls Les dormeurs réalisent jamais leurs rêves Comme Poutine qui accepterait la trêve Comme Macron et Brigitte qui font la grève 49.3 Saint-Denis dirige la tess Pour t'niquer j'ai dû être pragmatique Starting-block j'démarre sur verbatim Y'a du fond d'teint d'pute sur la poche du jean Cocaïne, j'donne à Alice dans l'parking On fête pas les contrats Y'a que si on est riche que c'est concret Comme un crime dessiné à la craie On traumatise des mômes depuis la récré Araï Music Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites hein On va tous vous faire Si on doit repasser on t'sort le fer Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites On va tous vous faire Si on doit repasser on t'sort le fer Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites hein On va tous vous faire Si on doit repasser on t'sort le fer Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites On va tous vous faire Si on doit repasser on t'sort le fer</t>
+          <t>J'écris fuck off avec traces de doigts sur la vitre Tu pourras tter-doig avec une vue imprenable sur la ville Si y a l'feu, les pompiers ils font pas l'poids face à léchelle de Richter J'veux pas être riche si les impôts me pigeonnent comme une michto C'est des salopes sur ma vie, y a ma tête sur l'affiche Benjamin Franklin sur la kish' Deux doigts dans la bouche, puissant comme un glock dès qu'ça tire J'écris fuck off avec traces de doigts sur la vitre Tu pourras t'ter-doig avec une vue imprenable sur la ville Fuck off eh Risotto à 24 plus quinfect On idéalisait cette merde cest plus qu'un fait Obligé dte mentir, de t'faire du mal J'fais l'tour du monde puis jrentre chez moi avec un blues de ouf Moins d'temps plus de Houss Le rap fr en doggy dans un club de house On est pas censé trouver l'amour dans un clip de rap Est-ce que tu restes si j'me rate eh Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites C'est juste j'étais seul J'voulais être l'fils de personne j'étais l'pote de qui Le Quej', force à la next gen bande de geeks Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites hein On va tous vous faire Si on doit repasser on t'sort le fer Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites On va tous vous faire Si on doit repasser on t'sort le fer Plus ou moins conscient, ça m'est égal Dépendance tah Mané au Sénégal Arrivage d'émotion, provoque le drame Dans la prairie, j'suis Charles Ingalls Les dormeurs réalisent jamais leurs rêves Comme Poutine qui accepterait la trêve Comme Macron et Brigitte qui font la grève 49.3 Saint-Denis dirige la tess Pour t'niquer j'ai dû être pragmatique Starting-block j'démarre sur verbatim Y'a du fond d'teint d'pute sur la poche du jean Cocaïne, j'donne à Alice dans l'parking On fête pas les contrats Y'a que si on est riche que c'est concret Comme un crime dessiné à la craie On traumatise des mômes depuis la récré Araï Music Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites hein On va tous vous faire Si on doit repasser on t'sort le fer Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites On va tous vous faire Si on doit repasser on t'sort le fer Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites hein On va tous vous faire Si on doit repasser on t'sort le fer Allez tous vous faire Si je pouvais fermer les yeuz sur tout c'qu'vous faites On va tous vous faire Si on doit repasser on t'sort le fer</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Check Tiens, prends une barre, c'est presque la fin Presque On dirait le début mais c'est presque la fin C'est presque la fin Laisse briller la flamme si personne l'éteint, ves-qui les tains-p Dans la grotte, à en perdre le teint, on a cru en nous, à en perdre du fric Le reflet d'la mer, regarde depuis Rayol, j'rgarde plus l'port du Havre J'ai vu des bougs mttre plus de cur à vendre du shit qu'à vendre du rap Eh khey, j'blâme personne, c'est pas aujourd'hui qu'j'm'aperçois Ça va partir, c'est l'perso, bitch elle a les partiels Lunettes noires, nuit blanche, Soleil dans les persiennes Y a p'te quelqu'un qui va mal qu'j'ai bercé On chantera au Zenith que j'peux pas, j'ai Bercy Y a qui à part ça, salaire facile, j'ai vidé un Bic, j'ai rempli plein de salles Tu crois qu'j'ai pris plein de sous ? Bien sûr qu'j'ai pris plein de sous J'touche six fois ma tête, deux fois du bois T'es heureux, pourquoi tu broies ? T'es triste, pourquoi tu bois ? T'étais où, pourquoi tu boites ? Hein, c'est oi-m, eh, Fuck Off Y en a une qui attend dans la chambre bleue, une autre dans la black Un premier bain d'forêt sur l'île, un autre dans ma bat' Pour prouver qu't'aimes, faut mettre combien d'SMIC dans la bague ? Bébé, ce soir je traine, j'suis lassé tu fatigues Mais moi, c'est quand que je craque ? Comme dirait l'autre j'craquerai pas C'est rien si y a du sang, faut juste je trappe Si l'talent serait quelqu'un, il serait le pire ennemi d'ton mental Fuck l'amour, vive la fame, y a certains lapsus qui n'trompent pas Et il parait qu'il y a même des mecs qui t'trompent pas Dans ta tête, c'est qui le tron-pa ? Y a des pensées qui t'quitteront pas En ce moment, rien qu'j'enquille, j'ai pissé sur plein de jonquilles Paname, juste une jupe sur tes jambes, viens on rentre j'suis dans un loft qui fait l'angle et qui a vue sur les gens Eh, j'en avais vraiment le génie ou j'avais besoin qu'quelqu'un me l'inspire L'audace, c'est quoi ? L'audace, c'est moi Eh, j'en avais vraiment le génie ou j'avais besoin qu'quelqu'un me l'inspire L'audace, c'est quoi ? L'audace, c'était toi You might also like L'audace, c'tait nous</t>
+          <t>Check Tiens, prends une barre, c'est presque la fin Presque On dirait le début mais c'est presque la fin C'est presque la fin Laisse briller la flamme si personne l'éteint, ves-qui les tains-p Dans la grotte, à en perdre le teint, on a cru en nous, à en perdre du fric Le reflet d'la mer, regarde depuis Rayol, j'rgarde plus l'port du Havre J'ai vu des bougs mttre plus de cur à vendre du shit qu'à vendre du rap Eh khey, j'blâme personne, c'est pas aujourd'hui qu'j'm'aperçois Ça va partir, c'est l'perso, bitch elle a les partiels Lunettes noires, nuit blanche, Soleil dans les persiennes Y a p'te quelqu'un qui va mal qu'j'ai bercé On chantera au Zenith que j'peux pas, j'ai Bercy Y a qui à part ça, salaire facile, j'ai vidé un Bic, j'ai rempli plein de salles Tu crois qu'j'ai pris plein de sous ? Bien sûr qu'j'ai pris plein de sous J'touche six fois ma tête, deux fois du bois T'es heureux, pourquoi tu broies ? T'es triste, pourquoi tu bois ? T'étais où, pourquoi tu boites ? Hein, c'est oi-m, eh, Fuck Off Y en a une qui attend dans la chambre bleue, une autre dans la black Un premier bain d'forêt sur l'île, un autre dans ma bat' Pour prouver qu't'aimes, faut mettre combien d'SMIC dans la bague ? Bébé, ce soir je traine, j'suis lassé tu fatigues Mais moi, c'est quand que je craque ? Comme dirait l'autre j'craquerai pas C'est rien si y a du sang, faut juste je trappe Si l'talent serait quelqu'un, il serait le pire ennemi d'ton mental Fuck l'amour, vive la fame, y a certains lapsus qui n'trompent pas Et il parait qu'il y a même des mecs qui t'trompent pas Dans ta tête, c'est qui le tron-pa ? Y a des pensées qui t'quitteront pas En ce moment, rien qu'j'enquille, j'ai pissé sur plein de jonquilles Paname, juste une jupe sur tes jambes, viens on rentre j'suis dans un loft qui fait l'angle et qui a vue sur les gens Eh, j'en avais vraiment le génie ou j'avais besoin qu'quelqu'un me l'inspire L'audace, c'est quoi ? L'audace, c'est moi Eh, j'en avais vraiment le génie ou j'avais besoin qu'quelqu'un me l'inspire L'audace, c'est quoi ? L'audace, c'était toi L'audace, c'tait nous</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Dignity and culture J'ai passé Le plus clair de mon temps à l'obscurcir Les questions se justifient quand les craintes sont louables Des tensions dans la piste cumulent quinze-cent watts Pour me sentir mieux je dois bousillier quinze-cent Axe Dès que mon verre est vide bébé baisse le store Je pratique le stress, comme on pratique le sport Est-ce qu'on réussi que ce qu'on rate d'abord ? Y'a des choses qui se disent, d'autres qu'on doit faire d'abord faire d'abord J'ose, donc rien ne m'arrête Ils ont l'air zehef mais ils ont pas d'quoi Devant les bleus ça parle lingala, l'patois J'collectionne les pierres qu'on me jète J'ai géré le deux contre un, c'était jouable comme un 4 contre 7 J'aime son français approximatif J'aime son accent tchèque J'me promenais dans le Six pour oublier qu'on rase mon tieks J'peux pas roupiller, pendant qu'ils cassent mon tieks Cassent mon tieks You might also like Baby, je t'offre Je t'emmène manger le risotto à 24e On s'sent bien quand on a tout mais on s'sent mieux quand on a besoin d'peu Baby, je t'offre Je t'emmène manger le risotto à 24e On s'sent bien quand on a tout mais on s'sent mieux quand on a besoin d'peu Y a que devant Dieu qu'on se prosterne nous On aura enculé le peu-ra dès que les MCs auront des posters d'nous Y a que devant Dieu qu'on se prosterne nous On aura enculé le peu-ra dès que les MCs auront des posters d'nous Noir, comme le souvenir de ses yeux Les additions salées des whisky secs J'peux pas trop parler baby j'vesqui l'shour Noir, comme le souvenir de ses yeux Les additions salées des whisky secs J'peux pas trop parler baby j'vesqui l'shour Jamais là où on m'attend Les excuses, c'pour les lâches Les raisons, c'pour les battants Est-ce que j'tourne la page ou j'les attends ? J'cumule trois foutus tafs khey j'ai pas l'temps Soit tu taffe soit tu nique ta race Soit tu brise soit tu pique t'arrache J'prie pour qu's'divise ma rage Il est temps que j'm'arrache Du poids sur les épaules, il est temps que j'm'allège Livré à moi il faut que j'devienne plus fort Les chiens aboient pendant que les loups se dévorent Pour m'endormir, je recompte mes strophes Il est quatre heure du matin quatre heure J'hésite à l'appeler j'hésite à l'appeler J'en ai marre de ces catins, j'me sens en apnée Si Jacques c'est le parrain, il est où le padre ? J'ai perdu mon bras droit, j'ai quand même brassé Il est quatre heure du matin j'hésite à l'appeler J'en ai marre de ces catins, j'me sens en apnée Si Jacques c'est le parrain, il est où le padre ? J'ai perdu mon bras droit, j'ai quand même brassé Il est tard j'avoue Demain très tôt j'suis au garde-à-vous garde-à-vous Ya un tas de keufs, j'défend la cage comme le jeune Cafu Ressert moi un thé, un verre de café J'vous laisse finir 8.6 quand d'autres partent taffer Il est tard j'avoue Demain très tôt j'suis au garde-à-vous garde-à-vous Il est tard j'avoue Y'a que devant Dieu qu'on se prosterne nous On aura enculé le peu-ra dès que les MCs auront des posters d'nous</t>
+          <t>Dignity and culture J'ai passé Le plus clair de mon temps à l'obscurcir Les questions se justifient quand les craintes sont louables Des tensions dans la piste cumulent quinze-cent watts Pour me sentir mieux je dois bousillier quinze-cent Axe Dès que mon verre est vide bébé baisse le store Je pratique le stress, comme on pratique le sport Est-ce qu'on réussi que ce qu'on rate d'abord ? Y'a des choses qui se disent, d'autres qu'on doit faire d'abord faire d'abord J'ose, donc rien ne m'arrête Ils ont l'air zehef mais ils ont pas d'quoi Devant les bleus ça parle lingala, l'patois J'collectionne les pierres qu'on me jète J'ai géré le deux contre un, c'était jouable comme un 4 contre 7 J'aime son français approximatif J'aime son accent tchèque J'me promenais dans le Six pour oublier qu'on rase mon tieks J'peux pas roupiller, pendant qu'ils cassent mon tieks Cassent mon tieks Baby, je t'offre Je t'emmène manger le risotto à 24e On s'sent bien quand on a tout mais on s'sent mieux quand on a besoin d'peu Baby, je t'offre Je t'emmène manger le risotto à 24e On s'sent bien quand on a tout mais on s'sent mieux quand on a besoin d'peu Y a que devant Dieu qu'on se prosterne nous On aura enculé le peu-ra dès que les MCs auront des posters d'nous Y a que devant Dieu qu'on se prosterne nous On aura enculé le peu-ra dès que les MCs auront des posters d'nous Noir, comme le souvenir de ses yeux Les additions salées des whisky secs J'peux pas trop parler baby j'vesqui l'shour Noir, comme le souvenir de ses yeux Les additions salées des whisky secs J'peux pas trop parler baby j'vesqui l'shour Jamais là où on m'attend Les excuses, c'pour les lâches Les raisons, c'pour les battants Est-ce que j'tourne la page ou j'les attends ? J'cumule trois foutus tafs khey j'ai pas l'temps Soit tu taffe soit tu nique ta race Soit tu brise soit tu pique t'arrache J'prie pour qu's'divise ma rage Il est temps que j'm'arrache Du poids sur les épaules, il est temps que j'm'allège Livré à moi il faut que j'devienne plus fort Les chiens aboient pendant que les loups se dévorent Pour m'endormir, je recompte mes strophes Il est quatre heure du matin quatre heure J'hésite à l'appeler j'hésite à l'appeler J'en ai marre de ces catins, j'me sens en apnée Si Jacques c'est le parrain, il est où le padre ? J'ai perdu mon bras droit, j'ai quand même brassé Il est quatre heure du matin j'hésite à l'appeler J'en ai marre de ces catins, j'me sens en apnée Si Jacques c'est le parrain, il est où le padre ? J'ai perdu mon bras droit, j'ai quand même brassé Il est tard j'avoue Demain très tôt j'suis au garde-à-vous garde-à-vous Ya un tas de keufs, j'défend la cage comme le jeune Cafu Ressert moi un thé, un verre de café J'vous laisse finir 8.6 quand d'autres partent taffer Il est tard j'avoue Demain très tôt j'suis au garde-à-vous garde-à-vous Il est tard j'avoue Y'a que devant Dieu qu'on se prosterne nous On aura enculé le peu-ra dès que les MCs auront des posters d'nous</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Eh Elle a capté l'temps, j'ai pas Jsais, c'est loin mais t'en fais pas, roule un calu dans une rue calme y a rien Babe, c'est trop tard, on est més-cra dans l'cur d'Lutèce Et dire qu'hier encore j'luttais J'ai d'la route, le chauffeur est fatigué et presque Elle a pris un tarif exemplaire, toute la night Y aura pas de feat' avec Jorja Solo, faut qu'j'casse la 'tape J'dois finir le bum-al', ça m'casse la tête Eh, tu minvites dessus, j'casse la 'tape Cette année, j'ai écrit deux bums-al mais j'ai pas eu l'temps d'te faire de lettres Y a qu'à la fin d'Palpite qu'j'demande de l'aide Ils ont envoyé cent-vingt mais j'attends l'reste À peine deux ans d'activité, déjà en route pour vingt ans d'règne Et si on f'sait bouger les foules, eh, l'équipe, faut pas baiser les fans C'est pas prêt d'se finir, j'compte pas baisser les armes non Et si on r'gardait battre des cils, même ceux qui m'aiment pas, ils m'écoutent Quand t'es face à toi, il t'reste le dîn Ces trous d'balle, ils croient encore j'suis l'frère de Deen Troisième album j'aurais pu, j'aurais pu l'faire de tête On était stylé dans des paires de Tim Les vitres d'la berline étaient noires, Berlin était vide Si tu savais, si t'étais moi, j'les baise, qu'NBOW en témoigne Y avait d'la pression sur l'épaule des gosses You might also like Il a fallu changer mais il était beau, l'décor Dis-toi qu'j'commence, c'est que l'départ Si tu savais, si t'étais moi Les vitres d'la berline étaient noires, Berlin était vide Troisième album, j'aurais pu l'faire de tête On était stylé dans des paires de Tim paire de Tim Il a fallu régner mais dans la faune Laisse-moi prendre toutes tes affaires Tu sais, quand j'te proj'tais, j'voyais l'truc Et j'te voyais près d'la scène Elle m'a dit L'ques-J' faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? J'aime sentir dans l'bas du dos, c'est qu'du sexe, y a pas d'idylle Elle Elle m'a dit L'ques-J faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? jaime J'aime sentir dans l'bas du dos, c'est qu'du sexe, y a pas d'idylle pas d'idylle Elle, elle vient pas d'l'Eden, y a des tords qu'on s'accorde J'sais, dehors, ça caille et l'te-shi, ça calme Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? On s'aime, on s'baise, on s'taquine Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? Eh, eh, eh Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? Fuck off J'aime sentir dans l'bas du dos, c'est qu'du sexe, y a pas d'idylle Elle, elle r'vient pas d'l'Eden J'aime sentir dans l'bas du dos, c'est qu'du sexe, y a pas d'idylle Elle, elle r'vient pas d'l'Eden elle r'vient pas d'l'Eden Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? Il a fallu régner dans faune, laisse-moi prendre tes affaires Tu sais très bien, j'fais l'truc qu'j'te r'voyais près d'la scène que j'te r'voyais près d'la scène Elle m'a dit L'ques-J', pourquoi tu chantes, t'as des compos, pourquoi tu samples ? Elle m'a dit L'ques-J', pourquoi tu chantes, t'as des compos, pourquoi tu samples ? Elle m'a dit L'ques-J', pourquoi tu chantes, t'as des compos, pourquoi tu samples ? Elle m'a dit L'ques-J', pourquoi tu chantes, t'as des compos, pourquoi tu samples ?</t>
+          <t>Eh Elle a capté l'temps, j'ai pas Jsais, c'est loin mais t'en fais pas, roule un calu dans une rue calme y a rien Babe, c'est trop tard, on est més-cra dans l'cur d'Lutèce Et dire qu'hier encore j'luttais J'ai d'la route, le chauffeur est fatigué et presque Elle a pris un tarif exemplaire, toute la night Y aura pas de feat' avec Jorja Solo, faut qu'j'casse la 'tape J'dois finir le bum-al', ça m'casse la tête Eh, tu minvites dessus, j'casse la 'tape Cette année, j'ai écrit deux bums-al mais j'ai pas eu l'temps d'te faire de lettres Y a qu'à la fin d'Palpite qu'j'demande de l'aide Ils ont envoyé cent-vingt mais j'attends l'reste À peine deux ans d'activité, déjà en route pour vingt ans d'règne Et si on f'sait bouger les foules, eh, l'équipe, faut pas baiser les fans C'est pas prêt d'se finir, j'compte pas baisser les armes non Et si on r'gardait battre des cils, même ceux qui m'aiment pas, ils m'écoutent Quand t'es face à toi, il t'reste le dîn Ces trous d'balle, ils croient encore j'suis l'frère de Deen Troisième album j'aurais pu, j'aurais pu l'faire de tête On était stylé dans des paires de Tim Les vitres d'la berline étaient noires, Berlin était vide Si tu savais, si t'étais moi, j'les baise, qu'NBOW en témoigne Y avait d'la pression sur l'épaule des gosses Il a fallu changer mais il était beau, l'décor Dis-toi qu'j'commence, c'est que l'départ Si tu savais, si t'étais moi Les vitres d'la berline étaient noires, Berlin était vide Troisième album, j'aurais pu l'faire de tête On était stylé dans des paires de Tim paire de Tim Il a fallu régner mais dans la faune Laisse-moi prendre toutes tes affaires Tu sais, quand j'te proj'tais, j'voyais l'truc Et j'te voyais près d'la scène Elle m'a dit L'ques-J' faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? J'aime sentir dans l'bas du dos, c'est qu'du sexe, y a pas d'idylle Elle Elle m'a dit L'ques-J faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? jaime J'aime sentir dans l'bas du dos, c'est qu'du sexe, y a pas d'idylle pas d'idylle Elle, elle vient pas d'l'Eden, y a des tords qu'on s'accorde J'sais, dehors, ça caille et l'te-shi, ça calme Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? On s'aime, on s'baise, on s'taquine Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? Eh, eh, eh Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? Fuck off J'aime sentir dans l'bas du dos, c'est qu'du sexe, y a pas d'idylle Elle, elle r'vient pas d'l'Eden J'aime sentir dans l'bas du dos, c'est qu'du sexe, y a pas d'idylle Elle, elle r'vient pas d'l'Eden elle r'vient pas d'l'Eden Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? Elle m'a dit L'ques-J', faut pas qu'tu chantes, t'as des compos, pourquoi tu samples ? Il a fallu régner dans faune, laisse-moi prendre tes affaires Tu sais très bien, j'fais l'truc qu'j'te r'voyais près d'la scène que j'te r'voyais près d'la scène Elle m'a dit L'ques-J', pourquoi tu chantes, t'as des compos, pourquoi tu samples ? Elle m'a dit L'ques-J', pourquoi tu chantes, t'as des compos, pourquoi tu samples ? Elle m'a dit L'ques-J', pourquoi tu chantes, t'as des compos, pourquoi tu samples ? Elle m'a dit L'ques-J', pourquoi tu chantes, t'as des compos, pourquoi tu samples ?</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Elle a béni ma voix Ils ont failli m'avoir Elle a béni ma voix Eh Fuck la page blanche, pourquoi les mots m'fuiraient ? S'ils s'cassent j'me barre avec Cigare, la nuit, braquage, signature unique, génie paraphé Faut prendre c'qui va avec, renie pas la fame J'suis premier à quitter la fête, babe, t'es nostalgique J'repense au premier avec qui tu l'as fait J'suis allé vivre pour écrire sinon j'faisait que chanter Fuck la fame J'continue d'vivre avec tout c'qu j'ai dans la tête Fuck ça, j'ai pas encore posé T'n fais les choses, j'suis dans sa pussy Compét' de chiffres, mise à part ça, j'trouve ça poussif Elle a pas mit d'bébé dans la poussette, elle a hâte d'la pousser J'lève les yeuz, j'entends l'bon Dieu à travers l'bruit du vent Et toi, est ce que t'entends mes cris, meurtris, qui sortent du ventre ? Seté, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi Seté, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi You might also like Seté, elle a béni ma voix J'suis béni, ma foi Le game il a failli m'avoir J'suis béni, ma foi J'me souvient d'ta tête, tes cheveux qui prennent le vent Il m'reste tes messages à rallonge pour dire Tu rentres pas J'peux même plus faire l'tour d'Paname à la recherche d'l'inspi quand j'rentre tard T'envie un truc qu'tu supporteras pas À tout c'temps qu'j'ai niqué pour des gens qui en valaient pas l'coup En c'moment j'me priorise, le braco n'en valait pas le coup J'voyais l'bout mais j'voyais pas l'gouffre J'voyais l'bout mais j'voyais pas l'gouffre On va incarner l'biff j'suis à fond dans l'G7, eh Va t'faire foutre ailleurs, tu l'aimes, tu vois pas qu'elle s'fout d'ta gueule J'aurais pu fédérer, j'ai pas pris l'temps de faire de lèche Est ce que l'amitié s'arrête là où commence le RIB, ou dès qu'commence le rêve ? Et un beau jour c'est trop tard, tu tournes la tête deux secondes Boom le Quej' commence le reigne Gros, y a ceux qui l'vivent et ceux qui contemplent le rêve On les baise dans leurs propres règles Seté, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi Seté, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi Seté, elle a béni ma voix J'suis béni, ma foi Le game il a failli m'avoir J'suis béni, ma foi</t>
+          <t>Elle a béni ma voix Ils ont failli m'avoir Elle a béni ma voix Eh Fuck la page blanche, pourquoi les mots m'fuiraient ? S'ils s'cassent j'me barre avec Cigare, la nuit, braquage, signature unique, génie paraphé Faut prendre c'qui va avec, renie pas la fame J'suis premier à quitter la fête, babe, t'es nostalgique J'repense au premier avec qui tu l'as fait J'suis allé vivre pour écrire sinon j'faisait que chanter Fuck la fame J'continue d'vivre avec tout c'qu j'ai dans la tête Fuck ça, j'ai pas encore posé T'n fais les choses, j'suis dans sa pussy Compét' de chiffres, mise à part ça, j'trouve ça poussif Elle a pas mit d'bébé dans la poussette, elle a hâte d'la pousser J'lève les yeuz, j'entends l'bon Dieu à travers l'bruit du vent Et toi, est ce que t'entends mes cris, meurtris, qui sortent du ventre ? Seté, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi Seté, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi Seté, elle a béni ma voix J'suis béni, ma foi Le game il a failli m'avoir J'suis béni, ma foi J'me souvient d'ta tête, tes cheveux qui prennent le vent Il m'reste tes messages à rallonge pour dire Tu rentres pas J'peux même plus faire l'tour d'Paname à la recherche d'l'inspi quand j'rentre tard T'envie un truc qu'tu supporteras pas À tout c'temps qu'j'ai niqué pour des gens qui en valaient pas l'coup En c'moment j'me priorise, le braco n'en valait pas le coup J'voyais l'bout mais j'voyais pas l'gouffre J'voyais l'bout mais j'voyais pas l'gouffre On va incarner l'biff j'suis à fond dans l'G7, eh Va t'faire foutre ailleurs, tu l'aimes, tu vois pas qu'elle s'fout d'ta gueule J'aurais pu fédérer, j'ai pas pris l'temps de faire de lèche Est ce que l'amitié s'arrête là où commence le RIB, ou dès qu'commence le rêve ? Et un beau jour c'est trop tard, tu tournes la tête deux secondes Boom le Quej' commence le reigne Gros, y a ceux qui l'vivent et ceux qui contemplent le rêve On les baise dans leurs propres règles Seté, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi Seté, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi Seté, elle a béni ma voix J'suis béni, ma foi Le game il a failli m'avoir J'suis béni, ma foi</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Elle a béni ma voix Ils ont failli m'avoir Elle a béni ma voix Eh Fuck la page blanche, pourquoi les mots m'fuiraient ? S'ils s'cassent j'me barre avec Cigare, la nuit, braquage, signature unique, génie paraphé Faut prendre c'qui va avec, renie pas la fame J'suis premier à quitter la fête, babe, t'es nostalgique J'repense au premier avec qui tu l'as fait J'suis allé vivre pour écrire sinon j'faisait que chanter Fuck la fame J'continue d'vivre avec tout c'qu j'ai dans la tête Fuck ça, j'ai pas encore posé T'n fais les choses, j'suis dans sa pussy Compét' de chiffres, mise à part ça, j'trouve ça poussif Elle a pas mit d'bébé dans la poussette, elle a hâte d'la pousser J'lève les yeuz, j'entends l'bon Dieu à travers l'bruit du vent Et toi, est ce que t'entends mes cris, meurtris, qui sortent du ventre ? C'est elle, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi C'tait elle, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi You might also like C'tait elle, elle a béni ma voix J'suis béni, ma foi Le game il a failli m'avoir J'suis béni, ma foi J'me souvient d'ta tête, tes cheveux qui prennent le vent Il m'reste tes messages à rallonge pour dire Tu rentres pas J'peux même plus faire l'tour d'Paname à la recherche d'l'inspi quand j'rentre tard T'envie un truc qu'tu supporteras pas À tout c'temps qu'j'ai niqué pour des gens qui en valaient pas l'coup En c'moment j'me priorise, le braco n'en valait pas le coup J'voyais l'bout mais j'voyais pas l'gouffre J'voyais l'bout mais j'voyais pas l'gouffre On va incarné l'biff j'suis à fond dans l'G7, eh Va t'faire foutre ailleurs, tu l'aimes, tu vois pas qu'elle s'fout d'ta gueule J'aurais pu fédérer, j'ai pas pris l'temps de faire de lèches Est ce que l'amitié s'arrête là où commence le RIB, ou dès qu'commence le rêve ? Et un beau jour c'est trop tard, tu tournes la tête deux secondes Boom le Quej' commence le reigne Gros, y a ceux qui l'vivent et ceux qui contemplent le rêve On les baise dans leurs propres règles C'est elle, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi C'tait elle, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi C'tait elle, elle a béni ma voix J'suis béni, ma foi Le game il a failli m'avoir J'suis béni, ma foi</t>
+          <t>Elle a béni ma voix Ils ont failli m'avoir Elle a béni ma voix Eh Fuck la page blanche, pourquoi les mots m'fuiraient ? S'ils s'cassent j'me barre avec Cigare, la nuit, braquage, signature unique, génie paraphé Faut prendre c'qui va avec, renie pas la fame J'suis premier à quitter la fête, babe, t'es nostalgique J'repense au premier avec qui tu l'as fait J'suis allé vivre pour écrire sinon j'faisait que chanter Fuck la fame J'continue d'vivre avec tout c'qu j'ai dans la tête Fuck ça, j'ai pas encore posé T'n fais les choses, j'suis dans sa pussy Compét' de chiffres, mise à part ça, j'trouve ça poussif Elle a pas mit d'bébé dans la poussette, elle a hâte d'la pousser J'lève les yeuz, j'entends l'bon Dieu à travers l'bruit du vent Et toi, est ce que t'entends mes cris, meurtris, qui sortent du ventre ? C'est elle, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi C'tait elle, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi C'tait elle, elle a béni ma voix J'suis béni, ma foi Le game il a failli m'avoir J'suis béni, ma foi J'me souvient d'ta tête, tes cheveux qui prennent le vent Il m'reste tes messages à rallonge pour dire Tu rentres pas J'peux même plus faire l'tour d'Paname à la recherche d'l'inspi quand j'rentre tard T'envie un truc qu'tu supporteras pas À tout c'temps qu'j'ai niqué pour des gens qui en valaient pas l'coup En c'moment j'me priorise, le braco n'en valait pas le coup J'voyais l'bout mais j'voyais pas l'gouffre J'voyais l'bout mais j'voyais pas l'gouffre On va incarné l'biff j'suis à fond dans l'G7, eh Va t'faire foutre ailleurs, tu l'aimes, tu vois pas qu'elle s'fout d'ta gueule J'aurais pu fédérer, j'ai pas pris l'temps de faire de lèches Est ce que l'amitié s'arrête là où commence le RIB, ou dès qu'commence le rêve ? Et un beau jour c'est trop tard, tu tournes la tête deux secondes Boom le Quej' commence le reigne Gros, y a ceux qui l'vivent et ceux qui contemplent le rêve On les baise dans leurs propres règles C'est elle, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi C'tait elle, elle a béni ma voix Le game, il a failli m'avoir J'veux que les petits naissent dans la soie Moi j'suis béni, ma foi Ouais j'suis béni, ma foi C'tait elle, elle a béni ma voix J'suis béni, ma foi Le game il a failli m'avoir J'suis béni, ma foi</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ouais c'est l'cques-Ja Le business j'le pérésine Comme un truc qui s'est cassé Ouais c'est l'cques-Ja, un texte, un whisky, une tte-cha Dans l'ciné, dans l'textile, dans l'peu-ra Le business j'le pérennise J'écoutais du peu-ra dans l'bus avec Bérénice Ouais c'est l'cques-Ja, un texte, un whisky, une tte-cha Dans l'ciné, dans l'textile, dans l'peu-ra Le business j'le pérennise J'écoutais du peu-ra dans l'bus avec Bérénice Après la scène, elle m'félicite Elle vient du sud mais en c'moment elle est sur Vélizy Le cques-Ja c'est un millésime Tu serais restée un peu plus, le temps qu'ça pète, le temps qu'j'me stabilise Tu serais restée un peu plus le temps que j'me stabilise Le temps qu'j'me stabilise, comme un truc qui s'est cassé J'ai même pas l'courage de supprimer toutes nos photos à Cassis J'écris ça à une heure où j'suis sûr qu'tu dors Le lit, y'a plus personne pour l'casser Quand tu crois connaître quelqu'un, tu t'méprends Toi et moi, mais quelle méprise J'l'ai fait avec beaucoup d'passion et très peu d'maîtrise Y'a qu'une oreille dans l'casque qui marche, mais c'est pas une excuse J'voulais écrire sur autre chose et j'te jure qu'il y a des phases que j'me retiens d'noter J'en ai versé des larmes de sky Le verre se lève avant l'aube, j'me bonifie avec l'âge J'laisse flotter deux glaçons dans l'sky Puis j'les retire, j'les jette You might also like Ils vont abuser d'ma patience si j'hésite LNS, PDP, ouais c'est chic Ils vont abuser d'ma patience si j'hésite LNS, PDP, ouais c'est chic Y'a beaucoup trop d'sacrifices auxquels j'consens Un il posé sur les flots d'la Seine L'autre sur la silhouette d'une femme qui de dos t'ressemble J'me fais violence pour mettre les mots sur c'que les autres ressentent Inspiré par la peine qui m'incombe Assis à ma table, j'compte pas les heures passées seul à écrire comme un con Le monde j'voulais l'mettre à tes pieds Mais j'ai l'impression qu'pour toi c'était pas assez bien L'impression qu'pour toi j'étais pas assez bien Ciel bleu, j'l'ai pas assez peint J'me stabilise J'écoutais du peu-ra dans l'bus avec Bérénice Depuis l'business j'le pérennise J'r'allume un grand filtré, celui-là j'le blinde J'donnerais la liste des sacrifices si demain j'me blinde Le game, rien qu'j'le baise Ils font des ballons pendant qu'le Jacques travaille Si tu vois partir du monde c'est qu'le succès s'pointe Ton visage j'me retenais d'le mettre dans mes clips Avec toi j'avais un plan, j'nous protégeais, j'avais peur qu'le succès s'pointe J'voulais pas grand chose, mais c'était trop d'mander Y'a des questions qu'j'osais plus d'mander Et des réponses qu'il faut qu'je cherche Du coup le prochain il faut qu'j'le charge C'est un millésime Le business, j'le pérennise J'écoutais du peu-ra dans l'bus avec Bérénice Le business j'le pérennise J'écoutais du peu-ra dans l'bus avec Bérénice PDP, un millésime Viens du sud mais en c'moment elle est sur Vélizy Dans l'ciné, dans l'textile, dans l'peu-ra, dans l'millésime1</t>
+          <t>Ouais c'est l'cques-Ja Le business j'le pérésine Comme un truc qui s'est cassé Ouais c'est l'cques-Ja, un texte, un whisky, une tte-cha Dans l'ciné, dans l'textile, dans l'peu-ra Le business j'le pérennise J'écoutais du peu-ra dans l'bus avec Bérénice Ouais c'est l'cques-Ja, un texte, un whisky, une tte-cha Dans l'ciné, dans l'textile, dans l'peu-ra Le business j'le pérennise J'écoutais du peu-ra dans l'bus avec Bérénice Après la scène, elle m'félicite Elle vient du sud mais en c'moment elle est sur Vélizy Le cques-Ja c'est un millésime Tu serais restée un peu plus, le temps qu'ça pète, le temps qu'j'me stabilise Tu serais restée un peu plus le temps que j'me stabilise Le temps qu'j'me stabilise, comme un truc qui s'est cassé J'ai même pas l'courage de supprimer toutes nos photos à Cassis J'écris ça à une heure où j'suis sûr qu'tu dors Le lit, y'a plus personne pour l'casser Quand tu crois connaître quelqu'un, tu t'méprends Toi et moi, mais quelle méprise J'l'ai fait avec beaucoup d'passion et très peu d'maîtrise Y'a qu'une oreille dans l'casque qui marche, mais c'est pas une excuse J'voulais écrire sur autre chose et j'te jure qu'il y a des phases que j'me retiens d'noter J'en ai versé des larmes de sky Le verre se lève avant l'aube, j'me bonifie avec l'âge J'laisse flotter deux glaçons dans l'sky Puis j'les retire, j'les jette Ils vont abuser d'ma patience si j'hésite LNS, PDP, ouais c'est chic Ils vont abuser d'ma patience si j'hésite LNS, PDP, ouais c'est chic Y'a beaucoup trop d'sacrifices auxquels j'consens Un il posé sur les flots d'la Seine L'autre sur la silhouette d'une femme qui de dos t'ressemble J'me fais violence pour mettre les mots sur c'que les autres ressentent Inspiré par la peine qui m'incombe Assis à ma table, j'compte pas les heures passées seul à écrire comme un con Le monde j'voulais l'mettre à tes pieds Mais j'ai l'impression qu'pour toi c'était pas assez bien L'impression qu'pour toi j'étais pas assez bien Ciel bleu, j'l'ai pas assez peint J'me stabilise J'écoutais du peu-ra dans l'bus avec Bérénice Depuis l'business j'le pérennise J'r'allume un grand filtré, celui-là j'le blinde J'donnerais la liste des sacrifices si demain j'me blinde Le game, rien qu'j'le baise Ils font des ballons pendant qu'le Jacques travaille Si tu vois partir du monde c'est qu'le succès s'pointe Ton visage j'me retenais d'le mettre dans mes clips Avec toi j'avais un plan, j'nous protégeais, j'avais peur qu'le succès s'pointe J'voulais pas grand chose, mais c'était trop d'mander Y'a des questions qu'j'osais plus d'mander Et des réponses qu'il faut qu'je cherche Du coup le prochain il faut qu'j'le charge C'est un millésime Le business, j'le pérennise J'écoutais du peu-ra dans l'bus avec Bérénice Le business j'le pérennise J'écoutais du peu-ra dans l'bus avec Bérénice PDP, un millésime Viens du sud mais en c'moment elle est sur Vélizy Dans l'ciné, dans l'textile, dans l'peu-ra, dans l'millésime1</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Check Eh Babe, il est tard, les lumières nous crament les yeuz Viens, on les prend, ensuite, on fait une pause, on crame les loves Des réponses sur l'bum-al qui auraient dû être dans des livres Des mots qui auraient pu être sur tes lèvres LNS, j'vous ai dit, d'main, ça pète, jétais béni Té-ma l'rythme, cétait pénible Le game en PLS, un deal à PNL Que l'bon-char paix à nous, du 'sky, dla botanique En vrai, jm'en fous dtes patterns, babe, cst plus que sombre Frère, cst plus qu'du son, fatigué dfaire du sale On braque le game, ensuite, on sfait rquer-bra par lURSSAF NBOW, cest beau comme les sourires des filles du Sale Cétait de lart avec un budget d'fils de pute En vrai, jm'en fous dtes patterns, babe, cest plus que sombre Frère, cest plus qu'du son, fatigué dfaire du sale On braque le game, ensuite, on sfait rquer-bra par lURSSAF NBOW, c'était beau comme les sourires des filles du Sale Cétait de lart avec un budget d'fils de pute You might also like Fils de pute Deux jours d'coma, il faut qu'j'renaisse d'mes cendres Est-ce que jtourne les pages ou juste la veste ? Cétait rap FR ou rap FM ? Cest juste vrai, jrappe les faits Fuck off, casse des scènes Un moyen d'faire du cash Mais si cest quça, kho, gère ta plaquette, gratte des slims Changement de thème Amnésique quand ça m'arrange Jles embrouille, jtrouve ça marrant Quitte l'Ohio pour lMichigan Braquage, récidive Eh, kho, fais-toi plais', achète des streams En attendant, jlaisse mourir quelque chose pour qu'vivent des prods Jai mis tout c'que jai pu sur c'bum-al, eh, putain, faut qu'ça sorte Cest comme un truc trop lourd pour que j'le garde Il fait presque beau Besoin d'voir autre chose S'tu perds deux potes, tu reprends deux chiens Aussi facile dbaiser des meufs que difficile dtrouver la bonne Entouré d'murs, fallait qu'j'fasse face à oi-m Bébé, croise tes jambes sur une déclive, Poland 66 Lodeur dlencens recouvre celle du shit Tant quon fait des streams, le champagne fera des bulles Encore un artiste que ldésir déchire Jy ai juste fait face Jétais comme lautre qui rêve de peindre Oublie-la, idéalise son visage Quand lamour dla proie réveille le fauve On senivre, on décèle le vrai du faux Jferai quoi à la fin d'ce film ? On aurait pu crever sous l'regard des autres, le cur, il tapait fort Perdu comme le plus beau des anges, jai juste fait face au vide En vrai, jai qu'vingt-quatre piges mais qua vécu mon âme ? Ouais, bébé, cest sombre En fait, j'vais où ça-comme ? Cétait un seize ou une tirade ? Derrière moi, des carcasses de prod de luxe Des carcasses de prod de luxe Fuck off Changement d'thème Amnésique quand ça marrange Deux jours d'coma, il faut qu'j'renaisse de mes cendres Fatigué dfaire du sale, frère, cest plus qudu son</t>
+          <t>Check Eh Babe, il est tard, les lumières nous crament les yeuz Viens, on les prend, ensuite, on fait une pause, on crame les loves Des réponses sur l'bum-al qui auraient dû être dans des livres Des mots qui auraient pu être sur tes lèvres LNS, j'vous ai dit, d'main, ça pète, jétais béni Té-ma l'rythme, cétait pénible Le game en PLS, un deal à PNL Que l'bon-char paix à nous, du 'sky, dla botanique En vrai, jm'en fous dtes patterns, babe, cst plus que sombre Frère, cst plus qu'du son, fatigué dfaire du sale On braque le game, ensuite, on sfait rquer-bra par lURSSAF NBOW, cest beau comme les sourires des filles du Sale Cétait de lart avec un budget d'fils de pute En vrai, jm'en fous dtes patterns, babe, cest plus que sombre Frère, cest plus qu'du son, fatigué dfaire du sale On braque le game, ensuite, on sfait rquer-bra par lURSSAF NBOW, c'était beau comme les sourires des filles du Sale Cétait de lart avec un budget d'fils de pute Fils de pute Deux jours d'coma, il faut qu'j'renaisse d'mes cendres Est-ce que jtourne les pages ou juste la veste ? Cétait rap FR ou rap FM ? Cest juste vrai, jrappe les faits Fuck off, casse des scènes Un moyen d'faire du cash Mais si cest quça, kho, gère ta plaquette, gratte des slims Changement de thème Amnésique quand ça m'arrange Jles embrouille, jtrouve ça marrant Quitte l'Ohio pour lMichigan Braquage, récidive Eh, kho, fais-toi plais', achète des streams En attendant, jlaisse mourir quelque chose pour qu'vivent des prods Jai mis tout c'que jai pu sur c'bum-al, eh, putain, faut qu'ça sorte Cest comme un truc trop lourd pour que j'le garde Il fait presque beau Besoin d'voir autre chose S'tu perds deux potes, tu reprends deux chiens Aussi facile dbaiser des meufs que difficile dtrouver la bonne Entouré d'murs, fallait qu'j'fasse face à oi-m Bébé, croise tes jambes sur une déclive, Poland 66 Lodeur dlencens recouvre celle du shit Tant quon fait des streams, le champagne fera des bulles Encore un artiste que ldésir déchire Jy ai juste fait face Jétais comme lautre qui rêve de peindre Oublie-la, idéalise son visage Quand lamour dla proie réveille le fauve On senivre, on décèle le vrai du faux Jferai quoi à la fin d'ce film ? On aurait pu crever sous l'regard des autres, le cur, il tapait fort Perdu comme le plus beau des anges, jai juste fait face au vide En vrai, jai qu'vingt-quatre piges mais qua vécu mon âme ? Ouais, bébé, cest sombre En fait, j'vais où ça-comme ? Cétait un seize ou une tirade ? Derrière moi, des carcasses de prod de luxe Des carcasses de prod de luxe Fuck off Changement d'thème Amnésique quand ça marrange Deux jours d'coma, il faut qu'j'renaisse de mes cendres Fatigué dfaire du sale, frère, cest plus qudu son</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Let's go Let's go J'vais y arriver J'vais y arriver Eh eh J'viens d'arriver Let's go J'vais y arriver, c'est quand ça a vrillé, l'te-shi est friable Oui Bitches et Ryads, fuck une actu, l'cques-J', c'est l'Real Est-ce que c'est un perso, c'est réel Réel ? Pétasse, j't'ai fait vivre un rêve J'vois qu'des bitchs, pas d'homme en face Rien, j'fais du seille-o pour pas qu'les opps en fassent Cques-J, j'me réveille, t'es pas là Ouh, est-ce que t'as vu mes balafres Ouh ? J'ai rallumé l'népalais, tu méritais l'9.3, pas Bali Ciao Il est pas né celui qui va baiser l'fils d'Khalil Chez nous, on s'démerde On dit jamais à l'aide Jamais, cur en ruines comme Alep Eh V'-esqui les bitchs et les condés Let's go, bien sûr, j'manque de bonté Eh La bitch, elle a sauté, croqué, cocké, crop-topée J'viens d'rendre une grande copie, étale-moi les impôts sur trois piges Trois ans La bitch, elle a sauté, croqué, cocké, crop-topée tout ça J'viens d'rendre une grande copie, hein, hein étale-moi les impôts sur trois piges Eh J'vais y arriver Oui, j'viens d'arriver Bien sûr J'vais y arriver Ouh, oui, j'viens d'arriver Bien sûr J'vais y arriver, j'viens d'arriver J'vais y arriver Bien sûr, j'viens d'arriver Let's go You might also like C'est un missile, un Boeing Ouh, une Inès, pas une Pauline Ah Là, pour le moment, j'étais poli, consomme comme dans un all-in All-in Elle veut m'donner son corps parfait Yah, c'était soit l'erreur ou v'là l'regret On a l'oseille, on veut l'pouvoir, les traitres et la hess, on r'fuse de voir voir, voir Quatre piges jour pour jour, j'trainais dehors, accablé par l'poids d'mes rêves Bébé, tape des fesses, félicite le gosse qu'j'étais J'faisais mon biff, j'traversais l'Europe en Golf GT Que des haineux meurent, noyés dans leur propre pisse J'ai rendu l'chien de garde, il m'faut un bon gros pit' Il m'faut un bon gros pit' On a toujours été dans l'sale mais proprement Bienvenue dans ma vie Est-ce que j'suis paro ou mes proches me mentent ? Ces mythos Quatre piges jour pour jour, j'trainais dehors, accablé par l'poids d'mes rêves Bébé, tape des fesses, félicite le gosse qu'j'étais Bravo La bitch, elle a sauté, croqué, cocké, crop-topée J'viens d'rendre une grande copie, étale-moi les impôts sur trois piges Trois ans La bitch, elle a sauté, croqué, cocké, crop-topée J'viens d'rendre une grande copie, étale-moi les impôts sur trois piges piges, piges J'vais y arriver Oui, j'viens d'arriver Bien sûr J'vais y arriver Ouh, oui, j'viens d'arriver Bien sûr J'vais y arriver, j'viens d'arriver Eh, ouai J'vais y arriver Bien sûr, j'viens d'arriver Let's go Mode fuck off</t>
+          <t>Let's go Let's go J'vais y arriver J'vais y arriver Eh eh J'viens d'arriver Let's go J'vais y arriver, c'est quand ça a vrillé, l'te-shi est friable Oui Bitches et Ryads, fuck une actu, l'cques-J', c'est l'Real Est-ce que c'est un perso, c'est réel Réel ? Pétasse, j't'ai fait vivre un rêve J'vois qu'des bitchs, pas d'homme en face Rien, j'fais du seille-o pour pas qu'les opps en fassent Cques-J, j'me réveille, t'es pas là Ouh, est-ce que t'as vu mes balafres Ouh ? J'ai rallumé l'népalais, tu méritais l'9.3, pas Bali Ciao Il est pas né celui qui va baiser l'fils d'Khalil Chez nous, on s'démerde On dit jamais à l'aide Jamais, cur en ruines comme Alep Eh V'-esqui les bitchs et les condés Let's go, bien sûr, j'manque de bonté Eh La bitch, elle a sauté, croqué, cocké, crop-topée J'viens d'rendre une grande copie, étale-moi les impôts sur trois piges Trois ans La bitch, elle a sauté, croqué, cocké, crop-topée tout ça J'viens d'rendre une grande copie, hein, hein étale-moi les impôts sur trois piges Eh J'vais y arriver Oui, j'viens d'arriver Bien sûr J'vais y arriver Ouh, oui, j'viens d'arriver Bien sûr J'vais y arriver, j'viens d'arriver J'vais y arriver Bien sûr, j'viens d'arriver Let's go C'est un missile, un Boeing Ouh, une Inès, pas une Pauline Ah Là, pour le moment, j'étais poli, consomme comme dans un all-in All-in Elle veut m'donner son corps parfait Yah, c'était soit l'erreur ou v'là l'regret On a l'oseille, on veut l'pouvoir, les traitres et la hess, on r'fuse de voir voir, voir Quatre piges jour pour jour, j'trainais dehors, accablé par l'poids d'mes rêves Bébé, tape des fesses, félicite le gosse qu'j'étais J'faisais mon biff, j'traversais l'Europe en Golf GT Que des haineux meurent, noyés dans leur propre pisse J'ai rendu l'chien de garde, il m'faut un bon gros pit' Il m'faut un bon gros pit' On a toujours été dans l'sale mais proprement Bienvenue dans ma vie Est-ce que j'suis paro ou mes proches me mentent ? Ces mythos Quatre piges jour pour jour, j'trainais dehors, accablé par l'poids d'mes rêves Bébé, tape des fesses, félicite le gosse qu'j'étais Bravo La bitch, elle a sauté, croqué, cocké, crop-topée J'viens d'rendre une grande copie, étale-moi les impôts sur trois piges Trois ans La bitch, elle a sauté, croqué, cocké, crop-topée J'viens d'rendre une grande copie, étale-moi les impôts sur trois piges piges, piges J'vais y arriver Oui, j'viens d'arriver Bien sûr J'vais y arriver Ouh, oui, j'viens d'arriver Bien sûr J'vais y arriver, j'viens d'arriver Eh, ouai J'vais y arriver Bien sûr, j'viens d'arriver Let's go Mode fuck off</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dignity and culture Check Il est temps qu'j'm'explique On m'verra plus si j'm'expose J'ai fait un rêve où j'faisais des cauchemars d'ex-pauvre hein Des femmes sont en larmes et des mecs sont en sang Des femmes sont en larmes et des mecs sont en sang Avant qu'ça vire au drame, on s'amusait ensemble Tu m'verras pas en boîte, j'suis pas d'humeur dansant check La vie t'met ds baffes, j'ai mal en y repensant En Prada s'habille le diable, à la main un Longchamp Patek à l'avant bras et puis tout le monde est content Vos relations pour toujours, elles ont pas duré longtemps J'verse du, Nino Negri dans l're-ve d'une lombarde Hypothétique comme l'avenir de mon bat' 'Igo t'es qui ? T'es à deux doigts qu'on t'claque Des strophes isométriques avec lesquelles on t'braque Bitches hétérocliques avec lesquelles on fuck Passe par Miromesnil, pivote à Concorde You might also like Hâte d'être le père d'mon fils Fier d'être le fils d'mon père Elle m'dit Tino, on flaire ton vice Tino, on cerne ton flair Elle m'dit Tino, songe à ton fils Tino, songe à ton frère Elle m'dit Tino, songe à ton fils Tino, songe à ton père J'peux pas dire qu'j'ai tout fait mais j'veux dire que tout s'vend Apprends à étouffer ta toux pour pas montrer qu't'es souffrant Avoue que l'keumé qui t'a vendu ta douce il avait même pas douze ans L'amour ? Y en a qui le r'poussent, y en a d'autres qui sont r'poussants Pour calmer tes cris, t'as dû mordre le coussin Elle a l'air tenté Moi, l'bitume, j'l'ai arpenté Faîtes entrer Jacques, y a trois buts à r'monter Hanté, par ici, j'ai dû raconter Ma liasse s'épaississait pendant qu'les rats comptaient Monsieur était tisé donc il s'dédouane vite J'garde mon sang froid même si y a des douanes fixes Même si y a besoin d'fric Un peu d'sky dans l'verre Bébé, j'ai tout planifié depuis le fond de la classe Faut qu'on s'taille sans s'perdre Le reflet d'la banalisée dans l'fond d'la tasse Un peu d'sky dans l'verre Bébé, j'ai tout planifié depuis le fond de la classe Faut qu'on s'taille sans s'perdre Le reflet d'la banalisée dans l'fond d'la tasse Un peu d'sky dans l'verre Bébé, j'ai tout planifié depuis le fond de la classe Faut qu'on s'taille sans s'perdre Le reflet d'la banalisée dans l'fond d'la tasse Un peu d'sky dans l'verre Bébé, j'ai tout planifié depuis le fond de la classe Faut qu'on s'taille sans s'perdre Le reflet d'la banalisée dans l'fond d'la tasse Bébé, t'es belle et tu sais qu'tu m'plais hein Mais où t'étais quand j'étais du-per perturbé ? Complètement pété, j'faisais qu'perdre du blé Bébé, t'es belle et tu sais qu'tu m'plais Mais où t'étais quand j'étais du-per perturbé ? Complètement pété, j'faisais qu'perdre du blé1</t>
+          <t>Dignity and culture Check Il est temps qu'j'm'explique On m'verra plus si j'm'expose J'ai fait un rêve où j'faisais des cauchemars d'ex-pauvre hein Des femmes sont en larmes et des mecs sont en sang Des femmes sont en larmes et des mecs sont en sang Avant qu'ça vire au drame, on s'amusait ensemble Tu m'verras pas en boîte, j'suis pas d'humeur dansant check La vie t'met ds baffes, j'ai mal en y repensant En Prada s'habille le diable, à la main un Longchamp Patek à l'avant bras et puis tout le monde est content Vos relations pour toujours, elles ont pas duré longtemps J'verse du, Nino Negri dans l're-ve d'une lombarde Hypothétique comme l'avenir de mon bat' 'Igo t'es qui ? T'es à deux doigts qu'on t'claque Des strophes isométriques avec lesquelles on t'braque Bitches hétérocliques avec lesquelles on fuck Passe par Miromesnil, pivote à Concorde Hâte d'être le père d'mon fils Fier d'être le fils d'mon père Elle m'dit Tino, on flaire ton vice Tino, on cerne ton flair Elle m'dit Tino, songe à ton fils Tino, songe à ton frère Elle m'dit Tino, songe à ton fils Tino, songe à ton père J'peux pas dire qu'j'ai tout fait mais j'veux dire que tout s'vend Apprends à étouffer ta toux pour pas montrer qu't'es souffrant Avoue que l'keumé qui t'a vendu ta douce il avait même pas douze ans L'amour ? Y en a qui le r'poussent, y en a d'autres qui sont r'poussants Pour calmer tes cris, t'as dû mordre le coussin Elle a l'air tenté Moi, l'bitume, j'l'ai arpenté Faîtes entrer Jacques, y a trois buts à r'monter Hanté, par ici, j'ai dû raconter Ma liasse s'épaississait pendant qu'les rats comptaient Monsieur était tisé donc il s'dédouane vite J'garde mon sang froid même si y a des douanes fixes Même si y a besoin d'fric Un peu d'sky dans l'verre Bébé, j'ai tout planifié depuis le fond de la classe Faut qu'on s'taille sans s'perdre Le reflet d'la banalisée dans l'fond d'la tasse Un peu d'sky dans l'verre Bébé, j'ai tout planifié depuis le fond de la classe Faut qu'on s'taille sans s'perdre Le reflet d'la banalisée dans l'fond d'la tasse Un peu d'sky dans l'verre Bébé, j'ai tout planifié depuis le fond de la classe Faut qu'on s'taille sans s'perdre Le reflet d'la banalisée dans l'fond d'la tasse Un peu d'sky dans l'verre Bébé, j'ai tout planifié depuis le fond de la classe Faut qu'on s'taille sans s'perdre Le reflet d'la banalisée dans l'fond d'la tasse Bébé, t'es belle et tu sais qu'tu m'plais hein Mais où t'étais quand j'étais du-per perturbé ? Complètement pété, j'faisais qu'perdre du blé Bébé, t'es belle et tu sais qu'tu m'plais Mais où t'étais quand j'étais du-per perturbé ? Complètement pété, j'faisais qu'perdre du blé1</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Eh C'mois-ci, faut que je souffle J'laisse passer du temps C'qu'il me reste tiens dans un que-s' Let's go J'ai des maps meilleures qu'vos bums-al, j'bosse, j'oublie l'titre éponyme J'suis payé pour être moi-même et j'me demande, les phases, où j'les trouve Est-c'que j'écris ou j'bouche les trous ? Babe, j'vaux plus que ça, tu crois qu'être fauché, j'sais pas c'que c'est ? Troisième album, tu sais pas c'que c'est Presque saoul, à peine lucide J'dois rendre l'album en octobre, bordel, c'est la fin d'l'année Direction l'bon-char, j'attends le Uber près d'la Saint-Placide Et nique sa mère, j'ai pris du retard, j'finirai le texte dedans Mais l'chauffeur, il fait une drôle de tête Tu parles, j'ai pris, v'là l'retard, faut qu'je reparte en c'moment sur Paname J'suis grave rodave Laisse-moi bédave dans l'arrière-boutique Joue un air que j'puisse finir le texte Ils pensent aux frères tis-par, mais qu'font ceux qui restent Perdre du monde, c'était l'prix du rêve Y a le ques-J' dans l'immeuble, il fait monter l'prix du mètre Fuck off C'est plus une avance, c'est l'prix d'une vie humaine Combien d'temps tu veux vivre du rap ? Venez, on claque tout, on fait du rock T'oublies l'instant, tu t'projettes dans l'fait de durer C'qu'on m'a donné, on m'l'a facturé Y a d'la gue-dro dans des 'teilles de rouge Viens, on dessine sur les murs de la ville Ce sera plus jamais comme la veille You might also like Ce sera plus jamais comme la veille Près d'l'impasse, l'hôtel d'Argenson Ils étaient beaux, tes gargarismes L'aube tenait sa promesse comme dans le roman d'Gary J'te souhaite amour et grande carrière Et si c'était l'dernier shot Quand les étoiles s'trompent de ligne, il reste une nuit sauvage Tu fais d'l'argent et c'truc t'éloigne de moi Quand les étoiles se trompent de ligne, qu'il reste qu'une nuit sauvage Tu fais d'l'argent et c'truc t'éloigne de moi Il m'faut une pièce à part, pour gratter Hier, j'étais seul, c'était plus pratique mais ça va pas durer Bientôt, on traduit en six langues, comme les paroles de Reed Allume les bougies que nos invités éteignent Et si on agissait de façon irrationnelle J'vais pas faire l'tour de Boulogne Viens, on part dans le Pacifique Mais me touche pas quand tu parles Est-ce que je change de ville ? C'est trop tard pour que j'change le film Y a des mots qui s'démodent Pendant que des bougs s'démènent Du mal à croire que tu sais pas, on doit dépasser ça Laisse tout au passé simple, laisse tout sur la ble-ta Rappelle le maître d'hôtel, rentre chez oi-t et rappelle-moi d'répondre au tél' Rappelle-moi d'répondre au tél'</t>
+          <t>Eh C'mois-ci, faut que je souffle J'laisse passer du temps C'qu'il me reste tiens dans un que-s' Let's go J'ai des maps meilleures qu'vos bums-al, j'bosse, j'oublie l'titre éponyme J'suis payé pour être moi-même et j'me demande, les phases, où j'les trouve Est-c'que j'écris ou j'bouche les trous ? Babe, j'vaux plus que ça, tu crois qu'être fauché, j'sais pas c'que c'est ? Troisième album, tu sais pas c'que c'est Presque saoul, à peine lucide J'dois rendre l'album en octobre, bordel, c'est la fin d'l'année Direction l'bon-char, j'attends le Uber près d'la Saint-Placide Et nique sa mère, j'ai pris du retard, j'finirai le texte dedans Mais l'chauffeur, il fait une drôle de tête Tu parles, j'ai pris, v'là l'retard, faut qu'je reparte en c'moment sur Paname J'suis grave rodave Laisse-moi bédave dans l'arrière-boutique Joue un air que j'puisse finir le texte Ils pensent aux frères tis-par, mais qu'font ceux qui restent Perdre du monde, c'était l'prix du rêve Y a le ques-J' dans l'immeuble, il fait monter l'prix du mètre Fuck off C'est plus une avance, c'est l'prix d'une vie humaine Combien d'temps tu veux vivre du rap ? Venez, on claque tout, on fait du rock T'oublies l'instant, tu t'projettes dans l'fait de durer C'qu'on m'a donné, on m'l'a facturé Y a d'la gue-dro dans des 'teilles de rouge Viens, on dessine sur les murs de la ville Ce sera plus jamais comme la veille Ce sera plus jamais comme la veille Près d'l'impasse, l'hôtel d'Argenson Ils étaient beaux, tes gargarismes L'aube tenait sa promesse comme dans le roman d'Gary J'te souhaite amour et grande carrière Et si c'était l'dernier shot Quand les étoiles s'trompent de ligne, il reste une nuit sauvage Tu fais d'l'argent et c'truc t'éloigne de moi Quand les étoiles se trompent de ligne, qu'il reste qu'une nuit sauvage Tu fais d'l'argent et c'truc t'éloigne de moi Il m'faut une pièce à part, pour gratter Hier, j'étais seul, c'était plus pratique mais ça va pas durer Bientôt, on traduit en six langues, comme les paroles de Reed Allume les bougies que nos invités éteignent Et si on agissait de façon irrationnelle J'vais pas faire l'tour de Boulogne Viens, on part dans le Pacifique Mais me touche pas quand tu parles Est-ce que je change de ville ? C'est trop tard pour que j'change le film Y a des mots qui s'démodent Pendant que des bougs s'démènent Du mal à croire que tu sais pas, on doit dépasser ça Laisse tout au passé simple, laisse tout sur la ble-ta Rappelle le maître d'hôtel, rentre chez oi-t et rappelle-moi d'répondre au tél' Rappelle-moi d'répondre au tél'</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Est-ce qu'on s'fait du bien là où ça fait mal ? C'est même plus moi qui t'insulte, c'est les gens qui chantent Et si on immortalisait ce qui nous échappe Profite de l'instant que l'monde nous vole Prochain album, j'vais l'gratter dans l'sable On a de l'espace, laisse les gosses courir Et dire qu'tout ça, c'était presque parfait Tu l'as perdue, c'était p't-être ta faute Mais ça, c'était avant d'être des têtes d'affiche Alors comme ça, tu t'lances dans l'rap, tu quittes la fac, t'es prêt ? Okay, quitte ta femme Si c'st pas par la leur, c'est par ma faute Y a ds gamins qui s'tapent dans l'sable Soir-ce, face à la mer, hier, j'étais seul face à sept mille personnes J'parle de moins en moins, les chiffres le font Y avait qui quand y avait les chiffres d'avant ? Confonds pas ce que j'mets dans ma poche et le chiffre d'affaires Elle m'remerciait d'mettre des mots sur ce qu'elle traverse Tiens viens là, casse ton Snap, et puis rentre chez oi-t Eh, t'as cru que j'étais qui ? J'ai tellement mis de moi-même qu'ils ont cru que j'étais ivre Ils connaissent le ques-J', pas l'homme derrière À vingt-quatre piges, j'suis en train de vivre le rêve d'un gosse Pourtant, on a voulu enterrer les rêves d'un gosse Eh, babe, tu t'souviens des couplets à la con qu'j'grattais quand t'essayais d'dormir ? Aujourd'hui, ils m'assurent deux fois l'salaire d'un cadre J'sais qu'le biff, ça t'fait rien, j'en ai pas trouvé douze ça-comme On remplace pas un diamant par douze saphirs T'as vu avec la merde que tu m'as donné, l'or qu'j'ai fait ? Putain, mais depuis quand j'te parle d'l'argent d'cette façon ? En fait, j'suis nostalgique Mais tu sais le fou, il sait pas qu'il est dingue Fuck off, les baffes, c'est moi qui les fous Tous ces albums, ils m'ont fait perdre des gens C'est quand t'as rien que t'es à la recherche des signes J'aurais pu m'arrêter pour leur dire deux mots Ouais, c'est vrai, hier, j'étais mal La nuit sera calme si Dieu l'permet Aujourd'hui, c'est à moi-même qu'j'demande pardon Ils veulent pas de vous, allez, partez J'en peux plus d'me voir partout N'retiens pas ceux, qui souhaitent partir 2.04 en face du port, les verres se cassent Eh, Jay, laisse-moi une paire de Salomon J'dois marcher plus, à la base, on marchait pas Ils m'jettent des yeux Nhel Sheitan En perdant en amour, on gagne en anxiété Bateau s'éloigne, plus seul qu'hier mais un peu moins qu'demain Deux heures vingt-deux, 237 J'te rejoins dès qu'j'ai fini, soit six soit vingt-trois heures C'était un rêve, pas un métier avant mes vingt-trois ans Une percée, une grande croisade Cette nuit, j'attends qu'le soleil se lève, ensuite, faut que j'me barre Sinon, j'fais comme d'hab' j'paye l'hôtel et j'reste devant J'veux tout baiser et rester zen Dieu sait ce qu'on est voués à devenir Est-ce qu'on prend l'risque ou on perd la chance ? Si seulement j'devais remplir qu'ma propre assiette Est-ce que j'le fais pour moi ou pour les autres, hassoul ? On s'laisse emporter par la beauté de vagues turquoises J'ai ressorti la casquette, désolé, babe, j'peux pas m'faire plus scred' Et si j'ai plus d'voix à la fin d'mon set, lance du scratch J'aime quand on chante ensemble c'que j'ai écrit seul Faut l'vivre pour l'écrire, ce soir, j'm'oublie, demain, j'one shot le tout T'as vu l'avance ? Dis-toi qu'j'aurais pu prendre le double Hier, j'me sentais mal, j'suis même pas sorti d'ma chambre d'hôtel Demain soir, retour vers Porte d'AuteuilYou might also like</t>
+          <t>Est-ce qu'on s'fait du bien là où ça fait mal ? C'est même plus moi qui t'insulte, c'est les gens qui chantent Et si on immortalisait ce qui nous échappe Profite de l'instant que l'monde nous vole Prochain album, j'vais l'gratter dans l'sable On a de l'espace, laisse les gosses courir Et dire qu'tout ça, c'était presque parfait Tu l'as perdue, c'était p't-être ta faute Mais ça, c'était avant d'être des têtes d'affiche Alors comme ça, tu t'lances dans l'rap, tu quittes la fac, t'es prêt ? Okay, quitte ta femme Si c'st pas par la leur, c'est par ma faute Y a ds gamins qui s'tapent dans l'sable Soir-ce, face à la mer, hier, j'étais seul face à sept mille personnes J'parle de moins en moins, les chiffres le font Y avait qui quand y avait les chiffres d'avant ? Confonds pas ce que j'mets dans ma poche et le chiffre d'affaires Elle m'remerciait d'mettre des mots sur ce qu'elle traverse Tiens viens là, casse ton Snap, et puis rentre chez oi-t Eh, t'as cru que j'étais qui ? J'ai tellement mis de moi-même qu'ils ont cru que j'étais ivre Ils connaissent le ques-J', pas l'homme derrière À vingt-quatre piges, j'suis en train de vivre le rêve d'un gosse Pourtant, on a voulu enterrer les rêves d'un gosse Eh, babe, tu t'souviens des couplets à la con qu'j'grattais quand t'essayais d'dormir ? Aujourd'hui, ils m'assurent deux fois l'salaire d'un cadre J'sais qu'le biff, ça t'fait rien, j'en ai pas trouvé douze ça-comme On remplace pas un diamant par douze saphirs T'as vu avec la merde que tu m'as donné, l'or qu'j'ai fait ? Putain, mais depuis quand j'te parle d'l'argent d'cette façon ? En fait, j'suis nostalgique Mais tu sais le fou, il sait pas qu'il est dingue Fuck off, les baffes, c'est moi qui les fous Tous ces albums, ils m'ont fait perdre des gens C'est quand t'as rien que t'es à la recherche des signes J'aurais pu m'arrêter pour leur dire deux mots Ouais, c'est vrai, hier, j'étais mal La nuit sera calme si Dieu l'permet Aujourd'hui, c'est à moi-même qu'j'demande pardon Ils veulent pas de vous, allez, partez J'en peux plus d'me voir partout N'retiens pas ceux, qui souhaitent partir 2.04 en face du port, les verres se cassent Eh, Jay, laisse-moi une paire de Salomon J'dois marcher plus, à la base, on marchait pas Ils m'jettent des yeux Nhel Sheitan En perdant en amour, on gagne en anxiété Bateau s'éloigne, plus seul qu'hier mais un peu moins qu'demain Deux heures vingt-deux, 237 J'te rejoins dès qu'j'ai fini, soit six soit vingt-trois heures C'était un rêve, pas un métier avant mes vingt-trois ans Une percée, une grande croisade Cette nuit, j'attends qu'le soleil se lève, ensuite, faut que j'me barre Sinon, j'fais comme d'hab' j'paye l'hôtel et j'reste devant J'veux tout baiser et rester zen Dieu sait ce qu'on est voués à devenir Est-ce qu'on prend l'risque ou on perd la chance ? Si seulement j'devais remplir qu'ma propre assiette Est-ce que j'le fais pour moi ou pour les autres, hassoul ? On s'laisse emporter par la beauté de vagues turquoises J'ai ressorti la casquette, désolé, babe, j'peux pas m'faire plus scred' Et si j'ai plus d'voix à la fin d'mon set, lance du scratch J'aime quand on chante ensemble c'que j'ai écrit seul Faut l'vivre pour l'écrire, ce soir, j'm'oublie, demain, j'one shot le tout T'as vu l'avance ? Dis-toi qu'j'aurais pu prendre le double Hier, j'me sentais mal, j'suis même pas sorti d'ma chambre d'hôtel Demain soir, retour vers Porte d'Auteuil</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dignity and culture Overbookée comme la prof de danse, 2K22 les stats surprennent Midnight in Paris, ça quel pochtar ? J'crois qu'c'est celui d'Woody Les fleurs du hram dans la bouche de Serge Confonds pas Paname et sa carte postale La tracklist sur 4 post-it Un golden, un ice-tea green Ils sont beaux les sourires d'nos femmes, fuck Faut qu'on prenne soin d'nos filles Sur un coup d'rein on peut refaire nos vies Ils en abuseraient Si j'affirme mes failles, pour l'moment j'reste serein et j'ves-qui ça Les traits de son visage, que ma plume esquissa Bah ouais, j'ai fait l'job jusqu'ici Bah ouais, j'ai fait l'job jusqu'ici Champagne et cigare Dans la gestion d'affaires double les postes comme à Man City Une énième cicatrice, un nouveau point d'suture Le gare-ci est sur l'point d's'éteindre Un ciel rose soigne ses teintes Le rap n'est pas mort mais sur l'point d's'éteindre Champagne et cigare Dans la gestion d'affaires double les postes comme Guardiola Une énième cicatrice, un nouveau point d'suture Le gare-ci est sur l'point d's'éteindre Un ciel rose soigne ses teintes Le rap n'est pas mort mais sur l'point d's'éteindre Sur l'point d's'éteindre You might also like La nuit j'écris des soleils, dès qu'l'aube tient ses promesses j'dessine des 16 Que Dieu m'pardonne, j'atteins un signe des cieux Si j'ai raison, dis rien, cligne des yeux Y'a qu'la pluie qu'j'ai vu redescendre du ciel Une fois qu't'es monté faut redescendre tu sais Et quand tu t'fais baiser c'est par les plus proches J'ai pas attendu l'peu-ra pour partir avec la plus fraîche Fuck off, NBOW Records on réédite, on vous fume wAllah Paname c'est pas Tijuana, y'a pas d'cques-Ja en Bolivie Investissement j'le pérennise, j'le prolifie Eh, vas-y roule ton bazar Frelon gère ton buzz, vas-y roule ton bazar Frelon gère ton buzz, vas-y roule ton bazar Frelon gère ton buzz Check, j'me réveille à 606, au stud j'me pointe à 15 J'arrive seul quand ils s'pointent à 15 Elle veut baiser, rendez-vous à 17, elle s'pointe à 15 J'suis avec Pense, bientôt j'le reverse des kich' J'prends l'volant j'suis bourré, j'renverse des biches Le cques-Ja c'est pas Orel mais marlich fixe les bases On s'retrouve au Georges V, fuck l'Ibis B.B. Jacques FC, sur Twitter rien qu'ça jacte Le bigo, rien qu'ça sonne, j'vais m'refaire une grande SACEM Sur l'dos d'autres qui coulent J'suis dans une grande galère mais faut pas qu'j'en parle Quand y'a plein d'flics, y'a plein d'gendarmes J'les invitais quand j'avais pas d'gent-ar La peu-fra attaque les gencives Si y'a du teush pour Hervé y'en a pour Jean Yves Dernière fois j'ai merdé, j'étais trop sympa Pour l'instant j'laisse trop d'MCs en vie Même si tu sors la somme, tu m'auras pas en feat On t'aimera pas en vie, on t'donnera pas envie d'ouvrir Lanvin T'as capté ? Pour l'instant j'laisse trop d'MCs en vu Tu sors la somme, fuck off, tu m'as pas en feat On t'aimera pas en vie, on t'donnera pas envie d'ouvrir Lanvin Que pour l'envie, j'ai pas écrit ça en vain Une femme sur un trottoir parisien m'agace Le soleil à 8h43 L'condé m'croit bourré, m'demande combien font 8x3 Une prière et 12 fatwas Eh, vas-y roule ton bazar Frelon gère ton buzz</t>
+          <t>Dignity and culture Overbookée comme la prof de danse, 2K22 les stats surprennent Midnight in Paris, ça quel pochtar ? J'crois qu'c'est celui d'Woody Les fleurs du hram dans la bouche de Serge Confonds pas Paname et sa carte postale La tracklist sur 4 post-it Un golden, un ice-tea green Ils sont beaux les sourires d'nos femmes, fuck Faut qu'on prenne soin d'nos filles Sur un coup d'rein on peut refaire nos vies Ils en abuseraient Si j'affirme mes failles, pour l'moment j'reste serein et j'ves-qui ça Les traits de son visage, que ma plume esquissa Bah ouais, j'ai fait l'job jusqu'ici Bah ouais, j'ai fait l'job jusqu'ici Champagne et cigare Dans la gestion d'affaires double les postes comme à Man City Une énième cicatrice, un nouveau point d'suture Le gare-ci est sur l'point d's'éteindre Un ciel rose soigne ses teintes Le rap n'est pas mort mais sur l'point d's'éteindre Champagne et cigare Dans la gestion d'affaires double les postes comme Guardiola Une énième cicatrice, un nouveau point d'suture Le gare-ci est sur l'point d's'éteindre Un ciel rose soigne ses teintes Le rap n'est pas mort mais sur l'point d's'éteindre Sur l'point d's'éteindre La nuit j'écris des soleils, dès qu'l'aube tient ses promesses j'dessine des 16 Que Dieu m'pardonne, j'atteins un signe des cieux Si j'ai raison, dis rien, cligne des yeux Y'a qu'la pluie qu'j'ai vu redescendre du ciel Une fois qu't'es monté faut redescendre tu sais Et quand tu t'fais baiser c'est par les plus proches J'ai pas attendu l'peu-ra pour partir avec la plus fraîche Fuck off, NBOW Records on réédite, on vous fume wAllah Paname c'est pas Tijuana, y'a pas d'cques-Ja en Bolivie Investissement j'le pérennise, j'le prolifie Eh, vas-y roule ton bazar Frelon gère ton buzz, vas-y roule ton bazar Frelon gère ton buzz, vas-y roule ton bazar Frelon gère ton buzz Check, j'me réveille à 606, au stud j'me pointe à 15 J'arrive seul quand ils s'pointent à 15 Elle veut baiser, rendez-vous à 17, elle s'pointe à 15 J'suis avec Pense, bientôt j'le reverse des kich' J'prends l'volant j'suis bourré, j'renverse des biches Le cques-Ja c'est pas Orel mais marlich fixe les bases On s'retrouve au Georges V, fuck l'Ibis B.B. Jacques FC, sur Twitter rien qu'ça jacte Le bigo, rien qu'ça sonne, j'vais m'refaire une grande SACEM Sur l'dos d'autres qui coulent J'suis dans une grande galère mais faut pas qu'j'en parle Quand y'a plein d'flics, y'a plein d'gendarmes J'les invitais quand j'avais pas d'gent-ar La peu-fra attaque les gencives Si y'a du teush pour Hervé y'en a pour Jean Yves Dernière fois j'ai merdé, j'étais trop sympa Pour l'instant j'laisse trop d'MCs en vie Même si tu sors la somme, tu m'auras pas en feat On t'aimera pas en vie, on t'donnera pas envie d'ouvrir Lanvin T'as capté ? Pour l'instant j'laisse trop d'MCs en vu Tu sors la somme, fuck off, tu m'as pas en feat On t'aimera pas en vie, on t'donnera pas envie d'ouvrir Lanvin Que pour l'envie, j'ai pas écrit ça en vain Une femme sur un trottoir parisien m'agace Le soleil à 8h43 L'condé m'croit bourré, m'demande combien font 8x3 Une prière et 12 fatwas Eh, vas-y roule ton bazar Frelon gère ton buzz</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>T'inquiète, eh Dignity and culture Ca fait deux heures que j'suis assis à ma table La feuille est blanche au-dessus d'un bar dans l'15 Jacques triplement filtré, eh Caviar Ca fait deux heures qu'j'suis assis à ma table et qu'la feuille est blanche Au-dessus d'un bar dans le 15e Jacques triplement filtré comme le pollen dans ma paume Hermétique à vos éloges J'compose dans la solitude de c'putain d'processus Froid comme les sommets qu'on vise Paix à l'âme de toutes les prods sur lesquelles Jacques est passé Blue bird, t'attache pas baby, j'fais qu'passer Un son, un classique, j'arrive dans l'game J'ouvre un terrain avec un son, j'peux pas t'donner C'qui m'fait peur c'est que rien ne m'effraie Dors paisiblement Si on réussit, j'dirais qu'c'est grâce à vous Si on s'rate t'inquiète c'est à mes frais Maintenant c'est sur l'artiste que t'écoutes Plus qu'en apprécier l'uvre Eveillé à l'heure où d'autres dorment J'me suis fixé des buts qui m'laissent susciter d'autres normes Fidèle à moi-même, j'reviens toujours tête haute Fidèle à moi-même, j'reviens toujours tête haute Assez pudique pour dire non à ce sentimentalisme J'me pointe seul quand ils s'pointent à 10 Elle a un accent caraïbéen, en provenance de Pointe à Pitre Bienvenue dans la jungle parisienne bébé Ici chaque coin, chaque coin d'rue a son charme Et un beau jour tu t'réveilles, tu la vois pas venir et tu succombes à son charme J'sais pas quoi dire au psy, un apathique manipulateur J'sais pas quoi dire aux petits, y'a quelques phrases qui m'font mal à dire L'amour obsessionnel devenu maladif Les couples qui portent les mêmes pompes peuvent pas porter l'même nom On n'a pas lu les mêmes livres, pas pris la même route Toi tu rappes, moi j'fais des hymnes Focus faut qu'j'fasse le point J'refuse la présence d'une beauté des îles Devant des faux culs j'sers le poing mais ils auront pas ma haine Elle fait deux pas en arrière quand elle a peur J'en vois d'autres dîner aux chandelles Des regards qui s'échangent mais qui n'se captent pas Depuis qu'elle sait que j'fais du son, ma daronne fait la gueule On s'doute pas du fait que j'fais du sale Ce soir y'a d'la place dans l'resto dans l'quel on dînait tous les deux Tu m'retrouves à la sortie de la BPI Tête à tête, juste à gauche Du recul, peut-être que j'en manque, fuck les 100.000 Aujourd'hui on fait l'partage sur mes parts J'ai pas sorti les singles rabatteurs Le contrôle au faciès, s'dit aléatoire Nouvel album, allez active T'as du buzz fuck, t'es pas réactif J'dois pêcher avant d'passer à table Un homme, déjà passez-moi la tiz Fuck les , les transports Fuck les sponsors j'ai tout financé Fuck les sponsors j'ai tout financé You might also like C'est nous les meilleurs, pour le moment peu le savent J'le té-cla à Répu, ça sent jusqu'à Bastille Ouais la beuh elle sent C'est nous les meilleurs, pour le moment peu le savent J'le té-cla à Répu, ça sent jusqu'à Bastille Ouais la beuh elle sent, j'profite d'un buzz récent Ou du moins j'l'anticipe encore une topline qu'j'intercepte Fuck les non-dits et les interdits Les putes, la coke, moins dans l'peu-ra qu'en zone interdite Apprends à dire non, apprends à t'permettre c'qu'on t'interdit Apprends à dire non, apprends à t'permettre c'qu'on t'interdit C'est nous les meilleurs, pour le moment peu le savent J'le té-cla à Répu, ça sent jusqu'à Bastille Ouais la beuh elle sent, j'profite d'un buzz récent</t>
+          <t>T'inquiète, eh Dignity and culture Ca fait deux heures que j'suis assis à ma table La feuille est blanche au-dessus d'un bar dans l'15 Jacques triplement filtré, eh Caviar Ca fait deux heures qu'j'suis assis à ma table et qu'la feuille est blanche Au-dessus d'un bar dans le 15e Jacques triplement filtré comme le pollen dans ma paume Hermétique à vos éloges J'compose dans la solitude de c'putain d'processus Froid comme les sommets qu'on vise Paix à l'âme de toutes les prods sur lesquelles Jacques est passé Blue bird, t'attache pas baby, j'fais qu'passer Un son, un classique, j'arrive dans l'game J'ouvre un terrain avec un son, j'peux pas t'donner C'qui m'fait peur c'est que rien ne m'effraie Dors paisiblement Si on réussit, j'dirais qu'c'est grâce à vous Si on s'rate t'inquiète c'est à mes frais Maintenant c'est sur l'artiste que t'écoutes Plus qu'en apprécier l'uvre Eveillé à l'heure où d'autres dorment J'me suis fixé des buts qui m'laissent susciter d'autres normes Fidèle à moi-même, j'reviens toujours tête haute Fidèle à moi-même, j'reviens toujours tête haute Assez pudique pour dire non à ce sentimentalisme J'me pointe seul quand ils s'pointent à 10 Elle a un accent caraïbéen, en provenance de Pointe à Pitre Bienvenue dans la jungle parisienne bébé Ici chaque coin, chaque coin d'rue a son charme Et un beau jour tu t'réveilles, tu la vois pas venir et tu succombes à son charme J'sais pas quoi dire au psy, un apathique manipulateur J'sais pas quoi dire aux petits, y'a quelques phrases qui m'font mal à dire L'amour obsessionnel devenu maladif Les couples qui portent les mêmes pompes peuvent pas porter l'même nom On n'a pas lu les mêmes livres, pas pris la même route Toi tu rappes, moi j'fais des hymnes Focus faut qu'j'fasse le point J'refuse la présence d'une beauté des îles Devant des faux culs j'sers le poing mais ils auront pas ma haine Elle fait deux pas en arrière quand elle a peur J'en vois d'autres dîner aux chandelles Des regards qui s'échangent mais qui n'se captent pas Depuis qu'elle sait que j'fais du son, ma daronne fait la gueule On s'doute pas du fait que j'fais du sale Ce soir y'a d'la place dans l'resto dans l'quel on dînait tous les deux Tu m'retrouves à la sortie de la BPI Tête à tête, juste à gauche Du recul, peut-être que j'en manque, fuck les 100.000 Aujourd'hui on fait l'partage sur mes parts J'ai pas sorti les singles rabatteurs Le contrôle au faciès, s'dit aléatoire Nouvel album, allez active T'as du buzz fuck, t'es pas réactif J'dois pêcher avant d'passer à table Un homme, déjà passez-moi la tiz Fuck les , les transports Fuck les sponsors j'ai tout financé Fuck les sponsors j'ai tout financé C'est nous les meilleurs, pour le moment peu le savent J'le té-cla à Répu, ça sent jusqu'à Bastille Ouais la beuh elle sent C'est nous les meilleurs, pour le moment peu le savent J'le té-cla à Répu, ça sent jusqu'à Bastille Ouais la beuh elle sent, j'profite d'un buzz récent Ou du moins j'l'anticipe encore une topline qu'j'intercepte Fuck les non-dits et les interdits Les putes, la coke, moins dans l'peu-ra qu'en zone interdite Apprends à dire non, apprends à t'permettre c'qu'on t'interdit Apprends à dire non, apprends à t'permettre c'qu'on t'interdit C'est nous les meilleurs, pour le moment peu le savent J'le té-cla à Répu, ça sent jusqu'à Bastille Ouais la beuh elle sent, j'profite d'un buzz récent</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>- Mais c'est qui, lui ? Eh, eh, eh - Lâchez-le, lâchez-le - Mais, c'est qui, lui ? Wesh, c'est qui là-ui-c' ? - - Ah ouais ? - T'sais, c'est un rappeur de la série d'mes couilles là, sur Netflix Eh, ouais - Ah ouais ? Eh - Bisous, p'tit cur, bisous, p'tit cur Triple fuck off - , B.B Jacques - J'arrive, fils de pute - Vas-y, viens T'as d'la chance, y a l'buzz - Putain, putain. Eh, j'vais l'niquer celui-là j'vais l'niquer celui-là Eh, Mehdi, viens, on parle d'art et pas du reste pendant qu'ils tweet, fuck off Ligne 1, j'essaie d'gratter au milieu d'une équipe t'as peur Tout l'monde aura sa part Colors, demain, ça part Mais d'abord, viens, on casse une scène à Liège, faut qu'j'la choppe faut qu'j'la choppe Ensuite, baby, j'nachave de Paname, le cques-J', il est pas natif J'regarde vers l'ciel, dis-moi de qui t'as peur NBOW, j'joue tapis sur LNS, dis-toi qu'j'les shoote à peine, j'les missionne pour qu'on m'livre Mais babe, est-ce que t'as lu tout ça ? Le cques-J', est-ce que tu sais qui c'est ? Viens, on s'tise, wesh, c'est qui Sam de Washington à la Gaîté Lyrique, j'fais du bif Ensuite, on barre, on claque l'argent du rap, on réécoute Lana, NBOW, c'est pas Chulvanij Depuis qu'j'fais du cash, j'vois une autre partie d'Paname, tu sais, celle qu'on nous cache Hamdoullah, happy Hanouka Leys, c'est pas Nicki, j'm'isole, babe, t'es pas ma came On représente un bordel dont on n'est même pas natifs J'supporte une pression que d'autres esquivent You might also like Pose-moi une question, j'lui trouve une autre esquive J'ai rien mangé, j'enchaîne les ITW et prises de voix Mets-moi plus de boucles et puis moins d'ciné La tournée des concerts, sans la moindre sono Avec des couplets d'grand cynique J'vous parlais d'NBOW depuis l'départ J'repense à c'gamin avec des yeux plus bleus qu'le ciel Allez, viens, on fait des vux, on s'arrache les cils, on a dansé, on s'est déchirés, c'était l'lac des cygnes Pas l'temps d'nouer les lacets d'ma paire d'TN, d'ailleurs, j'mets même plus ma paire d'TN La proposition est pertinente, bébé C'est d'la musique que j'pars livrer, j'voulais les baiser, j'voulais pas m'livrer Le revenu tous apprêtés pour les grands départs Si t'as une vision, ils diront qu'c'est un grand délire NBOW, c'est une vision, c'est pas l'fruit d'un grand débat PDP, c'est une uvre d'art, grand débile J'vais les baiser sans l'moindre tabou M'fais pas dire c'qui sort pas d'ma bouche J'vais en r'faire une, mais garde la piste Si tu l'fais pas, personne l'a fait le plus jouissif, c'est quand personne le sait J'remplis nos poches si j'vide mon sac T'es un mytho, t'as beau jurer sur la vie d'ta mère Eh, enculé, si t'as du talent, vas-y, pose ton seize Ça va pas devenir ça-comme, comme si ça sortait après deux pochetons d'zeb J'supporte une pression que d'autres esquivent, eh Pose-moi une question, j'lui trouve une autre esquive J'vous parlais d'NBOW depuis l'départ Le cques-J', un grand débat</t>
+          <t>- Mais c'est qui, lui ? Eh, eh, eh - Lâchez-le, lâchez-le - Mais, c'est qui, lui ? Wesh, c'est qui là-ui-c' ? - - Ah ouais ? - T'sais, c'est un rappeur de la série d'mes couilles là, sur Netflix Eh, ouais - Ah ouais ? Eh - Bisous, p'tit cur, bisous, p'tit cur Triple fuck off - , B.B Jacques - J'arrive, fils de pute - Vas-y, viens T'as d'la chance, y a l'buzz - Putain, putain. Eh, j'vais l'niquer celui-là j'vais l'niquer celui-là Eh, Mehdi, viens, on parle d'art et pas du reste pendant qu'ils tweet, fuck off Ligne 1, j'essaie d'gratter au milieu d'une équipe t'as peur Tout l'monde aura sa part Colors, demain, ça part Mais d'abord, viens, on casse une scène à Liège, faut qu'j'la choppe faut qu'j'la choppe Ensuite, baby, j'nachave de Paname, le cques-J', il est pas natif J'regarde vers l'ciel, dis-moi de qui t'as peur NBOW, j'joue tapis sur LNS, dis-toi qu'j'les shoote à peine, j'les missionne pour qu'on m'livre Mais babe, est-ce que t'as lu tout ça ? Le cques-J', est-ce que tu sais qui c'est ? Viens, on s'tise, wesh, c'est qui Sam de Washington à la Gaîté Lyrique, j'fais du bif Ensuite, on barre, on claque l'argent du rap, on réécoute Lana, NBOW, c'est pas Chulvanij Depuis qu'j'fais du cash, j'vois une autre partie d'Paname, tu sais, celle qu'on nous cache Hamdoullah, happy Hanouka Leys, c'est pas Nicki, j'm'isole, babe, t'es pas ma came On représente un bordel dont on n'est même pas natifs J'supporte une pression que d'autres esquivent Pose-moi une question, j'lui trouve une autre esquive J'ai rien mangé, j'enchaîne les ITW et prises de voix Mets-moi plus de boucles et puis moins d'ciné La tournée des concerts, sans la moindre sono Avec des couplets d'grand cynique J'vous parlais d'NBOW depuis l'départ J'repense à c'gamin avec des yeux plus bleus qu'le ciel Allez, viens, on fait des vux, on s'arrache les cils, on a dansé, on s'est déchirés, c'était l'lac des cygnes Pas l'temps d'nouer les lacets d'ma paire d'TN, d'ailleurs, j'mets même plus ma paire d'TN La proposition est pertinente, bébé C'est d'la musique que j'pars livrer, j'voulais les baiser, j'voulais pas m'livrer Le revenu tous apprêtés pour les grands départs Si t'as une vision, ils diront qu'c'est un grand délire NBOW, c'est une vision, c'est pas l'fruit d'un grand débat PDP, c'est une uvre d'art, grand débile J'vais les baiser sans l'moindre tabou M'fais pas dire c'qui sort pas d'ma bouche J'vais en r'faire une, mais garde la piste Si tu l'fais pas, personne l'a fait le plus jouissif, c'est quand personne le sait J'remplis nos poches si j'vide mon sac T'es un mytho, t'as beau jurer sur la vie d'ta mère Eh, enculé, si t'as du talent, vas-y, pose ton seize Ça va pas devenir ça-comme, comme si ça sortait après deux pochetons d'zeb J'supporte une pression que d'autres esquivent, eh Pose-moi une question, j'lui trouve une autre esquive J'vous parlais d'NBOW depuis l'départ Le cques-J', un grand débat</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Eh J'peux pas l'renier, y a une vie d'artiste, y a une vie d'parolier On a fuck comme si on allait pas l'refaire, rare comme c'truc qu'on pourra pas refaire Nan Deux-cent-vingt-deux raisons d'être parano On s'retrouve au Valhalla, que Dieu nous protège J'ai rallumé une bougie à la messe On pleure des illusions comme des morts Anémone Les larmes qu'on verse pas sont impossibles à défendre, c'st les plus longues à sécher Faut qu j'donne du love à des chiennes On avait de l'or dans les mains avant de s'en mettre dessus T-shirt black, croix en or, j'remets l'survêt' dessus Eh J'respire ou elle m'coupe le souffle Babe, j'suis pas là, j'bosse, j'essaie d'sauver des gens avec la prose T'oublieras tes rêves de gosse, tu t'souviendras d'tes rêves d'ado' J'vais leur donner des raisons d'me détester à ces fils de pute J'vais tout payer en avance pour qu'le manque d'oseille n'nous effraie plus jamais Faut pas avoir peur d'aimer, c'est l'vrai courage Toutes ces choses dont j't'ai jamais parlé, qu'j'ai dû écrire, j'voulais t'dire Je t'aime Encore un fossé dans lequel j'me suis jeté, j't'ai donné les fleurs que j'me suis jamais jeté Dans mes yeuz' que s'cachent les mots qu'j'n'ai jamais su t'dire Nique sa mère, on s'remet d'tout, même si on est d'travers, on repart Surveille le ciel, t'es pas à l'abri qu'j'le peigne Y a tant d'paris que j'suis prêt à perdre mais pas celui que j'ai fait sur nous Aux discussions qu'j'peux pas relire, avoir peur des mots c'est l'comble d'un parolier C'est trop pur, y a des choses que j'peux pas redire, des points qu'j'peux pas relier J'l'oublie quand j'l'attrape par son choker bas relief Si on s'perd dans c'qui est fake, on s'sera fait baiser par ce qu'on prône B3id char, s'il m'arrive quelque chose Le bif' qu'on prend devient anecdotique Le cques-J, Pygmalion, pas deux identiques J'suis arrivé dans l'peu-ra à une vitesse, j'ai fait pause pour pas finir le jeu Tiens, vingt cacahouètes, j'ai pris plaisir à t'foutre le seum J'suis au tél' avec le baveux depuis la côte, j'regarde la wifey prendre le sun C'était pas évident d'tenir le coup, c'est plus dur d'lâcher prise Pied-à-terre à Paname, le braquo ça s'organise, attends qu'j'sorte canines Une histoire écrite par Anthony Burgess dans Orange mécanique C'est les noms qu'on n'donne pas qui comptent J'fais d'l'oseille sur celui d'mon ex comme un p'tit con, j'dépense avec une autre J'ai tué l'buzz, j'instaure le règne, grande cavale Ils auront beau m'envoyer le raid, j'n'ai d'compte à rendre qu'à mes rêves J'viens d'augmenter mes gars, faut que j'aille chercher plus de sacs Problème, j'parle d'amour avec pudeur pas avec Gwendoline Lis entre les lignes avec la loupe, départ Guadeloupe avec la louve Le rap est mort, vive le rap, l'impression d'être un requin qui chasse la loutre Fin d'couplet Fuck off Plus rien à foutreYou might also like</t>
+          <t>Eh J'peux pas l'renier, y a une vie d'artiste, y a une vie d'parolier On a fuck comme si on allait pas l'refaire, rare comme c'truc qu'on pourra pas refaire Nan Deux-cent-vingt-deux raisons d'être parano On s'retrouve au Valhalla, que Dieu nous protège J'ai rallumé une bougie à la messe On pleure des illusions comme des morts Anémone Les larmes qu'on verse pas sont impossibles à défendre, c'st les plus longues à sécher Faut qu j'donne du love à des chiennes On avait de l'or dans les mains avant de s'en mettre dessus T-shirt black, croix en or, j'remets l'survêt' dessus Eh J'respire ou elle m'coupe le souffle Babe, j'suis pas là, j'bosse, j'essaie d'sauver des gens avec la prose T'oublieras tes rêves de gosse, tu t'souviendras d'tes rêves d'ado' J'vais leur donner des raisons d'me détester à ces fils de pute J'vais tout payer en avance pour qu'le manque d'oseille n'nous effraie plus jamais Faut pas avoir peur d'aimer, c'est l'vrai courage Toutes ces choses dont j't'ai jamais parlé, qu'j'ai dû écrire, j'voulais t'dire Je t'aime Encore un fossé dans lequel j'me suis jeté, j't'ai donné les fleurs que j'me suis jamais jeté Dans mes yeuz' que s'cachent les mots qu'j'n'ai jamais su t'dire Nique sa mère, on s'remet d'tout, même si on est d'travers, on repart Surveille le ciel, t'es pas à l'abri qu'j'le peigne Y a tant d'paris que j'suis prêt à perdre mais pas celui que j'ai fait sur nous Aux discussions qu'j'peux pas relire, avoir peur des mots c'est l'comble d'un parolier C'est trop pur, y a des choses que j'peux pas redire, des points qu'j'peux pas relier J'l'oublie quand j'l'attrape par son choker bas relief Si on s'perd dans c'qui est fake, on s'sera fait baiser par ce qu'on prône B3id char, s'il m'arrive quelque chose Le bif' qu'on prend devient anecdotique Le cques-J, Pygmalion, pas deux identiques J'suis arrivé dans l'peu-ra à une vitesse, j'ai fait pause pour pas finir le jeu Tiens, vingt cacahouètes, j'ai pris plaisir à t'foutre le seum J'suis au tél' avec le baveux depuis la côte, j'regarde la wifey prendre le sun C'était pas évident d'tenir le coup, c'est plus dur d'lâcher prise Pied-à-terre à Paname, le braquo ça s'organise, attends qu'j'sorte canines Une histoire écrite par Anthony Burgess dans Orange mécanique C'est les noms qu'on n'donne pas qui comptent J'fais d'l'oseille sur celui d'mon ex comme un p'tit con, j'dépense avec une autre J'ai tué l'buzz, j'instaure le règne, grande cavale Ils auront beau m'envoyer le raid, j'n'ai d'compte à rendre qu'à mes rêves J'viens d'augmenter mes gars, faut que j'aille chercher plus de sacs Problème, j'parle d'amour avec pudeur pas avec Gwendoline Lis entre les lignes avec la loupe, départ Guadeloupe avec la louve Le rap est mort, vive le rap, l'impression d'être un requin qui chasse la loutre Fin d'couplet Fuck off Plus rien à foutre</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Eh, eh, eh Okay Check Il m'restait l'charbon pour pas perdre la tête À la recherche d'inspi' sur les plages d'Zandvoort Mais d'abord, j'traverse Paname avec un Uber à dix-sept cinquante Je l'sais, tu voulais vivre dexcès Elle avait l'sourire dans sa robe bleue eh Quand leurs r'gards s'esquivent, j'en ai fait l'tour Une fois qu'la ville se vide, finis ton livre d'vant l'jardin Au début, c'est que d'l'amour sans l'moindre ce-vi Et si on changeait d'pays avant ctte fin d'semaine ? On fait d'la 'siqu, j'm'en bats les couilles du prix d'ta prod Il reste que la balle dans la plaie, j'la traverse, y a personne sur la place Me parle pas d'l'argent qu't'as pas, est-c'que j'représente d'où j'suis natif ? Okay Direction l'Ohio, Cincinnati C'est plus la même depuis la signature Fuck Off, c'est pas une insulte, c'est une signature, okay Direction l'Ohio, Cincinnati C'est plus la même depuis la signature Fuck Off, c'est pas une insulte, c'est une... You might also like Allez, rentre chez oi-t Y a pas d'flex, mais on fait plus de sous qu'les grands d'chez oi-t Babe, s'tu veux on passe en bombe près d'Charles Lewis Responsable du bordel qu'j'organise de Beriz jusqu'à Charleroi C'est nous qui trainions en solo et tard le soir Est-c'qu'on les jette ou on garde les stems ? Le ques-J', c'est pas un rappeur 'ricain On est des Arabes pas des ritals Eh, gros, c'est mes sous, y a pas d'héritage C'est pas une prod d'N.I On r'vient de loin, c'était grave pénible C'était grave pénible Est-ce qu'on les jette ou on garde les stems ? On est des Arabes pas des ritals C'est pas une prod d'N.I On r'vient de loin, c'était grave pénible En fait, le Sale c'était un beau blond Mets un bordel sur c'que j'ai écrit dans l'calme biblique Et qui admet? Tiens, ça c'est pour l'duty free quand tu r'viens d'là-bas Ils veulent savoir pourquoi j'parle arabe avec une croix Est-c'que j'viens d'là-bas ? Eh Tiens, Pandrezz, remets d'la basse, tien,s j'te laisse du temps pour qu'tu r'mettes la baff' Okay, Direction l'Ohio, Cincinnati C'est plus la même depuis la signature Fuck Off, c'est pas une insulte, c'est une...</t>
+          <t>Eh, eh, eh Okay Check Il m'restait l'charbon pour pas perdre la tête À la recherche d'inspi' sur les plages d'Zandvoort Mais d'abord, j'traverse Paname avec un Uber à dix-sept cinquante Je l'sais, tu voulais vivre dexcès Elle avait l'sourire dans sa robe bleue eh Quand leurs r'gards s'esquivent, j'en ai fait l'tour Une fois qu'la ville se vide, finis ton livre d'vant l'jardin Au début, c'est que d'l'amour sans l'moindre ce-vi Et si on changeait d'pays avant ctte fin d'semaine ? On fait d'la 'siqu, j'm'en bats les couilles du prix d'ta prod Il reste que la balle dans la plaie, j'la traverse, y a personne sur la place Me parle pas d'l'argent qu't'as pas, est-c'que j'représente d'où j'suis natif ? Okay Direction l'Ohio, Cincinnati C'est plus la même depuis la signature Fuck Off, c'est pas une insulte, c'est une signature, okay Direction l'Ohio, Cincinnati C'est plus la même depuis la signature Fuck Off, c'est pas une insulte, c'est une... Allez, rentre chez oi-t Y a pas d'flex, mais on fait plus de sous qu'les grands d'chez oi-t Babe, s'tu veux on passe en bombe près d'Charles Lewis Responsable du bordel qu'j'organise de Beriz jusqu'à Charleroi C'est nous qui trainions en solo et tard le soir Est-c'qu'on les jette ou on garde les stems ? Le ques-J', c'est pas un rappeur 'ricain On est des Arabes pas des ritals Eh, gros, c'est mes sous, y a pas d'héritage C'est pas une prod d'N.I On r'vient de loin, c'était grave pénible C'était grave pénible Est-ce qu'on les jette ou on garde les stems ? On est des Arabes pas des ritals C'est pas une prod d'N.I On r'vient de loin, c'était grave pénible En fait, le Sale c'était un beau blond Mets un bordel sur c'que j'ai écrit dans l'calme biblique Et qui admet? Tiens, ça c'est pour l'duty free quand tu r'viens d'là-bas Ils veulent savoir pourquoi j'parle arabe avec une croix Est-c'que j'viens d'là-bas ? Eh Tiens, Pandrezz, remets d'la basse, tien,s j'te laisse du temps pour qu'tu r'mettes la baff' Okay, Direction l'Ohio, Cincinnati C'est plus la même depuis la signature Fuck Off, c'est pas une insulte, c'est une...</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Boulevard d'la Chapelle, l'Assommoir devient Coline Est-ce que tu t'en rappelles ? On s'est dit qu'on se rappelle, on l'a pas fait Celui qui te manquait de respect, j'allais le baffer Quand j'te donnais de l'espèce tu m'le r'passais Esthétisons les souvenirs ressassés Marre de s'ressasser l'souvenir où on s'enlaçait Là, c'est trop, tiep' Lui, j'vais lui casser l'dos J'ai trop d'appétit, mais ils ont pas assez d'crocs C'est quand même pas d'ma faute s'ils ont pas assez d'flow Fuck off, bébé Là, c'est trop, tiep' Lui, j'vais lui casser l'dos J'ai trop d'appétit, mais ils ont pas assez d'crocs C'est quand même pas d'ma faute s'ils ont pas assez d'flow Quand j'étais p'tit et niais J'ai vite capté qu'le bourbon les détend Quant au bourbier, j'savais bien où il était Insouciant, pathétique On t'casse les ailes avec des noms d'oiseaux mais en Arabe Avec du r'cul ça m'parait limite pathétique Yacine ? Il avait l'talent d'Kimmich Eh Pour changer, j'vais prendre la plume Des alibis qui justifient des envies de meurtre Elle date de 2012 ma dernière rime facile Y'a pas qu'ma génération qu'Mesrines fascine Elle fait la gueule, elle a pas touché à son Côtes du Rhône Elle fait la gueule, elle a pas touché à son Côtes du Rhône You might also like J'peux tout dire, j'peux tout m'permettre Du moins, c'est c'que j'laisse croire Il est hors de question que j'me laisse faire La place qu'on a r'fusé, laisse leur Y'a des idéaux qui s'incarnent J'peux tout dire, j'peux tout m'permettre Du moins, c'est c'que j'laisse croire Il est hors de question que j'me laisse faire La place qu'on a r'fusé, laisse leur Y'a des idéaux qui s'incarnent Là, c'est trop, tiep' Lui, j'vais lui casser l'dos J'ai trop d'appétit, mais ils ont pas assez d'crocs C'est quand même pas d'ma faute s'ils ont pas assez d'flow Fuck off, bébé Là, c'est trop, tiep' Lui, j'vais lui casser l'dos J'ai trop d'appétit, mais ils ont pas assez d'crocs C'est quand même pas d'ma faute s'ils ont pas assez d'flow Quatrième round Moi-même j'en ai marre d'm'entendre Des conseils avisés résonnent dans l'vide Innocenté L'accusé, a accuser l'innocent dans l'vide Tu peux mentir aux autres mais pas à toi Tu peux mentir aux autres mais pas à moi À deux doigts d'faire un son pour plaire aux formats Restons humbles, soyons clairs Tiens Prends l'pét', retrouve l'embout du piano sinon j'sors pas J'apprends qu'avec le temps toutes les paroles s'effacent Qu'les daronnes ont toujours raison Demain, bébé, j'te r'trouve à 22 heures T'enlèves tes bas résilles, j'te jette des raisins Une impression de déjà-vu quand tu t'plains d'l'odeur de la résine</t>
+          <t>Boulevard d'la Chapelle, l'Assommoir devient Coline Est-ce que tu t'en rappelles ? On s'est dit qu'on se rappelle, on l'a pas fait Celui qui te manquait de respect, j'allais le baffer Quand j'te donnais de l'espèce tu m'le r'passais Esthétisons les souvenirs ressassés Marre de s'ressasser l'souvenir où on s'enlaçait Là, c'est trop, tiep' Lui, j'vais lui casser l'dos J'ai trop d'appétit, mais ils ont pas assez d'crocs C'est quand même pas d'ma faute s'ils ont pas assez d'flow Fuck off, bébé Là, c'est trop, tiep' Lui, j'vais lui casser l'dos J'ai trop d'appétit, mais ils ont pas assez d'crocs C'est quand même pas d'ma faute s'ils ont pas assez d'flow Quand j'étais p'tit et niais J'ai vite capté qu'le bourbon les détend Quant au bourbier, j'savais bien où il était Insouciant, pathétique On t'casse les ailes avec des noms d'oiseaux mais en Arabe Avec du r'cul ça m'parait limite pathétique Yacine ? Il avait l'talent d'Kimmich Eh Pour changer, j'vais prendre la plume Des alibis qui justifient des envies de meurtre Elle date de 2012 ma dernière rime facile Y'a pas qu'ma génération qu'Mesrines fascine Elle fait la gueule, elle a pas touché à son Côtes du Rhône Elle fait la gueule, elle a pas touché à son Côtes du Rhône J'peux tout dire, j'peux tout m'permettre Du moins, c'est c'que j'laisse croire Il est hors de question que j'me laisse faire La place qu'on a r'fusé, laisse leur Y'a des idéaux qui s'incarnent J'peux tout dire, j'peux tout m'permettre Du moins, c'est c'que j'laisse croire Il est hors de question que j'me laisse faire La place qu'on a r'fusé, laisse leur Y'a des idéaux qui s'incarnent Là, c'est trop, tiep' Lui, j'vais lui casser l'dos J'ai trop d'appétit, mais ils ont pas assez d'crocs C'est quand même pas d'ma faute s'ils ont pas assez d'flow Fuck off, bébé Là, c'est trop, tiep' Lui, j'vais lui casser l'dos J'ai trop d'appétit, mais ils ont pas assez d'crocs C'est quand même pas d'ma faute s'ils ont pas assez d'flow Quatrième round Moi-même j'en ai marre d'm'entendre Des conseils avisés résonnent dans l'vide Innocenté L'accusé, a accuser l'innocent dans l'vide Tu peux mentir aux autres mais pas à toi Tu peux mentir aux autres mais pas à moi À deux doigts d'faire un son pour plaire aux formats Restons humbles, soyons clairs Tiens Prends l'pét', retrouve l'embout du piano sinon j'sors pas J'apprends qu'avec le temps toutes les paroles s'effacent Qu'les daronnes ont toujours raison Demain, bébé, j'te r'trouve à 22 heures T'enlèves tes bas résilles, j'te jette des raisins Une impression de déjà-vu quand tu t'plains d'l'odeur de la résine</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dignity and culture Pour dormir, jrecompte les taulards depuis le mirador Par ici on a le dos large, les filles adorent Je taime autant que tu me détestes mi amor Oh no Oh la folle Elle mcassait les couilles avant dfaire battre mi corazón Jai refusé lavance dont les gows raffolent Le présent tfuit vu que ton avenir tinquiète Les remords rongent aussitôt que les passions lassent Lavenir se ternit quand la blanche singèr Jai réduit lamour à lécrasement de mass Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Vivre dans ces conditions là Et je suis pas le seul qui a eu ce problème Cest aussi tellement gênant La pression est nette et claire Tu vas sortir, cest ça le message You might also like Jai cassé, les barreaux de la cage dans laquelle on menferme Jsuis bien trop malin mon ange pour écoper dun an ferme Jai cassé, les barreaux de la cage dans laquelle on menferme Jsuis bien trop malin mon ange pour écoper dun an ferme Qui fait lbien ? Qui fait lmal ? Jsais plus Le poids de mes paradoxes mépuise Qui est qui ? Qui fait quoi ? Qui es-tu ? Les questions sans réponses séduisent Jai bien plus à donner que ce quon essaie de me prendre Lamour, cest quand elle stresse plus que toi quand on essaie dte prendre Le plan Cest de faire disparaître ces bâtiments-là Ces bâtiments-là Avec tout ce quil y a dessous Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Est-ce que le syndrome ddipe mène jusquau parricide Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Jme sens bizarre dans ce biz là Jpiste la suite Japprécie les filles sages, les filles faciles Bébé cest entêtant Jsuis dans lA4, la TT Elle mtentait tant, jsavais pas où tétais Cest pas lmoment de faire le bilan Cest lmoment dpèter Premier arrivé, dernier parti, Jazz Cest plus du peura cest une partie dchasse On divise les tâches, on répartit le taff Niquer des mères comme des barbies dbase Lamitié est belle quand ton 3arbi tschlasse Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Y a des petits sur le terrain mais cest pas le bon stade Jai bien plus à dire que mon code postal</t>
+          <t>Dignity and culture Pour dormir, jrecompte les taulards depuis le mirador Par ici on a le dos large, les filles adorent Je taime autant que tu me détestes mi amor Oh no Oh la folle Elle mcassait les couilles avant dfaire battre mi corazón Jai refusé lavance dont les gows raffolent Le présent tfuit vu que ton avenir tinquiète Les remords rongent aussitôt que les passions lassent Lavenir se ternit quand la blanche singèr Jai réduit lamour à lécrasement de mass Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Vivre dans ces conditions là Et je suis pas le seul qui a eu ce problème Cest aussi tellement gênant La pression est nette et claire Tu vas sortir, cest ça le message Jai cassé, les barreaux de la cage dans laquelle on menferme Jsuis bien trop malin mon ange pour écoper dun an ferme Jai cassé, les barreaux de la cage dans laquelle on menferme Jsuis bien trop malin mon ange pour écoper dun an ferme Qui fait lbien ? Qui fait lmal ? Jsais plus Le poids de mes paradoxes mépuise Qui est qui ? Qui fait quoi ? Qui es-tu ? Les questions sans réponses séduisent Jai bien plus à donner que ce quon essaie de me prendre Lamour, cest quand elle stresse plus que toi quand on essaie dte prendre Le plan Cest de faire disparaître ces bâtiments-là Ces bâtiments-là Avec tout ce quil y a dessous Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Est-ce que le syndrome ddipe mène jusquau parricide Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Jme sens bizarre dans ce biz là Jpiste la suite Japprécie les filles sages, les filles faciles Bébé cest entêtant Jsuis dans lA4, la TT Elle mtentait tant, jsavais pas où tétais Cest pas lmoment de faire le bilan Cest lmoment dpèter Premier arrivé, dernier parti, Jazz Cest plus du peura cest une partie dchasse On divise les tâches, on répartit le taff Niquer des mères comme des barbies dbase Lamitié est belle quand ton 3arbi tschlasse Ils veulent raser mon tieks, allez-y Marianne strémousse avec un SMIC dans chaque bas résille Y a des petits sur le terrain mais cest pas le bon stade Jai bien plus à dire que mon code postal</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Y'a NBOW qui offre des peintes à Sony Fuck off c'est pas du Russe Nan nan, j'veux pas d'Urus Nan nan, j'veux pas d'Urus En fait ça va, avec Sana sur l'auto j'traine en sens inverse En fait ça va En fait ça va, avec Sana sur l'auto j'traine en sens inverse En fait ça va, ça va Y'a NBOW qui offre des peintes à Sony J'viens d'fêter l'départ d'ce grand batard Ferme ta geule ou au moins quand tu l'ouvre Beleck au que-Ja et à ses belles canines, t'auras ni douze, ni treize, qui quinze pourcents T'augmentes 25, fuck off, tu m'verras pas l'26 Eh Vinz, pour l'instant j'vais pas en dire plus y'a LCS qui va s'le faire, y tient plus en place J'refuse 40 milles et j'arrache deux heures Pas l'temps d'graille, j'enchaine rendez-vous d'deux heures Y'a KX qui m'invite à souffler sur deux signes J'vais demander à la maison d'sceuds un bon bateau Jacques Brel du Liban, c'est un bad boy d'Beyrouth et y t'baises ta mèreYou might also like</t>
+          <t>Y'a NBOW qui offre des peintes à Sony Fuck off c'est pas du Russe Nan nan, j'veux pas d'Urus Nan nan, j'veux pas d'Urus En fait ça va, avec Sana sur l'auto j'traine en sens inverse En fait ça va En fait ça va, avec Sana sur l'auto j'traine en sens inverse En fait ça va, ça va Y'a NBOW qui offre des peintes à Sony J'viens d'fêter l'départ d'ce grand batard Ferme ta geule ou au moins quand tu l'ouvre Beleck au que-Ja et à ses belles canines, t'auras ni douze, ni treize, qui quinze pourcents T'augmentes 25, fuck off, tu m'verras pas l'26 Eh Vinz, pour l'instant j'vais pas en dire plus y'a LCS qui va s'le faire, y tient plus en place J'refuse 40 milles et j'arrache deux heures Pas l'temps d'graille, j'enchaine rendez-vous d'deux heures Y'a KX qui m'invite à souffler sur deux signes J'vais demander à la maison d'sceuds un bon bateau Jacques Brel du Liban, c'est un bad boy d'Beyrouth et y t'baises ta mère</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'ai fait un rêve où j'étais blanc, comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo J'ai fait un rêve où j'étais blanc, blanc comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo Blanc oui vraiment blanc comme les mecs dans la Mondeo Blanc blanc blanc blanc comme Roméo La folie des grandeurs c'est une étroitesse d'esprit Parce qu'un 3arbi qui parle mieux français qu'un français p't-être ça empêche le tri C'est un concept qui s'met en , est-ce du rap ou est-ce des cris ? J'ai fait un rêve où j'étais blanc, blanc comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo Ah c'est ton corps qui bouge, sous whisky, sous cortisone Elle fatigue d'être courtisée Y a p't'-être Many dans le coup qui sait ? Ah c'est ton corps qui bouge, sous whisky, sous cortisone Elle fatigue d'être courtisée Y a p't'-être des Many dans le coup qui sait ? Frappe comme l'tonnerre après l'éclaircie Connexion lybano-Corse jazz jazz Frappe comme l'tonnerre après l'éclaircie Connexion lybano-Corse jazz jazz You might also like Elle m'fait part de son engouement Ma décision est irrévocable j'vais les goumer J'me suis versé du sky oui j'ai tout mis Ils ont écouté Hérésie ils sont étonnés Elle reste 6 secondes dans une ruelle toute fraîchement bétonnée Font des phrases par des Tony Self made man NBOW c'est pas Sony J'serai payé à la phrase ou au sonnet Est-ce qu'on va s'promener ou on va zonner ? J'rappais comme toi y a 4,5 ans J'ai fait un rêve où j'étais blanc, comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo J'ai fait un rêve où j'étais blanc, blanc comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo Blanc oui vraiment blanc comme les mecs dans la Mondeo Frappe comme tonnerre après l'éclaircie Connexion lybano-Corse jazz jazz Ils s'comportent comme des crasses C'était pas</t>
+          <t>J'ai fait un rêve où j'étais blanc, comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo J'ai fait un rêve où j'étais blanc, blanc comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo Blanc oui vraiment blanc comme les mecs dans la Mondeo Blanc blanc blanc blanc comme Roméo La folie des grandeurs c'est une étroitesse d'esprit Parce qu'un 3arbi qui parle mieux français qu'un français p't-être ça empêche le tri C'est un concept qui s'met en , est-ce du rap ou est-ce des cris ? J'ai fait un rêve où j'étais blanc, blanc comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo Ah c'est ton corps qui bouge, sous whisky, sous cortisone Elle fatigue d'être courtisée Y a p't'-être Many dans le coup qui sait ? Ah c'est ton corps qui bouge, sous whisky, sous cortisone Elle fatigue d'être courtisée Y a p't'-être des Many dans le coup qui sait ? Frappe comme l'tonnerre après l'éclaircie Connexion lybano-Corse jazz jazz Frappe comme l'tonnerre après l'éclaircie Connexion lybano-Corse jazz jazz Elle m'fait part de son engouement Ma décision est irrévocable j'vais les goumer J'me suis versé du sky oui j'ai tout mis Ils ont écouté Hérésie ils sont étonnés Elle reste 6 secondes dans une ruelle toute fraîchement bétonnée Font des phrases par des Tony Self made man NBOW c'est pas Sony J'serai payé à la phrase ou au sonnet Est-ce qu'on va s'promener ou on va zonner ? J'rappais comme toi y a 4,5 ans J'ai fait un rêve où j'étais blanc, comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo J'ai fait un rêve où j'étais blanc, blanc comme Roméo Blanc oui vraiment blanc comme les mecs dans la Mondeo Blanc oui vraiment blanc comme les mecs dans la Mondeo Frappe comme tonnerre après l'éclaircie Connexion lybano-Corse jazz jazz Ils s'comportent comme des crasses C'était pas</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Eh, cadeau, tu veux une exclu ? Prends Un-deux Tu veux du buzz ? Prends Eh Des lyrics ? Prends L'album d'l'année prochaine, il sortira c't'année C't'année Et si on retournait sur la scène du crime ? Let's go Pour s'faire douze balles, arrêtez d'me booster, boostez Leys, boostez Houssbad Et j'me retrouve en face d'l'escalier sur l'quel, j'm'étais juré d'tout baiser Et j'l'ai fait Ah, l'cques-J', t'as fais d'la route Eh-eh, Boom Boom et puis, l'cur d'la reine T'inquiète, j'ai les épaules pour prendre la relève J'ai pas l'choix, j'dois prendre le lead, le cques-J', Booska, ça fait cher l'trente-deux lignes Tiens, t'es tendu, prends deux lattes, c'est d'la ppe-f' de Huntelaar, feat' Sofiane Ensuite, prends l'télé', ils t'imitent, est-ce qu'ils t'égalent ? J'quitte Paname dans un Benz' café crème, j'hésite à faire la paix ou t'pénétrer Let's go Harmonie, plénitude, roule Des clashs, j'm'en bats les couilles Fait encore plus de sous qu'prévu Plus et pourquoi vous êtes autant ? Moi, quand j'pé-ra, de base, c'est privé Fuck him Ça fait deux jours, j'me sens bizarre, putain mais qu'est-ce que j'fous là ? Rien Milieu d'Chatelet alors qu'il m'reste deux sons à trer-ren et j'me barre Million, énorme batte, rue piétonne, casquette Si j'dois finir à pattes À pattes, m'appelle pas J'm'installe, déter' comme un Ukrainien sur l'front Russe, fuck off J'porte mes couilles comme un jeune boug qui a pas d'grands reufs Rien L'avenir d'vant moi, là, c'est pas l'artiste qui parle, c'est l'patron d'label NBOW On n'avait pas assez pour les écoles de co' mais l'game, si tu t'structures pas, c'est que d'la baise Mehlich, c'est que d'l'art, j'compte même plus les coups d'pute Babe, il t'entend mais il t'écoute plus Regarde c'que j'ai fait en une heure, imagine c'que j'peux faire en deux mois Est-ce d'l'art ou un coup d'pub ? J'vous donnerai jamais l'luxe de tout savoir sur moi, j'suis pas flou, juste pudique Elle veut l'faire, elle veut s'assoir sur moi J'fais plus d'promo, c'est les médias qui en font sur mon dos Des erreurs Des erreurs, on en f'ra sûrement d'autres, j'porte beaucoup trop d'monde sur mon dos Babe, j'écris, j'suis sur mon tel, bercé par erreurs surmontées Il reste ton fond d'teint sur mon jean Pétasse Hier encore, on s'croyait stylés dans des fringues toutes cheap' Alors le cques-J', comment tu vis le fait que tu shine ? Bien Y parait qu't'as pris deux-cents balles ? Oui Comment tu vis l'succès ? T'as vu l'visage du Sale ? Oui Et qu'est-ce que tu penses de Shay ? Rien Hein, t'as vu, c'est oppressant C'est toi qui t'projettes, c'est pas moi qui t'représente Hein, t'as vu, c'est oppressant, t'as vu, c'est oppressant C'est toi qui t'projettes, c'est pas moi qui t'représente Représente You might also like Ils annoncent leurs bum-al en changeant d'photo d'profil Arrêtez vos guitares latines, le cques-J', c'est pas un cubain J'fais rentrer NBOW, pas b'soin d'être incubé J'ai oublié d'me faire un virement pour toutes ces prod' que j'tabasse Quand j'étais p'tit, j'étais discret, j'disais pas qu'j'allais rapper Au quartier, y a v'la l'rapace, du coup, moi, j'tais seul, sa mère J'leur ai dit qu'le game, j'allais l'braquer, ils ont ris, j'l'ai braqué Ils ont pris l'seum, sa mère</t>
+          <t>Eh, cadeau, tu veux une exclu ? Prends Un-deux Tu veux du buzz ? Prends Eh Des lyrics ? Prends L'album d'l'année prochaine, il sortira c't'année C't'année Et si on retournait sur la scène du crime ? Let's go Pour s'faire douze balles, arrêtez d'me booster, boostez Leys, boostez Houssbad Et j'me retrouve en face d'l'escalier sur l'quel, j'm'étais juré d'tout baiser Et j'l'ai fait Ah, l'cques-J', t'as fais d'la route Eh-eh, Boom Boom et puis, l'cur d'la reine T'inquiète, j'ai les épaules pour prendre la relève J'ai pas l'choix, j'dois prendre le lead, le cques-J', Booska, ça fait cher l'trente-deux lignes Tiens, t'es tendu, prends deux lattes, c'est d'la ppe-f' de Huntelaar, feat' Sofiane Ensuite, prends l'télé', ils t'imitent, est-ce qu'ils t'égalent ? J'quitte Paname dans un Benz' café crème, j'hésite à faire la paix ou t'pénétrer Let's go Harmonie, plénitude, roule Des clashs, j'm'en bats les couilles Fait encore plus de sous qu'prévu Plus et pourquoi vous êtes autant ? Moi, quand j'pé-ra, de base, c'est privé Fuck him Ça fait deux jours, j'me sens bizarre, putain mais qu'est-ce que j'fous là ? Rien Milieu d'Chatelet alors qu'il m'reste deux sons à trer-ren et j'me barre Million, énorme batte, rue piétonne, casquette Si j'dois finir à pattes À pattes, m'appelle pas J'm'installe, déter' comme un Ukrainien sur l'front Russe, fuck off J'porte mes couilles comme un jeune boug qui a pas d'grands reufs Rien L'avenir d'vant moi, là, c'est pas l'artiste qui parle, c'est l'patron d'label NBOW On n'avait pas assez pour les écoles de co' mais l'game, si tu t'structures pas, c'est que d'la baise Mehlich, c'est que d'l'art, j'compte même plus les coups d'pute Babe, il t'entend mais il t'écoute plus Regarde c'que j'ai fait en une heure, imagine c'que j'peux faire en deux mois Est-ce d'l'art ou un coup d'pub ? J'vous donnerai jamais l'luxe de tout savoir sur moi, j'suis pas flou, juste pudique Elle veut l'faire, elle veut s'assoir sur moi J'fais plus d'promo, c'est les médias qui en font sur mon dos Des erreurs Des erreurs, on en f'ra sûrement d'autres, j'porte beaucoup trop d'monde sur mon dos Babe, j'écris, j'suis sur mon tel, bercé par erreurs surmontées Il reste ton fond d'teint sur mon jean Pétasse Hier encore, on s'croyait stylés dans des fringues toutes cheap' Alors le cques-J', comment tu vis le fait que tu shine ? Bien Y parait qu't'as pris deux-cents balles ? Oui Comment tu vis l'succès ? T'as vu l'visage du Sale ? Oui Et qu'est-ce que tu penses de Shay ? Rien Hein, t'as vu, c'est oppressant C'est toi qui t'projettes, c'est pas moi qui t'représente Hein, t'as vu, c'est oppressant, t'as vu, c'est oppressant C'est toi qui t'projettes, c'est pas moi qui t'représente Représente Ils annoncent leurs bum-al en changeant d'photo d'profil Arrêtez vos guitares latines, le cques-J', c'est pas un cubain J'fais rentrer NBOW, pas b'soin d'être incubé J'ai oublié d'me faire un virement pour toutes ces prod' que j'tabasse Quand j'étais p'tit, j'étais discret, j'disais pas qu'j'allais rapper Au quartier, y a v'la l'rapace, du coup, moi, j'tais seul, sa mère J'leur ai dit qu'le game, j'allais l'braquer, ils ont ris, j'l'ai braqué Ils ont pris l'seum, sa mère</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dignity and culture Eh La conscience de l'autre c'est un donjon Exister c'est vivre l'aventure de la liberté Quand on naît on s'incarcère J'vais leur montrer c'qu'ils veulent pas voir En clippant à la frontière Libano-Syrienne Comme les rappeurs jouent au rappeur Garçon d'café je joue au garçon d'café J'ai refusé d'être prisonnier d'un rôle J'l'affirme j'té-cla un gramme Baby love c'est une athlète J'me montre compréhensif J'me rapproch de la fenêtre Si j'm rapproche du sommet Eux ils s'rapprochent d'la fenêtre Fuck off Écrire nécessite du calme Y a des choses dont le hasard se charge Hier j'ai dîné un triangle, j'ai refusé une distrib Jacques, underground, mais jamais en district Hey, vu qu'c'est moi qui écris j'relis même pas le script Ici c'est Paname, igo c'est pas la Toscane Ici c'est Paname, igo c'est pas la Toscane You might also like Chacun reste à sa place bébé tout s'gère On s'capte pendant ta pause, eh Dieu pour tous, chacun pour sa cause Du pouvoir d'achat et des primes à la casse On m'a refusé l'accès j'déprime à la tess' L'eau n'est qu'Cristaline pour diluer la tise Accélère souris au radar Encore un bras droit qui a besoin d'une attèle Les présences d'viennent fantomatiques Fais transiter la valise via des Franco-Malgaches De plus en plus à l'aise avec le fait d'en avoir rien à foutre Bien à vous, j'vais investir à Paris dans d'grands espaces Puis on fera l'tour des States dans une Ford Escape Qui tirera un van sur lequel on aura écrit fuck les States De plus en plus à l'aise avec le fait d'en avoir rien à foutre Quand les dealeurs de détail te mentent Les videurs les pin-ups te hantent Mon regard noir se mêle à ses yeux couleur liqueur de menthe Tino reste carré j'en peux plus d'arrondir les angles Tier-quar, hasta la vista, Maman reste pas à la cité Ciao Quitte à s'faire recaler autant s'faire blacklister Dans la boîte j'rentre pas Les yeux vers GiGi Black Mamba Un dîner en Sicile Elle m'a vu venir comme BACeux en civil J'vais ni parler, ni d'la passer, ni d'la vendre C'est tes potes qui t'la vendent Tous la même portion d'potes partage viande Crache pas dans l'dos d'quelqu'un Tu partages l'assiette Mais il paraît, elle s'fait longue l'attente Est-ce assez clair si j'dis Non d'la tête ? Des rétros cassés près de la rue du départ</t>
+          <t>Dignity and culture Eh La conscience de l'autre c'est un donjon Exister c'est vivre l'aventure de la liberté Quand on naît on s'incarcère J'vais leur montrer c'qu'ils veulent pas voir En clippant à la frontière Libano-Syrienne Comme les rappeurs jouent au rappeur Garçon d'café je joue au garçon d'café J'ai refusé d'être prisonnier d'un rôle J'l'affirme j'té-cla un gramme Baby love c'est une athlète J'me montre compréhensif J'me rapproch de la fenêtre Si j'm rapproche du sommet Eux ils s'rapprochent d'la fenêtre Fuck off Écrire nécessite du calme Y a des choses dont le hasard se charge Hier j'ai dîné un triangle, j'ai refusé une distrib Jacques, underground, mais jamais en district Hey, vu qu'c'est moi qui écris j'relis même pas le script Ici c'est Paname, igo c'est pas la Toscane Ici c'est Paname, igo c'est pas la Toscane Chacun reste à sa place bébé tout s'gère On s'capte pendant ta pause, eh Dieu pour tous, chacun pour sa cause Du pouvoir d'achat et des primes à la casse On m'a refusé l'accès j'déprime à la tess' L'eau n'est qu'Cristaline pour diluer la tise Accélère souris au radar Encore un bras droit qui a besoin d'une attèle Les présences d'viennent fantomatiques Fais transiter la valise via des Franco-Malgaches De plus en plus à l'aise avec le fait d'en avoir rien à foutre Bien à vous, j'vais investir à Paris dans d'grands espaces Puis on fera l'tour des States dans une Ford Escape Qui tirera un van sur lequel on aura écrit fuck les States De plus en plus à l'aise avec le fait d'en avoir rien à foutre Quand les dealeurs de détail te mentent Les videurs les pin-ups te hantent Mon regard noir se mêle à ses yeux couleur liqueur de menthe Tino reste carré j'en peux plus d'arrondir les angles Tier-quar, hasta la vista, Maman reste pas à la cité Ciao Quitte à s'faire recaler autant s'faire blacklister Dans la boîte j'rentre pas Les yeux vers GiGi Black Mamba Un dîner en Sicile Elle m'a vu venir comme BACeux en civil J'vais ni parler, ni d'la passer, ni d'la vendre C'est tes potes qui t'la vendent Tous la même portion d'potes partage viande Crache pas dans l'dos d'quelqu'un Tu partages l'assiette Mais il paraît, elle s'fait longue l'attente Est-ce assez clair si j'dis Non d'la tête ? Des rétros cassés près de la rue du départ</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dignity and culture Hey Comment tu veux qu'j'explique des choses que j'suis pas foutu d'comprendre ? Dis toi, mon khey, que t'es sur la bonne voie s'ils peuvent pas t'comprendre Comme ça, ça paraît con Mais y a que comme ça qu'ça m'paraît bon L'écriture, c'est une âme qui éclate en silence Donc ils t'gêneront pas mes silences J'm'imagine sans toi Sans toi, j'vois flou Ce soir, wAllah, j'me casse la voix En une fois, sans voix Dans quoi j'm'embarque, dans l'aqua J'suis rsté debout pour qu'd'autres s'assoient Si on pnse à eux, on songe à soi Mon pied, mon pied, mon pied, ton pied Un mannequin tokyoïte dans de la soie C'est l'heure d'la topL' Fuck off, j'suis pas d'humeur hey Dire qu'j'aurais pu finir au bagne à cause d'un saut d'humeur Merde Vas-y, fuck les rimes J'manie des schémas plus complexes que certaines femmes Les ambitions naissent dans l'binks binks, binks Là où on t'donne un échantillon devant l'2ème Là où Jacques a jeté Tino du 22ème Quand j'portais l'poids, eux, ils m'portaient l'3ein You might also like C'est pas grave T'sais, j'comprends, t'es patraque C'est pas grave Elle écoute B.B. Jacques Elle écoute pas d'rap Ma belle-mère fait du pilates dans une villa Corse Elle sait qu'je bosse sur des syllabes et qu'j'esquive la Ford J'suis dans une paire de Ralph toute neuve donc j'ves-qui la flotte Hey Soit ils trouveront qu'j'abuse soit ils diront qu'c'était ça Immature graphiquement malgré tous ses desseins C'est juste pour m'supporter qu'j'étais soûl C'est moi j't'ai supporté, j'étais soûl Quand j'portais l'poids, eux ils m'portaient l'3ein C'est la jungle comme à Calais, c'est une hérésie On s'déchire, on finit en lambeaux Quartiers désertiques Faire pleurer maman, c'est faire gronder Zeus Les rues sont désertées La nuit sera calme J'continue sur ma lancée Faut qu'j'noircisse des feuilles, le rythme de sortie cadencé C'est normal C'est fini, la concu' explose Y a l'danger C'est fini, bébé, y'a Kooking il s'est mis à penser Pense s'est mis à danser J'continu sur ma lancée Faut qu'j'noircisse des feuilles, le rythme de sortie cadencé C'est normal C'est fini, la concu' explose Y a l'danger On m'a dit si tu l'fais pas pour toi, fais le au moins pour l'rap français Fais le au moins pour l'rap français Et allez fuck off, ils critiquent mais ils suck, ah Est-ce que j'la vends ou j'la stocke, ah J'les vois vendre gue-dro d'treize à seize C'est c'était un commis aux assises Où sont les homies qui t'assistent, hein ? Les yeux des pauvres en disent plus On baise On s'aime On s'disculpe J'ai plus à dire que d'dire skurt Chez nous les amants s'disputent T'sais bien qu'les amants se disent potes Faut qu'je porte mes couilles et j'dise stop</t>
+          <t>Dignity and culture Hey Comment tu veux qu'j'explique des choses que j'suis pas foutu d'comprendre ? Dis toi, mon khey, que t'es sur la bonne voie s'ils peuvent pas t'comprendre Comme ça, ça paraît con Mais y a que comme ça qu'ça m'paraît bon L'écriture, c'est une âme qui éclate en silence Donc ils t'gêneront pas mes silences J'm'imagine sans toi Sans toi, j'vois flou Ce soir, wAllah, j'me casse la voix En une fois, sans voix Dans quoi j'm'embarque, dans l'aqua J'suis rsté debout pour qu'd'autres s'assoient Si on pnse à eux, on songe à soi Mon pied, mon pied, mon pied, ton pied Un mannequin tokyoïte dans de la soie C'est l'heure d'la topL' Fuck off, j'suis pas d'humeur hey Dire qu'j'aurais pu finir au bagne à cause d'un saut d'humeur Merde Vas-y, fuck les rimes J'manie des schémas plus complexes que certaines femmes Les ambitions naissent dans l'binks binks, binks Là où on t'donne un échantillon devant l'2ème Là où Jacques a jeté Tino du 22ème Quand j'portais l'poids, eux, ils m'portaient l'3ein C'est pas grave T'sais, j'comprends, t'es patraque C'est pas grave Elle écoute B.B. Jacques Elle écoute pas d'rap Ma belle-mère fait du pilates dans une villa Corse Elle sait qu'je bosse sur des syllabes et qu'j'esquive la Ford J'suis dans une paire de Ralph toute neuve donc j'ves-qui la flotte Hey Soit ils trouveront qu'j'abuse soit ils diront qu'c'était ça Immature graphiquement malgré tous ses desseins C'est juste pour m'supporter qu'j'étais soûl C'est moi j't'ai supporté, j'étais soûl Quand j'portais l'poids, eux ils m'portaient l'3ein C'est la jungle comme à Calais, c'est une hérésie On s'déchire, on finit en lambeaux Quartiers désertiques Faire pleurer maman, c'est faire gronder Zeus Les rues sont désertées La nuit sera calme J'continue sur ma lancée Faut qu'j'noircisse des feuilles, le rythme de sortie cadencé C'est normal C'est fini, la concu' explose Y a l'danger C'est fini, bébé, y'a Kooking il s'est mis à penser Pense s'est mis à danser J'continu sur ma lancée Faut qu'j'noircisse des feuilles, le rythme de sortie cadencé C'est normal C'est fini, la concu' explose Y a l'danger On m'a dit si tu l'fais pas pour toi, fais le au moins pour l'rap français Fais le au moins pour l'rap français Et allez fuck off, ils critiquent mais ils suck, ah Est-ce que j'la vends ou j'la stocke, ah J'les vois vendre gue-dro d'treize à seize C'est c'était un commis aux assises Où sont les homies qui t'assistent, hein ? Les yeux des pauvres en disent plus On baise On s'aime On s'disculpe J'ai plus à dire que d'dire skurt Chez nous les amants s'disputent T'sais bien qu'les amants se disent potes Faut qu'je porte mes couilles et j'dise stop</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Eh, bienvenue dans l'film d'ma vie Amnésique, proche des néons rouges, du red light depuis ma vitre Ils veulent mon buzz, ils veulent plus de light, pique de cur comme Solaar Inspiré par vos vices comme Zola Un peu d'bonheur, tout recommence J'lui coupe les ailes pour pas qu'elle parte, de la nuit j'ai pas fermé l'il J'ai repris la route, il pleut, on retournera rire là où tu pleures Demain, aujourd'hui t'es chap, j'suis créatif donc jcache mes sources J'continue d'cacher v'là mes sous, 3 du mat' j'suis seul vers Malakoff J'la prends par la main avant d'la mettre sur sa gorge, j'la pénètre pour qu'elle s'sente revivre J'écris deux pages j'me sentais vide, l'autre jour j'ai vu une ride, le temps défile Libre comme Eluard, j'étais si proche de toi qu'j'avais froid proche des autres Hier encore j'avais vingt ans, on était fauchés, la peau sur les os J'étais si proche de toi qu'j'avais froid près des autres Hier encore j'avais vingt ans, j'étais fauché, la peau sur les os C'est l'enterrement des opps, l'enterrement des opps Eh C'est l'enterrement des opps, l'enterrement des opps Ça y est l'froid arrive Les raisonnables ont duré, les passionnés ont vécu Malgré nous y a c'charisme qu'on véhicule Doggy' dans l'véhicule, eh J'étais pas là, j'étais parti vivre un peu J'écris Ciao, merci pour tout avec ton feutre Maintenant faut qu'j'atterrisse comme Kafka sur l'rivage Vingt-cinq balais plus jeune que mon verre d'Chivas Masqué, charmant, j'appréhende l'visage Le plus dur c'est quand tu t'écrase Laisse pousser tes ailes pendant ta chute Une dernière, avant d'être ta femme c'était sa pute You might also like Exposé, c'est plus comme avant, fils Deux rêves, un qu'tu réalises, un qu'tu gardes dans ta chambre Patiente, c'est la dernière clé du trousseau qui ouvre la porte Parle-moi avec justesse d'tes idées folles Isole-toi dans la foule, cours sous la pluie, danse sous la foudre J'suis trop loin pour qu'j'en ai encore quelque chose à foutre C'est l'enterrement des opps, l'enterrement des opps Eh C'est l'enterrement des opps, l'enterrement des opps Pour les salopes qui veulent me baiser, ils s'sont tirés dans le ied-p J'reconnais un te-traî même avec d'la poussière dans l'illère C'est pour ça qu'j'les garde proches Chaque bum-al c'est comme éponge qu'on essore On lave le linge sale en famille Y a toutes ces poubelles qu'il faut qu'je sorte, eh C'est moi l'mal qu'vous m'avez fait C'est nous, il fait noir les étoiles apparaissent J'nous ai pris un loft à Paris J'te regarde faire des tours dans ton simple appareil Est-ce que t'as les photos d'nous dans un , US apparel J'étais à part, ce soir j'repense à avant Là j'vais rentrer à pattes, tu serais fière de oi-m si t'étais là Je t'emmène danser sur les sons qu't'écoutais quand tu versais tes larmes Moi j'suis incapable de rer-pleu, j'vais encore saigner sur la feuille Babe, j'ai fait du pe-ra pour t'baiser sur d'la funk J'regarde la vie avec des yeux d'gosse Tu sais l'charbon c'est l'cheat code Si ta bitch rentre c'est qu'j'v'-esqui des tain-p' Le cques-J', c'est moi la bougie qu'ils ont pas pu éteindre Exposé c'est plus comme avant, fils Deux rêves, un qu'tu réalises, un qu'tu gardes dans ta chambre Patiente, c'est la dernière clé du trousseau qui ouvre la porte Parle-moi avec justesse de tes idées folles Isole-toi dans la foule, cours sous la pluie, danse sous la foudre J'suis trop loin pour qu'j'en ai encore quelque chose à foutre</t>
+          <t>Eh, bienvenue dans l'film d'ma vie Amnésique, proche des néons rouges, du red light depuis ma vitre Ils veulent mon buzz, ils veulent plus de light, pique de cur comme Solaar Inspiré par vos vices comme Zola Un peu d'bonheur, tout recommence J'lui coupe les ailes pour pas qu'elle parte, de la nuit j'ai pas fermé l'il J'ai repris la route, il pleut, on retournera rire là où tu pleures Demain, aujourd'hui t'es chap, j'suis créatif donc jcache mes sources J'continue d'cacher v'là mes sous, 3 du mat' j'suis seul vers Malakoff J'la prends par la main avant d'la mettre sur sa gorge, j'la pénètre pour qu'elle s'sente revivre J'écris deux pages j'me sentais vide, l'autre jour j'ai vu une ride, le temps défile Libre comme Eluard, j'étais si proche de toi qu'j'avais froid proche des autres Hier encore j'avais vingt ans, on était fauchés, la peau sur les os J'étais si proche de toi qu'j'avais froid près des autres Hier encore j'avais vingt ans, j'étais fauché, la peau sur les os C'est l'enterrement des opps, l'enterrement des opps Eh C'est l'enterrement des opps, l'enterrement des opps Ça y est l'froid arrive Les raisonnables ont duré, les passionnés ont vécu Malgré nous y a c'charisme qu'on véhicule Doggy' dans l'véhicule, eh J'étais pas là, j'étais parti vivre un peu J'écris Ciao, merci pour tout avec ton feutre Maintenant faut qu'j'atterrisse comme Kafka sur l'rivage Vingt-cinq balais plus jeune que mon verre d'Chivas Masqué, charmant, j'appréhende l'visage Le plus dur c'est quand tu t'écrase Laisse pousser tes ailes pendant ta chute Une dernière, avant d'être ta femme c'était sa pute Exposé, c'est plus comme avant, fils Deux rêves, un qu'tu réalises, un qu'tu gardes dans ta chambre Patiente, c'est la dernière clé du trousseau qui ouvre la porte Parle-moi avec justesse d'tes idées folles Isole-toi dans la foule, cours sous la pluie, danse sous la foudre J'suis trop loin pour qu'j'en ai encore quelque chose à foutre C'est l'enterrement des opps, l'enterrement des opps Eh C'est l'enterrement des opps, l'enterrement des opps Pour les salopes qui veulent me baiser, ils s'sont tirés dans le ied-p J'reconnais un te-traî même avec d'la poussière dans l'illère C'est pour ça qu'j'les garde proches Chaque bum-al c'est comme éponge qu'on essore On lave le linge sale en famille Y a toutes ces poubelles qu'il faut qu'je sorte, eh C'est moi l'mal qu'vous m'avez fait C'est nous, il fait noir les étoiles apparaissent J'nous ai pris un loft à Paris J'te regarde faire des tours dans ton simple appareil Est-ce que t'as les photos d'nous dans un , US apparel J'étais à part, ce soir j'repense à avant Là j'vais rentrer à pattes, tu serais fière de oi-m si t'étais là Je t'emmène danser sur les sons qu't'écoutais quand tu versais tes larmes Moi j'suis incapable de rer-pleu, j'vais encore saigner sur la feuille Babe, j'ai fait du pe-ra pour t'baiser sur d'la funk J'regarde la vie avec des yeux d'gosse Tu sais l'charbon c'est l'cheat code Si ta bitch rentre c'est qu'j'v'-esqui des tain-p' Le cques-J', c'est moi la bougie qu'ils ont pas pu éteindre Exposé c'est plus comme avant, fils Deux rêves, un qu'tu réalises, un qu'tu gardes dans ta chambre Patiente, c'est la dernière clé du trousseau qui ouvre la porte Parle-moi avec justesse de tes idées folles Isole-toi dans la foule, cours sous la pluie, danse sous la foudre J'suis trop loin pour qu'j'en ai encore quelque chose à foutre</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Dignity and culture C'est le 15 qui a sévi Eh J'viens de raturer la première page, fuck il veut qu'on s'voie dans la durée, qu'on soit dans la teille, froid comme un 15 novembre, hey On va mal dans la brume mon frère J'ai qu'un mérite, c'est celui d'être resté dans ma bulle mon frère En justice on a esté, loin des avenirs seuls, pendant que la greffière faisait de l'oeil au questeur Je repense à la messe d'hier, mélancolie de caisse claire, résonne dans l'oreille d'un collègue, management paternaliste C'est de la faute de qui si la garde est alternée? J'romance les histoires dans le tournant, elle était fraîche puis d'un coup elle s'est retournée, fuck elle a bu elle a le tournis Elle voulait rentrer à Rueil Y a c'boug dans la ruelle, du coup elle a fait le détour vite, fait elle a fini à La Courneuve malgré elle Prends le problème à la racine, à la source, son père était raciste à la base, il sait pas qu'j'parle arabe à la tess Ok J'ai besoin d'me sentir fort, ok, nous baisâmes, descendirent l'store Ok, cinq minutes après toujours pas de colle, quand les frontières sont fermées t'as dix balles fais quatre cônes Tu t'fais berner, c'est toléré c'est permis, à l'abri des regards le ciel bleu s'est terni De la couronne au trône tout en haut on vivra de l'argent de nos audios Paraitre plus confiant qu'la veille, quitte à passer pour imbus d'sa propre personne, y a du beau monde dans l'fond d'la salle Soit ils finissent au Baumettes ou au fond d'la Seine Quand c'est fini, c'est fini ils refont la scène Le cognac réchauffe la gorge que le kniaks abîme, y a qu'à deux heures de Jack elle apprécie quand j'claque sa fesse Bien sûr je mérite billets pour ma prestation, ok bénissez moi j'ai domicilié l'prestataire Ouvrez l'ingé' juste après l'tête-à-tête, j'ai aimé ce que j'ai vu quand j'l'ai vu disparaître Et le bonheur pose son cul sur des chaises Scandinaves couleurs disparates You might also like Les larmes sont sèches, les gorges aussi, partir sans revenir c'est fort possible J'ai cru casser les murs qui me scellent, j'dois avouer j'en ai bavé fort, j'ai juste assez d'faux pour qu'jbrave l'effort</t>
+          <t>Dignity and culture C'est le 15 qui a sévi Eh J'viens de raturer la première page, fuck il veut qu'on s'voie dans la durée, qu'on soit dans la teille, froid comme un 15 novembre, hey On va mal dans la brume mon frère J'ai qu'un mérite, c'est celui d'être resté dans ma bulle mon frère En justice on a esté, loin des avenirs seuls, pendant que la greffière faisait de l'oeil au questeur Je repense à la messe d'hier, mélancolie de caisse claire, résonne dans l'oreille d'un collègue, management paternaliste C'est de la faute de qui si la garde est alternée? J'romance les histoires dans le tournant, elle était fraîche puis d'un coup elle s'est retournée, fuck elle a bu elle a le tournis Elle voulait rentrer à Rueil Y a c'boug dans la ruelle, du coup elle a fait le détour vite, fait elle a fini à La Courneuve malgré elle Prends le problème à la racine, à la source, son père était raciste à la base, il sait pas qu'j'parle arabe à la tess Ok J'ai besoin d'me sentir fort, ok, nous baisâmes, descendirent l'store Ok, cinq minutes après toujours pas de colle, quand les frontières sont fermées t'as dix balles fais quatre cônes Tu t'fais berner, c'est toléré c'est permis, à l'abri des regards le ciel bleu s'est terni De la couronne au trône tout en haut on vivra de l'argent de nos audios Paraitre plus confiant qu'la veille, quitte à passer pour imbus d'sa propre personne, y a du beau monde dans l'fond d'la salle Soit ils finissent au Baumettes ou au fond d'la Seine Quand c'est fini, c'est fini ils refont la scène Le cognac réchauffe la gorge que le kniaks abîme, y a qu'à deux heures de Jack elle apprécie quand j'claque sa fesse Bien sûr je mérite billets pour ma prestation, ok bénissez moi j'ai domicilié l'prestataire Ouvrez l'ingé' juste après l'tête-à-tête, j'ai aimé ce que j'ai vu quand j'l'ai vu disparaître Et le bonheur pose son cul sur des chaises Scandinaves couleurs disparates Les larmes sont sèches, les gorges aussi, partir sans revenir c'est fort possible J'ai cru casser les murs qui me scellent, j'dois avouer j'en ai bavé fort, j'ai juste assez d'faux pour qu'jbrave l'effort</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>J'fais pas dbonne musique si j'ai rien à dire et j'veux pas y aller si y a rien à vivre Jécrirai rien du tout J'dessinerai qu'des sourires à la fin du livre On faisait passer deux fois l'café minimum dans l'même filtre Y a toujours des spectacles, c'est plus l'même cirque Y a toujours un gros trou, c'est pas lmême vide Y a toujours dla fumée, c'est plus lmême shit Eh, on est devenus des adultes et bien trop vite Les frontières que j'ai franchies, bien trop fines T'inquiète, j'ai pas dside bitch sur le té-c' Ici, c'est la bagarre, bâtard Plomo, plata, pas d'cques-J' ou cata Eh, j'suis parti gratter proche de Sète Dans l'pe-ra comme un prof' de ZEP Tu veux baiser mon mental Fuck off, c'est l'mantra Bien sur qu'elle te manquera mais nique sa mère J'rallume un bédo et j'quitte la Terre, dans l'pe-ra comme un prof' de ZEP À force de péter ç'plafond d'verre, j'ai forte tête J'ai plus peur de gagner, plus peur de perdre Moi, j'compte en loyers et j'parle en dettes Gosse non désiré, j'sais pas faire un seul choix sans hésiter J'peux enchainer trois clopes sans respirer S'regarder dans les yeux sans esquiver, c'est pas une mauvaise idée C'est pas une mauvaise idée J'regarde d'l'eau dans l'essence, c'est pas des projections Fourchette sur la télé pour la connexion, devenir fort comme ça, c'est une profession J'suis comme un mood à part, elle veut l'faire dans l'Luna Park Les agneaux ont la paix que le loup n'a pas Avant d'chanter j'ai versé tout l'napalme Un mood à part, elle veut l'faire dans l'Luna Park Les agneaux ont la paix que le loup n'a pas You might also like C'que j'nous vois devenir, j'trouve ça touchant Ça sent la victoire et la poudre Si tu défais pas l'nud, il devient coulant Dans l'meilleur des cas il s'enroule Yeah, yeah Mon étoile filante, c'est un satellite mais j'fais quand même un vu Et vos regards brillants qui nous félicitent, ils s'éteignent jamais C'est pas Versailles il aurait dit Papy J'lui aurais dit On fait ce qu'on peut Le cques-J', BEN plg C'est nos têtes sur la pochette, on fait c'qu'on veut Elle a un mood à part, finalement on l'a fait dans l'Buddha-Bar J'suis un loup à part, bâtard, j'les baise avec distance Personne avec plus de talent dans l'domaine Ce soir j'vais m'fonce-dé, d'la ppe-fra, d'la Van Bommel De l'alcool sur nos plaies pas d'pommade Si je m'isole pas, j'souffle, y a pas d'bum-al NBOW, pétasse J'viens d'verser une larme, charge patronale J'me protège j'ai caché l'patronyme On est des piteux salariés exemplaires dans l'patronat Là, bébé, j'suis en mode bum-al, on s'reverra après le prochain disque Là, j'suis en mode bum-al, j'fais rimer les rêves et le code postal On s'en sort pas trop mal moi et mes quatre connards Ils matent comme le type sur le billet de cinq dollars Comme Collina sur la pochette de PES 3, j'suis arrivé dans l'rap comme un créneau en Renault Espace On rappe des prières, pas des messes basses J'chante le gruyère sur les pates, si j'sors, c'est civière sinon j'sors pas J'confonds les étoiles et les satellites Les colombes s'posent sur les gouttières pour écouter chanter les rats des villes Tu veux baiser mon mental Fuck off, c'est l'mantra Bien sûr qu'elle te manquera mais nique sa mère Personne baisera notre mental Pour la gloire, c'est l'mantra Parfois, tu vas douter mais nique sa mère</t>
+          <t>J'fais pas dbonne musique si j'ai rien à dire et j'veux pas y aller si y a rien à vivre Jécrirai rien du tout J'dessinerai qu'des sourires à la fin du livre On faisait passer deux fois l'café minimum dans l'même filtre Y a toujours des spectacles, c'est plus l'même cirque Y a toujours un gros trou, c'est pas lmême vide Y a toujours dla fumée, c'est plus lmême shit Eh, on est devenus des adultes et bien trop vite Les frontières que j'ai franchies, bien trop fines T'inquiète, j'ai pas dside bitch sur le té-c' Ici, c'est la bagarre, bâtard Plomo, plata, pas d'cques-J' ou cata Eh, j'suis parti gratter proche de Sète Dans l'pe-ra comme un prof' de ZEP Tu veux baiser mon mental Fuck off, c'est l'mantra Bien sur qu'elle te manquera mais nique sa mère J'rallume un bédo et j'quitte la Terre, dans l'pe-ra comme un prof' de ZEP À force de péter ç'plafond d'verre, j'ai forte tête J'ai plus peur de gagner, plus peur de perdre Moi, j'compte en loyers et j'parle en dettes Gosse non désiré, j'sais pas faire un seul choix sans hésiter J'peux enchainer trois clopes sans respirer S'regarder dans les yeux sans esquiver, c'est pas une mauvaise idée C'est pas une mauvaise idée J'regarde d'l'eau dans l'essence, c'est pas des projections Fourchette sur la télé pour la connexion, devenir fort comme ça, c'est une profession J'suis comme un mood à part, elle veut l'faire dans l'Luna Park Les agneaux ont la paix que le loup n'a pas Avant d'chanter j'ai versé tout l'napalme Un mood à part, elle veut l'faire dans l'Luna Park Les agneaux ont la paix que le loup n'a pas C'que j'nous vois devenir, j'trouve ça touchant Ça sent la victoire et la poudre Si tu défais pas l'nud, il devient coulant Dans l'meilleur des cas il s'enroule Yeah, yeah Mon étoile filante, c'est un satellite mais j'fais quand même un vu Et vos regards brillants qui nous félicitent, ils s'éteignent jamais C'est pas Versailles il aurait dit Papy J'lui aurais dit On fait ce qu'on peut Le cques-J', BEN plg C'est nos têtes sur la pochette, on fait c'qu'on veut Elle a un mood à part, finalement on l'a fait dans l'Buddha-Bar J'suis un loup à part, bâtard, j'les baise avec distance Personne avec plus de talent dans l'domaine Ce soir j'vais m'fonce-dé, d'la ppe-fra, d'la Van Bommel De l'alcool sur nos plaies pas d'pommade Si je m'isole pas, j'souffle, y a pas d'bum-al NBOW, pétasse J'viens d'verser une larme, charge patronale J'me protège j'ai caché l'patronyme On est des piteux salariés exemplaires dans l'patronat Là, bébé, j'suis en mode bum-al, on s'reverra après le prochain disque Là, j'suis en mode bum-al, j'fais rimer les rêves et le code postal On s'en sort pas trop mal moi et mes quatre connards Ils matent comme le type sur le billet de cinq dollars Comme Collina sur la pochette de PES 3, j'suis arrivé dans l'rap comme un créneau en Renault Espace On rappe des prières, pas des messes basses J'chante le gruyère sur les pates, si j'sors, c'est civière sinon j'sors pas J'confonds les étoiles et les satellites Les colombes s'posent sur les gouttières pour écouter chanter les rats des villes Tu veux baiser mon mental Fuck off, c'est l'mantra Bien sûr qu'elle te manquera mais nique sa mère Personne baisera notre mental Pour la gloire, c'est l'mantra Parfois, tu vas douter mais nique sa mère</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dignity and culture Des frayeurs Des battements d'pouce Ciel est orange et voiture ne démarre pas Ferme ta gueule et démarque toi Ferme ta gueule et démarque toi Des frayeurs Des battements d'pouce Ciel est orange et voiture ne démarre pas Ferme ta gueule et démarque toi Ferme ta gueule et démarque toi On s'habitue au fait que les vestons s'tournent On s'enlise quand les autres s'engouffrent Est ce que j'casse la porte ou j'attends qu'porte s'entrouvre ? J'ai refusé de poser sur vos prods sans groove En attendant les chemins s'entravent Le monde appartient à ceux qui taffent sans trêve On est meilleurs quand on taffe dans l'stress Meilleurs quand on taffe dans l'stress, eh On aime quand c'est risqué quand c'est pas facile On est pistés, on est listés Ah, sí mama, sí Fais tes bagages, on part à Cassis Mais est-ce que papa sait que le fiston s'est assagi ? On s'habitue au fait que les vestons s'tournent On s'enlise quand les autres s'engouffrent Est ce que j'casse la porte ou j'attends qu'porte s'entrouvre ? You might also like Allez fuck off Le cocktail est corsé Ma danseuse est torchée J'ai pas dormi donc café est torché BBS' dans mon gosier J'ai pas dormi donc café est torché Allez fuck off Le cocktail est corsé Ma danseuse est torchée J'ai pas dormi donc café est torché Ils m'ont glissé des mots doux J'ai donné J'ai maudit J'ai sonné chez honey J'ai omis J'ai commis En fait, Jacques, c'est Tony Depuis, j'fais des sons donc j'bricole plus Si demain j'fais des sous, baby, j'rigole plus Ils m'ont glissé des mots doux J'ai donné J'ai maudit J'ai sonné chez honey J'ai omis J'ai commis En fait, Jacques, c'est Tony Depuis, j'fais des sons donc j'bricole plus Si demain j'fais des sous, baby, j'rigole plus J'les supporte qu'une fois saoul Elle m'supporte qu'une fois seul J'aime quand elle m'voit flou Mais trop souvent, elle m'voit seul J'les supporte qu'une fois saoul Elle m'supporte qu'une fois seul J'aime quand elle m'voit flou Mais trop souvent, elle m'voit seul On sait régner en s'divisant On s'est perdus On s'est limités Ils vont copier Ils vont imiter Ils ont l'air perdus et hésitants Maudits soient les R.I.P C'que j'ai, j'l'ai mérité NBOW, écrit, réalisé, édité J'l'ai signé, j'l'ai médité Hein J'l'ai signé, j'l'ai médité Allez, fuck off Le cocktail est corsé, ma danseuse est torchée J'ai pas dormi donc café est torché Café torché Allez, fuck off Le cocktail est corsé, ma danseuse est torchée J'ai pas dormi donc café est torché Café torché Des frayeurs, des battements d'pouce Ciel est orange et voiture ne démarre pas Ferme ta gueule et démarque-toi Ferme ta gueule et démarque-toi Des frayeurs, des battements d'pouce Ciel est orange et voiture ne démarre pas Ferme ta gueule et démarque-toi Ferme ta gueule et démarque-toi Ils m'ont glissé des mots doux J'ai donné J'ai maudit J'ai sonné chez honey J'ai omis J'ai commis En fait, Jacques, c'est Tony Depuis, j'fais des sons donc j'bricole plus Si demain j'fais des sous, baby, j'rigole plus Ils m'ont glissé des mots doux J'ai donné J'ai maudit J'ai sonné chez honey J'ai omis J'ai commis En fait, Jacques, c'est Tony Depuis, j'fais des sons donc j'bricole plus Si demain j'fais des sous, baby, j'rigole plus</t>
+          <t>Dignity and culture Des frayeurs Des battements d'pouce Ciel est orange et voiture ne démarre pas Ferme ta gueule et démarque toi Ferme ta gueule et démarque toi Des frayeurs Des battements d'pouce Ciel est orange et voiture ne démarre pas Ferme ta gueule et démarque toi Ferme ta gueule et démarque toi On s'habitue au fait que les vestons s'tournent On s'enlise quand les autres s'engouffrent Est ce que j'casse la porte ou j'attends qu'porte s'entrouvre ? J'ai refusé de poser sur vos prods sans groove En attendant les chemins s'entravent Le monde appartient à ceux qui taffent sans trêve On est meilleurs quand on taffe dans l'stress Meilleurs quand on taffe dans l'stress, eh On aime quand c'est risqué quand c'est pas facile On est pistés, on est listés Ah, sí mama, sí Fais tes bagages, on part à Cassis Mais est-ce que papa sait que le fiston s'est assagi ? On s'habitue au fait que les vestons s'tournent On s'enlise quand les autres s'engouffrent Est ce que j'casse la porte ou j'attends qu'porte s'entrouvre ? Allez fuck off Le cocktail est corsé Ma danseuse est torchée J'ai pas dormi donc café est torché BBS' dans mon gosier J'ai pas dormi donc café est torché Allez fuck off Le cocktail est corsé Ma danseuse est torchée J'ai pas dormi donc café est torché Ils m'ont glissé des mots doux J'ai donné J'ai maudit J'ai sonné chez honey J'ai omis J'ai commis En fait, Jacques, c'est Tony Depuis, j'fais des sons donc j'bricole plus Si demain j'fais des sous, baby, j'rigole plus Ils m'ont glissé des mots doux J'ai donné J'ai maudit J'ai sonné chez honey J'ai omis J'ai commis En fait, Jacques, c'est Tony Depuis, j'fais des sons donc j'bricole plus Si demain j'fais des sous, baby, j'rigole plus J'les supporte qu'une fois saoul Elle m'supporte qu'une fois seul J'aime quand elle m'voit flou Mais trop souvent, elle m'voit seul J'les supporte qu'une fois saoul Elle m'supporte qu'une fois seul J'aime quand elle m'voit flou Mais trop souvent, elle m'voit seul On sait régner en s'divisant On s'est perdus On s'est limités Ils vont copier Ils vont imiter Ils ont l'air perdus et hésitants Maudits soient les R.I.P C'que j'ai, j'l'ai mérité NBOW, écrit, réalisé, édité J'l'ai signé, j'l'ai médité Hein J'l'ai signé, j'l'ai médité Allez, fuck off Le cocktail est corsé, ma danseuse est torchée J'ai pas dormi donc café est torché Café torché Allez, fuck off Le cocktail est corsé, ma danseuse est torchée J'ai pas dormi donc café est torché Café torché Des frayeurs, des battements d'pouce Ciel est orange et voiture ne démarre pas Ferme ta gueule et démarque-toi Ferme ta gueule et démarque-toi Des frayeurs, des battements d'pouce Ciel est orange et voiture ne démarre pas Ferme ta gueule et démarque-toi Ferme ta gueule et démarque-toi Ils m'ont glissé des mots doux J'ai donné J'ai maudit J'ai sonné chez honey J'ai omis J'ai commis En fait, Jacques, c'est Tony Depuis, j'fais des sons donc j'bricole plus Si demain j'fais des sous, baby, j'rigole plus Ils m'ont glissé des mots doux J'ai donné J'ai maudit J'ai sonné chez honey J'ai omis J'ai commis En fait, Jacques, c'est Tony Depuis, j'fais des sons donc j'bricole plus Si demain j'fais des sous, baby, j'rigole plus</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Eh Avant j'faisais des passe-passe avec des opps qui étaient des reufs Des reufs, faut pas baiser ces reufs La dernière fois qu'j'étais à Bois-Co', c'était pour des seufs C'est comme a-ç, c'est pas toi qui décides, grande cavale, frappe des îles Eh, cques-J', roi du kickage, c'est l'9-2 qui gagne, j'chante comme une cigale Hello p'tit gars, rallume le cigare et regarde le cil Repense à ta Cigal, c'était tout l'or du monde, pour moi 6K Faut tout lâcher, prendre un grand virage C'est pas ton talent, c'est ta bêtise qui va t'rendre viral J'suis resté simple ya l'3ayn, tout c'qu't'as pris on l'enviera La chatte du rap on l'enfilera, le lundi en Dior ou le mardi en Fila Le rap game quelle enculade, et l'cques-J' il est où ? Il est plus là J'ai tout mon temps, tu crois qu'baiser des mères j'ai plus l'âge ? Hein ? Tu crois qu'parce qu'j'ai pris d'l'oseille j'ai plus d'âme ? Fuck off Let's go J'ai tout mon temps, tu crois qu'baiser des mères j'ai plus l'âge ? Tu crois qu'parce qu'j'ai pris d'l'oseille j'ai plus d'âme ? Fuck off You might also like J'ai mis vingt-trois ans avant d'me rendre compte qu'vaut mieux acheter l'pompe que faire les pompes J'te lis l'histoire, le conte, j'te dis d'avance, à la fin le héros il meurt J'crois qu'j'ai trouvé la soluce mais les dégâts seront plus élevés qu'ceux d'Oppenheimer J'lui fais couler son eye-liner, j'lui fais couler son eye-liner, ay, ok Dieu merci y a la cabine et l'micro, j'étais parti pour être un putain d'salopard J'y vais mollo, j'ai toujours pas mis l'nitro, on est v'là dans l'orga' comme le Fatah Demande lui c'qu'elle pense de moi, elle t'dira poliment qu'j'étais un bâtard J'fume mon teh, 'tain, AirPods sur les oreilles j'me balade vers le square Si cette pute fuck avec ton opps quand elle t'sert le verre, j'te conseille de n'pas boire Est-ce que, ay, est-ce que les chats noirs ne portent pas plutôt chance ? J'peux pas dire qu'mon enfance est similaire à celle d'un gosse du Bangladesh Mais quand cétait la dèche, le client m'remerciait en m'disant qu'dans sa tête c'était l'manège Trop d'poids sur l'dos, faut qu'j'm'allège ou la calèche pourra pas faire d'autres trajets J'me casse une fois qu'j'ai craché, nous fais pas chier, on va t'briser la trachée Aimer la street, c'est une grosse erreur, voilà pourquoi j'me suis détaché Sniper comme Baffie, pétasse, tu vas relire l'polar 24, cques-J', Jola', futur sur les épaules, flotte pas dans l'pull ge-lar, eh Fais pas la folle, tu sais bien qu'tu tiens pas l'alcool Il est vilain, tu donnes pas l'accord mais si tout va bien, sépare le col Merci aux soldats, tu crois qu'c'est pour ta gueule qu'les salles sont sold out ? Si c'est pas du génie, cest insultant, c'est pas du love, c'est insultant Vous préférez qu'j'fasse rimer pouvoir dachat avec plus voir ta chatte ? Mais j'lai pas fait P'tits peuvent t'faire la chaîne au cou, s'ils voient qu'elle est un peu-, gang, ay Troisième doigt pour ces bâtards néo-fascistes P'tits peuvent t'faire la chaîne au cou, s'ils voient qu'elle est un peu trop flashy J'me casse de là, bientôt j'fais la Chine, d'puis mes sixteen, j'ai envie d'les uer-t Nan, nan, j'reste pas sous la couette, j'accepte que les chèques et l'espèce J'accepte que cette fucking money, j'fais gaffe à mes biens, mes économies Si t'es prêt à faire la guerre avec moi, mon frère, j't'en prie, follow me Dans l'pe-ra comme un dictateur cain-f', one love, plusieurs tain-p' C'est la fatigue, bébé, c'est l'même visage avec plusieurs teints C'est parce qu'j'veux pas être avec eux qu'j'ai raté plusieurs trains Y a plus de bouches, il m'faut plus de pain De khobz Regarde c'qu'on a fait avec rien, imagine c'qu'on peut faire avec d'la triche Elle a cette façon d'jouir propre aux grandes actrices Pygmalion1</t>
+          <t>Eh Avant j'faisais des passe-passe avec des opps qui étaient des reufs Des reufs, faut pas baiser ces reufs La dernière fois qu'j'étais à Bois-Co', c'était pour des seufs C'est comme a-ç, c'est pas toi qui décides, grande cavale, frappe des îles Eh, cques-J', roi du kickage, c'est l'9-2 qui gagne, j'chante comme une cigale Hello p'tit gars, rallume le cigare et regarde le cil Repense à ta Cigal, c'était tout l'or du monde, pour moi 6K Faut tout lâcher, prendre un grand virage C'est pas ton talent, c'est ta bêtise qui va t'rendre viral J'suis resté simple ya l'3ayn, tout c'qu't'as pris on l'enviera La chatte du rap on l'enfilera, le lundi en Dior ou le mardi en Fila Le rap game quelle enculade, et l'cques-J' il est où ? Il est plus là J'ai tout mon temps, tu crois qu'baiser des mères j'ai plus l'âge ? Hein ? Tu crois qu'parce qu'j'ai pris d'l'oseille j'ai plus d'âme ? Fuck off Let's go J'ai tout mon temps, tu crois qu'baiser des mères j'ai plus l'âge ? Tu crois qu'parce qu'j'ai pris d'l'oseille j'ai plus d'âme ? Fuck off J'ai mis vingt-trois ans avant d'me rendre compte qu'vaut mieux acheter l'pompe que faire les pompes J'te lis l'histoire, le conte, j'te dis d'avance, à la fin le héros il meurt J'crois qu'j'ai trouvé la soluce mais les dégâts seront plus élevés qu'ceux d'Oppenheimer J'lui fais couler son eye-liner, j'lui fais couler son eye-liner, ay, ok Dieu merci y a la cabine et l'micro, j'étais parti pour être un putain d'salopard J'y vais mollo, j'ai toujours pas mis l'nitro, on est v'là dans l'orga' comme le Fatah Demande lui c'qu'elle pense de moi, elle t'dira poliment qu'j'étais un bâtard J'fume mon teh, 'tain, AirPods sur les oreilles j'me balade vers le square Si cette pute fuck avec ton opps quand elle t'sert le verre, j'te conseille de n'pas boire Est-ce que, ay, est-ce que les chats noirs ne portent pas plutôt chance ? J'peux pas dire qu'mon enfance est similaire à celle d'un gosse du Bangladesh Mais quand cétait la dèche, le client m'remerciait en m'disant qu'dans sa tête c'était l'manège Trop d'poids sur l'dos, faut qu'j'm'allège ou la calèche pourra pas faire d'autres trajets J'me casse une fois qu'j'ai craché, nous fais pas chier, on va t'briser la trachée Aimer la street, c'est une grosse erreur, voilà pourquoi j'me suis détaché Sniper comme Baffie, pétasse, tu vas relire l'polar 24, cques-J', Jola', futur sur les épaules, flotte pas dans l'pull ge-lar, eh Fais pas la folle, tu sais bien qu'tu tiens pas l'alcool Il est vilain, tu donnes pas l'accord mais si tout va bien, sépare le col Merci aux soldats, tu crois qu'c'est pour ta gueule qu'les salles sont sold out ? Si c'est pas du génie, cest insultant, c'est pas du love, c'est insultant Vous préférez qu'j'fasse rimer pouvoir dachat avec plus voir ta chatte ? Mais j'lai pas fait P'tits peuvent t'faire la chaîne au cou, s'ils voient qu'elle est un peu-, gang, ay Troisième doigt pour ces bâtards néo-fascistes P'tits peuvent t'faire la chaîne au cou, s'ils voient qu'elle est un peu trop flashy J'me casse de là, bientôt j'fais la Chine, d'puis mes sixteen, j'ai envie d'les uer-t Nan, nan, j'reste pas sous la couette, j'accepte que les chèques et l'espèce J'accepte que cette fucking money, j'fais gaffe à mes biens, mes économies Si t'es prêt à faire la guerre avec moi, mon frère, j't'en prie, follow me Dans l'pe-ra comme un dictateur cain-f', one love, plusieurs tain-p' C'est la fatigue, bébé, c'est l'même visage avec plusieurs teints C'est parce qu'j'veux pas être avec eux qu'j'ai raté plusieurs trains Y a plus de bouches, il m'faut plus de pain De khobz Regarde c'qu'on a fait avec rien, imagine c'qu'on peut faire avec d'la triche Elle a cette façon d'jouir propre aux grandes actrices Pygmalion1</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N'abuse plus jamais de l'amour que j'te porte J'suis même pas sûr qu'ça m'fasse du bien d'écrire ces phases Fuck off Quand l'casting est XXL C'est normal, c'est l'Jacques qu'on voit La peu-fra à chaque convoi Niquer des mères c'est dans la DA NBOW dans l'ADN Non m'sieur l'agent y'a pas d'shit dans la TN Le terrain est glissant t'inquiète on est tenace Y'aura pas d'aide Faut fortifier la bâtisse Qu'on banalise l'abattage Il m'reste qu'à magnifier la défaite Ou écraser la crainte Nous a remplacé j Mais j'tiens tout d'même à restr seul, dans l'club de jazz Au sein duquel j'ai renversé la pinte Seuls, sans obsèques Des anonymes qui partent sans l'moindre hommage Un acronyme en guise de nom de label Aux gamins j'laisserai, des parcelles en Provence You might also like Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'impro- Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'impro- Elle commande un soft J'commande un Blackbird Sky Elle commande un soft un Blackbird Sky Elle commande un soft J'commande un Blackbird Sky Elle commande un soft Oh la folle Elle mcassait les couilles avant dfaire battre Mi corazón Oh la folle Elle mcassait les couilles avant dfaire battre Mi corazón Mi corazón J'en ai plus rien à foutre en fait Des principes, des valeurs, d'la poudre, d'l'amphét' À contre-courant d'la foule en fait J'en ai plus rien à foutre en fait Des principes, des valeurs, d'la poudre, d'l'amphét' À contre-courant d'la foule en fait</t>
+          <t>N'abuse plus jamais de l'amour que j'te porte J'suis même pas sûr qu'ça m'fasse du bien d'écrire ces phases Fuck off Quand l'casting est XXL C'est normal, c'est l'Jacques qu'on voit La peu-fra à chaque convoi Niquer des mères c'est dans la DA NBOW dans l'ADN Non m'sieur l'agent y'a pas d'shit dans la TN Le terrain est glissant t'inquiète on est tenace Y'aura pas d'aide Faut fortifier la bâtisse Qu'on banalise l'abattage Il m'reste qu'à magnifier la défaite Ou écraser la crainte Nous a remplacé j Mais j'tiens tout d'même à restr seul, dans l'club de jazz Au sein duquel j'ai renversé la pinte Seuls, sans obsèques Des anonymes qui partent sans l'moindre hommage Un acronyme en guise de nom de label Aux gamins j'laisserai, des parcelles en Provence Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'impro- Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'improvise Auteur d'un plan dans l'quel j'laisse assez d'place bébé donc j'impro- Elle commande un soft J'commande un Blackbird Sky Elle commande un soft un Blackbird Sky Elle commande un soft J'commande un Blackbird Sky Elle commande un soft Oh la folle Elle mcassait les couilles avant dfaire battre Mi corazón Oh la folle Elle mcassait les couilles avant dfaire battre Mi corazón Mi corazón J'en ai plus rien à foutre en fait Des principes, des valeurs, d'la poudre, d'l'amphét' À contre-courant d'la foule en fait J'en ai plus rien à foutre en fait Des principes, des valeurs, d'la poudre, d'l'amphét' À contre-courant d'la foule en fait</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Le love, cest la chaise vide que tu laisses Tout passe si vite, tu te lasses Si on faisait comme si de rien nétait Focus, jai du vesqui toutes formes de love Ils ont toujours pas le quart de mon talent, mais je fais plus de streams Depuis que jfais plus de sous, je deal avec plus de stress La classique On fait fortune puis on refait nos vies avec des femmes plus jeunes Finalement le jlai torché seul Bercé par lillusion quon pourra pas zapper Emmène-moi à , et filme la scène en couple faut que je misole Jroule un pur sur les pelouses du Vondel Javais juste envie décrire près de la mer avec un vin de Sicile Dis moi tes où Fuck off, jviendrai pas te cher-cher Jai baisé ta fiancéeYou might also like</t>
+          <t>Paroles issues d'un extrait Le love, cest la chaise vide que tu laisses Tout passe si vite, tu te lasses Si on faisait comme si de rien nétait Focus, jai du vesqui toutes formes de love Ils ont toujours pas le quart de mon talent, mais je fais plus de streams Depuis que jfais plus de sous, je deal avec plus de stress La classique On fait fortune puis on refait nos vies avec des femmes plus jeunes Finalement le jlai torché seul Bercé par lillusion quon pourra pas zapper Emmène-moi à , et filme la scène en couple faut que je misole Jroule un pur sur les pelouses du Vondel Javais juste envie décrire près de la mer avec un vin de Sicile Dis moi tes où Fuck off, jviendrai pas te cher-cher Jai baisé ta fiancée</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>M'sieur l'agent, c'est pas un pet' mais c'est juste une clope Non bébé c'est pas une pute, c'est juste une pote À mon arc j'ai plus qu'une corde, à ton âge j'aurai plus qu'une Ford Check Pur sang, arabe assure plus qu'une cote Pur sans tabac, tu d'viens plus qu'une pote Profondeur de mes phases caresse plus qu'une glotte J'mène l'équipe vers la victoire, jeune Jürgen Klopp J'suis un d'ces tits-peu qui a grandi dans l'hall Un conseil, reste quand t'as les keu-flis dans l'dos Bon pet', bon whisky, j'oublie qu'j'suis dans l'faux Agresseur, victime, demande à Théo Le coupable c'est la victime, la victime c'est l'autre Le coupable vient de la police, la police c'est beau Ils veulent partir en guerre, ils sont municipaux Check David va t'douiller si tu donnes tes pièces jaunes Une bise, t'as mouillé, que ton mec me pardonne Si ça se fait, ça se fait, ça se sent Si ça te plait, ça s'assume, ça s'refait Check Pas d'histoire sans ratures, pas d'levrette sans fessée Je m'adresse à la lune, j'veux l'remord pas l'regret Elle a belle allure, elle a beau m'allumer You might also like Café ou verre de Sky, réduis pas la culture à Fred de Sky' Café ou verre de Sky, réduis pas la culture à Fred de Sky' Café ou verre de Sky, réduis pas la culture à Fred de Sky'</t>
+          <t>M'sieur l'agent, c'est pas un pet' mais c'est juste une clope Non bébé c'est pas une pute, c'est juste une pote À mon arc j'ai plus qu'une corde, à ton âge j'aurai plus qu'une Ford Check Pur sang, arabe assure plus qu'une cote Pur sans tabac, tu d'viens plus qu'une pote Profondeur de mes phases caresse plus qu'une glotte J'mène l'équipe vers la victoire, jeune Jürgen Klopp J'suis un d'ces tits-peu qui a grandi dans l'hall Un conseil, reste quand t'as les keu-flis dans l'dos Bon pet', bon whisky, j'oublie qu'j'suis dans l'faux Agresseur, victime, demande à Théo Le coupable c'est la victime, la victime c'est l'autre Le coupable vient de la police, la police c'est beau Ils veulent partir en guerre, ils sont municipaux Check David va t'douiller si tu donnes tes pièces jaunes Une bise, t'as mouillé, que ton mec me pardonne Si ça se fait, ça se fait, ça se sent Si ça te plait, ça s'assume, ça s'refait Check Pas d'histoire sans ratures, pas d'levrette sans fessée Je m'adresse à la lune, j'veux l'remord pas l'regret Elle a belle allure, elle a beau m'allumer Café ou verre de Sky, réduis pas la culture à Fred de Sky' Café ou verre de Sky, réduis pas la culture à Fred de Sky' Café ou verre de Sky, réduis pas la culture à Fred de Sky'</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Eh, on réédite on vous baise wallah Le soleil est couché, madame aussi Des cadavres de bouteilles jonchent le sol Si demain j'craque j'fous la Sacem du Wu-Tang dans l'coupé sport Elle m'dit non, elle m'dit trois fois oui En faite 24 carats c'était que 3 fois 8 Money time 3 points swish Bonnie Clyde, trois pintes, cuite Elle a l'il sur mon cadran Suisse Jeune actionnaire, bientôt cadre en Suisse La concu à terre après 4 grands switch Ils posent des Grey Goose, mangnt des Whiskas Cône dans la boca comme d'hab J'ai bsoin d'un avocat comme Jacques Trop loin jattends plus qu'elle come back Grosse tchoin, gros joint, roule et coupe le contact Bébé, j'arrive en balle Discret, malicieux comme trafiquant d'armes Quand l'casting est XXL, c'est normal c'est l'Jacques qu'on voit D'la peufra à chaque convois, à chaque convois Check, tout le monde Eh, oh Quand l'casting est XXL, c'est normal c'est l'Jacques qu'on voit D'la peufra à chaque convois niquer des mères c'est dans la DA, DA NBOW dans l'ADN Eh, non monsieur l'agent y'a pas de shit dans la TN Fuck offYou might also like</t>
+          <t>Eh, on réédite on vous baise wallah Le soleil est couché, madame aussi Des cadavres de bouteilles jonchent le sol Si demain j'craque j'fous la Sacem du Wu-Tang dans l'coupé sport Elle m'dit non, elle m'dit trois fois oui En faite 24 carats c'était que 3 fois 8 Money time 3 points swish Bonnie Clyde, trois pintes, cuite Elle a l'il sur mon cadran Suisse Jeune actionnaire, bientôt cadre en Suisse La concu à terre après 4 grands switch Ils posent des Grey Goose, mangnt des Whiskas Cône dans la boca comme d'hab J'ai bsoin d'un avocat comme Jacques Trop loin jattends plus qu'elle come back Grosse tchoin, gros joint, roule et coupe le contact Bébé, j'arrive en balle Discret, malicieux comme trafiquant d'armes Quand l'casting est XXL, c'est normal c'est l'Jacques qu'on voit D'la peufra à chaque convois, à chaque convois Check, tout le monde Eh, oh Quand l'casting est XXL, c'est normal c'est l'Jacques qu'on voit D'la peufra à chaque convois niquer des mères c'est dans la DA, DA NBOW dans l'ADN Eh, non monsieur l'agent y'a pas de shit dans la TN Fuck off</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Allez, juste essaie, check Ouais, mon kho, juste essaie Tête contre la vitre, faut qu'le propos soit clair Ce soir, j'me sens vide En fait, j'suis l'mec sur lequel on r'pose sa tête Nique sa mère, si c'est pas assez, on repose la 'tape Au pied du sommet quil faut qujatteigne Jfatigue mais faut qujla tente Capuché, jétais mé-cra d'vant la gare mais faut qujlattende Tas vu, tes fêlures, cest ton charme, javoue Babe, eh Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Vive lamour, fuck la fame Si on sort du stud, cest pour de la scène Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Si j'sors du stud, cest pour de la scène Vive lamour, fuck la fame You might also like Ils ont pas dbuzz, ils peuvent clasher On était déter' comme punk à chien Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Si on sort du stud, cest pour de la scène Vive lamour, fuck la fame Fuck off Si on sort du stud, cest pour de la scène Vive lamour, fuck la Ma D.A, cest baiser lrap français Cest moi lfauve den bas, khey Jles ai baisées, j'les mêle Fuck off On est comme les p'tits den bas Babe, rentre, moi, jreste dans lbar T'sais vite fait, grosse kich', p'tite scène, un hôtel, une bitch slave ouh Le ques-J', du charisme sur l'beat drop Quand les notes de musique dviennent des chiffres Que leau dvient vin et les cigarettes sentent le shit Cétait mélodique, des harmonies nous pètent le crâne, nous pètent le crâne Si y a sonne-per, j'pète le tro-m' Superstitieux comme les mecs du 13 Troisième album mdonne limpression dêtre le premier Jencule le rap puis, jvais mpromener Sinon, jqué-blo et jvous parle dlà-celle NBOW, cest viscéral, esthétique Putain, il restait qui ? On a fini par sdu-per dans nos rêves de gosses Faut quj'en parle sans quça mfasse d'la peine Jécris, jessaie dfaire dla place Jméloigne, jsuis du-per dans lcur dLutèce Hier, jétais comme un con au milieu d'la foule À la recherche d'volupté, jattends la fougue Elle veut savoir jfais quoi dma vie Jsuis en guerre avec moi-même pour faire des classiques Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Vive lamour, fuck la fame Si on sort du stud, cest pour de la scène Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Si j'sors du stud, cest pour de la scène Vive lamour, fuck la fame Jsuis en guerre avec moi-même pour faire des classiques Tu connais ton gars, on rtourne vers Cassis Oh, cest pas comme si on vient dcasser Jaurais aimé dépenser avec toi largent qujai pris Quand des notes réveillent ma plume Ouais, jsais, jai pris dla place, jai réglé lprix dlappart' Cest pas comme si on vient dcasser Jaurais aimé dépenser avec toi largent qujai pris Jai tout r'mis dans lbum-al daprès Pour quça vous fasse du bien Faut quça mfasse d'la peine</t>
+          <t>Allez, juste essaie, check Ouais, mon kho, juste essaie Tête contre la vitre, faut qu'le propos soit clair Ce soir, j'me sens vide En fait, j'suis l'mec sur lequel on r'pose sa tête Nique sa mère, si c'est pas assez, on repose la 'tape Au pied du sommet quil faut qujatteigne Jfatigue mais faut qujla tente Capuché, jétais mé-cra d'vant la gare mais faut qujlattende Tas vu, tes fêlures, cest ton charme, javoue Babe, eh Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Vive lamour, fuck la fame Si on sort du stud, cest pour de la scène Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Si j'sors du stud, cest pour de la scène Vive lamour, fuck la fame Ils ont pas dbuzz, ils peuvent clasher On était déter' comme punk à chien Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Si on sort du stud, cest pour de la scène Vive lamour, fuck la fame Fuck off Si on sort du stud, cest pour de la scène Vive lamour, fuck la Ma D.A, cest baiser lrap français Cest moi lfauve den bas, khey Jles ai baisées, j'les mêle Fuck off On est comme les p'tits den bas Babe, rentre, moi, jreste dans lbar T'sais vite fait, grosse kich', p'tite scène, un hôtel, une bitch slave ouh Le ques-J', du charisme sur l'beat drop Quand les notes de musique dviennent des chiffres Que leau dvient vin et les cigarettes sentent le shit Cétait mélodique, des harmonies nous pètent le crâne, nous pètent le crâne Si y a sonne-per, j'pète le tro-m' Superstitieux comme les mecs du 13 Troisième album mdonne limpression dêtre le premier Jencule le rap puis, jvais mpromener Sinon, jqué-blo et jvous parle dlà-celle NBOW, cest viscéral, esthétique Putain, il restait qui ? On a fini par sdu-per dans nos rêves de gosses Faut quj'en parle sans quça mfasse d'la peine Jécris, jessaie dfaire dla place Jméloigne, jsuis du-per dans lcur dLutèce Hier, jétais comme un con au milieu d'la foule À la recherche d'volupté, jattends la fougue Elle veut savoir jfais quoi dma vie Jsuis en guerre avec moi-même pour faire des classiques Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Vive lamour, fuck la fame Si on sort du stud, cest pour de la scène Vive lamour, fuck la fame Vive lamour, vive lamour, fuck la fame Si j'sors du stud, cest pour de la scène Vive lamour, fuck la fame Jsuis en guerre avec moi-même pour faire des classiques Tu connais ton gars, on rtourne vers Cassis Oh, cest pas comme si on vient dcasser Jaurais aimé dépenser avec toi largent qujai pris Quand des notes réveillent ma plume Ouais, jsais, jai pris dla place, jai réglé lprix dlappart' Cest pas comme si on vient dcasser Jaurais aimé dépenser avec toi largent qujai pris Jai tout r'mis dans lbum-al daprès Pour quça vous fasse du bien Faut quça mfasse d'la peine</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>C'est plus facile, d'les donner que d'prendre les coups Pour la daronne, j'vais prendre une belle baraque au bled On r'part au bled, il est à combien l'baril, j'ai l'blues, on est à combien d'Paris Je m'étais promis d'pas faire d'concerts avant d'mettre le mien, en tête d'affiche J'graille macho, juste en d'sous de l'albatros Le numéro du bookeur d'KT dans l'Alcatel Le monde est p'tit, ça m'choqu J'avais du style avant d'avoir des sapes chèr J'ai rien ni TikTok, ni Twitter, ni Snapchat J'les baise depuis Novembre 2020 Lâcher d'colombes, c'est sexy Ces vers, c'est sexy Dystopia, c'est agressif Par amour, c'est sexy Harmonie, c'est sexy Cques-Ja, il est agressif T'sais de base, moi j'voulais pas grandir J'esquivais même la cantine Si t'aimes pas ma gueule, kho faut qu'tu t'y fasses J'ai bien plus à dire que d'revendiquer, la vente de dix balles You might also like Aujourd'hui baby j'vis d'mon art Jacques, le genre de boug'zer qu'rien n'remplace Un cur vide, comme le verre que j'viens d'remplir On va prendre l'air, sur la hambra J'te revois plus qu'dans mes vieux clips Il m'reste du temps, sans aucun doute j'l'accorde Demain il s'passe quoi, si j'perds ma cote ? Pas la peine de camoufler c'que d'autres maquillent V6, 2 litres 9, Porsche Macan NBOW, j'suis pas sous-coté, j'les baise juste en différé Avec le temps comme dit Ferré, j'commence à craindre les On verra Faut l'voir, avant d'se dire qu'on l'fera C'qu'on a refusé d'pleurer on l'pe-ra C'qu'on a refusé d'pleurer on l'pe-ra Consomme l'amour avant qu'il s'périme Consomme l'amour avant qu'il s'périme C'est pas ta femme, c'est juste ton tour Moi j'sais qu'tu t'occupais pas d'elle La tête dans les patterns J'vous l'rends si vous m'donnez l'or, le platine L'ingé, en c'moment, il est avec Jannelle Fallait être là avant, baby, t'auras pas d'Chanel J'vous l'rends si vous m'donnez l'or L'ingé, en c'moment, il est avec Jannelle Fallait être là avant, baby, t'auras pas d'Chanel</t>
+          <t>C'est plus facile, d'les donner que d'prendre les coups Pour la daronne, j'vais prendre une belle baraque au bled On r'part au bled, il est à combien l'baril, j'ai l'blues, on est à combien d'Paris Je m'étais promis d'pas faire d'concerts avant d'mettre le mien, en tête d'affiche J'graille macho, juste en d'sous de l'albatros Le numéro du bookeur d'KT dans l'Alcatel Le monde est p'tit, ça m'choqu J'avais du style avant d'avoir des sapes chèr J'ai rien ni TikTok, ni Twitter, ni Snapchat J'les baise depuis Novembre 2020 Lâcher d'colombes, c'est sexy Ces vers, c'est sexy Dystopia, c'est agressif Par amour, c'est sexy Harmonie, c'est sexy Cques-Ja, il est agressif T'sais de base, moi j'voulais pas grandir J'esquivais même la cantine Si t'aimes pas ma gueule, kho faut qu'tu t'y fasses J'ai bien plus à dire que d'revendiquer, la vente de dix balles Aujourd'hui baby j'vis d'mon art Jacques, le genre de boug'zer qu'rien n'remplace Un cur vide, comme le verre que j'viens d'remplir On va prendre l'air, sur la hambra J'te revois plus qu'dans mes vieux clips Il m'reste du temps, sans aucun doute j'l'accorde Demain il s'passe quoi, si j'perds ma cote ? Pas la peine de camoufler c'que d'autres maquillent V6, 2 litres 9, Porsche Macan NBOW, j'suis pas sous-coté, j'les baise juste en différé Avec le temps comme dit Ferré, j'commence à craindre les On verra Faut l'voir, avant d'se dire qu'on l'fera C'qu'on a refusé d'pleurer on l'pe-ra C'qu'on a refusé d'pleurer on l'pe-ra Consomme l'amour avant qu'il s'périme Consomme l'amour avant qu'il s'périme C'est pas ta femme, c'est juste ton tour Moi j'sais qu'tu t'occupais pas d'elle La tête dans les patterns J'vous l'rends si vous m'donnez l'or, le platine L'ingé, en c'moment, il est avec Jannelle Fallait être là avant, baby, t'auras pas d'Chanel J'vous l'rends si vous m'donnez l'or L'ingé, en c'moment, il est avec Jannelle Fallait être là avant, baby, t'auras pas d'Chanel</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Eh Augmente un peu la prod, s'te plait Merci dvotre patience Let's go Check Eh J'suis dans lcouloir et j'dois gratter la suite pendant qu'd'autres pensent qu'j'm'amuse J'dois payer tout lmonde, ils se doutent combien jai pris Mais moi-même, j'sais pas quand jle touche Eux, ils voient des billets quand j'parle Ça fait deux mois qu'je dis que cette semaine j'pars, fuck off Que jle rappelle, le début d'lui ou la fin d'l'autr D'ailleurs, j'en ai pas lu tant qu'ça, des livrs Qui parle à celui qui t'parle J't'aime, ensuite j'me barre Tu t'souviens, l'vent, il tapait fort Hier encore, j'étais face à elle Seul, p't-être même plus qu'avant, Chut, y'a l'cques-J' qui travaille S'tu m'vois passer, dis rien, fais-moi signe J'ai taffé Parfois la scène elle s'est faite r'tourner par trois mecs d'l'équipe Fuck off Eh BBP, faut que tu r'mettes des kicks Troisième, quatrième album ? J'sais plus Faut qu'j'remette les gaz, dites aux ingés qu'il m'reste un dernier 16 Si t'as personne d'fiable autour de toi, regarde les astres, sors, souffle Non, en fait, rentre You might also like Y a les keufs et si j'écrivais pour eux une fois en paix, et pas des textes remplis d'rage T'sais de base, moi, j't'aimais NBOW, les re-baiser, c'est ça l'thème En sah, ça y est, c'est bon, j'peux khalass les baveux d'Lionel, vu qu'c'est les mêmes que Fresh J'suis pas fais pour m'mêler à la foule, c'est un peu comme si j'étouffe Tu t'souviens que t'en avais pas d'cons' ? Mais mehlich, on mettait tout Et dire qu'les videurs nous recalaient tous J'laisse ma meuf avec l'ingé' juste pour tester l'équipe PDP dans un cadre, j'ai plus l'temps d'faire le con Parait qu'j'passe un cap, j'quitte la boîte, j'm'arrache, j'gratte un quatre Ma paire de TN blanche s'est salie, j'suis pas seul mais j'fais comme si Quand j'réécoute Lynchburg, ça m'fait mal Trois moins cinq, mais qu'fait la lune ? J'suis pas fait pour en aimer qu'une Mais j'me vois pas en aimer deux Tu t'souviens ? Encore hier, on était rien J'ai tout pour être heureux mais j'suis pas capable J'suis pas capable J'ai tout pour être heureux mais j'suis pas capable1</t>
+          <t>Eh Augmente un peu la prod, s'te plait Merci dvotre patience Let's go Check Eh J'suis dans lcouloir et j'dois gratter la suite pendant qu'd'autres pensent qu'j'm'amuse J'dois payer tout lmonde, ils se doutent combien jai pris Mais moi-même, j'sais pas quand jle touche Eux, ils voient des billets quand j'parle Ça fait deux mois qu'je dis que cette semaine j'pars, fuck off Que jle rappelle, le début d'lui ou la fin d'l'autr D'ailleurs, j'en ai pas lu tant qu'ça, des livrs Qui parle à celui qui t'parle J't'aime, ensuite j'me barre Tu t'souviens, l'vent, il tapait fort Hier encore, j'étais face à elle Seul, p't-être même plus qu'avant, Chut, y'a l'cques-J' qui travaille S'tu m'vois passer, dis rien, fais-moi signe J'ai taffé Parfois la scène elle s'est faite r'tourner par trois mecs d'l'équipe Fuck off Eh BBP, faut que tu r'mettes des kicks Troisième, quatrième album ? J'sais plus Faut qu'j'remette les gaz, dites aux ingés qu'il m'reste un dernier 16 Si t'as personne d'fiable autour de toi, regarde les astres, sors, souffle Non, en fait, rentre Y a les keufs et si j'écrivais pour eux une fois en paix, et pas des textes remplis d'rage T'sais de base, moi, j't'aimais NBOW, les re-baiser, c'est ça l'thème En sah, ça y est, c'est bon, j'peux khalass les baveux d'Lionel, vu qu'c'est les mêmes que Fresh J'suis pas fais pour m'mêler à la foule, c'est un peu comme si j'étouffe Tu t'souviens que t'en avais pas d'cons' ? Mais mehlich, on mettait tout Et dire qu'les videurs nous recalaient tous J'laisse ma meuf avec l'ingé' juste pour tester l'équipe PDP dans un cadre, j'ai plus l'temps d'faire le con Parait qu'j'passe un cap, j'quitte la boîte, j'm'arrache, j'gratte un quatre Ma paire de TN blanche s'est salie, j'suis pas seul mais j'fais comme si Quand j'réécoute Lynchburg, ça m'fait mal Trois moins cinq, mais qu'fait la lune ? J'suis pas fait pour en aimer qu'une Mais j'me vois pas en aimer deux Tu t'souviens ? Encore hier, on était rien J'ai tout pour être heureux mais j'suis pas capable J'suis pas capable J'ai tout pour être heureux mais j'suis pas capable1</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Dignity and culture Trois bourbons plus tard et j'me sens toujours aussi vide Tu t'souviens d'nos conneries au Syphax À défaut de l'écrire dans le sable Ton nom je l'ai gravé au silex Je vais pas leur donner ton nom Mais j'en chante les syllabes Et quand on s'casse la gueule J'romance les idylles En attendant l'Jacques il donne Y'a du beau monde dans l'corridor Sur un coup de tête j'me projette dans son corps de rêve Ce qu'elle aime le plus chez moi quand j'suis borderline J'étais à deux doigts de fumer l'enculé qui t'apportait la coke J'écris au 26 sur un quai de Seine dont j'ignore le nom Ou peut-être que j'le connais Et qu'j'refuse de le dire On sait jamais si demain j'y crèche On m'a béni, y'a pas d'magie noire Mais rien qu'c'est sombre J'ai même plus l'temps d'écrire sur feuille Mon taff au quotidien J'me lève j'me dis Il faut qu'j'les baise Ils ont pas l'quart d'mon talent J'ai pas l'tiers d'leurs streams B.B. Jacques un boxeur surdoué Un artiste sensible Baby, y'a ton blaze à la fin du film Tu connais, on a tué le reu-beu Avant la fin du film J'suis en route, vers le trône, y a comme une place vacante Du charbon, pas d'vacances, j'dois péter le AWA Gang Un salam à Yotwiin, un salam à Hype la DA j'la chapeaute J'suis en route vers le trône, y a comme une place vacante You might also like Check Bonne soirée jeune homme, attends faut qu'j't'explique La phase sur Alcatraz Fuck off, t'as pas l'temps, il faut qu't'avances Quand tu tombes, y faut qu't'avises J'ai pas grand monde à part mon père Y a la tour qui brille J'la regarde j'roule mon teh Seul, loin des mouvements d'foule Seul, comme Limsa, qui vous parle à vous Regarde ce que j'ai fait par haine imagine c'que j'peux faire par amour Imagine Regarde ce que j'ai fait avec ma haine imagine c'que j'peux faire par amour Imagine J'réponds plus aux messages, gros Ils savent qu'j'travaille et j'remercie moi-même pour les travaux J'ai trouvé du charme à ses travers Accélère, ou ralentis l'trafic et ce sera pour une autre Le risotto à la tour d'argent J'voulais trouver l'amour avant d'trouver l'argent J'suis bien trop idéaliste et j'me d'mande c'que tu dis quand tu vois des couples qui s'pavanent Vous méprenez pas, j'vante les mérites du rap belge mais j'viens d'Paname Là, où tout l'monde fait la gueule Là où c'est cher, mais c'est beau Tenter d'm'barrer seul aux Seychelles sah j'hésite Avant fallait y m'parler pour m'connaître aujourd'hui on m'Shazam Il paraît qu'avant c'était dur Surtout avec ton nom dans la bouche d'Claire Chazal J'ai pas l'génie d'Damien Chazelle L'ironie c'est d'dessiner un arbre sur papier puis d'le tej' T'as laissé un vide énorme, que j'comble en écrivant des seize Mon album un classique on m'demande Kho tu parles du quel ? PDP LNSC Regarde c'que j'ai fais avec ma haine, imagine c'que je peux faire par amour Imagine Imagine J'répond plus aux messages, ils savent que j'travaille Fuck off, c'est pas du Russe Eh, eh, eh Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Passons, on tombe on s'relève, on devient balaise Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Passons, on tombe on s'relève, on devient balaise Le passé un gouffre, on en a fait un bassin Je passais boire un verre, avant qu'elle dévoile ses formes PDP, ma DA sous toutes ses formes Les rires, qui éclatent dans la chambre ne proviennent plus de la nôtre J'écris, fais vivre, un peu cette histoire qu'est la nôtre Toi et moi à Amsterdam, cette nuit je dois écrire Demain y'a le stud' très tôt Après le whisky, un calu', un ristretto Un missile m'allume, pendant que le missile s'allume Je l'emmenais regarder le ciel, avant de lui montrer le plafond Béret, lunettes, je vais aller Errer des heures, vu qu'à deux heures, dehors c'est désert J'dois en faire l'deuil mais c'est pas simple Tour garder pour moi, non c'est pas simple Depuis ma fenêtre, une Fiat colle un Scénic Un gamin marche trois mètres devant ses parents Mais vu qu'ils sont ensemble il peut pas se plaindre Du coup il avance, Nessbeal nous à prévenu À chaque jour suffit sa peine Chaque inspi est suivie de sa panne Mais moi je dois gratter, je vais en dire un peu plus sans en dire trop La poésie d'une pulsion à l'étage d'un bistrot Une bouteille bleu cristal emportée par les vagues Qui résiste, malgré elle, au mistral Jacques, malgré moi dans le mystère, Habibi ta race, j'suis pas une petite star Je vais faire le buzz en chantant fuck le buzz, sur une grosse scène Je vais te dire y'avait qui dans le public pour ma première scène Le monde, je transgresse les règles, je monte Le plus dur c'est pas de té-mon mais c'est quand tu chutes Ils seront contre, même si tu as le remède, regarde les anti-vax J'me suis écroulé de fatigue, ma feuille, j'avais la tête dessus Sur le prochain, Oxmo, sera peut-être dessus Mon amour tu seras peut-être déçu, c'est la dernière fois q'tu retires tes sapes Tout, ce désir m'échappe, tout ce que, mes dires manifestent Cruelle comme une erreur manifeste qu'on refuse de voir Au début t'es dans le déni, que tu refuses de le croire Nous est redevenu je, je me suis affranchi des règles du jeu Et je refuse de le croire Et je refuse de le croire Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Fuck off Eh PDP Eh, j'revois ces photos qui traînent, j'essaye de rester focus Quand y a les feu-meu qui craquent, tétanise le public lorsqu'il glousse Baby, tu passeras un salam au S J'aurais pu m'écrouler sans les conseils de Yous' mais Dieu merci le Jacques est fort Eh, un peu d'nous deux dans chaque effort, ni autotune, ni l'moindre FX J'écris en attendant sur tout c'que, le temps efface J'me suis promis une carrière digne des grands, sans manager avec mes couilles mes tripes, que la DA fuck la trap Eh, Voluptyk si j'l'attrape Que la DA fuck la trap Voluptyk si j'l'attrape Parfois demain, paraît plus loin qu'hier J'aurais mieux fait de te retenir à deux mains J'ai été naïf, j'voulais te redire à demain Faut qu'j'me fasse à l'idée qu'tu s'ras pas là demain Finalement, j'irai seul à Saint-Domingue Vivons, heureux, vivons léger, rien n'est, fatidique Ce soir la nuit s'ra calme faut qu'je bosse, au bar et que j'pète des 100's à dix balles Ca y est bébé, c'est fini, tu m'as dit c'est fade On finit par fatiguer d'maquiller ses fautes Toi, t'en as assez d'camoufler tes plaies J'vois des sourires sur des visages, un horizon derrière l'rivage Prends PDP comme ultime refuge, dès qu'les souvenirs r'font surface En fait, Jacques c'était une surprise C'est Tino qui t'aime C'est Tino qui t'aime J'en ai plus rien à foutre en fait Des principes, des valeurs, d'la poudre, d'l'emphét' Fuck off J'fais c'que j'ai à faire, et j'reviens j't'emmène comme un grand salaud L'incertitude, tu sais qu'ça use, dans l'peu-ra quand t'es l'meilleur tu sais qu'ça bank Soir-ce j'vais trinquer aux amours de jeunesse qui s'cassent la gueule Garde mon pull et garde la pêche Ta tête sur mon épaule, c'étaient les dernières larmes, comme un couteau, comme une énième lame Une énième lame Au temps emporte le vent, le vent emporte tout Le temps t'emporte toi, mais dis-moi comment te portes-tu? Est-ce que les relations s'entretiennent quand on, décide de rompre Ma vie c'était un film de cul Cupidon il fume des roulées c'grand bâtard, j'l'ai croisé mi-septembre j'l'ai dérouillé Maintenant qu'y a plus personne il faut qu'j'focus J'fais l'tour d'Paname, fuck la Mondeo, la Ford Focus Aquarius pas gémeaux Est-ce-elle que j'entend gémir ? J'refuse le poste de porte parole de ceux qu'on entend jamais Fuck off, babe on m'entend d'ja pas mal En fait y'a rien d'garantit J'sors tout d'ma poche jusqu'à ce que ça devienne rentable J'secoue les murs du game jusqu'à qu'ça devienne bancal, qu'on vienne de Beyrouth ou de Belgrade Une belle athlète, une belle cadre 2.0.2 j'tiens à rester dans l'coeur d'Paname Ou à défaut dans l'coeur d'madame PDP 2.2.2 Y'a KX qui casse des barre Jannelle elle s'casse tout court Il est deux heures à Bombay Sud, j'ai pas attendu le pe-ra pour bomber le torse Y'a pas d'Jannelle y'a pas d'KX, il est deux heures à Bombay Sud On r'commence Il est deux heures à Bombay Sud, j'ai pas attendu le pe-ra pour bomber le torse Les fils de pute sont perchés sur d'grandes échasses On r'connaît un homme à sa faculté à passer outre les grands échecs PDP, ouais, c'est classe, j'ai r'tiré l'nez rouge de plusieurs clowns Ce soir, j'm'enivre dans la chaleur d'une gov' qui fait face à la rive J'ai au moins l'mérite d'faire face à mes rêves Y a Pense qu'essaye d'arrêter l'cannabis KK, remets d'la bud, j'vais prendre ma kich', tu vas prendre ta kush, eh KK sur la prod, j'vais prendre mon buzz, fuck j'vais prendre ma kich' tu vas prendre ton buzz En fait, c'est fini, on s'claque la bise, ça vient d'où ça comme ? Enculé, checke la plaque Askip, tu vis d'ton pe-ra, checke la blague Ça va paraître bizarre un bum-al à 120 sur l'dos-d'âne Immunisé, sans totem, j'refuse des licences, des distrib' Ils veulent payer pour c'que capture le Cques-Ja quand l'alcool se distille Mets tout dans la gov', on va faire l'tour d'la côte si la mer est cristal J'finis l'morceau puis j'm'y jette Oublions les prétextes par lesquels on se justifie, elle elle était comme ma femme Fuck, là j'ai pas l'temps pour c'genre d'bassesse Bref passons On a qu'à faire semblant d's'oublier si y a trop d'passif Parfois c'est comme ça y a trop d'phases sombres Y a trop d'phases sombres Parfois c'est comme ça y a trop d'phases sombres</t>
+          <t>Dignity and culture Trois bourbons plus tard et j'me sens toujours aussi vide Tu t'souviens d'nos conneries au Syphax À défaut de l'écrire dans le sable Ton nom je l'ai gravé au silex Je vais pas leur donner ton nom Mais j'en chante les syllabes Et quand on s'casse la gueule J'romance les idylles En attendant l'Jacques il donne Y'a du beau monde dans l'corridor Sur un coup de tête j'me projette dans son corps de rêve Ce qu'elle aime le plus chez moi quand j'suis borderline J'étais à deux doigts de fumer l'enculé qui t'apportait la coke J'écris au 26 sur un quai de Seine dont j'ignore le nom Ou peut-être que j'le connais Et qu'j'refuse de le dire On sait jamais si demain j'y crèche On m'a béni, y'a pas d'magie noire Mais rien qu'c'est sombre J'ai même plus l'temps d'écrire sur feuille Mon taff au quotidien J'me lève j'me dis Il faut qu'j'les baise Ils ont pas l'quart d'mon talent J'ai pas l'tiers d'leurs streams B.B. Jacques un boxeur surdoué Un artiste sensible Baby, y'a ton blaze à la fin du film Tu connais, on a tué le reu-beu Avant la fin du film J'suis en route, vers le trône, y a comme une place vacante Du charbon, pas d'vacances, j'dois péter le AWA Gang Un salam à Yotwiin, un salam à Hype la DA j'la chapeaute J'suis en route vers le trône, y a comme une place vacante Check Bonne soirée jeune homme, attends faut qu'j't'explique La phase sur Alcatraz Fuck off, t'as pas l'temps, il faut qu't'avances Quand tu tombes, y faut qu't'avises J'ai pas grand monde à part mon père Y a la tour qui brille J'la regarde j'roule mon teh Seul, loin des mouvements d'foule Seul, comme Limsa, qui vous parle à vous Regarde ce que j'ai fait par haine imagine c'que j'peux faire par amour Imagine Regarde ce que j'ai fait avec ma haine imagine c'que j'peux faire par amour Imagine J'réponds plus aux messages, gros Ils savent qu'j'travaille et j'remercie moi-même pour les travaux J'ai trouvé du charme à ses travers Accélère, ou ralentis l'trafic et ce sera pour une autre Le risotto à la tour d'argent J'voulais trouver l'amour avant d'trouver l'argent J'suis bien trop idéaliste et j'me d'mande c'que tu dis quand tu vois des couples qui s'pavanent Vous méprenez pas, j'vante les mérites du rap belge mais j'viens d'Paname Là, où tout l'monde fait la gueule Là où c'est cher, mais c'est beau Tenter d'm'barrer seul aux Seychelles sah j'hésite Avant fallait y m'parler pour m'connaître aujourd'hui on m'Shazam Il paraît qu'avant c'était dur Surtout avec ton nom dans la bouche d'Claire Chazal J'ai pas l'génie d'Damien Chazelle L'ironie c'est d'dessiner un arbre sur papier puis d'le tej' T'as laissé un vide énorme, que j'comble en écrivant des seize Mon album un classique on m'demande Kho tu parles du quel ? PDP LNSC Regarde c'que j'ai fais avec ma haine, imagine c'que je peux faire par amour Imagine Imagine J'répond plus aux messages, ils savent que j'travaille Fuck off, c'est pas du Russe Eh, eh, eh Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Passons, on tombe on s'relève, on devient balaise Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Passons, on tombe on s'relève, on devient balaise Le passé un gouffre, on en a fait un bassin Je passais boire un verre, avant qu'elle dévoile ses formes PDP, ma DA sous toutes ses formes Les rires, qui éclatent dans la chambre ne proviennent plus de la nôtre J'écris, fais vivre, un peu cette histoire qu'est la nôtre Toi et moi à Amsterdam, cette nuit je dois écrire Demain y'a le stud' très tôt Après le whisky, un calu', un ristretto Un missile m'allume, pendant que le missile s'allume Je l'emmenais regarder le ciel, avant de lui montrer le plafond Béret, lunettes, je vais aller Errer des heures, vu qu'à deux heures, dehors c'est désert J'dois en faire l'deuil mais c'est pas simple Tour garder pour moi, non c'est pas simple Depuis ma fenêtre, une Fiat colle un Scénic Un gamin marche trois mètres devant ses parents Mais vu qu'ils sont ensemble il peut pas se plaindre Du coup il avance, Nessbeal nous à prévenu À chaque jour suffit sa peine Chaque inspi est suivie de sa panne Mais moi je dois gratter, je vais en dire un peu plus sans en dire trop La poésie d'une pulsion à l'étage d'un bistrot Une bouteille bleu cristal emportée par les vagues Qui résiste, malgré elle, au mistral Jacques, malgré moi dans le mystère, Habibi ta race, j'suis pas une petite star Je vais faire le buzz en chantant fuck le buzz, sur une grosse scène Je vais te dire y'avait qui dans le public pour ma première scène Le monde, je transgresse les règles, je monte Le plus dur c'est pas de té-mon mais c'est quand tu chutes Ils seront contre, même si tu as le remède, regarde les anti-vax J'me suis écroulé de fatigue, ma feuille, j'avais la tête dessus Sur le prochain, Oxmo, sera peut-être dessus Mon amour tu seras peut-être déçu, c'est la dernière fois q'tu retires tes sapes Tout, ce désir m'échappe, tout ce que, mes dires manifestent Cruelle comme une erreur manifeste qu'on refuse de voir Au début t'es dans le déni, que tu refuses de le croire Nous est redevenu je, je me suis affranchi des règles du jeu Et je refuse de le croire Et je refuse de le croire Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Je dois en faire le deuil mais c'est pas simple Tout garder pour moi, nan c'est pas sain Fuck off Eh PDP Eh, j'revois ces photos qui traînent, j'essaye de rester focus Quand y a les feu-meu qui craquent, tétanise le public lorsqu'il glousse Baby, tu passeras un salam au S J'aurais pu m'écrouler sans les conseils de Yous' mais Dieu merci le Jacques est fort Eh, un peu d'nous deux dans chaque effort, ni autotune, ni l'moindre FX J'écris en attendant sur tout c'que, le temps efface J'me suis promis une carrière digne des grands, sans manager avec mes couilles mes tripes, que la DA fuck la trap Eh, Voluptyk si j'l'attrape Que la DA fuck la trap Voluptyk si j'l'attrape Parfois demain, paraît plus loin qu'hier J'aurais mieux fait de te retenir à deux mains J'ai été naïf, j'voulais te redire à demain Faut qu'j'me fasse à l'idée qu'tu s'ras pas là demain Finalement, j'irai seul à Saint-Domingue Vivons, heureux, vivons léger, rien n'est, fatidique Ce soir la nuit s'ra calme faut qu'je bosse, au bar et que j'pète des 100's à dix balles Ca y est bébé, c'est fini, tu m'as dit c'est fade On finit par fatiguer d'maquiller ses fautes Toi, t'en as assez d'camoufler tes plaies J'vois des sourires sur des visages, un horizon derrière l'rivage Prends PDP comme ultime refuge, dès qu'les souvenirs r'font surface En fait, Jacques c'était une surprise C'est Tino qui t'aime C'est Tino qui t'aime J'en ai plus rien à foutre en fait Des principes, des valeurs, d'la poudre, d'l'emphét' Fuck off J'fais c'que j'ai à faire, et j'reviens j't'emmène comme un grand salaud L'incertitude, tu sais qu'ça use, dans l'peu-ra quand t'es l'meilleur tu sais qu'ça bank Soir-ce j'vais trinquer aux amours de jeunesse qui s'cassent la gueule Garde mon pull et garde la pêche Ta tête sur mon épaule, c'étaient les dernières larmes, comme un couteau, comme une énième lame Une énième lame Au temps emporte le vent, le vent emporte tout Le temps t'emporte toi, mais dis-moi comment te portes-tu? Est-ce que les relations s'entretiennent quand on, décide de rompre Ma vie c'était un film de cul Cupidon il fume des roulées c'grand bâtard, j'l'ai croisé mi-septembre j'l'ai dérouillé Maintenant qu'y a plus personne il faut qu'j'focus J'fais l'tour d'Paname, fuck la Mondeo, la Ford Focus Aquarius pas gémeaux Est-ce-elle que j'entend gémir ? J'refuse le poste de porte parole de ceux qu'on entend jamais Fuck off, babe on m'entend d'ja pas mal En fait y'a rien d'garantit J'sors tout d'ma poche jusqu'à ce que ça devienne rentable J'secoue les murs du game jusqu'à qu'ça devienne bancal, qu'on vienne de Beyrouth ou de Belgrade Une belle athlète, une belle cadre 2.0.2 j'tiens à rester dans l'coeur d'Paname Ou à défaut dans l'coeur d'madame PDP 2.2.2 Y'a KX qui casse des barre Jannelle elle s'casse tout court Il est deux heures à Bombay Sud, j'ai pas attendu le pe-ra pour bomber le torse Y'a pas d'Jannelle y'a pas d'KX, il est deux heures à Bombay Sud On r'commence Il est deux heures à Bombay Sud, j'ai pas attendu le pe-ra pour bomber le torse Les fils de pute sont perchés sur d'grandes échasses On r'connaît un homme à sa faculté à passer outre les grands échecs PDP, ouais, c'est classe, j'ai r'tiré l'nez rouge de plusieurs clowns Ce soir, j'm'enivre dans la chaleur d'une gov' qui fait face à la rive J'ai au moins l'mérite d'faire face à mes rêves Y a Pense qu'essaye d'arrêter l'cannabis KK, remets d'la bud, j'vais prendre ma kich', tu vas prendre ta kush, eh KK sur la prod, j'vais prendre mon buzz, fuck j'vais prendre ma kich' tu vas prendre ton buzz En fait, c'est fini, on s'claque la bise, ça vient d'où ça comme ? Enculé, checke la plaque Askip, tu vis d'ton pe-ra, checke la blague Ça va paraître bizarre un bum-al à 120 sur l'dos-d'âne Immunisé, sans totem, j'refuse des licences, des distrib' Ils veulent payer pour c'que capture le Cques-Ja quand l'alcool se distille Mets tout dans la gov', on va faire l'tour d'la côte si la mer est cristal J'finis l'morceau puis j'm'y jette Oublions les prétextes par lesquels on se justifie, elle elle était comme ma femme Fuck, là j'ai pas l'temps pour c'genre d'bassesse Bref passons On a qu'à faire semblant d's'oublier si y a trop d'passif Parfois c'est comme ça y a trop d'phases sombres Y a trop d'phases sombres Parfois c'est comme ça y a trop d'phases sombres</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Non mais sérieux B.B. pour qui tu m'as pris? J'mettrais pas un pied en son-pri Même si ma tête est mise à prix On fera des envieux Faut que je t'explique, t'as pas compris Le regard des autres, la jalousie Le peura, les potes nous ralentissent Bah oui Elle va rayer ta caisse avec les clés de chez toi Elle a des plaies, t'sais quoi? C'est mort, elle plaide, c'est toi Ss tords, elle sait que c'st toi Ah oui Elle va rayer ta caisse avec les clés de chez toi Elle a des plaies, t'sais quoi? C'est mort, elle plaide, c'est toi Ses tords, elle sait que c'est toi B.B. on est là Ils nous l'donnent pas, on le monnaiera J'verse un peu de Chardonnay sur ton jolie bonnet A J'ai taclé ta gow comme Gattuso ou Bonnera Chacun pour sa peau, j'écris, j'deviens lauréat Ils nous l'donnent pas, on le monnaiera J'verse un peu de Chardonnay sur ton jolie bonnet A J'ai taclé ta gow comme Gattuso ou Bonnera Chacun pour sa peau, j'écris, j'deviens lauréat You might also like On m'a dit Tino, vas-y, pull pull pull 'Y a des flics, 'y a des fouilles, fouilles, fouilles 'Y a des bitches, 'y a des boules, boules, boules On m'a dit Tino, vas-y, pull pull pull Tino, vas-y, pull pull pull Eh, hey On m'a dit Tino, vas-y, pull pull pull 'Y a des flics, 'y a des fouilles, fouilles, fouilles 'Y a des bitches, 'y a des boules, boules, boules On m'a dit Tino, vas-y, pull pull pull Tino, vas-y, pull pull pull La vie, c'est la loi de la jungle comme à Calais J'suis dans l'92 mais j'le quitte, il le fallait J'ai bien trop peu bébé, je bosse pour m'en aller Aller où? Hey Vous cassez du sucre sur mon dos Quand l'addition est salée Hey Je sais qu'tu sais que j'suis un salaud Celui qui va me baiser n'est pas né Autant d'poids sur les épaules que l'dos large Moi j'voulais l'euro, l'euro, le pesos et l'dollar Autant d'poids sur les épaules que l'dos large Moi j'voulais l'euro, l'euro, le pesos et l'dollar Autant d'poids sur les épaules que l'dos large Moi j'voulais l'euro, l'euro, le pesos et l'dollar Autant d'poids sur les épaules que l'dos large Moi j'voulais l'euro, l'euro, le pesos et l'dollar Un illetré pédant m'agace J'ressors irrité mais pétant ma gainz' Des nuits longues qu'on souhaite sans matin Est-ce qu'on courtise des dulcinées Ou est-ce que chacun pète sa timpe? J'me doute de c'que j'peux susciter J'me demande qui peut m'atteindre On m'a dit Tino, vas-y, pull pull pull 'Y a des flics, 'y a des fouilles, fouilles, fouilles 'Y a des bitches, 'y a des boules, boules, boules On m'a dit Tino, vas-y, pull pull pull Pull pull pull Elle va rayer ta caisse avec les clés de chez toi Elle a des plaies, t'sais quoi? Elle plaide, c'est toi Ses tords, elle sait que c'est toi Elle sait que c'est toi</t>
+          <t>Non mais sérieux B.B. pour qui tu m'as pris? J'mettrais pas un pied en son-pri Même si ma tête est mise à prix On fera des envieux Faut que je t'explique, t'as pas compris Le regard des autres, la jalousie Le peura, les potes nous ralentissent Bah oui Elle va rayer ta caisse avec les clés de chez toi Elle a des plaies, t'sais quoi? C'est mort, elle plaide, c'est toi Ss tords, elle sait que c'st toi Ah oui Elle va rayer ta caisse avec les clés de chez toi Elle a des plaies, t'sais quoi? C'est mort, elle plaide, c'est toi Ses tords, elle sait que c'est toi B.B. on est là Ils nous l'donnent pas, on le monnaiera J'verse un peu de Chardonnay sur ton jolie bonnet A J'ai taclé ta gow comme Gattuso ou Bonnera Chacun pour sa peau, j'écris, j'deviens lauréat Ils nous l'donnent pas, on le monnaiera J'verse un peu de Chardonnay sur ton jolie bonnet A J'ai taclé ta gow comme Gattuso ou Bonnera Chacun pour sa peau, j'écris, j'deviens lauréat On m'a dit Tino, vas-y, pull pull pull 'Y a des flics, 'y a des fouilles, fouilles, fouilles 'Y a des bitches, 'y a des boules, boules, boules On m'a dit Tino, vas-y, pull pull pull Tino, vas-y, pull pull pull Eh, hey On m'a dit Tino, vas-y, pull pull pull 'Y a des flics, 'y a des fouilles, fouilles, fouilles 'Y a des bitches, 'y a des boules, boules, boules On m'a dit Tino, vas-y, pull pull pull Tino, vas-y, pull pull pull La vie, c'est la loi de la jungle comme à Calais J'suis dans l'92 mais j'le quitte, il le fallait J'ai bien trop peu bébé, je bosse pour m'en aller Aller où? Hey Vous cassez du sucre sur mon dos Quand l'addition est salée Hey Je sais qu'tu sais que j'suis un salaud Celui qui va me baiser n'est pas né Autant d'poids sur les épaules que l'dos large Moi j'voulais l'euro, l'euro, le pesos et l'dollar Autant d'poids sur les épaules que l'dos large Moi j'voulais l'euro, l'euro, le pesos et l'dollar Autant d'poids sur les épaules que l'dos large Moi j'voulais l'euro, l'euro, le pesos et l'dollar Autant d'poids sur les épaules que l'dos large Moi j'voulais l'euro, l'euro, le pesos et l'dollar Un illetré pédant m'agace J'ressors irrité mais pétant ma gainz' Des nuits longues qu'on souhaite sans matin Est-ce qu'on courtise des dulcinées Ou est-ce que chacun pète sa timpe? J'me doute de c'que j'peux susciter J'me demande qui peut m'atteindre On m'a dit Tino, vas-y, pull pull pull 'Y a des flics, 'y a des fouilles, fouilles, fouilles 'Y a des bitches, 'y a des boules, boules, boules On m'a dit Tino, vas-y, pull pull pull Pull pull pull Elle va rayer ta caisse avec les clés de chez toi Elle a des plaies, t'sais quoi? Elle plaide, c'est toi Ses tords, elle sait que c'est toi Elle sait que c'est toi</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Eh Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Ton parfum m'caresse quand ta présence s'fait rare Est-ce qu'nous deux suffira ? Les tours d'la ville scintillent On va briller, j't'l'avais dit 22 comme Lavezz', 23 comme Beckham Fragonnard sur l'survet', j'ai l'talent pour survivre J'fais vivre v'là l'équipe mais crache distribue vl'à l'liquide À la limite du légale, nos femmes sont jeunes et fraiches J'aurais pu flex six fois plus, encore deux bums-al et ils m'voient plus J'écris sur nous à l'arrière d'la Continentale First classe, voyage intercontinentale Sur ton visage, elle est belle la fatigue quand l'génie frôle l'autisme Y a des trous d'balles qui dégagent Y a assez d'budget pour qu'en équipe on décale Babe, j'me souviens d'tes manières Une relation d'taff qui part en couilles J't'ai prise ta tête dans tes manuels Ah Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Sexe dans un bain relaxant Elle avait c'truc des mannequins d'quatre-vingt-dix Shit, Air Max 90 Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Sexe dans un bain relaxant Elle avait c'truc des mannequins d'quatre-vingt-dix Shit, Air Max 90 Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon You might also like Mes attrapes-rêves ont pris trop d'poussière T'aura beau salir mon nom, il restera mon uvre pour t'contredire J'ai l'habitude d'être seul et contre dix J'suis l'daron qui va tuer l'fils, j'suis l'père d'dipe Encore une feu-meu qui pèse pas l'poids d'ses mots On va t'prendre ta gov', ta baraque et même tes mômes tousse En ce moment que j'tousse, j'suis allergique, aux fils de putes Tous c'que j'perds, j'gagne le double J'dois les baiser avant que m'gagne le doute On a qu'à faire semblant mais il m'reste du sang sur l'set de table J'voulais bouffer seul, j'aurais mieux fait d'prendre deux tables Ils ont rien vu venir, miskine C'est l'ques-J', viens là, prends une te-tar J'du biff à niquer, prends une ble-ta J'invite toutes les salopes qui parlent mal de moi Il est pour moi l'champagne J'vais envoyer un poisson mort comme le jeune Sonpa J'sors d'la chapelle, j'fais une prière pour pas écrire Fuck off avec ton sang Le pe-ra ça paye sauf si t'es la pute d'un grand Et toi, t'es la pute d'un grand Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Sexe dans un bain relaxant Elle avait c'truc des mannequins d'quatre-vingt-dix Shit, Air Max 90 Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Sexe dans un bain relaxant Elle avait c'truc des mannequins d'quatre-vingt-dix Shit, Air Max 90 Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon</t>
+          <t>Eh Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Ton parfum m'caresse quand ta présence s'fait rare Est-ce qu'nous deux suffira ? Les tours d'la ville scintillent On va briller, j't'l'avais dit 22 comme Lavezz', 23 comme Beckham Fragonnard sur l'survet', j'ai l'talent pour survivre J'fais vivre v'là l'équipe mais crache distribue vl'à l'liquide À la limite du légale, nos femmes sont jeunes et fraiches J'aurais pu flex six fois plus, encore deux bums-al et ils m'voient plus J'écris sur nous à l'arrière d'la Continentale First classe, voyage intercontinentale Sur ton visage, elle est belle la fatigue quand l'génie frôle l'autisme Y a des trous d'balles qui dégagent Y a assez d'budget pour qu'en équipe on décale Babe, j'me souviens d'tes manières Une relation d'taff qui part en couilles J't'ai prise ta tête dans tes manuels Ah Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Sexe dans un bain relaxant Elle avait c'truc des mannequins d'quatre-vingt-dix Shit, Air Max 90 Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Sexe dans un bain relaxant Elle avait c'truc des mannequins d'quatre-vingt-dix Shit, Air Max 90 Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Mes attrapes-rêves ont pris trop d'poussière T'aura beau salir mon nom, il restera mon uvre pour t'contredire J'ai l'habitude d'être seul et contre dix J'suis l'daron qui va tuer l'fils, j'suis l'père d'dipe Encore une feu-meu qui pèse pas l'poids d'ses mots On va t'prendre ta gov', ta baraque et même tes mômes tousse En ce moment que j'tousse, j'suis allergique, aux fils de putes Tous c'que j'perds, j'gagne le double J'dois les baiser avant que m'gagne le doute On a qu'à faire semblant mais il m'reste du sang sur l'set de table J'voulais bouffer seul, j'aurais mieux fait d'prendre deux tables Ils ont rien vu venir, miskine C'est l'ques-J', viens là, prends une te-tar J'du biff à niquer, prends une ble-ta J'invite toutes les salopes qui parlent mal de moi Il est pour moi l'champagne J'vais envoyer un poisson mort comme le jeune Sonpa J'sors d'la chapelle, j'fais une prière pour pas écrire Fuck off avec ton sang Le pe-ra ça paye sauf si t'es la pute d'un grand Et toi, t'es la pute d'un grand Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Sexe dans un bain relaxant Elle avait c'truc des mannequins d'quatre-vingt-dix Shit, Air Max 90 Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon Dis-le avec l'accent Honeymoon Sexe dans un bain relaxant Elle avait c'truc des mannequins d'quatre-vingt-dix Shit, Air Max 90 Honeymoon Elle veut la Honeymoon Elle veut la Honeymoon</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J'ai comme l'impression qu'le ciel s'ennuie Pétasse devient ma muse, tu peux vivre sans lui T'as laissé un vide comme un ciel sans lune Croix sur l'torse, que sais-tu du soleil si tu sors pas d'la mine ? Il m'restera toujours assez d'talent pour sortir d'la merde J'ai comme l'impression qu'le ciel s'ennuie Pétasse devient ma muse, tu peux vivre sans lui T'as laissé un vide comme un ciel sans lune Il est tôt, j'écris, j'ai la tête dans les étoiles d'la veille J'irai m'foutre dans les vagues, dans les dents d'la mer Eh, bébé j'ai fait l'cash, ensuite on sillonnera Milan en Vespa C'que j'aime c'est simple, il m'reste du cash j'peux lui refaire ses seins J'ai laissé trainer tes réponses dans le verset 5 J'ai vu le talent passé, il avait un béret l'batard J'paie tout mais j'suis pas ton père, eh baby, j'veux pas tout perdre Toujours sur l'départ, on a vidé l'bagage Eh, présent vocalement et dans sa teuch' Y a des danses qu'on danse qu'à deux On avait tout pour être heureux mais pas l'bonheur Présent vocalement et dans sa teuch' Y a des danses qu'on danse qu'à deux On avait tout pour être heureux mais pas l'bonheur On a porté l'poids mais pas l'bon il You might also like Tant d'barreaux Sur la route pas d'Bonnie Tape des fesses Bébé y a pas d'police C'est moi la nuit noire J'relirai pas l'polar Gère ma boîte j'prépare l'bum-al Ce soir j'viens pas, m'attendez pas Une uvre, une frappe, tant d'débats</t>
+          <t>J'ai comme l'impression qu'le ciel s'ennuie Pétasse devient ma muse, tu peux vivre sans lui T'as laissé un vide comme un ciel sans lune Croix sur l'torse, que sais-tu du soleil si tu sors pas d'la mine ? Il m'restera toujours assez d'talent pour sortir d'la merde J'ai comme l'impression qu'le ciel s'ennuie Pétasse devient ma muse, tu peux vivre sans lui T'as laissé un vide comme un ciel sans lune Il est tôt, j'écris, j'ai la tête dans les étoiles d'la veille J'irai m'foutre dans les vagues, dans les dents d'la mer Eh, bébé j'ai fait l'cash, ensuite on sillonnera Milan en Vespa C'que j'aime c'est simple, il m'reste du cash j'peux lui refaire ses seins J'ai laissé trainer tes réponses dans le verset 5 J'ai vu le talent passé, il avait un béret l'batard J'paie tout mais j'suis pas ton père, eh baby, j'veux pas tout perdre Toujours sur l'départ, on a vidé l'bagage Eh, présent vocalement et dans sa teuch' Y a des danses qu'on danse qu'à deux On avait tout pour être heureux mais pas l'bonheur Présent vocalement et dans sa teuch' Y a des danses qu'on danse qu'à deux On avait tout pour être heureux mais pas l'bonheur On a porté l'poids mais pas l'bon il Tant d'barreaux Sur la route pas d'Bonnie Tape des fesses Bébé y a pas d'police C'est moi la nuit noire J'relirai pas l'polar Gère ma boîte j'prépare l'bum-al Ce soir j'viens pas, m'attendez pas Une uvre, une frappe, tant d'débats</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Il parait qu'elle est hautaine Elle est comme moi elle préfère les suites aux hôtels Elle attend que j'donne, suite aux avances Mais bébé c'est fini j't'aime plus comme avant Il parait qu'elle est hautaine Elle est comme moi elle préfère les suites aux hôtels Elle attend que j'donne suite aux avances, mais Babe c'st fini moi j't'aime plus comme avant Quand les éblouissments passent Viens on capture la beauté qui traîne Il reste du cognac dans l'flash Viens on s'déteste, on s'admire Artiste t'imagines pas c'que ça demande Des codes, des appartenances Triste comme l'homme moderne dans des lofts, des appartements Le patron vient d'partir Tout c'qui l'fascine j'le rejette Un homme ça se façonne dans l'rejet J'voulais juste de l'harmonie Harmonie Harmonie, harmonie Mais s'ils veulent la guerre, armons-nous Seuls sans armada, c'est mort on m'a dit Ils veulent la guerre, armons-nous Armons-nous Armons-nous You might also like Viens on dissout c'qu'il restait dans un verre Les fleurs ont pourri dans l'vase Nous ? On s'était fait bouffer par l'stress Il nous reste du self-love On quitte Paname en leasing Finir à Dusseldorf La déchéance nous hantera-t-elle La chanson sur toi, la chanteras-tu ? Le mal-être qui s'distille m'obsède C'est rien bébé c'est juste le synopsis J'avais qu'ça en option Toi t'sais très bien qu'ça m'obsède J'te l'jure qu'c'est beau Qu'c'est rien d'obscène Viens on dissout tout dans l'verre Dans l'verre Les fleurs ont pourri dans l'vase Dans l'vase Nous ? On s'était fait bouffer par l'stress L'stress Il nous reste du self-love Il nous reste du self-love J'voulais juste de l'harmonie Ils veulent la guerre, armons-nous Seuls sans armada, c'est mort on m'a dit Il parait qu'elle est hautaine Elle est comme moi elle préfère les suites aux hôtels Il parait qu'elle est hautaine Elle est comme moi elle préfère les suites aux hôtels Elle est comme moi elle préfère les suites aux hôtels</t>
+          <t>Il parait qu'elle est hautaine Elle est comme moi elle préfère les suites aux hôtels Elle attend que j'donne, suite aux avances Mais bébé c'est fini j't'aime plus comme avant Il parait qu'elle est hautaine Elle est comme moi elle préfère les suites aux hôtels Elle attend que j'donne suite aux avances, mais Babe c'st fini moi j't'aime plus comme avant Quand les éblouissments passent Viens on capture la beauté qui traîne Il reste du cognac dans l'flash Viens on s'déteste, on s'admire Artiste t'imagines pas c'que ça demande Des codes, des appartenances Triste comme l'homme moderne dans des lofts, des appartements Le patron vient d'partir Tout c'qui l'fascine j'le rejette Un homme ça se façonne dans l'rejet J'voulais juste de l'harmonie Harmonie Harmonie, harmonie Mais s'ils veulent la guerre, armons-nous Seuls sans armada, c'est mort on m'a dit Ils veulent la guerre, armons-nous Armons-nous Armons-nous Viens on dissout c'qu'il restait dans un verre Les fleurs ont pourri dans l'vase Nous ? On s'était fait bouffer par l'stress Il nous reste du self-love On quitte Paname en leasing Finir à Dusseldorf La déchéance nous hantera-t-elle La chanson sur toi, la chanteras-tu ? Le mal-être qui s'distille m'obsède C'est rien bébé c'est juste le synopsis J'avais qu'ça en option Toi t'sais très bien qu'ça m'obsède J'te l'jure qu'c'est beau Qu'c'est rien d'obscène Viens on dissout tout dans l'verre Dans l'verre Les fleurs ont pourri dans l'vase Dans l'vase Nous ? On s'était fait bouffer par l'stress L'stress Il nous reste du self-love Il nous reste du self-love J'voulais juste de l'harmonie Ils veulent la guerre, armons-nous Seuls sans armada, c'est mort on m'a dit Il parait qu'elle est hautaine Elle est comme moi elle préfère les suites aux hôtels Il parait qu'elle est hautaine Elle est comme moi elle préfère les suites aux hôtels Elle est comme moi elle préfère les suites aux hôtels</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Auditeurs et auditrices de c'rap de... Eh Cest qu'du buzz, c'est ququelques strass, tu sais J'l'ai senti qu'tu stresses, il m'a suffit d'dealer avec des pics de stress Eh, gros, tu vivras pas d'ton rap Sont trente-six mille à vouloir vivre ton rêve Putain, j'dépense même pas largent quj'ai pris Jécris NBOW à la même table qu'LNSC mais jamais d'la même façon J'gratte entre deux devis sur ldos d'une grosse facture On m'fout la pression, j'sens p't-être la fin Il m'restait qu'le Sale quand j'ai du-per l'équipe J'touche du bois avant d'toucher mes streams T'-écla la ppe-fra d'vue sur mer depuis Zandvoort Et r'garde-moi dans les yeuz, prends deux secondes Le futur, tu viens d'mettre une tête dessus NBOW, j'sais pas c'que ça fait d'se faire embrouiller par son boss J'ai attendu personne, j'me j'tais mes propres pierres Dès qu'j'ai fini l'bum-al, j'prends deux semaines PDP ou des années d'taff pliées en deux semaines Tu crois que je sors d'l'écran Le ques-J', c'est pas un personnage d'fiction, fils de puteYou might also like</t>
+          <t>Auditeurs et auditrices de c'rap de... Eh Cest qu'du buzz, c'est ququelques strass, tu sais J'l'ai senti qu'tu stresses, il m'a suffit d'dealer avec des pics de stress Eh, gros, tu vivras pas d'ton rap Sont trente-six mille à vouloir vivre ton rêve Putain, j'dépense même pas largent quj'ai pris Jécris NBOW à la même table qu'LNSC mais jamais d'la même façon J'gratte entre deux devis sur ldos d'une grosse facture On m'fout la pression, j'sens p't-être la fin Il m'restait qu'le Sale quand j'ai du-per l'équipe J'touche du bois avant d'toucher mes streams T'-écla la ppe-fra d'vue sur mer depuis Zandvoort Et r'garde-moi dans les yeuz, prends deux secondes Le futur, tu viens d'mettre une tête dessus NBOW, j'sais pas c'que ça fait d'se faire embrouiller par son boss J'ai attendu personne, j'me j'tais mes propres pierres Dès qu'j'ai fini l'bum-al, j'prends deux semaines PDP ou des années d'taff pliées en deux semaines Tu crois que je sors d'l'écran Le ques-J', c'est pas un personnage d'fiction, fils de pute</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>C'est nous lpont entre la hype et la street, on ira au bout Bébé, j'ai pas l'symptôme dHatem, gamin, dors pas sur ton talent Tu veux écrire, tu fermes ta gueule et tu tournes vingt-deux fois ta langue Et un beau jour tu finis sur scène, provocateur comme un mec heureux dans la 13 C'est à des Russes qu'ils ont revendu ma tess' Mon bloc C'est comme l'pe-ra, il t'faut un truc qui tient pour lequel tu pourrais tuer histoire d'sauver ta vie Jai vu lbonheur, c'bâtard il faisait du stop, jlui souris d'puis ma vitre J'lève mon verre à tous ceux qui y croyaient pas, vous pouvez m'sucer la bite Si tu veux mbaiser, la queue c'est là-bas J'ai remis des couleurs dans les yeuz' du rap quand j'ai dit qu'j'revenais à la base Toujours un coup d'avance, toujours d'la douce à vendre j'en fais du profit, c'est pas une association J'ai un livre sur comment s'faire des potes mais en vrai je m'en bats les couilles C'est pas parce que j'ai pas l'air d'souffrir que j'sens pas les coups L'sourire est devenu ride, faut l'courage d'se montrer vulnérable, l'art est devenu RIB L'arabe est devenu riche, l'arabe est devenu riche L'sourire est devenu ride, faut l'courage d'se montrer vulnérable, l'art est devenu RIB L'arabe est devenu riche, l'arabe est devenu riche J'serai plus fauché comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant Jamais comme avant Jamais comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant You might also like Eh, j'suis revenu braquer, chut, concu' à plat ventre À plat Putain, j'ai l'plus beau taf', c'est l'rêve qu'on vend Eh, frère, j'ai une plume d'enculé, j'peux pas m'perdre dans l'confort En c'moment, j'ai l'syndrome du ponton qui m'dit qu'faut que j'aille au bout Laisse traîner l'bruit de l'or que j'ai au cou, t'entends l'verset qui coule ? Coule Regarde-toi dans les larmes qui goutent, ils font semblant moi j'sais qu'ils captent Y a personne que j'dédicace, sauver l'peu-ra un défi médical J't'attends à la sortie d'Villabé pour une nouvelle cavale Pétasse, vis ma vie jusqu'à ce que ça t'pète le crâne J'veux rien comprendre, laisse-moi dans ma bêtise Eh, cousin, moi j'vois plus grand, qui a dit qu'ça a déjà pété ? Qui ? Contrôlé par un condé qui a l'accent d'Aphatie On cohabite avec les ploucs, on laisse pas les lions avec les poulpes T'es pas un artiste t'es juste un carriériste qui s'pose sous l'arbre en attendant la pomme Est-ce que j'dois toutes les baiser avant d'trouver la bonne ? L'sourire est devenu ride, faut l'courage d'se montrer vulnérable, l'art est devenu RIB L'arabe est devenu riche, l'arabe est devenu riche L'sourire est devenu ride, faut l'courage d'se montrer vulnérable, l'art est devenu RIB L'arabe est devenu riche, l'arabe est devenu riche J'serai plus fauché comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant Jamais comme avant Jamais comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant</t>
+          <t>C'est nous lpont entre la hype et la street, on ira au bout Bébé, j'ai pas l'symptôme dHatem, gamin, dors pas sur ton talent Tu veux écrire, tu fermes ta gueule et tu tournes vingt-deux fois ta langue Et un beau jour tu finis sur scène, provocateur comme un mec heureux dans la 13 C'est à des Russes qu'ils ont revendu ma tess' Mon bloc C'est comme l'pe-ra, il t'faut un truc qui tient pour lequel tu pourrais tuer histoire d'sauver ta vie Jai vu lbonheur, c'bâtard il faisait du stop, jlui souris d'puis ma vitre J'lève mon verre à tous ceux qui y croyaient pas, vous pouvez m'sucer la bite Si tu veux mbaiser, la queue c'est là-bas J'ai remis des couleurs dans les yeuz' du rap quand j'ai dit qu'j'revenais à la base Toujours un coup d'avance, toujours d'la douce à vendre j'en fais du profit, c'est pas une association J'ai un livre sur comment s'faire des potes mais en vrai je m'en bats les couilles C'est pas parce que j'ai pas l'air d'souffrir que j'sens pas les coups L'sourire est devenu ride, faut l'courage d'se montrer vulnérable, l'art est devenu RIB L'arabe est devenu riche, l'arabe est devenu riche L'sourire est devenu ride, faut l'courage d'se montrer vulnérable, l'art est devenu RIB L'arabe est devenu riche, l'arabe est devenu riche J'serai plus fauché comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant Jamais comme avant Jamais comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant Eh, j'suis revenu braquer, chut, concu' à plat ventre À plat Putain, j'ai l'plus beau taf', c'est l'rêve qu'on vend Eh, frère, j'ai une plume d'enculé, j'peux pas m'perdre dans l'confort En c'moment, j'ai l'syndrome du ponton qui m'dit qu'faut que j'aille au bout Laisse traîner l'bruit de l'or que j'ai au cou, t'entends l'verset qui coule ? Coule Regarde-toi dans les larmes qui goutent, ils font semblant moi j'sais qu'ils captent Y a personne que j'dédicace, sauver l'peu-ra un défi médical J't'attends à la sortie d'Villabé pour une nouvelle cavale Pétasse, vis ma vie jusqu'à ce que ça t'pète le crâne J'veux rien comprendre, laisse-moi dans ma bêtise Eh, cousin, moi j'vois plus grand, qui a dit qu'ça a déjà pété ? Qui ? Contrôlé par un condé qui a l'accent d'Aphatie On cohabite avec les ploucs, on laisse pas les lions avec les poulpes T'es pas un artiste t'es juste un carriériste qui s'pose sous l'arbre en attendant la pomme Est-ce que j'dois toutes les baiser avant d'trouver la bonne ? L'sourire est devenu ride, faut l'courage d'se montrer vulnérable, l'art est devenu RIB L'arabe est devenu riche, l'arabe est devenu riche L'sourire est devenu ride, faut l'courage d'se montrer vulnérable, l'art est devenu RIB L'arabe est devenu riche, l'arabe est devenu riche J'serai plus fauché comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant Jamais comme avant Jamais comme avant, jamais comme avant J'serai plus fauché comme avant Jamais comme avant, jamais comme avant</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Si j'me répète ça t'coûte plus cher Eh, la nuit a été courte, direction le studio J'pète la 12 J'mène la vie dont j'ai rêvé Pour éviter l'stress et ses ravages, il faut qu'je pète la 12 Les trois-quart du temps rien à fêter, j'ramène d'la tise Baby, pas la peine de s'attacher, j'suis que d'passage L'amour est mort, bref passons Ils veulent savoir, si j'ai une street cred', un vrai passif WAllah, j'vais les baiser d'27 façons Elle veut connaître mes alter-égos et mes 27 facettes Eh, qui t'as dit que ça allait être facile ? Et l'jour où j'perds tout, j'me refais en en faisant un récit Et l'jour où j'perds tout, j'me refais en en faisant un récit Ouais mon khey ils rendent fou Ils sont mignons mais Ouais mon, ouais mon khey ils rendent fou Ouais mon khey y rendent fou Ouais mon khey y rendent fou Ils sont mignons mais ces ils rendent fou Ce soir on se laisse aller, ce soir bébé on rentre saouls Quand You might also like Jacques, ta recette il faut pas qu'tu la changes La chanson que t'as rappée, faut pas qu'tu la chantes Après tout ce que t'as bâti, faut pas qu'tu t'arrêtes T'as laissé passer 100k, j'repense à tout ce temps qu'j'laisse passer sans toi C'est pas facile, j'crois que ça s'est senti Premier album, elle m'quitte la veille J'finis PDP puis j'quitte la ville Maman m'a dit ouais t'es béni C'est pas grave, c'est pénible Complexe de pauvre quand tu peut pas acheter trop fort Eh, ma DA fait pas l'trottoir, fuck off</t>
+          <t>Si j'me répète ça t'coûte plus cher Eh, la nuit a été courte, direction le studio J'pète la 12 J'mène la vie dont j'ai rêvé Pour éviter l'stress et ses ravages, il faut qu'je pète la 12 Les trois-quart du temps rien à fêter, j'ramène d'la tise Baby, pas la peine de s'attacher, j'suis que d'passage L'amour est mort, bref passons Ils veulent savoir, si j'ai une street cred', un vrai passif WAllah, j'vais les baiser d'27 façons Elle veut connaître mes alter-égos et mes 27 facettes Eh, qui t'as dit que ça allait être facile ? Et l'jour où j'perds tout, j'me refais en en faisant un récit Et l'jour où j'perds tout, j'me refais en en faisant un récit Ouais mon khey ils rendent fou Ils sont mignons mais Ouais mon, ouais mon khey ils rendent fou Ouais mon khey y rendent fou Ouais mon khey y rendent fou Ils sont mignons mais ces ils rendent fou Ce soir on se laisse aller, ce soir bébé on rentre saouls Quand Jacques, ta recette il faut pas qu'tu la changes La chanson que t'as rappée, faut pas qu'tu la chantes Après tout ce que t'as bâti, faut pas qu'tu t'arrêtes T'as laissé passer 100k, j'repense à tout ce temps qu'j'laisse passer sans toi C'est pas facile, j'crois que ça s'est senti Premier album, elle m'quitte la veille J'finis PDP puis j'quitte la ville Maman m'a dit ouais t'es béni C'est pas grave, c'est pénible Complexe de pauvre quand tu peut pas acheter trop fort Eh, ma DA fait pas l'trottoir, fuck off</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Dignity and culture Eh Il faut qu'j'écrive Faut qu'j'écrive Faut qu'j'écrive, mais y a du monde dans l'trom, ça m'empêche de m'concentrer L'rapport est consenti, dis-moi baby, y consens-tu? J'me fous d'son ressenti, l'instant d'un regard qui s'échange, le soir ça zone dans le 6 Y a pas qu'ceux qui réussissent qui gé-chan Encore un constat assassin, si c'est fini et qu'tu penses à sa soeur, 2-2-22, guette qu'on dit Les plus vaillants rentrent du taff Tiens tu peux prendre 2 taffes J'suis d'jà au stud' est-ce qu'tu peux prendre deux teilles' ? J'me répète Faut qu'j'écrive, mais y a du monde dans l'trom, ça m'empêche de m'concentrer L'rapport est consenti, dis-moi, y consens-tu? J'me fous d'son ressenti, l'instant d'un regard qui s'échange, le soir ça zone dans le 6 Y a pas qu'ceux qui réussissent qui gé-chan You might also like Le soir ça zone dans le 6, y a pas qu'ceux qui réussissent qui gé-chan Encore un constat assassin Lundi 945 14, mardi 1345 17, Victor Pablo Charles Faut qu'j'passe à autre chose, c'est elle qui l'veut L'instant d'un regard, clique 26, 28 novembre, la sortie le 1512 - 50 sur les décibels 2.6.0.3 fuck off, on réédite, on vous baise c'est clair La SACEM banni dans le keus pas d'quoi forcer rien A l'heure où d'autres pioncent moi j'travaille c'est pour ça qu'j'me verse un salaire Un lâcher de colombes au-d'ssus d'la mer salée L'expression comme ultime salut, une fois qu'les étoiles s'alignent Faut encore qu'elles s'allument, ou c'est p't-être une fausse alarme Dans l'rap comme dans une fosse anale Est-ce qu'la croisière chavire ou s'amuse, plus au-d'ssus d'la dépouille d'Oussama S'te plaît, bébé doucement doucement Il paraît qu'tout se sait, il paraît qu'tout se sent, restez tous assis tous assis Faut qu'j'écrive restez tous assis Faut qu'j'écrive Faut qu'j'écrive à l'heure où d'autres pioncent moi j'travaille c'est pour ça qu'j'me verse un salaire A l'heure où d'autres pioncent moi j'travaille c'est pour ça qu'j'me verse un salaire un lâcher d'colombes au d'ssus d'la mer salée Faut qu'j'écrive l'expression comme ultime salut, et une fois qu'les étoiles s'alignent faut encore qu'elles s'allument Est-ce que j'roule ou j'rentre avec ?Il m'reste un tout p'tit calu 2h45 il y a une porte qui s'ouvre, aussitôt une deuxième se ferme fuck J'vais le faire avec un peu d'talent et un pull Netflix Un lâcher de colombes au-d'ssus d'la mer salée L'expression comme ultime salut, une fois qu'les étoiles s'alignent Faut encore qu'elles s'allument, c'est p't-être une fausse alarme Faut qu'j'écrive</t>
+          <t>Dignity and culture Eh Il faut qu'j'écrive Faut qu'j'écrive Faut qu'j'écrive, mais y a du monde dans l'trom, ça m'empêche de m'concentrer L'rapport est consenti, dis-moi baby, y consens-tu? J'me fous d'son ressenti, l'instant d'un regard qui s'échange, le soir ça zone dans le 6 Y a pas qu'ceux qui réussissent qui gé-chan Encore un constat assassin, si c'est fini et qu'tu penses à sa soeur, 2-2-22, guette qu'on dit Les plus vaillants rentrent du taff Tiens tu peux prendre 2 taffes J'suis d'jà au stud' est-ce qu'tu peux prendre deux teilles' ? J'me répète Faut qu'j'écrive, mais y a du monde dans l'trom, ça m'empêche de m'concentrer L'rapport est consenti, dis-moi, y consens-tu? J'me fous d'son ressenti, l'instant d'un regard qui s'échange, le soir ça zone dans le 6 Y a pas qu'ceux qui réussissent qui gé-chan Le soir ça zone dans le 6, y a pas qu'ceux qui réussissent qui gé-chan Encore un constat assassin Lundi 945 14, mardi 1345 17, Victor Pablo Charles Faut qu'j'passe à autre chose, c'est elle qui l'veut L'instant d'un regard, clique 26, 28 novembre, la sortie le 1512 - 50 sur les décibels 2.6.0.3 fuck off, on réédite, on vous baise c'est clair La SACEM banni dans le keus pas d'quoi forcer rien A l'heure où d'autres pioncent moi j'travaille c'est pour ça qu'j'me verse un salaire Un lâcher de colombes au-d'ssus d'la mer salée L'expression comme ultime salut, une fois qu'les étoiles s'alignent Faut encore qu'elles s'allument, ou c'est p't-être une fausse alarme Dans l'rap comme dans une fosse anale Est-ce qu'la croisière chavire ou s'amuse, plus au-d'ssus d'la dépouille d'Oussama S'te plaît, bébé doucement doucement Il paraît qu'tout se sait, il paraît qu'tout se sent, restez tous assis tous assis Faut qu'j'écrive restez tous assis Faut qu'j'écrive Faut qu'j'écrive à l'heure où d'autres pioncent moi j'travaille c'est pour ça qu'j'me verse un salaire A l'heure où d'autres pioncent moi j'travaille c'est pour ça qu'j'me verse un salaire un lâcher d'colombes au d'ssus d'la mer salée Faut qu'j'écrive l'expression comme ultime salut, et une fois qu'les étoiles s'alignent faut encore qu'elles s'allument Est-ce que j'roule ou j'rentre avec ?Il m'reste un tout p'tit calu 2h45 il y a une porte qui s'ouvre, aussitôt une deuxième se ferme fuck J'vais le faire avec un peu d'talent et un pull Netflix Un lâcher de colombes au-d'ssus d'la mer salée L'expression comme ultime salut, une fois qu'les étoiles s'alignent Faut encore qu'elles s'allument, c'est p't-être une fausse alarme Faut qu'j'écrive</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>On a frôlé la folie, on était pauvres et anonymes L'cques-J', Villa', d'Paname à Sicile, babe J'vais chercher l'papel, j'suis pas là L'cques-J', VillaBanks, la wifey elle vient d'Villabé J'ai tout donné pour cette vie, ma belle Tiens, tiens, prends ma peine, tiens, tiens Nell'impianto B.B. Jacques Uoh Grossa bottiglia di Jack Jack C'è sempre un mio pezzo nel club Club Da gennaio fino a dicembre El Filósofo Mi senti in tutta Italia Ah-ah Se ti vanno le orecchie Ah-ah È la spinta che parla Spingere Sto spingendo parecchio Banks Scalo Charles De Gaulle, parto in Martinica Ah Oggi viaggio solo Sì con una fica Ah Appena arrivo le palle a mollo nella piscina Ahah, stile di vita Ah Devo fare tante hit, tempo fa tic-tac Ah-ah Oh-oh Andare via di qui, vacanza a Phuket Oh-oh Sotto Tangeri, camicia Burberry Oh-oh Porto amaro e aperitivo con ma cherie Oh-oh You might also like On a frôlé, on a frôlé, on a frôle la fo- On a frôlé la folie Banks, on était pauvres et anonymes L'cques-J', Villa', d'Paname à Sicile, babe J'vais chercher l'papel, j'suis pas là L'cques-J', VillaBanks, la wifey elle vient d'Villabé J'ai tout donné pour cette vie, ma belle Tiens, tiens, prends ma peine, tiens, tiens Veulent tuer un artiste, ils ont fait vivre un homme Un homme NBOW, c'est une ombre qui cachait un aigle Fuck la fame c'est juste un truc réel qui cachait un hymne Tu remarqueras, après tout ça j'ai eu l'mérite de rester moi Eh Il restait qui ? Il restait moi Le cques-J' J'vais faire face à un bordel que d'autres refusent, nique sa mère, on fera face à d'autres refus Y a d'la pression à chaque fois Eh, j'nous voyais dans chaque phase Pétasse Une autre, joue ton rôle dans chaque film On a soufflé dessus, ils étaient faux tes cils Ce soir j'suis bourré devant l'ciel, j'regarde c'que les astres dessinent Trois albums, trois lucarnes, pendant qu'vos frappent s'dévient À côté Fuck off, vaffanculo, vous êtes pathétiques Sull'autostrada del successo a due e cinquanta Qua non c'è il limite, c'è soltanto la spinta Lei vuole glielo metta, mi aspetta a novanta La bella vita Banks On a frôlé la folie, on était pauvres et anonymes L'cques-J', Villa', d'Paname à Sicile, babe J'vais chercher l'papel, j'suis pas là L'cques-J', VillaBanks, la wifey elle vient d'Villabé J'ai tout donné pour cette vie, ma belle Tiens, tiens, prends ma peine Tiens, tiens, prends ma peine</t>
+          <t>On a frôlé la folie, on était pauvres et anonymes L'cques-J', Villa', d'Paname à Sicile, babe J'vais chercher l'papel, j'suis pas là L'cques-J', VillaBanks, la wifey elle vient d'Villabé J'ai tout donné pour cette vie, ma belle Tiens, tiens, prends ma peine, tiens, tiens Nell'impianto B.B. Jacques Uoh Grossa bottiglia di Jack Jack C'è sempre un mio pezzo nel club Club Da gennaio fino a dicembre El Filósofo Mi senti in tutta Italia Ah-ah Se ti vanno le orecchie Ah-ah È la spinta che parla Spingere Sto spingendo parecchio Banks Scalo Charles De Gaulle, parto in Martinica Ah Oggi viaggio solo Sì con una fica Ah Appena arrivo le palle a mollo nella piscina Ahah, stile di vita Ah Devo fare tante hit, tempo fa tic-tac Ah-ah Oh-oh Andare via di qui, vacanza a Phuket Oh-oh Sotto Tangeri, camicia Burberry Oh-oh Porto amaro e aperitivo con ma cherie Oh-oh On a frôlé, on a frôlé, on a frôle la fo- On a frôlé la folie Banks, on était pauvres et anonymes L'cques-J', Villa', d'Paname à Sicile, babe J'vais chercher l'papel, j'suis pas là L'cques-J', VillaBanks, la wifey elle vient d'Villabé J'ai tout donné pour cette vie, ma belle Tiens, tiens, prends ma peine, tiens, tiens Veulent tuer un artiste, ils ont fait vivre un homme Un homme NBOW, c'est une ombre qui cachait un aigle Fuck la fame c'est juste un truc réel qui cachait un hymne Tu remarqueras, après tout ça j'ai eu l'mérite de rester moi Eh Il restait qui ? Il restait moi Le cques-J' J'vais faire face à un bordel que d'autres refusent, nique sa mère, on fera face à d'autres refus Y a d'la pression à chaque fois Eh, j'nous voyais dans chaque phase Pétasse Une autre, joue ton rôle dans chaque film On a soufflé dessus, ils étaient faux tes cils Ce soir j'suis bourré devant l'ciel, j'regarde c'que les astres dessinent Trois albums, trois lucarnes, pendant qu'vos frappent s'dévient À côté Fuck off, vaffanculo, vous êtes pathétiques Sull'autostrada del successo a due e cinquanta Qua non c'è il limite, c'è soltanto la spinta Lei vuole glielo metta, mi aspetta a novanta La bella vita Banks On a frôlé la folie, on était pauvres et anonymes L'cques-J', Villa', d'Paname à Sicile, babe J'vais chercher l'papel, j'suis pas là L'cques-J', VillaBanks, la wifey elle vient d'Villabé J'ai tout donné pour cette vie, ma belle Tiens, tiens, prends ma peine Tiens, tiens, prends ma peine</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tout l'monde sait qu'faut pas mettre de glaçons dans l'verre de Jacques Jacques Pas l'temps d'en vider un, baby j'libère deux sacs j'libère deux sacs Je m'affranchis, j'libère deux slaves deux slaves Le travail paie, et ça même les branleurs le savent Hey On est venu r'tourner l'after de Carmen Ils ont misé sur ce wak MC Comme l'OM a misé sur Germain Lumière tamisée, tends la main, tu la perds Fais pas l'grossiste Tu l'as porté trois fois puis t'as revendu la paire On est venu r'tourner l'after de Carmen Lumière tamisée, tends la main, tu la perds Ta meuf Wallah mon khey j'la plains J'ai des principes, des valeurs Crois pas que j'la p'lote Et l'amitié, crois pas que j'la gratte Et c'est normal, la prod j'la tape Ma meuf, a plus de couilles que vous Même l'argent, on en veut pas mais on en a plus que vous Ma meuf, a plus de couilles que vous Même l'argent, on en veut pas mais on en a plus que vous Ce soir, j'vais la prendre sans tact You might also like Avant d'écrire sur la prod 104 Tends la joue, tu vas prendre 100 claques Non c'est pas la fin, c'est que l'début de l'entracte Non c'est pas la fin, c'est que l'début de l'entracte Depuis, j'traîne dans les 16 mètres J'fais face au but sans trac Et cette année j'ai fais plus de 100 tracks Pour qu'le propos reste clair j'ai dû l'dire sans l'trap Ce soir, j'vais la prendre sans tact Avant d'écrire sur la prod 104 Tends la joue, tu vas prendre 100 claques Non c'est pas la fin, c'est que l'début de l'entracte Non c'est pas la fin, c'est que l'début de l'entracte Depuis, j'traîne dans les 16 mètres J'fais face au but sans trac Et cette année j'ai fais plus de 100 tracks Et cette année j'ai fais plus de 100 tracks Trois bouteilles de 51 vidées au sol Un Kleenex qui vole sur le quais d'la gare Ce soir la nuit sera calme Baby, c'est toi ma plus belle rature J'ai fait chanter les mots sans même pousser la voix Evguénie Sokolov vient de trouer la soi Hey Tout l'monde sait qu'faut pas mettre de glaçons dans l'verre de Jacques Jacques Pas l'temps d'en vider un, baby j'libère deux sacs j'libère deux sacs Je m'affranchis, j'libère deux slaves deux slaves Le travail paie, et ça même les branleurs le savent Baby, t'as pleuré cinq fois, j'en parle pas Le bonheur ça se vit Le malheur saute aux yeux On dit que le bonheur, ça se voit hein? Ma meuf, a plus de couilles que vous Même l'argent, on en veut pas mais on en a plus que vous Plus que vous Aujourd'hui t'as pleuré cinq fois, j'en parle pas Le bonheur ça se vit Le malheur saute aux yeux On dit que le bonheur, ça se voit 4 heures du matin, j'parle à ta messagerie hey Pas d'baratin pour rattraper singerie Mise à part ça, ça va J'travaille, j'aperçois l'bout J'travaille, j'aperçois l'bout Si peu d'encre que mon stylo que d'cons dans l'poch' J'paye ma musique avec la bourse du CROUS Deux métiers plutôt qu'un, un homme en vaut 2 Si j'me retrouve au poste, j'me mords fort les 'oids T'as pas eu l'temps de tourner l'dos, ils ont parlé d'oit' T'as pas eu l'temps de tourner l'dos, ils ont parlé d'oit' Hey J'ai donné ton nom à la pire tempête Tout l'monde sait qu'faut pas mettre de glaçons dans l'verre de Jacques Jacques Pas l'temps d'en vider un, baby j'libère deux sacs j'libère deux sacs Je m'affranchis, j'libère deux slaves deux slaves Le travail paie, et ça même les branleurs le savent</t>
+          <t>Tout l'monde sait qu'faut pas mettre de glaçons dans l'verre de Jacques Jacques Pas l'temps d'en vider un, baby j'libère deux sacs j'libère deux sacs Je m'affranchis, j'libère deux slaves deux slaves Le travail paie, et ça même les branleurs le savent Hey On est venu r'tourner l'after de Carmen Ils ont misé sur ce wak MC Comme l'OM a misé sur Germain Lumière tamisée, tends la main, tu la perds Fais pas l'grossiste Tu l'as porté trois fois puis t'as revendu la paire On est venu r'tourner l'after de Carmen Lumière tamisée, tends la main, tu la perds Ta meuf Wallah mon khey j'la plains J'ai des principes, des valeurs Crois pas que j'la p'lote Et l'amitié, crois pas que j'la gratte Et c'est normal, la prod j'la tape Ma meuf, a plus de couilles que vous Même l'argent, on en veut pas mais on en a plus que vous Ma meuf, a plus de couilles que vous Même l'argent, on en veut pas mais on en a plus que vous Ce soir, j'vais la prendre sans tact Avant d'écrire sur la prod 104 Tends la joue, tu vas prendre 100 claques Non c'est pas la fin, c'est que l'début de l'entracte Non c'est pas la fin, c'est que l'début de l'entracte Depuis, j'traîne dans les 16 mètres J'fais face au but sans trac Et cette année j'ai fais plus de 100 tracks Pour qu'le propos reste clair j'ai dû l'dire sans l'trap Ce soir, j'vais la prendre sans tact Avant d'écrire sur la prod 104 Tends la joue, tu vas prendre 100 claques Non c'est pas la fin, c'est que l'début de l'entracte Non c'est pas la fin, c'est que l'début de l'entracte Depuis, j'traîne dans les 16 mètres J'fais face au but sans trac Et cette année j'ai fais plus de 100 tracks Et cette année j'ai fais plus de 100 tracks Trois bouteilles de 51 vidées au sol Un Kleenex qui vole sur le quais d'la gare Ce soir la nuit sera calme Baby, c'est toi ma plus belle rature J'ai fait chanter les mots sans même pousser la voix Evguénie Sokolov vient de trouer la soi Hey Tout l'monde sait qu'faut pas mettre de glaçons dans l'verre de Jacques Jacques Pas l'temps d'en vider un, baby j'libère deux sacs j'libère deux sacs Je m'affranchis, j'libère deux slaves deux slaves Le travail paie, et ça même les branleurs le savent Baby, t'as pleuré cinq fois, j'en parle pas Le bonheur ça se vit Le malheur saute aux yeux On dit que le bonheur, ça se voit hein? Ma meuf, a plus de couilles que vous Même l'argent, on en veut pas mais on en a plus que vous Plus que vous Aujourd'hui t'as pleuré cinq fois, j'en parle pas Le bonheur ça se vit Le malheur saute aux yeux On dit que le bonheur, ça se voit 4 heures du matin, j'parle à ta messagerie hey Pas d'baratin pour rattraper singerie Mise à part ça, ça va J'travaille, j'aperçois l'bout J'travaille, j'aperçois l'bout Si peu d'encre que mon stylo que d'cons dans l'poch' J'paye ma musique avec la bourse du CROUS Deux métiers plutôt qu'un, un homme en vaut 2 Si j'me retrouve au poste, j'me mords fort les 'oids T'as pas eu l'temps de tourner l'dos, ils ont parlé d'oit' T'as pas eu l'temps de tourner l'dos, ils ont parlé d'oit' Hey J'ai donné ton nom à la pire tempête Tout l'monde sait qu'faut pas mettre de glaçons dans l'verre de Jacques Jacques Pas l'temps d'en vider un, baby j'libère deux sacs j'libère deux sacs Je m'affranchis, j'libère deux slaves deux slaves Le travail paie, et ça même les branleurs le savent</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Eh Unleaded Bébé veut ma vie mais j'suis wanted, Garcia a brulé l'habitacle Y a des pierres qui brillent sur mes doigts, posté stein J'remercie èm-me puisqu'elle a prié dans le noir J'suis béni par mon djinn, c'est moi-même j'négocie mon deal Là, j'dois avoir 10g dans le jean, zestes de citron dans le Gin Que ma bitch a mise, j'aime beaucoup la robe qu'ma bitch a mise Baise le rap FR comme un petit tamise, deter' comm un isla' Ouf Fuck Off, on sautera pas mon Zenith, riche avant d'êtr sénile J'étais déjà oi-m avant d'être célèbre, m'appelle pas j'suis pas là Allez bisous, j'vous passe l'salem Mais dites l'attaque avant le cri, toujours l'silence avant le crime L'silence avant le crime Des lofts et des palaces T'façon t'es pas là Mais t'façon, t'es pas là Des lofts et des palaces T'as raison, laisse-moi seul dans la merde Y a des personnes qui viendront jamais Mais qu'on attend, eh Avec un gun sur la tempe Reviendront jamais Un gun sur la tempe J'regarde partir le train qui t'éloigne de oi-m Y a de la beauté dans le sombre Quand témoignent mes toiles Y a le passé qui continue de me mettre des baffes J'remercie tout le monde On m'tire dessus plus d'vingt-deux fois Plutôt que d'me mettre deux balles Cultive ta différence, une force S'ils t'acceptent pas T'fais naitre quelque chose chez moi juste pour l'casser Dit pas c'que j'ai à faire si c'est pour me nuir Cousin j'suis libanais, c'est pour ça qu'je renais d'mes ruines D'vant Van Gogh, Bleu nuit, écrire c'est se jeter dans le vide J'ai appris à voler d'mes propres ailes Y a rien d'plus beau qu'nos idées folles J'suis tellement revenu à la base qu'j'en suis devenu le socle On s'est tellement aimé qu'on est devenu sot J'aimais tes qualités et tes défauts Bébé veut ma vie mais j'suis wanted, Garcia a brulé l'habitacle 2K24, j'vais prendre les sacs, j'arrive dans le studio ganté Ve-squi avalanche, là j'suis à 'dam Y a des pierres qui brillent sur mes oigts-d, posté stein J'remercie èm-me puisqu'elle a prié dans le noir Dans le noir Y a des pierres qui brillent sur mes oigts-d La vie devant soi mais ça va vite, eh, est-ce que ça va ? Let's go Psartek, t'sais faire des rimes Tu perceras pas, il m'écoute en cachette J'regarde les stats, c'est devenu des yeux d'être une star Français malpropre, on baise dans un français malpropre ils croivent les gens Ta pétasse décroise les jambes L'Keuj toujours au commande, on a tous les contacts dans l'tel Et ta pétasse décroise les jambes J'arrive sur le té-co comme Tel La vie devant soi mais ça va passer vite You might also like Tous les contacts dans l'tel J'arrive sur le té-co comme Tel Ta pétasse décroise les jambes</t>
+          <t>Eh Unleaded Bébé veut ma vie mais j'suis wanted, Garcia a brulé l'habitacle Y a des pierres qui brillent sur mes doigts, posté stein J'remercie èm-me puisqu'elle a prié dans le noir J'suis béni par mon djinn, c'est moi-même j'négocie mon deal Là, j'dois avoir 10g dans le jean, zestes de citron dans le Gin Que ma bitch a mise, j'aime beaucoup la robe qu'ma bitch a mise Baise le rap FR comme un petit tamise, deter' comm un isla' Ouf Fuck Off, on sautera pas mon Zenith, riche avant d'êtr sénile J'étais déjà oi-m avant d'être célèbre, m'appelle pas j'suis pas là Allez bisous, j'vous passe l'salem Mais dites l'attaque avant le cri, toujours l'silence avant le crime L'silence avant le crime Des lofts et des palaces T'façon t'es pas là Mais t'façon, t'es pas là Des lofts et des palaces T'as raison, laisse-moi seul dans la merde Y a des personnes qui viendront jamais Mais qu'on attend, eh Avec un gun sur la tempe Reviendront jamais Un gun sur la tempe J'regarde partir le train qui t'éloigne de oi-m Y a de la beauté dans le sombre Quand témoignent mes toiles Y a le passé qui continue de me mettre des baffes J'remercie tout le monde On m'tire dessus plus d'vingt-deux fois Plutôt que d'me mettre deux balles Cultive ta différence, une force S'ils t'acceptent pas T'fais naitre quelque chose chez moi juste pour l'casser Dit pas c'que j'ai à faire si c'est pour me nuir Cousin j'suis libanais, c'est pour ça qu'je renais d'mes ruines D'vant Van Gogh, Bleu nuit, écrire c'est se jeter dans le vide J'ai appris à voler d'mes propres ailes Y a rien d'plus beau qu'nos idées folles J'suis tellement revenu à la base qu'j'en suis devenu le socle On s'est tellement aimé qu'on est devenu sot J'aimais tes qualités et tes défauts Bébé veut ma vie mais j'suis wanted, Garcia a brulé l'habitacle 2K24, j'vais prendre les sacs, j'arrive dans le studio ganté Ve-squi avalanche, là j'suis à 'dam Y a des pierres qui brillent sur mes oigts-d, posté stein J'remercie èm-me puisqu'elle a prié dans le noir Dans le noir Y a des pierres qui brillent sur mes oigts-d La vie devant soi mais ça va vite, eh, est-ce que ça va ? Let's go Psartek, t'sais faire des rimes Tu perceras pas, il m'écoute en cachette J'regarde les stats, c'est devenu des yeux d'être une star Français malpropre, on baise dans un français malpropre ils croivent les gens Ta pétasse décroise les jambes L'Keuj toujours au commande, on a tous les contacts dans l'tel Et ta pétasse décroise les jambes J'arrive sur le té-co comme Tel La vie devant soi mais ça va passer vite Tous les contacts dans l'tel J'arrive sur le té-co comme Tel Ta pétasse décroise les jambes</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J'regarde partir le convoi depuis lport de Dam' On a de l'or mais on lporte pas J'regarde partir le convoi depuis l'port de Dam' On a de l'or mais on l'porte pas Ce qui n'me tue pas m'rend plus fou Gé-char comme si jsors du four Joublie tout, on mangera la côte jusqu'au phare On aurait pu aller plus vite, prend lgo-fast Les arabes sont sortis du sarcophage Babe Est-ce malgré elle que j'plait aux femmes On est monté tellement, c'est pas qu'un pléonasme La chute sera rude cest une bitch Tu connais pas c'est pour ça que tu fantasmes la rue J'bosse encore plus depuis que j'me fais rare Eh Les souris s'prennent pour des rats J'me sens bizarre depuis que j'fais du Rap Bébé part mais tu sais pas c'que tu rates Et toi est-ce que tu vis c'que tu rappes ? Au on m'demande si j'vis du Rap J'ai dis Oui j'ai pris plus cher Ressorti une fois tout l'dossier épluché Et que fait ici le Jacques ? J'essaye d'être juste avec les mots Doux avec les autres Faut qu'on l'dise si on s'aime Si on s'aime, le sais-tu, ils casseront pas c'que j'ai construit vu que j'en suis l'ossature You might also like J'regarde partir l'convoi depuis l'port de Dam' On a de l'or mais on l'porte pas Ma vie est plus simple depuis que j'fais du bif' Là j'suis juste à coté de toi Ce truc que tu sens c'est moi tu vois ? J'ai du vivre les paroles que tu bois Tu peux parler mais est-ce que les autres t'entendent ? On fait ce qu'on veut, on veut ce qu'on fait Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne 22 minutes j'fumais la Lebanese Aujourd'hui bienvenue là où j'étais banni C'est tu déprimes Eh J'étais banni, j'étais banni Il peuvent pas censurer J'écrivais déjà fauché sous l'pont d'Suresnes Là j'gratte mon quatrième son en deux jours Capuché parce qu'il fait froid au stud' Douter d'moi comment oses-tu ? Fuck off c'est plus qu'une posture Au pire, on balaiera les ruines de mon palais Bébé j'peux tout rebâtir c'est quand même moi le Keuj' La nostalgie c'est une impasse Y'a plus personne qui le fera comme moi ma leu-geu Personne ne peut mener à ma ce-pla ma re-gue J'fais une pause, j'regarde ses lèvres s'poser sur l'Marroco Est-ce que j'peux garder 2-3 trucs ou j'dois tout rendre Les blessés guérissent, on sort prendre le vent J'ai une cicatrice longue comme un bras sur le ventre Ce soir j'rentre pas, j'suis dans l'game avec tous les cafards J'dors sur l'canap' comme Elon pour faire tout mon GAFA On mélange pas les diamants et les saphirs Avant d'être ta bitch c'était sa fille Est-ce qu'il nous reste assez d'valeur pour baiser sa carrière et pas sa femme ? Tu te retrouvera tout seul quand la carrière passe avant Ouvrez vos oreilles avant que je vous ouvre le cul pour y glisser vos avis Moi-même j'sais même plus c'qui m'habite Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne</t>
+          <t>J'regarde partir le convoi depuis lport de Dam' On a de l'or mais on lporte pas J'regarde partir le convoi depuis l'port de Dam' On a de l'or mais on l'porte pas Ce qui n'me tue pas m'rend plus fou Gé-char comme si jsors du four Joublie tout, on mangera la côte jusqu'au phare On aurait pu aller plus vite, prend lgo-fast Les arabes sont sortis du sarcophage Babe Est-ce malgré elle que j'plait aux femmes On est monté tellement, c'est pas qu'un pléonasme La chute sera rude cest une bitch Tu connais pas c'est pour ça que tu fantasmes la rue J'bosse encore plus depuis que j'me fais rare Eh Les souris s'prennent pour des rats J'me sens bizarre depuis que j'fais du Rap Bébé part mais tu sais pas c'que tu rates Et toi est-ce que tu vis c'que tu rappes ? Au on m'demande si j'vis du Rap J'ai dis Oui j'ai pris plus cher Ressorti une fois tout l'dossier épluché Et que fait ici le Jacques ? J'essaye d'être juste avec les mots Doux avec les autres Faut qu'on l'dise si on s'aime Si on s'aime, le sais-tu, ils casseront pas c'que j'ai construit vu que j'en suis l'ossature J'regarde partir l'convoi depuis l'port de Dam' On a de l'or mais on l'porte pas Ma vie est plus simple depuis que j'fais du bif' Là j'suis juste à coté de toi Ce truc que tu sens c'est moi tu vois ? J'ai du vivre les paroles que tu bois Tu peux parler mais est-ce que les autres t'entendent ? On fait ce qu'on veut, on veut ce qu'on fait Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne 22 minutes j'fumais la Lebanese Aujourd'hui bienvenue là où j'étais banni C'est tu déprimes Eh J'étais banni, j'étais banni Il peuvent pas censurer J'écrivais déjà fauché sous l'pont d'Suresnes Là j'gratte mon quatrième son en deux jours Capuché parce qu'il fait froid au stud' Douter d'moi comment oses-tu ? Fuck off c'est plus qu'une posture Au pire, on balaiera les ruines de mon palais Bébé j'peux tout rebâtir c'est quand même moi le Keuj' La nostalgie c'est une impasse Y'a plus personne qui le fera comme moi ma leu-geu Personne ne peut mener à ma ce-pla ma re-gue J'fais une pause, j'regarde ses lèvres s'poser sur l'Marroco Est-ce que j'peux garder 2-3 trucs ou j'dois tout rendre Les blessés guérissent, on sort prendre le vent J'ai une cicatrice longue comme un bras sur le ventre Ce soir j'rentre pas, j'suis dans l'game avec tous les cafards J'dors sur l'canap' comme Elon pour faire tout mon GAFA On mélange pas les diamants et les saphirs Avant d'être ta bitch c'était sa fille Est-ce qu'il nous reste assez d'valeur pour baiser sa carrière et pas sa femme ? Tu te retrouvera tout seul quand la carrière passe avant Ouvrez vos oreilles avant que je vous ouvre le cul pour y glisser vos avis Moi-même j'sais même plus c'qui m'habite Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne Je lui ai donné toute ma force, elle m'a donné toute la sienne</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hey OB cómo está ? Check les photos sur les murs, seul, j'ai pas l'choix faut qu'j'paraisse sûr de moi Regarde c'que j'ai fait en deux semaines, imagine c'que j'peux faire en deux mois, repars chez toi J'revois ta chambre, de base j'étais attachant La nuit camoufle c'que l'aube révèle, lever à quatre heures, j'vais mettre un autre réveil Discipline comme mot d'ordre, j'ai un beau, mais un grand travail d'ailleurs, j'en assure six, des rôles Tu veux comprendre comment ça s'passe, faut qu'on inverse les rôles Pas les rimes, le cques-J', il aime pas les rats, ton succès ou l'reflet d'leur échec, tout ça, ça sort, ça leur échappe En sah, c'est juste réel, de base, c'était juste des rêves, c'est beau comme c'mec qui s'fout des règles J'vois qu'c'est trop tard, le cur, il saigne Comment guérir de ça ? T'inquiète, on finira par rire de ça S'il y a plus d'respect, y a rien, qu'on négocie C'est pas la peine que j'm'exclame ou que j'm'égosille J'savais pas qu'y avait pas tant d'sous dans mes cahiers Putain, en fait, j'avais des sous dans mes cahiers, reste un brin d'monnaie dans l'Carhartt Si Dieu bénit, c'est qu'maman fait l'Carême Ce soir, j'suis avec elle, celle qui aime beaucoup Karim Pas d'sommeil, un bol d'rosé ou un verre d'Kellogg's, qu'on boit à la cuillère, au café NBOW, c'est un corp, pas un GAFA, j'croyais en mon rap, j'ai pas passé l'BAFA Elle, j'lui ai pas passé d'saphir, lui, il peut plus s'passer d'femmes Putain d'sa mère, il peut plus s'passer d'sa femme J'ai tout perdu, sauf ma fougue, s'tu m'croises c'est toujours seul Les mains s'caressent de façon innocente Elle a r'fait ses ongles, elle sait qu'j'aime voir ça J'm'en bats les couilles, je sais qu'ça t'gêne Pas d'soirée tant qu'j'ai pas fini l'bum-al, d'façon, j'allais pas en soirée même quand j'avais pas d'boulot, quand j'faisais pas d'bum-al J'fais semblant, j'peux plus t'cala, nan, j'fais pas semblant, j'peux plus t'cala T'auras pas d'collab', fuck off, y aura pas d'accolade T'as raison, j'ai pas d'acolyte, j'vous laisse les prods, les maps, les Apollo J'refais l'plan sous pollen, y a tout sur Paname, j'vais t'nir combien d'temps avant qu'NBOW m'anime Troisième texte en trente-cinq heures, fin d'semaine, j'compte ni les heures supp' ni les titres Ni les ratures ni les femmes, une vie t'as peur À croire qu'on fait tout c'qu'on a appris dans des films Est-ce que j'aime ou j'compte les phrases ? Ils m'croiront pas si je leur dis qu'ils vont m'voir dans les films Une vie t'as peur, troisième texte en trente-cinq heures, fin d'semaineYou might also like1</t>
+          <t>Hey OB cómo está ? Check les photos sur les murs, seul, j'ai pas l'choix faut qu'j'paraisse sûr de moi Regarde c'que j'ai fait en deux semaines, imagine c'que j'peux faire en deux mois, repars chez toi J'revois ta chambre, de base j'étais attachant La nuit camoufle c'que l'aube révèle, lever à quatre heures, j'vais mettre un autre réveil Discipline comme mot d'ordre, j'ai un beau, mais un grand travail d'ailleurs, j'en assure six, des rôles Tu veux comprendre comment ça s'passe, faut qu'on inverse les rôles Pas les rimes, le cques-J', il aime pas les rats, ton succès ou l'reflet d'leur échec, tout ça, ça sort, ça leur échappe En sah, c'est juste réel, de base, c'était juste des rêves, c'est beau comme c'mec qui s'fout des règles J'vois qu'c'est trop tard, le cur, il saigne Comment guérir de ça ? T'inquiète, on finira par rire de ça S'il y a plus d'respect, y a rien, qu'on négocie C'est pas la peine que j'm'exclame ou que j'm'égosille J'savais pas qu'y avait pas tant d'sous dans mes cahiers Putain, en fait, j'avais des sous dans mes cahiers, reste un brin d'monnaie dans l'Carhartt Si Dieu bénit, c'est qu'maman fait l'Carême Ce soir, j'suis avec elle, celle qui aime beaucoup Karim Pas d'sommeil, un bol d'rosé ou un verre d'Kellogg's, qu'on boit à la cuillère, au café NBOW, c'est un corp, pas un GAFA, j'croyais en mon rap, j'ai pas passé l'BAFA Elle, j'lui ai pas passé d'saphir, lui, il peut plus s'passer d'femmes Putain d'sa mère, il peut plus s'passer d'sa femme J'ai tout perdu, sauf ma fougue, s'tu m'croises c'est toujours seul Les mains s'caressent de façon innocente Elle a r'fait ses ongles, elle sait qu'j'aime voir ça J'm'en bats les couilles, je sais qu'ça t'gêne Pas d'soirée tant qu'j'ai pas fini l'bum-al, d'façon, j'allais pas en soirée même quand j'avais pas d'boulot, quand j'faisais pas d'bum-al J'fais semblant, j'peux plus t'cala, nan, j'fais pas semblant, j'peux plus t'cala T'auras pas d'collab', fuck off, y aura pas d'accolade T'as raison, j'ai pas d'acolyte, j'vous laisse les prods, les maps, les Apollo J'refais l'plan sous pollen, y a tout sur Paname, j'vais t'nir combien d'temps avant qu'NBOW m'anime Troisième texte en trente-cinq heures, fin d'semaine, j'compte ni les heures supp' ni les titres Ni les ratures ni les femmes, une vie t'as peur À croire qu'on fait tout c'qu'on a appris dans des films Est-ce que j'aime ou j'compte les phrases ? Ils m'croiront pas si je leur dis qu'ils vont m'voir dans les films Une vie t'as peur, troisième texte en trente-cinq heures, fin d'semaine1</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Libres comme des jeunes qui ont du cash Dans un pas très loin d'celui où j'crèche J'veux rester avec madame, oublier où j'vais Elle veut pas aller taffer, t'inquiète j'amortie On claque tout, on refait nos vies J'm'enfume, j'm'enfume J'fais que là-haut C'est ma façon ... J'hésite sur la couleur du coeur de l'habitacle J'hésite sur la couleur du coeur de l'habitacle C'est pour ça que je check les chiffres toutes les 10 minutes Bref, faut que j'arrête de check les chiffres, et de croire qu'ils diminuent J'ai même plus le temps d'me mettre mauvais Fuck off Et plus I love you, byeYou might also like</t>
+          <t>Libres comme des jeunes qui ont du cash Dans un pas très loin d'celui où j'crèche J'veux rester avec madame, oublier où j'vais Elle veut pas aller taffer, t'inquiète j'amortie On claque tout, on refait nos vies J'm'enfume, j'm'enfume J'fais que là-haut C'est ma façon ... J'hésite sur la couleur du coeur de l'habitacle J'hésite sur la couleur du coeur de l'habitacle C'est pour ça que je check les chiffres toutes les 10 minutes Bref, faut que j'arrête de check les chiffres, et de croire qu'ils diminuent J'ai même plus le temps d'me mettre mauvais Fuck off Et plus I love you, bye</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Dignity and culture Check Chez nous, quand t'as du talent, tu l'caches Fais c'que t'as à faire et n'en parle pas trop Si t'en parles à trois, c'est déjà qu't'en parles à trop J'fais des erreurs dont j'parle pas trop Hey Tu décides qu'si y a pas l'patron J'tire dessus qu'si y a pas l'carton Chez nous, quand t'as du talent, tu l'caches Fais c'que t'as à faire et n'en parle pas trop Car le financement provient d'la pocket mmh La fumée vient d'surgir d'la roquette L'avocate est déçue, la proc' est coquette Machine infernale comme Cocteau Ils ont du christ dans un verre d'Bordeaux Qu'on soit vers Stockholm ou vers Porto Si j'm'écroule, on va pas m'porter J'ai craqué, j'ai plus d'portable Ses pieds sur ma paire d'Cortez ah oui J'ai romancé l'histoire qu'j'orchestre avec trois taches de rouge sur un survet' Ralph Ils sont fiers d'eux, dans des survets' falsch Le flash est fini près d'la rue d'Verneuil J'rentre et j'en roule un sur un livre d'Verlaine On descend du singe, on s'dirige vers l'âne Les lumières s'éteignent, elle m'allume Y a rien d'complexe Y a beaucoup d'tensions mais y a peu d'contacts ouh-ah J'vais l'faire avec beaucoup d'talent et très peu d'contacts ouh-ah Les lumières s'éteignent, elle m'allume Y a rien d'complexe Y a beaucoup d'tensions mais y a peu d'complexes ouh-ah J'vais l'faire avec beaucoup d'talent et très peu d'contacts ouh-ah You might also like Hey Le silence est d'or, ma parole c'est d'l'argent Mais l'bruit court que l'silencieux sort Vas-y, vas-y, bouge baby Qu'est-ce qu'on a pas vu dans ta bouche baby ? J'veux qu'elle reste, j'lui dis bouge baby Avant qu'la OG kush baby Kush baby mmh Vas-y, vas-y, bouge baby Qu'est-ce qu'on a pas vu dans ta bouche baby ? J'veux qu'elle reste, j'lui dis bouge baby Avant qu'la OG kush baby mmh Quelques pages écornées Une dans l'pot, une deuxième sur l'cornet Elle a ce charme dont très peu jouissent Comme une vodka avec très peu d'juice Elle m'a r'proché ma discrétion Fuck si ma miss digresse comme une p'tite tigresse Fuck si ma miss digresse Des crocs comme une p'tite tigresse comme une p'tite tigresse</t>
+          <t>Dignity and culture Check Chez nous, quand t'as du talent, tu l'caches Fais c'que t'as à faire et n'en parle pas trop Si t'en parles à trois, c'est déjà qu't'en parles à trop J'fais des erreurs dont j'parle pas trop Hey Tu décides qu'si y a pas l'patron J'tire dessus qu'si y a pas l'carton Chez nous, quand t'as du talent, tu l'caches Fais c'que t'as à faire et n'en parle pas trop Car le financement provient d'la pocket mmh La fumée vient d'surgir d'la roquette L'avocate est déçue, la proc' est coquette Machine infernale comme Cocteau Ils ont du christ dans un verre d'Bordeaux Qu'on soit vers Stockholm ou vers Porto Si j'm'écroule, on va pas m'porter J'ai craqué, j'ai plus d'portable Ses pieds sur ma paire d'Cortez ah oui J'ai romancé l'histoire qu'j'orchestre avec trois taches de rouge sur un survet' Ralph Ils sont fiers d'eux, dans des survets' falsch Le flash est fini près d'la rue d'Verneuil J'rentre et j'en roule un sur un livre d'Verlaine On descend du singe, on s'dirige vers l'âne Les lumières s'éteignent, elle m'allume Y a rien d'complexe Y a beaucoup d'tensions mais y a peu d'contacts ouh-ah J'vais l'faire avec beaucoup d'talent et très peu d'contacts ouh-ah Les lumières s'éteignent, elle m'allume Y a rien d'complexe Y a beaucoup d'tensions mais y a peu d'complexes ouh-ah J'vais l'faire avec beaucoup d'talent et très peu d'contacts ouh-ah Hey Le silence est d'or, ma parole c'est d'l'argent Mais l'bruit court que l'silencieux sort Vas-y, vas-y, bouge baby Qu'est-ce qu'on a pas vu dans ta bouche baby ? J'veux qu'elle reste, j'lui dis bouge baby Avant qu'la OG kush baby Kush baby mmh Vas-y, vas-y, bouge baby Qu'est-ce qu'on a pas vu dans ta bouche baby ? J'veux qu'elle reste, j'lui dis bouge baby Avant qu'la OG kush baby mmh Quelques pages écornées Une dans l'pot, une deuxième sur l'cornet Elle a ce charme dont très peu jouissent Comme une vodka avec très peu d'juice Elle m'a r'proché ma discrétion Fuck si ma miss digresse comme une p'tite tigresse Fuck si ma miss digresse Des crocs comme une p'tite tigresse comme une p'tite tigresse</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Eh Eh Bébé, je crois j'ai mal, j'fais l'tour d'chez toi Besoin d'cher-mar, ça s'est cassé la gueule Est-ce que t'as besoin dun schéma ? J'lui ai donné un appart', elle m'a redonné un chez-moi Prenez tout, mais lâchez-moi, ce soir jrentrerai pas chez moi C'est noir, j'aime pas ses mots C'est noir, j'aime pas ses mots Si j'pouvais m'passer d'toi, j'arriverais, l'camos passe létoile J'suis passé par les toits, j'ai pas assez parlé d'toi Si j'suis pas là, c'est qu'j'suis contrôlé par les douanes Ces mots sortis d'ma tête et grattés par mes doigts Anecdotique, tu m'as sorti Si tu laimes tu la laisses partir J'me suis fait baiser par mon propre jeu J'restreins le profil, fallait juste qu'on profite Avant qu'j'sois brûlé par mon propre feu Des fois j'te vois, j'entends un bruit, j'crois qu'c'est toi J'crois qu'c'est toi J'veux pas ce poids J'veux pas ce poids Il s'est passé quoi ? Il s'est passé quoi ? Mais t'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? Hein? Hein? Hein? You might also like Est-ce que j'le crie ou j'le prouve ? Cétait qu'un FX sur la prod' Pygmalion, on faisait la paire comme bruit des valises et celui de la porte C'est mieux on s'dit pas c'qu'on éprouve Faut prendre le large, j'ai jamais eu l'courage de faire le lâche J'te mets c'truc en bouche, puis j'le retire et jte passe deux lattes On n'a même pas laissé la fleur faner, on l'a directement crevée par lépine Sauvé par l'blues que j'traine, tire le trait sur le traitre No show, refuse l'invit', est-ce que j'l'ai fait par amour ou pour combler un vide ? Anecdotique, tu m'as sorti Si tu laimes tu la laisses partir J'me suis fait baiser par mon propre jeu J'restreins le profil, fallait juste qu'on profite Avant qu'j'sois brûlé par mon propre feu Des fois j'te vois, j'entends un bruit, j'crois qu'c'est toi J'crois qu'c'est toi J'veux pas ce poids J'veux pas ce poids Il s'est passé quoi ? Il s'est passé quoi ? Mais t'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? Mais t'étais où ? Mais t'étais où ? Des fois j'te vois, j'crois qu'c'est toi, j'crois qu'c'est toi Mais t'étais où ? Mais t'étais où ? Des fois, j'te vois J'crois qu'c'est toi J'crois qu'c'est toi Où ? T'étais où ? Mais t'étais où ? T'étais où ? Hein ? T'étais où ? Où ?</t>
+          <t>Eh Eh Bébé, je crois j'ai mal, j'fais l'tour d'chez toi Besoin d'cher-mar, ça s'est cassé la gueule Est-ce que t'as besoin dun schéma ? J'lui ai donné un appart', elle m'a redonné un chez-moi Prenez tout, mais lâchez-moi, ce soir jrentrerai pas chez moi C'est noir, j'aime pas ses mots C'est noir, j'aime pas ses mots Si j'pouvais m'passer d'toi, j'arriverais, l'camos passe létoile J'suis passé par les toits, j'ai pas assez parlé d'toi Si j'suis pas là, c'est qu'j'suis contrôlé par les douanes Ces mots sortis d'ma tête et grattés par mes doigts Anecdotique, tu m'as sorti Si tu laimes tu la laisses partir J'me suis fait baiser par mon propre jeu J'restreins le profil, fallait juste qu'on profite Avant qu'j'sois brûlé par mon propre feu Des fois j'te vois, j'entends un bruit, j'crois qu'c'est toi J'crois qu'c'est toi J'veux pas ce poids J'veux pas ce poids Il s'est passé quoi ? Il s'est passé quoi ? Mais t'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? Hein? Hein? Hein? Est-ce que j'le crie ou j'le prouve ? Cétait qu'un FX sur la prod' Pygmalion, on faisait la paire comme bruit des valises et celui de la porte C'est mieux on s'dit pas c'qu'on éprouve Faut prendre le large, j'ai jamais eu l'courage de faire le lâche J'te mets c'truc en bouche, puis j'le retire et jte passe deux lattes On n'a même pas laissé la fleur faner, on l'a directement crevée par lépine Sauvé par l'blues que j'traine, tire le trait sur le traitre No show, refuse l'invit', est-ce que j'l'ai fait par amour ou pour combler un vide ? Anecdotique, tu m'as sorti Si tu laimes tu la laisses partir J'me suis fait baiser par mon propre jeu J'restreins le profil, fallait juste qu'on profite Avant qu'j'sois brûlé par mon propre feu Des fois j'te vois, j'entends un bruit, j'crois qu'c'est toi J'crois qu'c'est toi J'veux pas ce poids J'veux pas ce poids Il s'est passé quoi ? Il s'est passé quoi ? Mais t'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? T'étais où ? Mais t'étais où ? Mais t'étais où ? Des fois j'te vois, j'crois qu'c'est toi, j'crois qu'c'est toi Mais t'étais où ? Mais t'étais où ? Des fois, j'te vois J'crois qu'c'est toi J'crois qu'c'est toi Où ? T'étais où ? Mais t'étais où ? T'étais où ? Hein ? T'étais où ? Où ?</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Eh J'te protège, j'te mets pas sur la pochette Cette bitch, c'est vraiment ma came Cette bitch, c'est vraiment ma came B.B. Jacques, B.B. Jacques de quoi ? B.B. Jacques de quoi ? Tu veux quoi ? J'te protège, j'te mets pas sur la pochette, j'me rapproche d'l'apogée J'te protège, j'te mets pas sur la pochette, j'me rapproche d'l'apogée T'façon c'est toujours ma faute, oui, j'aim toujours ma go, j'ai des visions macabres Cett bitch c'est vraiment ma came Mais c'est pas moi qu't'as dans la peau, faut pas wifey la hoe Faut pas wifey la hoe Le cône est tassé, est-ce qu'on s'amuse ? Est-ce qu'on est assez ? Oui c'est moi sur la scène, dis pas qu'c'est pas sincère Perso', pas d'passes à sept, debout, pas d'places assises Et quand le sniper touche pas sa cible, t'es pas obligé d't'assagir Un mur d'satin m'protège du 3ayn, j'veux pas m'éterniser mais j'fais qu'durer Depuis quand tu rimes ? Bébé, bouge ça avec du rythme Elle m'a dit Bouffe ça avec du riz, eh, si j'savais qu'tu rages Regarde c'que j'peux faire avec du rap, est-ce qu'ça a besoin d'durer ? Babe, profite, t'as des doutes, des dettes, j'ai v'là l'profit Cques-J', j'vais pas faire l'prophète, j't'apprécie De face comme d'profil, faut qu'je sorte tout, qu'j'efface ton profil J'suis en terrasse, un café un spliff, ah, mon Dieu qu'elle est fraiche Est-ce que j'la casse si elle est frêle ? Oui J'aime ses formes, elle, elle aime quand c'est fort Elle, elle aime quand c'est fort J'te protège, j'te mets pas sur la- You might also like J'te protège, j'te mets pas sur la pochette, baby, j'me rapproche d'l'apogée D'l'apogée J'te protège, j'te mets pas sur la pochette, baby, j'me rapproche d'l'apogée D'l'apogée T'façon c'est toujours ma faute, oui, j'aime toujours ma go, j'ai des visions macabres Cette bitch c'est vraiment ma came, cette bitch c'est vraiment ma came Et faut pas wifey la hoe, faut pas wifey la hoe C'est pas moi qu't'as dans la peau Cette bitch, c'est vraiment ma came Faut pas wifey la hoe, faut pas wifey la hoe Cette bitch, c'est vraiment ma came J'te protège, j'te mets pas sur la pochette, j'me rapproche d'l'apogée J'te protège, j'te mets pas sur la pochette, j'me rapproche d'l'apogée</t>
+          <t>Eh J'te protège, j'te mets pas sur la pochette Cette bitch, c'est vraiment ma came Cette bitch, c'est vraiment ma came B.B. Jacques, B.B. Jacques de quoi ? B.B. Jacques de quoi ? Tu veux quoi ? J'te protège, j'te mets pas sur la pochette, j'me rapproche d'l'apogée J'te protège, j'te mets pas sur la pochette, j'me rapproche d'l'apogée T'façon c'est toujours ma faute, oui, j'aim toujours ma go, j'ai des visions macabres Cett bitch c'est vraiment ma came Mais c'est pas moi qu't'as dans la peau, faut pas wifey la hoe Faut pas wifey la hoe Le cône est tassé, est-ce qu'on s'amuse ? Est-ce qu'on est assez ? Oui c'est moi sur la scène, dis pas qu'c'est pas sincère Perso', pas d'passes à sept, debout, pas d'places assises Et quand le sniper touche pas sa cible, t'es pas obligé d't'assagir Un mur d'satin m'protège du 3ayn, j'veux pas m'éterniser mais j'fais qu'durer Depuis quand tu rimes ? Bébé, bouge ça avec du rythme Elle m'a dit Bouffe ça avec du riz, eh, si j'savais qu'tu rages Regarde c'que j'peux faire avec du rap, est-ce qu'ça a besoin d'durer ? Babe, profite, t'as des doutes, des dettes, j'ai v'là l'profit Cques-J', j'vais pas faire l'prophète, j't'apprécie De face comme d'profil, faut qu'je sorte tout, qu'j'efface ton profil J'suis en terrasse, un café un spliff, ah, mon Dieu qu'elle est fraiche Est-ce que j'la casse si elle est frêle ? Oui J'aime ses formes, elle, elle aime quand c'est fort Elle, elle aime quand c'est fort J'te protège, j'te mets pas sur la- J'te protège, j'te mets pas sur la pochette, baby, j'me rapproche d'l'apogée D'l'apogée J'te protège, j'te mets pas sur la pochette, baby, j'me rapproche d'l'apogée D'l'apogée T'façon c'est toujours ma faute, oui, j'aime toujours ma go, j'ai des visions macabres Cette bitch c'est vraiment ma came, cette bitch c'est vraiment ma came Et faut pas wifey la hoe, faut pas wifey la hoe C'est pas moi qu't'as dans la peau Cette bitch, c'est vraiment ma came Faut pas wifey la hoe, faut pas wifey la hoe Cette bitch, c'est vraiment ma came J'te protège, j'te mets pas sur la pochette, j'me rapproche d'l'apogée J'te protège, j'te mets pas sur la pochette, j'me rapproche d'l'apogée</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Il fait froid dehors, madame a prit la veste dans laquelle, s'trouvait toute la cons' Injustifiées comme la plupart d'mes maladresses L'amour c'te maladie Des phases font mal à dire, quand La cartouche est vide, les balles sont à terre Avec Sana sur l'auto j'traine en sens inverse, en fait ça va C'est trop tard pour dire qu'les autres savaient J'ai perdu un diamant, il m'reste qu'à trouver un autre saphir En attendantYou might also like</t>
+          <t>Il fait froid dehors, madame a prit la veste dans laquelle, s'trouvait toute la cons' Injustifiées comme la plupart d'mes maladresses L'amour c'te maladie Des phases font mal à dire, quand La cartouche est vide, les balles sont à terre Avec Sana sur l'auto j'traine en sens inverse, en fait ça va C'est trop tard pour dire qu'les autres savaient J'ai perdu un diamant, il m'reste qu'à trouver un autre saphir En attendant</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Eh Calme Check 2k23, les stats tabassent Allez, viens, on s'regarde à peine Pendant qu'Jay commande la frappe Jprends la carte, j'ai assez pour qu'j'démarre une grande cavale Dla ppe-fra, des grands cavus des grands cavus NBOW, cest bientôt un grand GAFA Babe, viens, on va s'tiser dans les grands cafés Ensuite, s'tu veux, on regarde nos stats Il reste que des conneries sur l'dos d'nos cartes postales Tu peux rtirer ton pull pastel On a du cash, on n'a pas d'temps Est-c-quon peut dire que percer, j'voulais pas d'ça ? pas d'ça En ce moment, au stud, y a plus de came Si y a plus de monde, y a plus de cons Baisse la voix d'Léonie, mets plus de basses On a plus de sous, Jte jure, jpourrais tout lâcher Jai comme du mal à faire plus de rimes Jdevais m'barrer, prendre le large Mais jai refusé d'perdre le rythme Viens, on essaye, on s'casse la gueule Jai cassé mes cordes vocales Mais jai quand même pris une certaine somme On commence à remplir quelques salles You might also like Jaurais pu m'fier à certains signes, Paris est belle Ils veulent me foutre un micro mais laisse, il faut qu'jfinisse Y a les secrets du biz quil faut quon cache, pourquoi jte parle de ça ? Dis-moi, timagines qui quand j'parle de nous ? On aurait pu tenter d'sappartenir, wAllah léquipe, elle va prendre des balles Faut qu'jécrive mais rien qu'ça jacte Jai p't-être manqué de finesse ou manqué d'fougue Il mreste la vue sur lArc d'Triomphe, patron d'label, jeune patriarche Je lsais quon doit s'barrer, mais partir où ? Si seulement on avait ltemps d'traîner, si seulement y avait pas tant d'traînées D'poudre quon s'jetait à la gueule Jdois ti-par, jvais t'jeter à la gare, lève loption et j'livre la came Jsais même plus jvais m'foutre laquelle, elle a du temps, elle veut m'faire la gueule Tsais, bébé, très vite, le temps, il passe Si les pages se tournent, cest p't-être que l'vent, il tape De base, cétait pas si top de base, tétais pas citée Les lumières den bas séteignent, eh, kho, j'taimais pas, cest dead Jcommence le bum-al dans des rues sélectes, là où cest pas moi le plus célèbre Jétais chaud, jétais très solide Isolé dans le cur de Naples Oh l'cul, mais lques-J', cest pas le zinc de Naps Rien qu'jen parle, jai mal, fallait, le dompter lgénie Cest quand la suite dla genèse ? Babe, on était beaux, on vivait du Crous et des tips Parti avec un changement d'vie notable Le ques-J', cétait un alchimiste Cest pas une next-gen mais une prise dotage NBOW expansif, emprise totale</t>
+          <t>Eh Calme Check 2k23, les stats tabassent Allez, viens, on s'regarde à peine Pendant qu'Jay commande la frappe Jprends la carte, j'ai assez pour qu'j'démarre une grande cavale Dla ppe-fra, des grands cavus des grands cavus NBOW, cest bientôt un grand GAFA Babe, viens, on va s'tiser dans les grands cafés Ensuite, s'tu veux, on regarde nos stats Il reste que des conneries sur l'dos d'nos cartes postales Tu peux rtirer ton pull pastel On a du cash, on n'a pas d'temps Est-c-quon peut dire que percer, j'voulais pas d'ça ? pas d'ça En ce moment, au stud, y a plus de came Si y a plus de monde, y a plus de cons Baisse la voix d'Léonie, mets plus de basses On a plus de sous, Jte jure, jpourrais tout lâcher Jai comme du mal à faire plus de rimes Jdevais m'barrer, prendre le large Mais jai refusé d'perdre le rythme Viens, on essaye, on s'casse la gueule Jai cassé mes cordes vocales Mais jai quand même pris une certaine somme On commence à remplir quelques salles Jaurais pu m'fier à certains signes, Paris est belle Ils veulent me foutre un micro mais laisse, il faut qu'jfinisse Y a les secrets du biz quil faut quon cache, pourquoi jte parle de ça ? Dis-moi, timagines qui quand j'parle de nous ? On aurait pu tenter d'sappartenir, wAllah léquipe, elle va prendre des balles Faut qu'jécrive mais rien qu'ça jacte Jai p't-être manqué de finesse ou manqué d'fougue Il mreste la vue sur lArc d'Triomphe, patron d'label, jeune patriarche Je lsais quon doit s'barrer, mais partir où ? Si seulement on avait ltemps d'traîner, si seulement y avait pas tant d'traînées D'poudre quon s'jetait à la gueule Jdois ti-par, jvais t'jeter à la gare, lève loption et j'livre la came Jsais même plus jvais m'foutre laquelle, elle a du temps, elle veut m'faire la gueule Tsais, bébé, très vite, le temps, il passe Si les pages se tournent, cest p't-être que l'vent, il tape De base, cétait pas si top de base, tétais pas citée Les lumières den bas séteignent, eh, kho, j'taimais pas, cest dead Jcommence le bum-al dans des rues sélectes, là où cest pas moi le plus célèbre Jétais chaud, jétais très solide Isolé dans le cur de Naples Oh l'cul, mais lques-J', cest pas le zinc de Naps Rien qu'jen parle, jai mal, fallait, le dompter lgénie Cest quand la suite dla genèse ? Babe, on était beaux, on vivait du Crous et des tips Parti avec un changement d'vie notable Le ques-J', cétait un alchimiste Cest pas une next-gen mais une prise dotage NBOW expansif, emprise totale</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>J'aurais p't-être dû m'murer dans l'silence Ton blase dans l'sable, j'aurais dû l'écrire dans l'ciment T'façon, fallait partir c'était dans l'syno' Aveuglé, j'voyais pas l'signal, j'suis pas seul, j'ai l'Seigneur Quand nos regards s'échangent, avant qu'mes yeux ne ballaient tes jambes Ton souvenir une chambre dans laquelle je n'rentre plus Tout est noir, il reste que nous, j'veux pas voir les autres J'en fais de moins en moins mais j'rentre plus Pygmalion, sincère, fatigué, juste brut Y n a beaucoup qui ont dû s'noyer dans la courbe d'ts yeuz' Jmen bats les couilles, c'est illusoire mais c'est merveilleux Des mirages auxquels j'insuffle le souffle Si j'm'égosille c'est comme si j'insulte les sourds J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça, c'était un mirage J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça, c'était un mirage Eh, le temps court, ma montre a une heure d'avance J'souris plus devant l'montant d'l'avance Eh, sous la pluie d'la ville, j'suis sorti faire quelques pas T'es sûre qu'ça nous mène quelque part ? Faut bien qu'ça recommence quelques fois Qu'est ce qu'il y a ? Rien. Mais qu'est-ce que t'as ? J'suis rentré trop tôt, presque tard J't'ai donné c'que j'ai, j'ai pas pris tout c'que t'as T'étais pas elle, elle était presque toi You might also like J'aurais p't-être dû m'murer dans l'silence Ton blase dans l'sable, j'aurais dû l'écrire dans l'ciment T'façon, fallait partir c'était dans l'syno' J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça, c'était un mirage J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça, c'était un mirage J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça C'était un mirage C'était un mirage</t>
+          <t>J'aurais p't-être dû m'murer dans l'silence Ton blase dans l'sable, j'aurais dû l'écrire dans l'ciment T'façon, fallait partir c'était dans l'syno' Aveuglé, j'voyais pas l'signal, j'suis pas seul, j'ai l'Seigneur Quand nos regards s'échangent, avant qu'mes yeux ne ballaient tes jambes Ton souvenir une chambre dans laquelle je n'rentre plus Tout est noir, il reste que nous, j'veux pas voir les autres J'en fais de moins en moins mais j'rentre plus Pygmalion, sincère, fatigué, juste brut Y n a beaucoup qui ont dû s'noyer dans la courbe d'ts yeuz' Jmen bats les couilles, c'est illusoire mais c'est merveilleux Des mirages auxquels j'insuffle le souffle Si j'm'égosille c'est comme si j'insulte les sourds J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça, c'était un mirage J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça, c'était un mirage Eh, le temps court, ma montre a une heure d'avance J'souris plus devant l'montant d'l'avance Eh, sous la pluie d'la ville, j'suis sorti faire quelques pas T'es sûre qu'ça nous mène quelque part ? Faut bien qu'ça recommence quelques fois Qu'est ce qu'il y a ? Rien. Mais qu'est-ce que t'as ? J'suis rentré trop tôt, presque tard J't'ai donné c'que j'ai, j'ai pas pris tout c'que t'as T'étais pas elle, elle était presque toi J'aurais p't-être dû m'murer dans l'silence Ton blase dans l'sable, j'aurais dû l'écrire dans l'ciment T'façon, fallait partir c'était dans l'syno' J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça, c'était un mirage J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça, c'était un mirage J'l'ai vu sur ton visage T'sais pas c'que j'ai perdu, c'que j'envisage La dernière fois qu'j'ai ressenti ça C'était un mirage C'était un mirage</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Hey Ouh Ça jacte Rien qu'ça jacte Ouh Pygmalion Let's go, eh Oh la tain-p' Oh, des kichtas mais pas d'platine Il s'agissait pas d'pâtir, j'aurais pu péter l'Patek Partir On a c'qu'il faut mais on est pas l'Qatar On est pas l'Qatar J'suis dans la découpe, l'abattage Drrrr C'était d'l'amour mais tu connais pas l'bâtard La bitch Ouai, bitch, ça tire, fuck un équilibre versatile Vitesse Vitesse Verstappen Ouh, défoule-toi, déverse ta peine J'nique des mères, en route vers la paix Fais trer-ren comme la pègre Comme la pègre Casse ms couilles, casse ma play Ah Y a rien d'plus quand bau quand tu renais d'tes cendres T'sais, babe, c'est un métier d'faire du sale Du sale Faut la mentale pour faire que ça Que ça Bien sûr qu'on est fier de ça Bien sûr qu'on est fier de ça Let's go Faut la mentale pour faire que ça Que ça Bien sûr qu'on est fier de ça De ça T'sais, babe, c'est un métier d'faire du sale You might also like Oh la tain-p', des kichtas mais pas d'platine Il s'agissait pas d'pâtir, j'aurais pu péter l'Patek On a c'qu'il faut mais on est pas l'Qatar Pas l'Qatar Bitch on est, bitch on est pas l'Qatar On est pas l'Qatar On a c'qu'il faut mais on est pas l'Qatar Oh Oh la tain-p' ! Oh la tain-p' ! Oh la tain-p' ! Oh la tain-p' ! Let's go En attendant qu'l'averse repasse La larme qu't'as au coin d'l'il, la verse pas Honey, j'ai raté l'avion mais je pars quand même il faut qu'j'm'évade J'suis pas là, y a tout un biff qui faut qu'j'évade C'était beau, j'regardais ses fesses qui prennent les vagues Son cul Trop solide, ils veulent savoir que prends l'ques-Ja Rien On l'a fait pour l'art, on a quand même pris l'keu-sha Le cash C'bâtard a les ieuz' plus gros qu'le sac Elle veut m'soigner, mettre de l'équilibre dans ma vie d'lossa Elle veut m'soigner, mettre de l'équilibre dans ma vie d'lossa Elle veut m'soigner, mettre de l'équilibre dans ma vie d'lossa Oh la tain-p' ! Ton regard se fige quand mes mains s'égarent Fuck contrat vicieux, j'veux pas d'cigare Vingt-trois singles, Olympia, une Cigale Et puis grande cavale Grande cavale J'regarde passer les plaques NL J'ai investi dans des toiles de maîtres Let's go Déter' comme un jeune Tzigane Quand j'pioche des mots au hasard, j'me fait vingt-six K Oh la tain-p', des kichtas mais pas d'platine Il s'agissait pas d'pâtir, j'aurais pu péter l'Patek On a c'qu'il faut mais on est pas l'Qatar Pas l'Qatar Bitch on est, bitch on est pas l'Qatar On est pas l'Qatar On a c'qu'il faut mais on est pas l'Qatar Oh Oh la tain-p' ! Oh la tain-p' ! Oh la tain-p' ! Oh la tain-p' ! Let's go Oh la tain-p' !</t>
+          <t>Hey Ouh Ça jacte Rien qu'ça jacte Ouh Pygmalion Let's go, eh Oh la tain-p' Oh, des kichtas mais pas d'platine Il s'agissait pas d'pâtir, j'aurais pu péter l'Patek Partir On a c'qu'il faut mais on est pas l'Qatar On est pas l'Qatar J'suis dans la découpe, l'abattage Drrrr C'était d'l'amour mais tu connais pas l'bâtard La bitch Ouai, bitch, ça tire, fuck un équilibre versatile Vitesse Vitesse Verstappen Ouh, défoule-toi, déverse ta peine J'nique des mères, en route vers la paix Fais trer-ren comme la pègre Comme la pègre Casse ms couilles, casse ma play Ah Y a rien d'plus quand bau quand tu renais d'tes cendres T'sais, babe, c'est un métier d'faire du sale Du sale Faut la mentale pour faire que ça Que ça Bien sûr qu'on est fier de ça Bien sûr qu'on est fier de ça Let's go Faut la mentale pour faire que ça Que ça Bien sûr qu'on est fier de ça De ça T'sais, babe, c'est un métier d'faire du sale Oh la tain-p', des kichtas mais pas d'platine Il s'agissait pas d'pâtir, j'aurais pu péter l'Patek On a c'qu'il faut mais on est pas l'Qatar Pas l'Qatar Bitch on est, bitch on est pas l'Qatar On est pas l'Qatar On a c'qu'il faut mais on est pas l'Qatar Oh Oh la tain-p' ! Oh la tain-p' ! Oh la tain-p' ! Oh la tain-p' ! Let's go En attendant qu'l'averse repasse La larme qu't'as au coin d'l'il, la verse pas Honey, j'ai raté l'avion mais je pars quand même il faut qu'j'm'évade J'suis pas là, y a tout un biff qui faut qu'j'évade C'était beau, j'regardais ses fesses qui prennent les vagues Son cul Trop solide, ils veulent savoir que prends l'ques-Ja Rien On l'a fait pour l'art, on a quand même pris l'keu-sha Le cash C'bâtard a les ieuz' plus gros qu'le sac Elle veut m'soigner, mettre de l'équilibre dans ma vie d'lossa Elle veut m'soigner, mettre de l'équilibre dans ma vie d'lossa Elle veut m'soigner, mettre de l'équilibre dans ma vie d'lossa Oh la tain-p' ! Ton regard se fige quand mes mains s'égarent Fuck contrat vicieux, j'veux pas d'cigare Vingt-trois singles, Olympia, une Cigale Et puis grande cavale Grande cavale J'regarde passer les plaques NL J'ai investi dans des toiles de maîtres Let's go Déter' comme un jeune Tzigane Quand j'pioche des mots au hasard, j'me fait vingt-six K Oh la tain-p', des kichtas mais pas d'platine Il s'agissait pas d'pâtir, j'aurais pu péter l'Patek On a c'qu'il faut mais on est pas l'Qatar Pas l'Qatar Bitch on est, bitch on est pas l'Qatar On est pas l'Qatar On a c'qu'il faut mais on est pas l'Qatar Oh Oh la tain-p' ! Oh la tain-p' ! Oh la tain-p' ! Oh la tain-p' ! Let's go Oh la tain-p' !</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Baby veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Babe veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Bitch est belle comme la femme d'un autre Gère le biz' en couple comme les Un quart de siècle plus tard j'continue d'peindre des toiles avec des mots On a fait d'l'art avec d'la merde T'sais babe c'est l'game, ils vont t'sourire avant d't'la mettre Le Keuj' sur Netflix bientôt sur Canal Eh rentre chez oi't parce que j'veux pas y' ta bitch sur l'canap' On gère des J'baisse la tête, j'fais plus de bif' que c'que mon père à fait Même quand il nous manquait quelque chose, on l'savait pas Voilà c'que mon père a fait Elevé par des lions, j'ai appris seul à voler comme un aigle La frontière est fine entre C'est un génie ou un Âne La nuit tombe et les vagues s'agitent J'brille malgré moi comme les reflets d'la nacre You might also like Baby veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Babe veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Qu'est ce qu'on va faire du temps qui reste Laisse faire tu peux tant qu'il rêve J'vais pas parler c'est mieux j'le rec Un jour ta vie tient à un couplet qu'il faut pas qu'tu rates Eh, parce que les tits-pe ils veulent de l'oseille, ils veulent vivre du Rap Eh, t'sais pas c'que tu rates On a d'la chance pourquoi tu râles ? Belek y'a du seille-o à en oublier pourquoi tu rappes On inspire, on bosse, pourquoi tu rages ? J'ai prit des risques babe pour te ramener du seille-o et d'la cons' Le jour où on regrettera on s'ra cons Aujourd'hui c'est ça-comme, demain on sera bons T'es love de c'que t'as créé J'fais manger les pique-assiettes NBOW, Pygmalion Fuck off dédicacé La j'ride pétasse Le Keuj' c'est pas Bassem c'est pas Bassem Pygmalion Baby veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Babe veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil</t>
+          <t>Baby veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Babe veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Bitch est belle comme la femme d'un autre Gère le biz' en couple comme les Un quart de siècle plus tard j'continue d'peindre des toiles avec des mots On a fait d'l'art avec d'la merde T'sais babe c'est l'game, ils vont t'sourire avant d't'la mettre Le Keuj' sur Netflix bientôt sur Canal Eh rentre chez oi't parce que j'veux pas y' ta bitch sur l'canap' On gère des J'baisse la tête, j'fais plus de bif' que c'que mon père à fait Même quand il nous manquait quelque chose, on l'savait pas Voilà c'que mon père a fait Elevé par des lions, j'ai appris seul à voler comme un aigle La frontière est fine entre C'est un génie ou un Âne La nuit tombe et les vagues s'agitent J'brille malgré moi comme les reflets d'la nacre Baby veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Babe veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Qu'est ce qu'on va faire du temps qui reste Laisse faire tu peux tant qu'il rêve J'vais pas parler c'est mieux j'le rec Un jour ta vie tient à un couplet qu'il faut pas qu'tu rates Eh, parce que les tits-pe ils veulent de l'oseille, ils veulent vivre du Rap Eh, t'sais pas c'que tu rates On a d'la chance pourquoi tu râles ? Belek y'a du seille-o à en oublier pourquoi tu rappes On inspire, on bosse, pourquoi tu rages ? J'ai prit des risques babe pour te ramener du seille-o et d'la cons' Le jour où on regrettera on s'ra cons Aujourd'hui c'est ça-comme, demain on sera bons T'es love de c'que t'as créé J'fais manger les pique-assiettes NBOW, Pygmalion Fuck off dédicacé La j'ride pétasse Le Keuj' c'est pas Bassem c'est pas Bassem Pygmalion Baby veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil Babe veut savoir what we've got Le Keuj' How we call it ? Là j'suis busy, j'dois décaler L'tarpé' est ferme, j'sors les canines Pendant qu'ma bitch promène les caniches J'veux d'la Cali' J'sors le calibre West Coast Fils de Khalil</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Eh, fuck off Tiens eh, prends-les Demain matin, on reprend la route, fais gaffe aux flashs, y a l'Subaru eh, eh Normalement, à cette cadence, j'm'étouffe, la nuit sera longue, j'mets tout J'vais d'voir briller jusqu'à c'que j'm'éteigne Il nous reste juste assez d'essence et on d'vrait filmer ça J'en ai fait un bum-al, j'en n'ai jamais fini l'message Elles étaient trop vraies pour qu'j'ai à refair les phases Et fuck le buzz sinon, y a l'cqus-J', qu'une actrice célèbre tiens J'tais qu'un enfant en quête de sens, ouvre la bouteille d'vant Hiroshima, mon amour eh C'est juste parce que tu t'emmerdes qu'tu veux connaitre ta femme Clope S'tu veux, on partage, il m'reste la fin, si c'était la dernière phase T'sais qu'c'est aux aurores que l'sommeil se pointe Bébé, j'bosse, le game, faut l'baiser comme il se doit Lui, il voulait juste te revoir Là, c'est pas B.B. Jacques, c'est juste moi Il faut qu'j'ferme les yeuz, qu'j'me souvienne C'est quand même fou ces phases qui sortent C'est dingue Sept K, trente minutes en août 22 Aujourd'hui, on inaugure les magasins des marques qu'on porte sur les avenues dont les bourges raffolent Babe, j't'emmène loin du fake, du Burj Khalifa eh, loin du fake, du Burj Khalifa Loin du fake, du Burj Khalifa Loin du fake, du Burj Khalifa, eh You might also like Elle m'a dit fuck j'ai dit no love No love J'ai pas pu m'faire aux normes, fais rayonner le rap FR, fais-lui honneur C'était hiérarchique, c'était féodal C'était féodal Tout l'bordel fait au Dams, prends l'bus, près d'Réaumur, là où on s'embrassait, près d'l'abribus Rendez-vous au terminal juste après c't album interminable, dors jusqu'au terminus Rendez-vous au terminal juste après c't album interminable, dors jusqu'au terminus Eh, eh, eh Depuis Bastille, on parle déterminisme, j'aurais mieux fait de chanter comme Mylène On fera plus de sous qu'en grattant comme Milan NBOW, tour d'Nice jusqu'à Bruxelles, ma bitch veut vivre heureuse J'suis l'artiste, j'suis l'producteur, j'suis Wejdene, j'suis Feuneu C'était éphémère, ça a fané Est-ce qu'tu voulais faire c't effet là ? Mais non C'était éphémère, ça a fané Est-ce qu'tu voulais faire c't effet là ? Eh, let's go Y a l'Giz à la loop, j'en prends dix à la louche Tu peux m'prendre à la lettre, faut pas retoucher ma lead fuck off Y a l'Giz à la loop, j'en prends dix à la louche Tu peux m'prendre à la lettre, faut pas retoucher ma lead On s'retrouve au terminal juste après c't album interminable Dors jusqu'au terminus Rendez-vous au terminal après c't album interminable Dors jusqu'au terminus NBOW</t>
+          <t>Eh, fuck off Tiens eh, prends-les Demain matin, on reprend la route, fais gaffe aux flashs, y a l'Subaru eh, eh Normalement, à cette cadence, j'm'étouffe, la nuit sera longue, j'mets tout J'vais d'voir briller jusqu'à c'que j'm'éteigne Il nous reste juste assez d'essence et on d'vrait filmer ça J'en ai fait un bum-al, j'en n'ai jamais fini l'message Elles étaient trop vraies pour qu'j'ai à refair les phases Et fuck le buzz sinon, y a l'cqus-J', qu'une actrice célèbre tiens J'tais qu'un enfant en quête de sens, ouvre la bouteille d'vant Hiroshima, mon amour eh C'est juste parce que tu t'emmerdes qu'tu veux connaitre ta femme Clope S'tu veux, on partage, il m'reste la fin, si c'était la dernière phase T'sais qu'c'est aux aurores que l'sommeil se pointe Bébé, j'bosse, le game, faut l'baiser comme il se doit Lui, il voulait juste te revoir Là, c'est pas B.B. Jacques, c'est juste moi Il faut qu'j'ferme les yeuz, qu'j'me souvienne C'est quand même fou ces phases qui sortent C'est dingue Sept K, trente minutes en août 22 Aujourd'hui, on inaugure les magasins des marques qu'on porte sur les avenues dont les bourges raffolent Babe, j't'emmène loin du fake, du Burj Khalifa eh, loin du fake, du Burj Khalifa Loin du fake, du Burj Khalifa Loin du fake, du Burj Khalifa, eh Elle m'a dit fuck j'ai dit no love No love J'ai pas pu m'faire aux normes, fais rayonner le rap FR, fais-lui honneur C'était hiérarchique, c'était féodal C'était féodal Tout l'bordel fait au Dams, prends l'bus, près d'Réaumur, là où on s'embrassait, près d'l'abribus Rendez-vous au terminal juste après c't album interminable, dors jusqu'au terminus Rendez-vous au terminal juste après c't album interminable, dors jusqu'au terminus Eh, eh, eh Depuis Bastille, on parle déterminisme, j'aurais mieux fait de chanter comme Mylène On fera plus de sous qu'en grattant comme Milan NBOW, tour d'Nice jusqu'à Bruxelles, ma bitch veut vivre heureuse J'suis l'artiste, j'suis l'producteur, j'suis Wejdene, j'suis Feuneu C'était éphémère, ça a fané Est-ce qu'tu voulais faire c't effet là ? Mais non C'était éphémère, ça a fané Est-ce qu'tu voulais faire c't effet là ? Eh, let's go Y a l'Giz à la loop, j'en prends dix à la louche Tu peux m'prendre à la lettre, faut pas retoucher ma lead fuck off Y a l'Giz à la loop, j'en prends dix à la louche Tu peux m'prendre à la lettre, faut pas retoucher ma lead On s'retrouve au terminal juste après c't album interminable Dors jusqu'au terminus Rendez-vous au terminal après c't album interminable Dors jusqu'au terminus NBOW</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dignity and culture Encore une nuit qu'j'ai passé dans l'doute C'est comment quand ça tient qu'à un morceau pour estomper nos dettes ? L'aube pointe le bout d'son nez Fuck j'ai pas fini mon seize Laisse moi 17 secondes avant la prise Faut qu'j'écrase mon sop J'ai fait l'choix d'être seul Quand j'ai refusé d'écraser mon sosse Le tout c'est pas d'le planter mais d'retirer l'sabre J'ai jeté mes Cortez à la mer Pour m'en souvenir j'en ai gardé l'sable Il m'reste une balle mais plusieurs cibles Ce soir un billet a refusé d'quitter ma poche Les mots ont mis des années avant d'sortir d'ma bouche Le plus dur c'est pas d'tourner mais d'réécrire la page Porté par l'vent qui souffle sur des feuilles d'platane J'ai entendu qu'quelqu'un souffre Peut-être qu'c'est quelqu'un qui sait Qu'c'est moins évident avec les distances J'suis fait pour mettre des mots sur c'que Mon équipe compose dans la tristesse Laisse reposer l'whisky dans un verre en cristal You might also like La semaine dernière j'ai craqué J'me suis cru messager d'un propos christique J'me retiens d'lâcher des fuck off fuck off Ce soir un billet a refusé d'quitter ma poche Les mots ont pris des années avant d'sortir d'ma bouche Le plus dur c'est pas d'tourner mais d'réécrire la page Eh La porte est grande ouverte si tu veux refaire ta vie Demain si ça pète plus que prévu J'fais d'la Hollande ma terre d'asile J'rallume une fusée, avec une fusée Auteur d'la musique qu'elle réécoute avec son ex Fuck 2006, c'est la guerre au de-blè, j'arrive en retard en sixième J'croise un mec bizarre Mais qu'Dieu bénisse les mecs bizarres, j'l'ai pas revu Mais j'lui souhaite plein d'bonheur C'est important d'se dire des choses banales bah ouai T'sais, moi de base, j'voulais pas grand chose rien Jacques, auteur d'un ouvrage qu'très peu connaissent LNSC j'le vends pas j'le préconise Personne m'a vu venir comme Ligonès Dans la nuit du premier au deux J'ai gratté pour transformer une carte de visite en un triple opus Fuck off, j'les dépasse avec une gov' d'occas' B.B. Jacques, un homme, un artiste, une entreprise Ce soir, j'ai bu, j'vois des keufs partout J'voulais jouer cartes sur table, j'ai vu l'bluff partout J'vois des reufs tenir des bêtes par l'bout Des keufs tenir des reufs par l'cou J'peux plus voir mes reufs par terre On zonait ensemble, y avait des meufs partout Ce soir, j'ai bu, j'vois des meufs partout Fuck, j'voulais jouer cartes sur table, j'ai vu l'bluff partout</t>
+          <t>Dignity and culture Encore une nuit qu'j'ai passé dans l'doute C'est comment quand ça tient qu'à un morceau pour estomper nos dettes ? L'aube pointe le bout d'son nez Fuck j'ai pas fini mon seize Laisse moi 17 secondes avant la prise Faut qu'j'écrase mon sop J'ai fait l'choix d'être seul Quand j'ai refusé d'écraser mon sosse Le tout c'est pas d'le planter mais d'retirer l'sabre J'ai jeté mes Cortez à la mer Pour m'en souvenir j'en ai gardé l'sable Il m'reste une balle mais plusieurs cibles Ce soir un billet a refusé d'quitter ma poche Les mots ont mis des années avant d'sortir d'ma bouche Le plus dur c'est pas d'tourner mais d'réécrire la page Porté par l'vent qui souffle sur des feuilles d'platane J'ai entendu qu'quelqu'un souffre Peut-être qu'c'est quelqu'un qui sait Qu'c'est moins évident avec les distances J'suis fait pour mettre des mots sur c'que Mon équipe compose dans la tristesse Laisse reposer l'whisky dans un verre en cristal La semaine dernière j'ai craqué J'me suis cru messager d'un propos christique J'me retiens d'lâcher des fuck off fuck off Ce soir un billet a refusé d'quitter ma poche Les mots ont pris des années avant d'sortir d'ma bouche Le plus dur c'est pas d'tourner mais d'réécrire la page Eh La porte est grande ouverte si tu veux refaire ta vie Demain si ça pète plus que prévu J'fais d'la Hollande ma terre d'asile J'rallume une fusée, avec une fusée Auteur d'la musique qu'elle réécoute avec son ex Fuck 2006, c'est la guerre au de-blè, j'arrive en retard en sixième J'croise un mec bizarre Mais qu'Dieu bénisse les mecs bizarres, j'l'ai pas revu Mais j'lui souhaite plein d'bonheur C'est important d'se dire des choses banales bah ouai T'sais, moi de base, j'voulais pas grand chose rien Jacques, auteur d'un ouvrage qu'très peu connaissent LNSC j'le vends pas j'le préconise Personne m'a vu venir comme Ligonès Dans la nuit du premier au deux J'ai gratté pour transformer une carte de visite en un triple opus Fuck off, j'les dépasse avec une gov' d'occas' B.B. Jacques, un homme, un artiste, une entreprise Ce soir, j'ai bu, j'vois des keufs partout J'voulais jouer cartes sur table, j'ai vu l'bluff partout J'vois des reufs tenir des bêtes par l'bout Des keufs tenir des reufs par l'cou J'peux plus voir mes reufs par terre On zonait ensemble, y avait des meufs partout Ce soir, j'ai bu, j'vois des meufs partout Fuck, j'voulais jouer cartes sur table, j'ai vu l'bluff partout</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Est-ce le temps que j'perds ou le temps qui m'perd ? Quel est l'sens de ma quête, est-ce la quête d'mes sens ? Sans cesse tant d'stress, c'est l'blues qui opère Est-ce-qu'après l'averse, l'arc-en-ciel s'répand ? Est-ce le temps que j'perds ou le temps qui m'perd ? Quel est l'sens de ma quête, st-ce la quête d'mes sns ? Sans cesse tant d'stress, c'est l'blues qui opère Est-ce-qu'après Bérénice l'arc-en-ciel s'répand ?You might also like</t>
+          <t>Est-ce le temps que j'perds ou le temps qui m'perd ? Quel est l'sens de ma quête, est-ce la quête d'mes sens ? Sans cesse tant d'stress, c'est l'blues qui opère Est-ce-qu'après l'averse, l'arc-en-ciel s'répand ? Est-ce le temps que j'perds ou le temps qui m'perd ? Quel est l'sens de ma quête, st-ce la quête d'mes sns ? Sans cesse tant d'stress, c'est l'blues qui opère Est-ce-qu'après Bérénice l'arc-en-ciel s'répand ?</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Check Eh J'repense au regard qu'tu lâches, les yeux vert comme l'maillot des Celtics Viens, on s'casse, on r'part avec la teille Prends sept balles, on rentre éclatés Faut qu'j'mette la distance Fermes les yeuz, tu verras, c'est presque beau Tu valais p't-être le risque, il t'fallait p't-être le RIB T'as vu, tout ça, c'était pas très safe Les bigos en battrie faible Bérénice, st-ce vraiment durable ? C'est d'l'art, est-ce vraiment du rap ? Il était fou l'rythme, claque la porte, on part s'promener dès qu'la ville s'ra vide J'sais, tu dois t'lever à neuf, d'ailleurs l'appart que tu voulais, j'l'ai fais r'faire à neuf Histoire d'y baiser une autre T'étais belle mais tellement fausse Est-ce que t'as pris l'temps d'écouter c'morceau ? J'aurais pu t'dédier l'bum-al mais j'l'ai même pas fait Fuck off Deux-cent vingt-deux nuits plus tard sous l'même plafond Cinquante-cinq sons après, pas d'réponse J'm'étais juré qu' j'en parlerais pas Viens, on baise, on s'tourne le dos Il reste le sable de Zandvoort dans un loft Tout l'monde écoutera c't hiver c'que j'ai écrit c't été Sous un ciel bleu extatique Regarde, y a la ville qui brille dans l'reflet du Amstel Viens, on r'parle de tout ça à dix heures autour d'un thé Pas à quatre sous l'effet d'la tise Les heures passent et l'parc se vide J'étais à la recherche d'la vertu, inspiré par l'ce-vi Les appartements s'éteignent et l'bar aussi J'veux plus vivre comme avant, il faut qu'je change de ville L'équipe grandit, j'me sens toujours aussi seul You might also like Des étoiles décorent le ciel Rendez-vous dans l'sud d'l'Italie ou lnord d'l'Europe Soir-ce, j'ai trois sacs que j'traîne partout J'lui ai dit Fuck off, c'était trop tard pour lui dire pardon Des étoiles décorent le ciel Rendez-vous dans l'sud d'l'Italie ou lnord d'l'Europe Soir-ce, j'ai trois sacs que j'traîne partout J'lui ai dit Fuck off, c'était trop tard pour lui dire pardon Elle a senti qu'fallait y aller, j'ai même pas demandé d'partir On s'est jeté l'un sur l'autre, des grands crus à peine entamés trainaient au sol Gère ton flex', bien sûr qu'j'ai pris des sommes Sinon, au pire, tu restes et on r'garde le train partir J'ai r'mis mon survêt' beige, j'roule un pét' J'vais faire un tour dehors NBOW, j'l'ai fini en faisant l'tour d'l'Europe Ma bitch est en retard, elle est quée-blo dans l'trafic J'suis dans l'est de 'dam, là où les bât' ressemblent à ceux en face d'Old Trafford Chaque fois qu'j'finis un bum-al j'ai l'cafard J'voulais écrire, j'ai dû passer ma soirée à r'garder les passantes J'lève les yeux, j'suis dans l'centre de 'dam Y a deux étoiles autour d'la lune, baby, il t'en reste autour d'la lèvre Troisième album, il m'faut une couronne autour d'la tête Elle m'a dit L'ques-J', il faut qu'tu souffles, j'lui ai dit Faut qu'je rendre vingt titres On a soulevé les culs, j'lui ai dit Fuck off, c'était trop tard pour dire pardon Des étoiles décorent le ciel Rendez-vous dans l'sud d'l'Italie ou lnord d'l'Europe Soir-ce, j'ai trois sacs que j'traîne partout J'lui ai dit Fuck off, c'était trop tard pour lui dire pardon Des étoiles décorent le ciel Rendez-vous dans l'sud d'l'Italie ou lnord d'l'Europe Soir-ce, j'ai trois sacs que j'traîne partout J'lui ai dit Fuck off, c'était trop tard pour lui dire pardon Quand les étoiles décorent le ciel Rendez-vous dans lsud d'l'Italie ou lnord d'l'Europe Soir ce, j'ai pris trois sacs et j'traîne partout J'lui ai dit Fuck off, c'est trop tard pour dire pars</t>
+          <t>Check Eh J'repense au regard qu'tu lâches, les yeux vert comme l'maillot des Celtics Viens, on s'casse, on r'part avec la teille Prends sept balles, on rentre éclatés Faut qu'j'mette la distance Fermes les yeuz, tu verras, c'est presque beau Tu valais p't-être le risque, il t'fallait p't-être le RIB T'as vu, tout ça, c'était pas très safe Les bigos en battrie faible Bérénice, st-ce vraiment durable ? C'est d'l'art, est-ce vraiment du rap ? Il était fou l'rythme, claque la porte, on part s'promener dès qu'la ville s'ra vide J'sais, tu dois t'lever à neuf, d'ailleurs l'appart que tu voulais, j'l'ai fais r'faire à neuf Histoire d'y baiser une autre T'étais belle mais tellement fausse Est-ce que t'as pris l'temps d'écouter c'morceau ? J'aurais pu t'dédier l'bum-al mais j'l'ai même pas fait Fuck off Deux-cent vingt-deux nuits plus tard sous l'même plafond Cinquante-cinq sons après, pas d'réponse J'm'étais juré qu' j'en parlerais pas Viens, on baise, on s'tourne le dos Il reste le sable de Zandvoort dans un loft Tout l'monde écoutera c't hiver c'que j'ai écrit c't été Sous un ciel bleu extatique Regarde, y a la ville qui brille dans l'reflet du Amstel Viens, on r'parle de tout ça à dix heures autour d'un thé Pas à quatre sous l'effet d'la tise Les heures passent et l'parc se vide J'étais à la recherche d'la vertu, inspiré par l'ce-vi Les appartements s'éteignent et l'bar aussi J'veux plus vivre comme avant, il faut qu'je change de ville L'équipe grandit, j'me sens toujours aussi seul Des étoiles décorent le ciel Rendez-vous dans l'sud d'l'Italie ou lnord d'l'Europe Soir-ce, j'ai trois sacs que j'traîne partout J'lui ai dit Fuck off, c'était trop tard pour lui dire pardon Des étoiles décorent le ciel Rendez-vous dans l'sud d'l'Italie ou lnord d'l'Europe Soir-ce, j'ai trois sacs que j'traîne partout J'lui ai dit Fuck off, c'était trop tard pour lui dire pardon Elle a senti qu'fallait y aller, j'ai même pas demandé d'partir On s'est jeté l'un sur l'autre, des grands crus à peine entamés trainaient au sol Gère ton flex', bien sûr qu'j'ai pris des sommes Sinon, au pire, tu restes et on r'garde le train partir J'ai r'mis mon survêt' beige, j'roule un pét' J'vais faire un tour dehors NBOW, j'l'ai fini en faisant l'tour d'l'Europe Ma bitch est en retard, elle est quée-blo dans l'trafic J'suis dans l'est de 'dam, là où les bât' ressemblent à ceux en face d'Old Trafford Chaque fois qu'j'finis un bum-al j'ai l'cafard J'voulais écrire, j'ai dû passer ma soirée à r'garder les passantes J'lève les yeux, j'suis dans l'centre de 'dam Y a deux étoiles autour d'la lune, baby, il t'en reste autour d'la lèvre Troisième album, il m'faut une couronne autour d'la tête Elle m'a dit L'ques-J', il faut qu'tu souffles, j'lui ai dit Faut qu'je rendre vingt titres On a soulevé les culs, j'lui ai dit Fuck off, c'était trop tard pour dire pardon Des étoiles décorent le ciel Rendez-vous dans l'sud d'l'Italie ou lnord d'l'Europe Soir-ce, j'ai trois sacs que j'traîne partout J'lui ai dit Fuck off, c'était trop tard pour lui dire pardon Des étoiles décorent le ciel Rendez-vous dans l'sud d'l'Italie ou lnord d'l'Europe Soir-ce, j'ai trois sacs que j'traîne partout J'lui ai dit Fuck off, c'était trop tard pour lui dire pardon Quand les étoiles décorent le ciel Rendez-vous dans lsud d'l'Italie ou lnord d'l'Europe Soir ce, j'ai pris trois sacs et j'traîne partout J'lui ai dit Fuck off, c'est trop tard pour dire pars</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Let's go Taille patron t'sais pas c'qu'ça coûte, le feu qu'j'crache me brûle la bouche Si la naïveté avait une limite, ce s'rait un connard qui chante Eh vive l'amour Faut qu'j'm'ouvre au monde, envie d'm'enfermer dans un tel-hô et près d'la mer, pas trop loin d'la mienne Pygmalion dans le lit, j't'ai tendu la main, j'sais c'que ça fait quand personne la tend J'vais baiser l'pe-ra au moment où personne l'attend, que Dieu m'facilite J'rfuse de m'plaindre du manqu, j'supporterai toutes les plaintes du monde Ils comprendront plus tard, c'est comme Van Gogh, Les fleurs du Mal L'autre soir, j'ai trouvé l'sommeil par miracle à quatre du mat' Tu sais, j'gratte depuis mes seize, j'me sens vivre d'puis mes scènes Quand j'aurai d'trop d'cash à déclarer j'f'rai l'mécène donc j'calme l'avance J'freine les scènes, il m'en reste quarante, c'est l'cques-J', enculé, d'la qualité j'reste garant Mixité, hein, on est dans les Aïcha et les Garance, 2k24, pas d'carence Celle-ci c'est pour mes naufragés, éloquent comme tes yeuz' par la puissance de mes phases Elles sont belles nos femmes, c'est ton charme, c'est ta fêlure T'as pas tourné la page t'l'as jamais lue Pétasse viens on ride, on va niquer d'l'oseille si ça t'fait rire Envie d'fuite, mets tout dans la gov', mets la gov' sur un ferry Aux portes qu'j'ai ouvertes et qui menaient dans l'vide Le bruit des talons m'a fait fuir le VIP Quelques couplets pour refaire nos vies, faut qu'j'aille voir le vide J'assume comme un Anatoli à Tchernobyl Est-ce que c'est la vie qui va avec qui attire nos bitches ? Hein ? Poétiquement incorrect, ah bébé, j'vais rouler un cône, elle avait envie de m'rendre accro J'fais des sous, quand tu viens m'voir, t'es pas chez LCL fils de pute Poétiquement incorrect, est-c'que j'dois encore enterrer un collègue ? Pygmalion, j'aurais pu rapper un téra, tiens maman, un terrain Merci d'pas avoir boosté à ta façon, j'sais de base on pouvait pas vivre nos rêves On n'était pas chez nous comment tu voulais qu'on fixe nos règles ? J'refuse de nous condamner à suivre celles des autres Les traîtres ça m'fait sourire, c'est même plus qu'ça m'désole Regarde, y a toujours plus de soleil dans l'ciel des autres You might also like Elle casse plus qu'un buzz, elle danse pour les sommes Elle ment plus qu'un peu, vraiment beaucoup plus qu'les hommes Elle casse plus qu'un buzz, elle danse pour les sommes Elle ment plus qu'un peu, vraiment beaucoup plus qu'les hommes J'avais trop d'amour pour qu'ça rentre dans ta chatte, bébé cadeau, je sais qu'ça jacte Brûle un piano si j'm'emmerde et j'veux qu'ça shine J'ai eu l'mérite de déranger sans vouloir qu'ça gêne J'aimerais vous prêter mes yeuz' pour qu'vous voyiez avec Eh, ma gueule, faut rendre l'amour à la veuve et la vue à l'aveugle Là on donne tout, on f'ra les comptes à la fin Le soleil se lève sur le Von Del, j'suis toujours à la f'nêtre Depuis qu'j'envisage le million, j'ai l'impression d'l'avoir J'étais prêt à rendre l'amour qu'on m'a donné quitte à perdre la voix C'était moi l'espoir, comment tu veux qu'j'perde la foi ? Là j'suis entre Paris et Dam', trop d'charisme pour qu'ils puissent voir les failles P'tit Pays comme Gaël mais y a trop d'monde pour voir les fans Nostalgiques, on r'gardait ricocher l'galet, elles étaient belles nos galères, le soleil du Sud me manque J'vais rapper comme si personne m'écoute et qu'tout l'monde me ment Personne m'écoute et qu'tout l'monde me ment J'étais pas là, y a qu'l'absence qui créé le manque, il m'fallait une parenthèse donc bienvenue C'est moi l'artiste qui créé ce monde, là c'est pas l'cques-J' Est-c'qu'tu connais l'homme, celui qui a créé le monstre Pygmalion ? J'relis l'histoire de celui qui a créé le monde Avant d'être des opps, ils étaient des nôtres T'es sûr c'est moi qui chante, c'est pas juste les mots ? J'ai pas d'opinion mais il faut qu'j'la lead mais demain si y a pas d'bum-al, y a qui ? J'sais c'est chacun pour sa gueule mais qu'est dev'nu l'frère d'Hakim ? J'les baise à 22, j'suis même pas au taquet, elle veut danser sur Taki, eh Elle casse plus qu'un buzz, elle danse pour les sommes Elle ment plus qu'un peu, vraiment beaucoup plus qu'les hommes Elle casse plus qu'un buzz, elle danse pour les sommes Elle ment plus qu'un peu, vraiment beaucoup plus qu'les hommes Les traîtres ça m'fait sourire, c'est même plus qu'ça m'désole Y a toujours plus d'soleil dans l'ciel des autres Les traîtres, ça m'fait sourire, ça m'désole Y a toujours plus d'soleil dans l'ciel des autres Y a toujours plus d'soleil dans l'ciel des autres</t>
+          <t>Let's go Taille patron t'sais pas c'qu'ça coûte, le feu qu'j'crache me brûle la bouche Si la naïveté avait une limite, ce s'rait un connard qui chante Eh vive l'amour Faut qu'j'm'ouvre au monde, envie d'm'enfermer dans un tel-hô et près d'la mer, pas trop loin d'la mienne Pygmalion dans le lit, j't'ai tendu la main, j'sais c'que ça fait quand personne la tend J'vais baiser l'pe-ra au moment où personne l'attend, que Dieu m'facilite J'rfuse de m'plaindre du manqu, j'supporterai toutes les plaintes du monde Ils comprendront plus tard, c'est comme Van Gogh, Les fleurs du Mal L'autre soir, j'ai trouvé l'sommeil par miracle à quatre du mat' Tu sais, j'gratte depuis mes seize, j'me sens vivre d'puis mes scènes Quand j'aurai d'trop d'cash à déclarer j'f'rai l'mécène donc j'calme l'avance J'freine les scènes, il m'en reste quarante, c'est l'cques-J', enculé, d'la qualité j'reste garant Mixité, hein, on est dans les Aïcha et les Garance, 2k24, pas d'carence Celle-ci c'est pour mes naufragés, éloquent comme tes yeuz' par la puissance de mes phases Elles sont belles nos femmes, c'est ton charme, c'est ta fêlure T'as pas tourné la page t'l'as jamais lue Pétasse viens on ride, on va niquer d'l'oseille si ça t'fait rire Envie d'fuite, mets tout dans la gov', mets la gov' sur un ferry Aux portes qu'j'ai ouvertes et qui menaient dans l'vide Le bruit des talons m'a fait fuir le VIP Quelques couplets pour refaire nos vies, faut qu'j'aille voir le vide J'assume comme un Anatoli à Tchernobyl Est-ce que c'est la vie qui va avec qui attire nos bitches ? Hein ? Poétiquement incorrect, ah bébé, j'vais rouler un cône, elle avait envie de m'rendre accro J'fais des sous, quand tu viens m'voir, t'es pas chez LCL fils de pute Poétiquement incorrect, est-c'que j'dois encore enterrer un collègue ? Pygmalion, j'aurais pu rapper un téra, tiens maman, un terrain Merci d'pas avoir boosté à ta façon, j'sais de base on pouvait pas vivre nos rêves On n'était pas chez nous comment tu voulais qu'on fixe nos règles ? J'refuse de nous condamner à suivre celles des autres Les traîtres ça m'fait sourire, c'est même plus qu'ça m'désole Regarde, y a toujours plus de soleil dans l'ciel des autres Elle casse plus qu'un buzz, elle danse pour les sommes Elle ment plus qu'un peu, vraiment beaucoup plus qu'les hommes Elle casse plus qu'un buzz, elle danse pour les sommes Elle ment plus qu'un peu, vraiment beaucoup plus qu'les hommes J'avais trop d'amour pour qu'ça rentre dans ta chatte, bébé cadeau, je sais qu'ça jacte Brûle un piano si j'm'emmerde et j'veux qu'ça shine J'ai eu l'mérite de déranger sans vouloir qu'ça gêne J'aimerais vous prêter mes yeuz' pour qu'vous voyiez avec Eh, ma gueule, faut rendre l'amour à la veuve et la vue à l'aveugle Là on donne tout, on f'ra les comptes à la fin Le soleil se lève sur le Von Del, j'suis toujours à la f'nêtre Depuis qu'j'envisage le million, j'ai l'impression d'l'avoir J'étais prêt à rendre l'amour qu'on m'a donné quitte à perdre la voix C'était moi l'espoir, comment tu veux qu'j'perde la foi ? Là j'suis entre Paris et Dam', trop d'charisme pour qu'ils puissent voir les failles P'tit Pays comme Gaël mais y a trop d'monde pour voir les fans Nostalgiques, on r'gardait ricocher l'galet, elles étaient belles nos galères, le soleil du Sud me manque J'vais rapper comme si personne m'écoute et qu'tout l'monde me ment Personne m'écoute et qu'tout l'monde me ment J'étais pas là, y a qu'l'absence qui créé le manque, il m'fallait une parenthèse donc bienvenue C'est moi l'artiste qui créé ce monde, là c'est pas l'cques-J' Est-c'qu'tu connais l'homme, celui qui a créé le monstre Pygmalion ? J'relis l'histoire de celui qui a créé le monde Avant d'être des opps, ils étaient des nôtres T'es sûr c'est moi qui chante, c'est pas juste les mots ? J'ai pas d'opinion mais il faut qu'j'la lead mais demain si y a pas d'bum-al, y a qui ? J'sais c'est chacun pour sa gueule mais qu'est dev'nu l'frère d'Hakim ? J'les baise à 22, j'suis même pas au taquet, elle veut danser sur Taki, eh Elle casse plus qu'un buzz, elle danse pour les sommes Elle ment plus qu'un peu, vraiment beaucoup plus qu'les hommes Elle casse plus qu'un buzz, elle danse pour les sommes Elle ment plus qu'un peu, vraiment beaucoup plus qu'les hommes Les traîtres ça m'fait sourire, c'est même plus qu'ça m'désole Y a toujours plus d'soleil dans l'ciel des autres Les traîtres, ça m'fait sourire, ça m'désole Y a toujours plus d'soleil dans l'ciel des autres Y a toujours plus d'soleil dans l'ciel des autres</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J't'ai prise pour tes pétales pétales Tout l'reste m'est égal m'est égal J't'ai prise pour tes pétales Le poids des sacrifices Eh Nuit blanche comme les pierres de Sète De Sète Enfance dans l'quartier en bord de Seine Café serré, une pierre deux coups J'ai qu'ma plume et ma paire de couilles J'voulais centrer comme Bckham Té-cla l'pilon d'Faf dans l'P4 J'étais personne, ell était déjà en pétard Y a mon mégot qui crame Rose, épines, pétales Peuf, guet-apens, bolide pé-ta Enchaine rendez-vous pas d'bédave NBOW NBOW, NBOW Un boss, ça bouffe tout seul J'ai fait trois fois l'tour du Père-Lachaise J'passe à l'épic', on m'rappelle le père de Yassine Les bums-al, ils vont pas s'faire tout seuls Bah nan J'rentre à 22, j'ressors vers 12 J'rentre dans l'stud' en juin, j'ressors vers août You might also like J'te laisse pour tes épines, j't'ai prise pour tes pétales J'te traite comme une wifey Wifey, tout l'reste m'est égal J'te laisse pour tes épines, j't'ai prise pour tes pétales Tes pétales J'te traite comme une wifey, tout l'reste m'est égal Fuck off, c'est moi l'GOAT, le reste, c'est juste des chèvres Fuck off Disque dur, on n'a jamais vu autant d'qualité dans l'déchet AC dans un 4x4, canicule dans l'désert, l'cques-Ja 4k, l'poison est dans sa pussy ou dans l'dessert Putain, il restait d'la poussière sur l'diesel Babe, j't'ai quand même pas fait tout ça que pour t'baiser Bah si, haha On a brûlé l'canapé, il reste des cendres, j'vais tuer l'buzz un beau jour Tu té-mon juste parce que d'autres descendent J'te laisse pour tes épines, j't'ai prise pour tes pétales J'te traite comme une wifey Wifey, tout l'reste m'est égal J'te laisse pour tes épines, j't'ai prise pour tes pétales Tes pétales J'te traite comme une wifey, tout l'reste m'est égal J't'ai prise pour les pétales et laissé pour les épines J'repense au premier date, elle était mieux qu'sa copine Dis-toi que ton bikini me rend cynique Dix fois, on m'a dit fini, j'suis là pour l'infini Cancel par qui ? Par des rats M'écoute plus jamais ou j'te coupe l'oreille et bon débarras J'insulte pas, j'articule Ton nombre de followers, c'est ta matricule Vous nous cherchez les poux dans l'eczéma Les mêmes croyaient à la Coupe sans Benzema Les sacrifices véritables Les enfants grandissent, les adultes haïssent, tous ne guérissent pas J'te traite comme une wifey wifey, wifey Fuck off fuck off, fuck off, enfoiré J'te laisse pour tes épines, j't'ai prise pour tes pétales J'te traite comme une wifey Wifey, tout l'reste m'est égal J'te laisse pour tes épines, j't'ai prise pour tes pétales Tes pétales J'te traite comme une wifey, tout l'reste m'est égal J'te laisse pour tes épines Fuck off, j't'ai prise pour les pétales Parce que c'est dur, mais qu'on a toujours été les meilleurs Les meilleurs, on l'a toujours été, Oxmo Puccino et B.B. Jacques, papi1</t>
+          <t>J't'ai prise pour tes pétales pétales Tout l'reste m'est égal m'est égal J't'ai prise pour tes pétales Le poids des sacrifices Eh Nuit blanche comme les pierres de Sète De Sète Enfance dans l'quartier en bord de Seine Café serré, une pierre deux coups J'ai qu'ma plume et ma paire de couilles J'voulais centrer comme Bckham Té-cla l'pilon d'Faf dans l'P4 J'étais personne, ell était déjà en pétard Y a mon mégot qui crame Rose, épines, pétales Peuf, guet-apens, bolide pé-ta Enchaine rendez-vous pas d'bédave NBOW NBOW, NBOW Un boss, ça bouffe tout seul J'ai fait trois fois l'tour du Père-Lachaise J'passe à l'épic', on m'rappelle le père de Yassine Les bums-al, ils vont pas s'faire tout seuls Bah nan J'rentre à 22, j'ressors vers 12 J'rentre dans l'stud' en juin, j'ressors vers août J'te laisse pour tes épines, j't'ai prise pour tes pétales J'te traite comme une wifey Wifey, tout l'reste m'est égal J'te laisse pour tes épines, j't'ai prise pour tes pétales Tes pétales J'te traite comme une wifey, tout l'reste m'est égal Fuck off, c'est moi l'GOAT, le reste, c'est juste des chèvres Fuck off Disque dur, on n'a jamais vu autant d'qualité dans l'déchet AC dans un 4x4, canicule dans l'désert, l'cques-Ja 4k, l'poison est dans sa pussy ou dans l'dessert Putain, il restait d'la poussière sur l'diesel Babe, j't'ai quand même pas fait tout ça que pour t'baiser Bah si, haha On a brûlé l'canapé, il reste des cendres, j'vais tuer l'buzz un beau jour Tu té-mon juste parce que d'autres descendent J'te laisse pour tes épines, j't'ai prise pour tes pétales J'te traite comme une wifey Wifey, tout l'reste m'est égal J'te laisse pour tes épines, j't'ai prise pour tes pétales Tes pétales J'te traite comme une wifey, tout l'reste m'est égal J't'ai prise pour les pétales et laissé pour les épines J'repense au premier date, elle était mieux qu'sa copine Dis-toi que ton bikini me rend cynique Dix fois, on m'a dit fini, j'suis là pour l'infini Cancel par qui ? Par des rats M'écoute plus jamais ou j'te coupe l'oreille et bon débarras J'insulte pas, j'articule Ton nombre de followers, c'est ta matricule Vous nous cherchez les poux dans l'eczéma Les mêmes croyaient à la Coupe sans Benzema Les sacrifices véritables Les enfants grandissent, les adultes haïssent, tous ne guérissent pas J'te traite comme une wifey wifey, wifey Fuck off fuck off, fuck off, enfoiré J'te laisse pour tes épines, j't'ai prise pour tes pétales J'te traite comme une wifey Wifey, tout l'reste m'est égal J'te laisse pour tes épines, j't'ai prise pour tes pétales Tes pétales J'te traite comme une wifey, tout l'reste m'est égal J'te laisse pour tes épines Fuck off, j't'ai prise pour les pétales Parce que c'est dur, mais qu'on a toujours été les meilleurs Les meilleurs, on l'a toujours été, Oxmo Puccino et B.B. Jacques, papi1</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Check Fuck off Cques-Ja c'est un personnage askip Hey J'fais un bum-al sur que dalle parce que de base y avait même pas d'nous On était bien on avait même pas d'kich On faisait l'amour Calu en bouche tu tirais même pas d'ssus J'suis sûr qu'tu t'souvenais même pas d'ça Dimanche t'ouvrais les rideaux tu portais même pas d'sapes On était les seuls à chanter Gare-ci vanille L'Ques-jac c'était personne j'sortais même pas d'son L'amour on le faisait mais il y avait même pas d'ça Une illusion éternelle qui n'est que d passage J'réponds plus passe par LCS ou passe par Vinz La distanc on s'y accomode par phases J'écris plus j'suis dans l'bus qui m'ramène du 9-2 à Paname Une minute de silence pour les rappeurs de Courbevoie, d'Colombes et d'Balard Aller nique sa mère Si Ken prend des vacances, j'deviens l'roi d'Paname J'peux pas r'fuser longtemps le fait qu'le fric s'amène Ils ont pas l'air contre vu qu'Bolloré khalass Salam fuck off, yalla kolo khara Deuxième album si vous saviez Nombre de ventes à faire si j'veux r'couper deux cents J'vais pas tarder à tweeter Fuck off avant d'me barrer deux ans LNS écrit entre mes dix-sept et mes vingt-neuf ans Putain d'vingt-deux ans J'abas l'charbon d'une équipe de douze Ils sont persuadés qu'j'ai vingt-neuf ans J'espère qu't'es prêt pour les détails du deal You might also like J'sais que quand tu t'enfumes tu t'fais des dégâts tu t'shit L'soir tu dansais baby le samedi tu baises tu chilles Aller nique sa mère Bébé au début c'est dur après t'adoreras ça Paris-Londres, Londres-Beyrouth, Beyrouth-Ouarzazate Noir comme un épilogue que j'laisse signé par Ox J'fais plus d'efforts J'reçois les DA dans des bars-tabac Fuck, au fond d'... Putain... J'ai rien cassé, frère ? Non, non t'as rien cassé Fuck on a les phases qu't'as pas Déjà quand j'faisais pas d'son j'avais les femmes qu't'as pas Le temps a fait ses ravages c'est plus la même t'as vu J'hésite à aller m'coucher ou à continuer le marathon avec un énième café REP Nipsey, Shawn Carter Travail d'orfèvre pour que les étages se montent Un excès d'zèle et j'me détâche de ça Eh tu t'souviens des tâches de vin En fait c'était des tâches de sang Aller nique sa mère J'fais un bum-al sur que dalle parce que de base y avait même pas d'nous</t>
+          <t>Check Fuck off Cques-Ja c'est un personnage askip Hey J'fais un bum-al sur que dalle parce que de base y avait même pas d'nous On était bien on avait même pas d'kich On faisait l'amour Calu en bouche tu tirais même pas d'ssus J'suis sûr qu'tu t'souvenais même pas d'ça Dimanche t'ouvrais les rideaux tu portais même pas d'sapes On était les seuls à chanter Gare-ci vanille L'Ques-jac c'était personne j'sortais même pas d'son L'amour on le faisait mais il y avait même pas d'ça Une illusion éternelle qui n'est que d passage J'réponds plus passe par LCS ou passe par Vinz La distanc on s'y accomode par phases J'écris plus j'suis dans l'bus qui m'ramène du 9-2 à Paname Une minute de silence pour les rappeurs de Courbevoie, d'Colombes et d'Balard Aller nique sa mère Si Ken prend des vacances, j'deviens l'roi d'Paname J'peux pas r'fuser longtemps le fait qu'le fric s'amène Ils ont pas l'air contre vu qu'Bolloré khalass Salam fuck off, yalla kolo khara Deuxième album si vous saviez Nombre de ventes à faire si j'veux r'couper deux cents J'vais pas tarder à tweeter Fuck off avant d'me barrer deux ans LNS écrit entre mes dix-sept et mes vingt-neuf ans Putain d'vingt-deux ans J'abas l'charbon d'une équipe de douze Ils sont persuadés qu'j'ai vingt-neuf ans J'espère qu't'es prêt pour les détails du deal J'sais que quand tu t'enfumes tu t'fais des dégâts tu t'shit L'soir tu dansais baby le samedi tu baises tu chilles Aller nique sa mère Bébé au début c'est dur après t'adoreras ça Paris-Londres, Londres-Beyrouth, Beyrouth-Ouarzazate Noir comme un épilogue que j'laisse signé par Ox J'fais plus d'efforts J'reçois les DA dans des bars-tabac Fuck, au fond d'... Putain... J'ai rien cassé, frère ? Non, non t'as rien cassé Fuck on a les phases qu't'as pas Déjà quand j'faisais pas d'son j'avais les femmes qu't'as pas Le temps a fait ses ravages c'est plus la même t'as vu J'hésite à aller m'coucher ou à continuer le marathon avec un énième café REP Nipsey, Shawn Carter Travail d'orfèvre pour que les étages se montent Un excès d'zèle et j'me détâche de ça Eh tu t'souviens des tâches de vin En fait c'était des tâches de sang Aller nique sa mère J'fais un bum-al sur que dalle parce que de base y avait même pas d'nous</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Dignity and culture Eh, c'est pas prêt d'se finir, ça commence à peine Maintenant, on m'appelle Tino, mais avant, on m'appelait à peine Eh, c'est pas prêt d'se finir, ça commence à peine Maintenant, on m'appelle Tino, mais avant, on m'appelait à peine Des destinées gâchées C'est clair qu'j'en ai assez C'est vrai qu'j'en ai passé Fuck, j'vais les baffer fort Y a des destinées gâchées Fuck, j'en ai passé Fuck, j'en ai assz vu Ah fuck, j'vais les baffer fort Si t'es pris d'court, t's pas assez fort Ceux qui murmurent à l'oreille des chevaux Ceux qui gueulent à l'oreille de leur pitbull Ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, Henny Et demain, ça pète jusqu'au Bénin, Bénin hein Ça s'trouve, j'suis béni L'infection est bénigne Eh, eh You might also like J'l'avais écrit c'était prévu Deux piges que j'raconte à des aveugles c'que j'ai vu J'peux ni montrer mes doutes ni mes failles Ouai c'est clair, ouai c'est béton J'pris l'habitude de monter Quand on m'disait qu'j'allais bé-tom Ouais c'est clair, ouais c'est béton Ouais c'est clair, ouais c'est clair, ouais c'est béton Eh Ah ouais, j'avais d'la bonté Entre temps, j'en ai fait don Tu critiques, t'es mignon, hein Bah vas-y, bah fais donc, hein J'pris l'habitude de monter Quand on disait qu'j'allais bé-tom Ouais c'est clair, ouais c'est béton Ouais c'est clair, ouais c'est clair, ouais c'est béton Si ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, j'prends le Henny Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Si ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon j'prend le Henny Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire Eh On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire Eh On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire Eh On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire Goddamn Si ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, j'bois le Henny Et demain ça pète jusqu'au Bénin Et demain ça pète jusqu'au Bénin, hein Si ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, j'bois le Henny Et demain ça pète jusqu'au Bénin Y a des destinées gâchées Fuck, j'en ai passé Fuck, j'en ai assez vu Y a des destinées gâchées Fuck, j'en ai passé Fuck, j'en ai assez vu J'm'allègerai d'un poids quand on m'pèsera plus Maintenant qu'j'ai un toit, baby, on baisera plus Maintenant qu'j'ai un toit, baby, on baisera plus Vingt-quatre carats, c'est qu'trois fois huit Deux fois cinquante, c'est qu'cent carats Béret sur la tête comme Thomas Sankara Ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, Henny Et demain, ça pète jusqu'au Bénin Merde, vas-y, fuck les rimes</t>
+          <t>Dignity and culture Eh, c'est pas prêt d'se finir, ça commence à peine Maintenant, on m'appelle Tino, mais avant, on m'appelait à peine Eh, c'est pas prêt d'se finir, ça commence à peine Maintenant, on m'appelle Tino, mais avant, on m'appelait à peine Des destinées gâchées C'est clair qu'j'en ai assez C'est vrai qu'j'en ai passé Fuck, j'vais les baffer fort Y a des destinées gâchées Fuck, j'en ai passé Fuck, j'en ai assz vu Ah fuck, j'vais les baffer fort Si t'es pris d'court, t's pas assez fort Ceux qui murmurent à l'oreille des chevaux Ceux qui gueulent à l'oreille de leur pitbull Ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, Henny Et demain, ça pète jusqu'au Bénin, Bénin hein Ça s'trouve, j'suis béni L'infection est bénigne Eh, eh J'l'avais écrit c'était prévu Deux piges que j'raconte à des aveugles c'que j'ai vu J'peux ni montrer mes doutes ni mes failles Ouai c'est clair, ouai c'est béton J'pris l'habitude de monter Quand on m'disait qu'j'allais bé-tom Ouais c'est clair, ouais c'est béton Ouais c'est clair, ouais c'est clair, ouais c'est béton Eh Ah ouais, j'avais d'la bonté Entre temps, j'en ai fait don Tu critiques, t'es mignon, hein Bah vas-y, bah fais donc, hein J'pris l'habitude de monter Quand on disait qu'j'allais bé-tom Ouais c'est clair, ouais c'est béton Ouais c'est clair, ouais c'est clair, ouais c'est béton Si ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, j'prends le Henny Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Si ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon j'prend le Henny Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin Demain ça pète jusqu'au Bénin On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire Eh On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire Eh On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire Eh On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire On est fougueux, on a la dalle sa mère Ils ont l'mode de vie, ils ont pas l'salaire Goddamn Si ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, j'bois le Henny Et demain ça pète jusqu'au Bénin Et demain ça pète jusqu'au Bénin, hein Si ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, j'bois le Henny Et demain ça pète jusqu'au Bénin Y a des destinées gâchées Fuck, j'en ai passé Fuck, j'en ai assez vu Y a des destinées gâchées Fuck, j'en ai passé Fuck, j'en ai assez vu J'm'allègerai d'un poids quand on m'pèsera plus Maintenant qu'j'ai un toit, baby, on baisera plus Maintenant qu'j'ai un toit, baby, on baisera plus Vingt-quatre carats, c'est qu'trois fois huit Deux fois cinquante, c'est qu'cent carats Béret sur la tête comme Thomas Sankara Ça s'trouve, j'suis béni L'infection est bénigne Sans glaçon, Henny Et demain, ça pète jusqu'au Bénin Merde, vas-y, fuck les rimes</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Celle-là c'est pas juste pour moi, pour l'gamin, seul, qui souriait dans l'couloir Cur trop pur pour être jeté en fosse C'était illusoire, j'étais dans l'faux Est-ce qu'j'dois m'en vouloir d'y croire ? Et toi, comment tu t'sens ? Ça dit quoi ? T'as sans doute personne à qui l'dire, elle r'ssemble à Kill Bill, à part d'puis l'Bigdil Energy Big Dick, assume des erreurs qui étaient même pas miennes C'était ma faute, c'était d'jà l'bordel, j'étais même pas né Et j'en ai commis d'autres, tu sais c'est passé vite J'aurais dû dire Stop, j'en ai assez vu Souvnirs dans l'papier bulle, pa'c'que c'st trop fragile Blesser un homme, c'est l'seul moyen pour qu'il soit pas trop fragile Que Dieu m'protège, le Diable m'a envoyé un ange J'nous r'vois y a un an, merci pour toute ta force J't'ai offert toute la flore, j'ai combattu toute la faune Merci pour toute ta force, j't'ai offert toute la flore, j'ai combattu toute la faune Eh, va pas l'dire mais j'crois qu'j'ai mal Tu crois p't-être parce que j'ai l'tour, j'viendrais pas t'cher-cher, nargue-moi une dernière fois avant d'partir Forcément l'enfer avant l'paradis J'suis bel et bien en vie, c'est pour ça qu'j'crois qu'j'm'étouffe J'ai barré des phases trop belles pour qu'elles vivent M'reste d'la be-her, vite, j'mets tout D'humeur à pas mettre que l'doigt mais juste le chibre Si on survit à tout ça, on s'revoit à la Toussaint On a niqué la p'tite vie toute simple, celle qui m'f'sait tant plaisir Tu t'souviens pas d'moi ? J't'ai sans doute balayé sur un tatami entre Courbevoie et Andrésy J'prépare l'mental, j'suis pas là, j'bosse, j'soulève les montagnes Surveille mon temps, c'est rien, c'est juste mon tort T'souviens pas d'moi ? J'préparais l'mental J'suis pas là, j'me prépare, j'soulève les montagnes, j'surveille les montants You might also like C'est ma faute, c'est juste mon tort Bae, c'est pas un roc, c'est juste mon torse C'est pas d'ta faute c'est juste mon tort Pétasse, c'est pas un roc c'est juste mon torse C'est pas un roc, c'est juste mon torse C'est pas d'ta faute c'est juste mon tort Pétasse, c'est pas un roc, c'est juste mon torse C'est pas un roc, c'est juste mon torse L'diable m'a envoyé un ange J'nous revois y a un an Merci pour toute ta force J't'ai offert toute la flore, j'ai combattu toute la faune C'est pas un roc, c'est juste mon torse C'est pas d'ta faute, c'est juste mon tort Pygmalion C'est pas un roc, c'est juste mon torse</t>
+          <t>Celle-là c'est pas juste pour moi, pour l'gamin, seul, qui souriait dans l'couloir Cur trop pur pour être jeté en fosse C'était illusoire, j'étais dans l'faux Est-ce qu'j'dois m'en vouloir d'y croire ? Et toi, comment tu t'sens ? Ça dit quoi ? T'as sans doute personne à qui l'dire, elle r'ssemble à Kill Bill, à part d'puis l'Bigdil Energy Big Dick, assume des erreurs qui étaient même pas miennes C'était ma faute, c'était d'jà l'bordel, j'étais même pas né Et j'en ai commis d'autres, tu sais c'est passé vite J'aurais dû dire Stop, j'en ai assez vu Souvnirs dans l'papier bulle, pa'c'que c'st trop fragile Blesser un homme, c'est l'seul moyen pour qu'il soit pas trop fragile Que Dieu m'protège, le Diable m'a envoyé un ange J'nous r'vois y a un an, merci pour toute ta force J't'ai offert toute la flore, j'ai combattu toute la faune Merci pour toute ta force, j't'ai offert toute la flore, j'ai combattu toute la faune Eh, va pas l'dire mais j'crois qu'j'ai mal Tu crois p't-être parce que j'ai l'tour, j'viendrais pas t'cher-cher, nargue-moi une dernière fois avant d'partir Forcément l'enfer avant l'paradis J'suis bel et bien en vie, c'est pour ça qu'j'crois qu'j'm'étouffe J'ai barré des phases trop belles pour qu'elles vivent M'reste d'la be-her, vite, j'mets tout D'humeur à pas mettre que l'doigt mais juste le chibre Si on survit à tout ça, on s'revoit à la Toussaint On a niqué la p'tite vie toute simple, celle qui m'f'sait tant plaisir Tu t'souviens pas d'moi ? J't'ai sans doute balayé sur un tatami entre Courbevoie et Andrésy J'prépare l'mental, j'suis pas là, j'bosse, j'soulève les montagnes Surveille mon temps, c'est rien, c'est juste mon tort T'souviens pas d'moi ? J'préparais l'mental J'suis pas là, j'me prépare, j'soulève les montagnes, j'surveille les montants C'est ma faute, c'est juste mon tort Bae, c'est pas un roc, c'est juste mon torse C'est pas d'ta faute c'est juste mon tort Pétasse, c'est pas un roc c'est juste mon torse C'est pas un roc, c'est juste mon torse C'est pas d'ta faute c'est juste mon tort Pétasse, c'est pas un roc, c'est juste mon torse C'est pas un roc, c'est juste mon torse L'diable m'a envoyé un ange J'nous revois y a un an Merci pour toute ta force J't'ai offert toute la flore, j'ai combattu toute la faune C'est pas un roc, c'est juste mon torse C'est pas d'ta faute, c'est juste mon tort Pygmalion C'est pas un roc, c'est juste mon torse</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Parle pas d'amour, ste plaît, m'parle pas d'amour Juste un envol vers un ailleurs, roule jusquà Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour, m'parle pas d'amour Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, jveux voir la mer, ste plaît M'parle pas damour, m'parle pas d'amour Y a du bruit sur l'palier dla porte, c'est pas tes pas, tu mets des mots sur tout c'silence Cinq-cents balles d'C.A, j'suis taxé sur tout c'qui rentre J'ai peur d'redevenir pauvre, j'peux pas reposer les gants Bienvenue dans l'cerveau fécond d'un artiste qui monte Et sur la vie d'ma mère, ça va faire deux mois, je boue Mets du respect sur mon blaze, sors le d'ta bouche, fuck off J'm'enferme entre des murs massifs, j'vais casser ma SIM, un tour vers Massy J'sors plus qu'pour faire des courses, pour la pharmacie T'ces sacrifices qu'ils voient pas Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour M'parle pas d'amour, m'parle pas d'amour M'parle pas d'amour Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour M'parle pas d'amour, m'parle pas d'amour You might also like Oui, c'est l'Jacques qu'a dit qu'j'veux que sa chatte, j'ai b'soin d'être solo dans la chambre Aujourd'hui ça va vite, elle était longue l'attente Avec les gants comme en Sicile, élégant comme un silence Perdu dans l'film d'ma vie dont j'ai d'jà réécrit l'scénar' Qu'j'mette une vitesse sur la route comme Senna, qui a dit qu'ta bitch était inconsolable ? Eh Claque la porte, part, ici, en rêvant d'autre part Parmigiano sur la copa, pygmalion et fuck une quote part Sur la ville, qu'c'est un album où c'est toute ma vie Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour M'parle pas d'amour, m'parle pas d'amour M'parle pas d'amour Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour M'parle pas d'amour, m'parle pas d'amour</t>
+          <t>Parle pas d'amour, ste plaît, m'parle pas d'amour Juste un envol vers un ailleurs, roule jusquà Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour, m'parle pas d'amour Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, jveux voir la mer, ste plaît M'parle pas damour, m'parle pas d'amour Y a du bruit sur l'palier dla porte, c'est pas tes pas, tu mets des mots sur tout c'silence Cinq-cents balles d'C.A, j'suis taxé sur tout c'qui rentre J'ai peur d'redevenir pauvre, j'peux pas reposer les gants Bienvenue dans l'cerveau fécond d'un artiste qui monte Et sur la vie d'ma mère, ça va faire deux mois, je boue Mets du respect sur mon blaze, sors le d'ta bouche, fuck off J'm'enferme entre des murs massifs, j'vais casser ma SIM, un tour vers Massy J'sors plus qu'pour faire des courses, pour la pharmacie T'ces sacrifices qu'ils voient pas Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour M'parle pas d'amour, m'parle pas d'amour M'parle pas d'amour Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour M'parle pas d'amour, m'parle pas d'amour Oui, c'est l'Jacques qu'a dit qu'j'veux que sa chatte, j'ai b'soin d'être solo dans la chambre Aujourd'hui ça va vite, elle était longue l'attente Avec les gants comme en Sicile, élégant comme un silence Perdu dans l'film d'ma vie dont j'ai d'jà réécrit l'scénar' Qu'j'mette une vitesse sur la route comme Senna, qui a dit qu'ta bitch était inconsolable ? Eh Claque la porte, part, ici, en rêvant d'autre part Parmigiano sur la copa, pygmalion et fuck une quote part Sur la ville, qu'c'est un album où c'est toute ma vie Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour M'parle pas d'amour, m'parle pas d'amour M'parle pas d'amour Juste un envol vers un ailleurs, roule jusqu'à Rayol Ce soir, j'veux voir la mer, s'te plaît M'parle pas d'amour M'parle pas d'amour, m'parle pas d'amour</t>
         </is>
       </c>
     </row>
@@ -2212,11 +2212,7 @@
           <t>Sinikasi</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2231,7 +2227,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Livré à moi, il faut que j'avance plus fort Check, mh, t'enlèveras ça Jacques, eh Entreprenante comme une jeune auditrice Un cur en pierre et une DA en titane Manie métaphores, antithèses Je vais tout péter sans assurance anti-casse Idéaliste, j'ai cru m'envoler sans le moindre handicap Des financements en dollars, tu vas recevoir Un pack de prod que j'ai refusé trois fois Trois volumes, un final, je les ai baisés trois fois L'objectif, c'est de gagner puis de refuser le trophée Plusieurs champ d'activité NBOW, stimule des glottes diverses Fuck le peu-ra, ce soir, je m'oublie sur du Bob Dylan Donc j'hésite, comme Salif, avant moi Y'a des échéances qui arrivent Faut que je rédige des seize Il veut rentrer dans le clip, mais il sait pas ce qu'on fait Fuckoff, baby viens là et regarde ce qu'on fait On est dimanche, si t'as pas de clopes, prends en dix Jacques, plus belle plume française, en tant que telle NBOW dans ton patelin, les plus belles Françaises en dentelle Check, m'écoutes-tu ou m'entends-tu ? M'écoutes-tu ou m'entends-tu ? M'écoutes-tu ou m'entends-tu ? Fuckoff, trois fois de suite, elle m'a dit Quitte à me baiser une fois, fais le trois fois de suite Si je reviens, c'est avec trois, quatre sacs B.B Jacques sur trois, quatre sites Je travaille sur le nom puis j'édite après Dans le club de jazz, avec Pense LCS LNSC té-ma le séisme, deux nuits blanches après il té-ma le scénar' C'est fini, c'est magnétique, NBOW fournisseur de bangers de magnésium On a abusé à accuser, on a abusé à accuser On a abusé à accuser, l'homme verseau Du poids sur les épaules comme Van Persie Je té-cla un gare-ci près du avec , eh J'ai pas besoin de la sagesse d'une femme mature C'est un fait, bébé les femmes m'attirent Je t'appelle sur ton Alcatel Quelques messages vocaux, que je résume avec un ah l'bâtard On a dû me pincer pour me faire pleurer pendant le baptême En 2006, c'est Jacques qui nous ramène au bercail en bateau Les apparences sont trompeuses, en fait je suis un empathique J'ai dit, en fait je suis un empathique Dis pas à ton frère que tu peux pas quand toi, t'en es pas capable Je remercie, Vajol pour le français, Dorothée pour la mercatique Y'aura pas d'ambitions gâchées, nan Madame Quand l'investissement est massif c'est en personne que je dis non On peut pas vivre, longtemps dans le déni Tino dans le rap français, une oasis dans le désert On peut mentir aux autres, mais pas à nous En refoulant, longtemps le désir Et au pire on dira que, c'est le hasard J'fais pas du peu-ra pour le loisir et encore moins, pour l'oisif Je me rapproche de Bird Man, l'homme oiseau Bébé, on se retrouve au moins deux On est sexy mais pas romantique On est sexy mais pas romantique Je profite de ma tribune, pour répondre aux commentaires Merci et force à vous, LNSC c'est pas un coup monté, c'est un braquage Je refuse de succomber, à ses mouvements de hanches Elle a refait son chignon, pour mieux le défaire Y'a certaines qualités qui valent mille défauts De base moi j'vesqui foule, une victoire vaut mille défaites Et certaines qualités valent mille défauts Elle ressort du studio les cheveux en pagaille Pour attirer l'attention, elle colore crinière en platine La vie, c'est ce fleuve tranquille sur lequel on te mène en bateau Pour pas qu'il perde le cadre, quelques phases qui se téléphonent PDP dans l'téléphone, boom boom, court-métrages je refuse les téléfilms Dieu merci j'en ai trop peu pour, écouter les fans Pour en savoir plus, il te suffit de réécouter les phases Et le producteur, c'est celui qui nettoie la merde qu'il a pas chié Sang froid à la station d'essence, on laisse croire qu'on a pas chaud On a le talent qu'on possède, toi t'as pas ça On a le talent qu'on possède, toi t'as pas ça C'est pas de l'ego trip, c'est de la claque voyons, Fuck off C'est pas de l'ego trip, c'est de la clairvoyance Retire l'autotune, laisse-moi seul, avec vingt consonnes et six voyelles Aller retire l'autotune, laisse-moi seul, avec vingt consonnes et six voyelles On a le talent qu'on possède, toi t'as pas ça Sang froid à la station d'essence, on fait croire qu'on a pas chaud Si j'avais su, si ils me voyaient On est pas beaucoup, mais bienvenue dans le voyage Doit rester trois fous dans le royaume Nan baby, j'ai pas trois filles dans le radar Si ils avaient su, si ils me voyaient On a pas beaucoup, mais bienvenue dans le voyage Il doit rester trois fous dans le royaume Nan baby, j'ai pas trois filles dans le radarYou might also like2</t>
+          <t>Livré à moi, il faut que j'avance plus fort Check, mh, t'enlèveras ça Jacques, eh Entreprenante comme une jeune auditrice Un cur en pierre et une DA en titane Manie métaphores, antithèses Je vais tout péter sans assurance anti-casse Idéaliste, j'ai cru m'envoler sans le moindre handicap Des financements en dollars, tu vas recevoir Un pack de prod que j'ai refusé trois fois Trois volumes, un final, je les ai baisés trois fois L'objectif, c'est de gagner puis de refuser le trophée Plusieurs champ d'activité NBOW, stimule des glottes diverses Fuck le peu-ra, ce soir, je m'oublie sur du Bob Dylan Donc j'hésite, comme Salif, avant moi Y'a des échéances qui arrivent Faut que je rédige des seize Il veut rentrer dans le clip, mais il sait pas ce qu'on fait Fuckoff, baby viens là et regarde ce qu'on fait On est dimanche, si t'as pas de clopes, prends en dix Jacques, plus belle plume française, en tant que telle NBOW dans ton patelin, les plus belles Françaises en dentelle Check, m'écoutes-tu ou m'entends-tu ? M'écoutes-tu ou m'entends-tu ? M'écoutes-tu ou m'entends-tu ? Fuckoff, trois fois de suite, elle m'a dit Quitte à me baiser une fois, fais le trois fois de suite Si je reviens, c'est avec trois, quatre sacs B.B Jacques sur trois, quatre sites Je travaille sur le nom puis j'édite après Dans le club de jazz, avec Pense LCS LNSC té-ma le séisme, deux nuits blanches après il té-ma le scénar' C'est fini, c'est magnétique, NBOW fournisseur de bangers de magnésium On a abusé à accuser, on a abusé à accuser On a abusé à accuser, l'homme verseau Du poids sur les épaules comme Van Persie Je té-cla un gare-ci près du avec , eh J'ai pas besoin de la sagesse d'une femme mature C'est un fait, bébé les femmes m'attirent Je t'appelle sur ton Alcatel Quelques messages vocaux, que je résume avec un ah l'bâtard On a dû me pincer pour me faire pleurer pendant le baptême En 2006, c'est Jacques qui nous ramène au bercail en bateau Les apparences sont trompeuses, en fait je suis un empathique J'ai dit, en fait je suis un empathique Dis pas à ton frère que tu peux pas quand toi, t'en es pas capable Je remercie, Vajol pour le français, Dorothée pour la mercatique Y'aura pas d'ambitions gâchées, nan Madame Quand l'investissement est massif c'est en personne que je dis non On peut pas vivre, longtemps dans le déni Tino dans le rap français, une oasis dans le désert On peut mentir aux autres, mais pas à nous En refoulant, longtemps le désir Et au pire on dira que, c'est le hasard J'fais pas du peu-ra pour le loisir et encore moins, pour l'oisif Je me rapproche de Bird Man, l'homme oiseau Bébé, on se retrouve au moins deux On est sexy mais pas romantique On est sexy mais pas romantique Je profite de ma tribune, pour répondre aux commentaires Merci et force à vous, LNSC c'est pas un coup monté, c'est un braquage Je refuse de succomber, à ses mouvements de hanches Elle a refait son chignon, pour mieux le défaire Y'a certaines qualités qui valent mille défauts De base moi j'vesqui foule, une victoire vaut mille défaites Et certaines qualités valent mille défauts Elle ressort du studio les cheveux en pagaille Pour attirer l'attention, elle colore crinière en platine La vie, c'est ce fleuve tranquille sur lequel on te mène en bateau Pour pas qu'il perde le cadre, quelques phases qui se téléphonent PDP dans l'téléphone, boom boom, court-métrages je refuse les téléfilms Dieu merci j'en ai trop peu pour, écouter les fans Pour en savoir plus, il te suffit de réécouter les phases Et le producteur, c'est celui qui nettoie la merde qu'il a pas chié Sang froid à la station d'essence, on laisse croire qu'on a pas chaud On a le talent qu'on possède, toi t'as pas ça On a le talent qu'on possède, toi t'as pas ça C'est pas de l'ego trip, c'est de la claque voyons, Fuck off C'est pas de l'ego trip, c'est de la clairvoyance Retire l'autotune, laisse-moi seul, avec vingt consonnes et six voyelles Aller retire l'autotune, laisse-moi seul, avec vingt consonnes et six voyelles On a le talent qu'on possède, toi t'as pas ça Sang froid à la station d'essence, on fait croire qu'on a pas chaud Si j'avais su, si ils me voyaient On est pas beaucoup, mais bienvenue dans le voyage Doit rester trois fous dans le royaume Nan baby, j'ai pas trois filles dans le radar Si ils avaient su, si ils me voyaient On a pas beaucoup, mais bienvenue dans le voyage Il doit rester trois fous dans le royaume Nan baby, j'ai pas trois filles dans le radar2</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2244,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Eh J'aurais mieux fait dme projeter seul sur l'chantier vide On va quand même pas s'baiser la santé pour des artefacts Jme barre, il m'faut deux semaines dans Artemis Garde ton buzz, garde tes miss J'garde pour moi mes problèmes, mes factures Qu'est-ce que tu crois ? Qu'il est tombé du ciel cet oseille ? Ils ont pas la main sur leur biz' et ils parlent de cash Cousin, ça m'fait plus rien d'prendre 2k Elle mfait la gueul pour des bitches quj'me suis mêm pas faites Jen ai v'-esqui cent-cinquante J'fais la gueule quand j'prends quinze, jaurais dû en prendre cinquante La classe de Nedvd, la classe d'Pavel, à peine vingt-cinq ans Si j'étais pas payé pour ça, j'serais moins bavard Tu faisais la gueule pour faire la belle Ça fait des années que j'ai arrêté d'faire la fête J'me suis pé-trom fuck l'amour, vive la fame J'ai remplacé l'fond d'écran qu'tu voulais qu'je garde Mais j'veux pas t'blâmer, t'as voulu vivre si proche du feu Fuck la bougie qui brille le plus, j'suis celle qui brûlera sur le long J'vais les baiser intensément et sur le long, c'est l'cques-J', mets du respect sur le nom J'hésite entre l'Est de Dam' ou l'centre de Londres On vient d'trop loin pour pas s'les faire J'voulais pas d'tout ça, j'vous passe les faits Quand elle m'dit des bêtises, j'lui pince les fesses Toujours en gestion en batterie faible, ah L'oseille qu'j'ai fait depuis qu'j'suis plus à la fac Une saison, deux saisons, trois saisons, il reste que moi à la fin, ah L'oseille que j'ai fait depuis que j'suis plus à la fac Une saison, deux saisons, trois saisons, il reste que moi à la fin You might also like J'suis un soldat d'élite Pourquoi toujours moi ? Balotelli Full Lacoste comme Roger Fuck off Ça pue l'oseille comme Rozay Ça pue l'oseille comme Rozay J'suis un soldat d'élite Trois lettres qui font l'bonheur, la hess attire l'bon il Il m'faut plus de cash, bébé, il m'faut plus de cash Quarante quatre hôtels plus tard, j'reste dans la 210, rappelle plus tard J'aime la beauté des textes qu'j'ai écrit sur la route Tu t'souviens du bruit d'la Subaru ? T'étais avec qui ? T'es revenue, un trou d'boulette sur ta robe Ils viendront pas, j'ai arrêté d'mettre mes parents sur la liste J'ai vesqui tes appels entrants, t'es p't-être au bout d'la ligne Cigale, puis l'mont Olympe, soleil au Zénith J'aurais aimé être un artiste pour glisser des mots entre ses lèvres Et l'succès est-ce qu'on l'célèbre ? Un an plus tard mais chacun d'son côté, les verres se lèvent, le soleil se couche La croix au sommet d'Saint-Clar veille sur la ville, là j'fume un gare-ci sur les roches Béni sur mes proches J'vis l'paradis d'puis la gov', tu dors sous l'bruit d'la pluie J'l'écris mais j'lis pas l'avenir, ici l'inspi' elle a du mal à venir Chut, té-ma la vue, chut, té-ma la vue J'suis un soldat d'élite Pourquoi toujours moi ? Balotelli Full Lacoste comme Roger Fuck off Ça pue l'oseille comme Rozay Ça pue l'oseille comme Rozay J'suis un soldat d'élite</t>
+          <t>Eh J'aurais mieux fait dme projeter seul sur l'chantier vide On va quand même pas s'baiser la santé pour des artefacts Jme barre, il m'faut deux semaines dans Artemis Garde ton buzz, garde tes miss J'garde pour moi mes problèmes, mes factures Qu'est-ce que tu crois ? Qu'il est tombé du ciel cet oseille ? Ils ont pas la main sur leur biz' et ils parlent de cash Cousin, ça m'fait plus rien d'prendre 2k Elle mfait la gueul pour des bitches quj'me suis mêm pas faites Jen ai v'-esqui cent-cinquante J'fais la gueule quand j'prends quinze, jaurais dû en prendre cinquante La classe de Nedvd, la classe d'Pavel, à peine vingt-cinq ans Si j'étais pas payé pour ça, j'serais moins bavard Tu faisais la gueule pour faire la belle Ça fait des années que j'ai arrêté d'faire la fête J'me suis pé-trom fuck l'amour, vive la fame J'ai remplacé l'fond d'écran qu'tu voulais qu'je garde Mais j'veux pas t'blâmer, t'as voulu vivre si proche du feu Fuck la bougie qui brille le plus, j'suis celle qui brûlera sur le long J'vais les baiser intensément et sur le long, c'est l'cques-J', mets du respect sur le nom J'hésite entre l'Est de Dam' ou l'centre de Londres On vient d'trop loin pour pas s'les faire J'voulais pas d'tout ça, j'vous passe les faits Quand elle m'dit des bêtises, j'lui pince les fesses Toujours en gestion en batterie faible, ah L'oseille qu'j'ai fait depuis qu'j'suis plus à la fac Une saison, deux saisons, trois saisons, il reste que moi à la fin, ah L'oseille que j'ai fait depuis que j'suis plus à la fac Une saison, deux saisons, trois saisons, il reste que moi à la fin J'suis un soldat d'élite Pourquoi toujours moi ? Balotelli Full Lacoste comme Roger Fuck off Ça pue l'oseille comme Rozay Ça pue l'oseille comme Rozay J'suis un soldat d'élite Trois lettres qui font l'bonheur, la hess attire l'bon il Il m'faut plus de cash, bébé, il m'faut plus de cash Quarante quatre hôtels plus tard, j'reste dans la 210, rappelle plus tard J'aime la beauté des textes qu'j'ai écrit sur la route Tu t'souviens du bruit d'la Subaru ? T'étais avec qui ? T'es revenue, un trou d'boulette sur ta robe Ils viendront pas, j'ai arrêté d'mettre mes parents sur la liste J'ai vesqui tes appels entrants, t'es p't-être au bout d'la ligne Cigale, puis l'mont Olympe, soleil au Zénith J'aurais aimé être un artiste pour glisser des mots entre ses lèvres Et l'succès est-ce qu'on l'célèbre ? Un an plus tard mais chacun d'son côté, les verres se lèvent, le soleil se couche La croix au sommet d'Saint-Clar veille sur la ville, là j'fume un gare-ci sur les roches Béni sur mes proches J'vis l'paradis d'puis la gov', tu dors sous l'bruit d'la pluie J'l'écris mais j'lis pas l'avenir, ici l'inspi' elle a du mal à venir Chut, té-ma la vue, chut, té-ma la vue J'suis un soldat d'élite Pourquoi toujours moi ? Balotelli Full Lacoste comme Roger Fuck off Ça pue l'oseille comme Rozay Ça pue l'oseille comme Rozay J'suis un soldat d'élite</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2261,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Y'a KX qui casse des barre Jannelle elle s'casse tout court Il est deux heures à Bombay Sud, j'ai pas attendu le pe-ra pour bomber le torse Il est deux heures à Bombay Sud, j'ai pas attendu le pe-ra pour bomber le torse Les fils de pute sont perchés sur d'grandes échasses On r'commence Il est deux heures à Bombay Sud, j'ai pas attendu le p-ra pour bomber le torse Ls fils de pute sont perchés sur d'grandes échasses On r'connaît un homme à sa faculté à passer outre les grands échecs PDP, ouais, c'est classe, j'ai r'tiré l'nez rouge de plusieurs clowns Ce soir, j'm'enivre dans la chaleur d'une gov' qui fait face à la rive J'ai au moins l'mérite d'faire face à mes rêves Y a Pense qu'essaye d'arrêter l'cannabis, il m'faut d'bonnes raisons d'accepter les rides Le portrait d'Dorian dans le couloir d'un hôtel près d'la plage Hey, KK, remets d'la bud, j'vais prendre ma kich', tu vas prendre ta kush, eh KK sur la prod, j'vais prendre mon buzz, fuck j'vais prendre ma kich' tu vas prendre ton buzz En fait, c'est fini, on s'claque la bise, ça vient d'où ça comme ? Enculé, checke la plaque Askip, tu vis d'ton pe-ra, checke la blague Ça va paraître bizarre un bum-al à 120 sur l'dos-d'âne Immunisé, sans totem, j'refuse des licences, des distrib' Ils veulent payer pour c'que capture le Cques-Ja quand l'alcool se distille Mets tout dans la gov', on va faire l'tour d'la côte si la mer est cristal Mets tout dans la gov', on va faire l'tour d'la côte si la mer est cristal J'finis l'morceau puis j'm'y jette Oublions les prétextes par lesquels on se justifie, elle elle était comme ma femme Fuck off, là j'ai pas l'temps pour c'genre d'bassesse Bref passons On a qu'à faire semblant d's'oublier si y a trop d'passif Parfois c'est comme ça y a trop d'phases sombres Parfois c'est comme ça y a trop d'phases sombres Parfois c'est comme ça y a trop d'phases sombres Trop d'phases sombresYou might also like2</t>
+          <t>Y'a KX qui casse des barre Jannelle elle s'casse tout court Il est deux heures à Bombay Sud, j'ai pas attendu le pe-ra pour bomber le torse Il est deux heures à Bombay Sud, j'ai pas attendu le pe-ra pour bomber le torse Les fils de pute sont perchés sur d'grandes échasses On r'commence Il est deux heures à Bombay Sud, j'ai pas attendu le p-ra pour bomber le torse Ls fils de pute sont perchés sur d'grandes échasses On r'connaît un homme à sa faculté à passer outre les grands échecs PDP, ouais, c'est classe, j'ai r'tiré l'nez rouge de plusieurs clowns Ce soir, j'm'enivre dans la chaleur d'une gov' qui fait face à la rive J'ai au moins l'mérite d'faire face à mes rêves Y a Pense qu'essaye d'arrêter l'cannabis, il m'faut d'bonnes raisons d'accepter les rides Le portrait d'Dorian dans le couloir d'un hôtel près d'la plage Hey, KK, remets d'la bud, j'vais prendre ma kich', tu vas prendre ta kush, eh KK sur la prod, j'vais prendre mon buzz, fuck j'vais prendre ma kich' tu vas prendre ton buzz En fait, c'est fini, on s'claque la bise, ça vient d'où ça comme ? Enculé, checke la plaque Askip, tu vis d'ton pe-ra, checke la blague Ça va paraître bizarre un bum-al à 120 sur l'dos-d'âne Immunisé, sans totem, j'refuse des licences, des distrib' Ils veulent payer pour c'que capture le Cques-Ja quand l'alcool se distille Mets tout dans la gov', on va faire l'tour d'la côte si la mer est cristal Mets tout dans la gov', on va faire l'tour d'la côte si la mer est cristal J'finis l'morceau puis j'm'y jette Oublions les prétextes par lesquels on se justifie, elle elle était comme ma femme Fuck off, là j'ai pas l'temps pour c'genre d'bassesse Bref passons On a qu'à faire semblant d's'oublier si y a trop d'passif Parfois c'est comme ça y a trop d'phases sombres Parfois c'est comme ça y a trop d'phases sombres Parfois c'est comme ça y a trop d'phases sombres Trop d'phases sombres2</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2278,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>222 J'connais même plus celle que j'aime les mains vers le ciel pour la chance que j'ai Tu vois c'blues ? J'sais pas d'où il sort Mais j'vais m'battre pour elle Et même pour eux Est-ce qu'ils vont s'tape pour oim' ? Bref T'sais que j'aime tes yeuz On s'déchire et c'est merveilleux T'as baisé l'appart que j'loue trois balles, c'est merveilleux Pars, là j'vais t'sauver d'moi même Mes problèmes me mntent Faut que tu t'perds toi-même La lumière fait ressortir les ombres C'est l'bon Dieu qui m'sort du sombre Du sale Les , il faut qu'on sorte du zoo Y a des gamins qui m'parlent ma langue et qui m'brisent le cur J'ai la force, semer l'espoir Paix sur ceux qui sont ti-par Force à ceux qui supportent le deuil J'aurais mieux fait d'parler d'choses plus grandes que moi J'survis à chaque fois Y a des plaies qui cicatrisent mais ne guérissent jamais You might also like Fuck une carrière, moi j'veux juste une uvre J'suis un boss c'est pas une vision c'est juste un fait Pétasse j'suis pas amoureux, j'ai juste un faible Tout ça c'est fragile c'est comme le bonheur Fuck une carrière, j'veux juste une uvre J'suis un boss c'est pas une vision c'est juste un fait Pétasse j'suis pas amoureux, j'ai juste un faible Keuj' 2.0, j'viens d'faire peau neuve ça fait trente ans qu'il s'casse le dos J'retourne écrire à la gloire d'mon père C't'amour qu'vous m'avez donné il faut qu'j'lui rende Est-ce que j'avance au risque que j'retombe ? J'ai jamais compté mes phases pour savoir où j'retombe Pygmalion J'ai toujours de l'empathie pour la prod' avant d'la ken J'sais même plus j'vais m'faire laquelle J'suis obligé d'me faire la guerre Pygmalion J'ai toujours de l'empathie pour la prod' avant d'la ken J'sais même plus j'vais m'faire laquelle J'suis obligé d'me faire la guerre, j'suis obligé d'me faire la guerre Pygmalion Pygmalion</t>
+          <t>222 J'connais même plus celle que j'aime les mains vers le ciel pour la chance que j'ai Tu vois c'blues ? J'sais pas d'où il sort Mais j'vais m'battre pour elle Et même pour eux Est-ce qu'ils vont s'tape pour oim' ? Bref T'sais que j'aime tes yeuz On s'déchire et c'est merveilleux T'as baisé l'appart que j'loue trois balles, c'est merveilleux Pars, là j'vais t'sauver d'moi même Mes problèmes me mntent Faut que tu t'perds toi-même La lumière fait ressortir les ombres C'est l'bon Dieu qui m'sort du sombre Du sale Les , il faut qu'on sorte du zoo Y a des gamins qui m'parlent ma langue et qui m'brisent le cur J'ai la force, semer l'espoir Paix sur ceux qui sont ti-par Force à ceux qui supportent le deuil J'aurais mieux fait d'parler d'choses plus grandes que moi J'survis à chaque fois Y a des plaies qui cicatrisent mais ne guérissent jamais Fuck une carrière, moi j'veux juste une uvre J'suis un boss c'est pas une vision c'est juste un fait Pétasse j'suis pas amoureux, j'ai juste un faible Tout ça c'est fragile c'est comme le bonheur Fuck une carrière, j'veux juste une uvre J'suis un boss c'est pas une vision c'est juste un fait Pétasse j'suis pas amoureux, j'ai juste un faible Keuj' 2.0, j'viens d'faire peau neuve ça fait trente ans qu'il s'casse le dos J'retourne écrire à la gloire d'mon père C't'amour qu'vous m'avez donné il faut qu'j'lui rende Est-ce que j'avance au risque que j'retombe ? J'ai jamais compté mes phases pour savoir où j'retombe Pygmalion J'ai toujours de l'empathie pour la prod' avant d'la ken J'sais même plus j'vais m'faire laquelle J'suis obligé d'me faire la guerre Pygmalion J'ai toujours de l'empathie pour la prod' avant d'la ken J'sais même plus j'vais m'faire laquelle J'suis obligé d'me faire la guerre, j'suis obligé d'me faire la guerre Pygmalion Pygmalion</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2295,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dès la tombée d'la nuit au lever du jour Du lever du jour à la tombée d'la nuit J'te veux pour toujours Dès la tombée d'la nuit au lever du jour Du lever du jour à la tombée d'la nuit J'te veux pour toujours Eh, les taches sont devenues toiles, les pétasses sont devenues toi Babe, j'ai plus peur du vide, j'suis juste auteur, descends, mets toi à la juste hauteur Longue vie au gang, seul comme un artiste qui sort d scène Toutes les smaines, j'gère l'biz' tous les jours Soit tu fatigues, soit tu t'ennuies avec Tous les jours Regarde bien l'temps qu'on a mis et c'qu'on en a fait Mou en amour, dur en affaire, j'sais plus combien d'fois on l'a fait Tous les jours Les taches sont devenues toiles, les pétasses sont devenues toi Les haineux sont devenus quoi ? J'ai fait l'bif, j'suis revenu t'voir pour l'faire tous les jours Mascara sur les joues Tous les jours, mascara sur les joues Mascara sur les joues, tous les jours Tous les jours You might also like Dès la tombée d'la nuit au lever du jour Du lever du jour à la tombée d'la nuit J'te veux pour toujours Dès la tombée d'la nuit au lever du jour Du lever du jour à la tombée d'la nuit J'te veux pour toujours J'attends qu'la nuit s'réveille et j'donne le go J'suis en pétard Les étoiles s'allument, j'rallume le cône Le pétard En attendant l'hiver, des larmes, des cris, dis-les les choses qu'j'ai pas pu t'décrire Pétasse Ah, gros, on fait d'l'oseille, j'ai pas l'temps d'penser, hier, wAllah, j'étais pensif Perdu dans l'décor d'Hiroshi Nagai, ce matin, j'écris des images, j'dessine des mots Ça reste entre nous, juste un café au Rapid' de l'Est Habité par c'qui m'a hanté comme si j't'l'avais tatouer sur le corps Ce soir tu fais quoi ? Main sur ton ventre comme si tu sais quoi Juste qu'on risque de se lasser l'un de l'autre Ouais, vas-y, bébé, donne tout Ouais, t'sais que j'donne tout de l'aurore à l'aube De l'aube à l'aurore, d'là à l'au-delà Ouais, vas-y, bébé, donne tout Jusquau risque de se lasser l'un de l'autre Jusquau risque de se lasser l'un de l'autre Ouais, vas-y, bébé, donne tout Ouais, t'sais que j'donne tout de l'aurore à l'aube De l'aube à l'aurore, d'là à l'au-delà Ouais, vas-y, bébé, donne tout Jusquau risque de se lasser l'un de l'autre J't'ai même pas cherché, j't'ai trouvé Ton ex vit pas loin, j'veux qu'tu donnes tout les fenêtres ouvertes Tous les jours La tismé est devenue mienne, le hardcore est devenu miel L'amour est devenu niais, NBOW les revenus d'Niel Tous les jours Énorme niaks, loin des yeuz', proche du cur Tous les jours, tous les jours Tous les jours, tous les jours Tous les jours Tous les jours, tous les jours Mascara sur les joues Tous les jours, tous les jours Fuck off</t>
+          <t>Dès la tombée d'la nuit au lever du jour Du lever du jour à la tombée d'la nuit J'te veux pour toujours Dès la tombée d'la nuit au lever du jour Du lever du jour à la tombée d'la nuit J'te veux pour toujours Eh, les taches sont devenues toiles, les pétasses sont devenues toi Babe, j'ai plus peur du vide, j'suis juste auteur, descends, mets toi à la juste hauteur Longue vie au gang, seul comme un artiste qui sort d scène Toutes les smaines, j'gère l'biz' tous les jours Soit tu fatigues, soit tu t'ennuies avec Tous les jours Regarde bien l'temps qu'on a mis et c'qu'on en a fait Mou en amour, dur en affaire, j'sais plus combien d'fois on l'a fait Tous les jours Les taches sont devenues toiles, les pétasses sont devenues toi Les haineux sont devenus quoi ? J'ai fait l'bif, j'suis revenu t'voir pour l'faire tous les jours Mascara sur les joues Tous les jours, mascara sur les joues Mascara sur les joues, tous les jours Tous les jours Dès la tombée d'la nuit au lever du jour Du lever du jour à la tombée d'la nuit J'te veux pour toujours Dès la tombée d'la nuit au lever du jour Du lever du jour à la tombée d'la nuit J'te veux pour toujours J'attends qu'la nuit s'réveille et j'donne le go J'suis en pétard Les étoiles s'allument, j'rallume le cône Le pétard En attendant l'hiver, des larmes, des cris, dis-les les choses qu'j'ai pas pu t'décrire Pétasse Ah, gros, on fait d'l'oseille, j'ai pas l'temps d'penser, hier, wAllah, j'étais pensif Perdu dans l'décor d'Hiroshi Nagai, ce matin, j'écris des images, j'dessine des mots Ça reste entre nous, juste un café au Rapid' de l'Est Habité par c'qui m'a hanté comme si j't'l'avais tatouer sur le corps Ce soir tu fais quoi ? Main sur ton ventre comme si tu sais quoi Juste qu'on risque de se lasser l'un de l'autre Ouais, vas-y, bébé, donne tout Ouais, t'sais que j'donne tout de l'aurore à l'aube De l'aube à l'aurore, d'là à l'au-delà Ouais, vas-y, bébé, donne tout Jusquau risque de se lasser l'un de l'autre Jusquau risque de se lasser l'un de l'autre Ouais, vas-y, bébé, donne tout Ouais, t'sais que j'donne tout de l'aurore à l'aube De l'aube à l'aurore, d'là à l'au-delà Ouais, vas-y, bébé, donne tout Jusquau risque de se lasser l'un de l'autre J't'ai même pas cherché, j't'ai trouvé Ton ex vit pas loin, j'veux qu'tu donnes tout les fenêtres ouvertes Tous les jours La tismé est devenue mienne, le hardcore est devenu miel L'amour est devenu niais, NBOW les revenus d'Niel Tous les jours Énorme niaks, loin des yeuz', proche du cur Tous les jours, tous les jours Tous les jours, tous les jours Tous les jours Tous les jours, tous les jours Mascara sur les joues Tous les jours, tous les jours Fuck off</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2312,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Oh, oh, oh, oh Eh Oh, oh, oh, oh Paris, court, court, court, putain, c'est dingue de ouf Les photos souvenirs ont pris trop d'poussière, j'suis resté seul dans l'dél' J'étais sans potos, merde, j'ai pris l'eau Si t'es trop gentil, on t'la fout dans l'derche Y a pas d'grandes lignes sans d'grandes ratures Y a pas d'grandes lignes sans d'grandes ratures Là, j'vais crier sur l'couplet, l'entendras tu ? Là, j'vais crier sur l'couplet, l'entendras tu ? Elle veut planer haut dans le ciel, moi, prendre l'oseille, j'en veux plus Là, j'vais crir sur l'couplet, l'entendras tu ? Sora Quand j'ai l'sum, j'perds pas d'temps, j'en fais un son, j'dois faire du cash, fils de pute J'prends dans moi, pour moi, y a pas d'burn-out, c'est cques-J', y a pas d'Burna Lebnani, on vous baise en vous regardant dans l'noir d'vos yeu-z Putain, c'que j'ai pu être toxique, l'impression d'mettre refait dans les narcotiques 20.20, soleil toujours debout, la nuit s'ra longue En c'moment, j'habite un truc bizarre mais la nuit, j'éteins les lumières Elle bouge son tard-pé c'est presque beau Tu t'souviens ? On était heureux, on était presque beaufs Tu t'souviens ? On était heureux, on était presque beaufs Eh C'est un peu comme sur la pochette du dernier l'ciel était presque bleu Té-cla l'pilon, odeur de beuh, c'est pas du CBD, sa mère la pute J'continue à dormir sur trop d'cash, j'dois les hagar d'une façon qui frôle l'abus C'est pas d'la violence gratuite, dis-toi qu'j'suis payé pour J'vois des gens pour la sique-mu sinon, j'suis dans ma bulle En c'moment, j'suis dans l'jacuzzi du buzz, j'paye trop cher J'regarde les bulles, c'est plus une histoire d'oseille mais d'erreur qu'j'paye trop cher En c'moment, j'suis dans l'jacuzzi du buzz, j'le j'paye trop cher trop cher C'est plus une histoire d'oseille mais d'erreur qu'j'paye trop cher You might also like J'attends que le bon Dieu m'donne, j'entends mes pirates répéter Faut un paquet d'sommes En bas y a un paquet d'porcs, pour l'faire, faut un paquet d'bol Tu connais, faut les papiers pour acheter un pack de prods J'te fouille et j'te fais pas qu'les poches Une balle et ton âme ne touche pas que l'sol Oh, oh Larosh, j'suis celui qu'arrive faire un tas d'carnages J'te pénave, j'fume un kamas, en c'moment, j'ai un goût d'karma J'me dis ça sur un transat, avant d'la fumer, on l'tasse C'est pour la famille ou le blé qu'on s'tâche, la biatch, elle veut qu'on s'catch Les jaloux maigrissent, on devient laise-ba, moi, j'me taro, j'te laisse En c'moment, j'crée des enchaînements Vise la tête à la 'sique, c'est la guerre, c'est pas l'entrainement Taper la prod, j'le fais avant d'ger-man Pétasse, j'sais que t'aime le buzz, j'suis en gestion, boum, grand teh de beuh J'me barre, eh, garde ma place, boum, te-cla, garde ta 'tasse T'es fou, elle est conne mais douce, j'mélange mon rhum avec du Coca, j'ai plus d'appel juice On a drop, on attend qu'ça jugg J'ai la beuh de cali, c-be, c'est pas n'importe quel goût Tu connais Paname, c'est sale mais magique, un rhum ambré et j'm'agite Tu connais Paname, c'est sale mais magique, un whisky sec et j'm'agite Que du caviar, j'rarifie les sorties, j'ai fait d'l'oseille avec le quart d'ma peine J'réinvestis les trois quarts d'ma paye à ces phases d'enculé qu'j'ai sorties J'bosse pour l'histoire, fuck le buzz, fuck les compils' 2k24, énorme fuck off, Roshi, y a l'peu-ra qu'on pille</t>
+          <t>Oh, oh, oh, oh Eh Oh, oh, oh, oh Paris, court, court, court, putain, c'est dingue de ouf Les photos souvenirs ont pris trop d'poussière, j'suis resté seul dans l'dél' J'étais sans potos, merde, j'ai pris l'eau Si t'es trop gentil, on t'la fout dans l'derche Y a pas d'grandes lignes sans d'grandes ratures Y a pas d'grandes lignes sans d'grandes ratures Là, j'vais crier sur l'couplet, l'entendras tu ? Là, j'vais crier sur l'couplet, l'entendras tu ? Elle veut planer haut dans le ciel, moi, prendre l'oseille, j'en veux plus Là, j'vais crir sur l'couplet, l'entendras tu ? Sora Quand j'ai l'sum, j'perds pas d'temps, j'en fais un son, j'dois faire du cash, fils de pute J'prends dans moi, pour moi, y a pas d'burn-out, c'est cques-J', y a pas d'Burna Lebnani, on vous baise en vous regardant dans l'noir d'vos yeu-z Putain, c'que j'ai pu être toxique, l'impression d'mettre refait dans les narcotiques 20.20, soleil toujours debout, la nuit s'ra longue En c'moment, j'habite un truc bizarre mais la nuit, j'éteins les lumières Elle bouge son tard-pé c'est presque beau Tu t'souviens ? On était heureux, on était presque beaufs Tu t'souviens ? On était heureux, on était presque beaufs Eh C'est un peu comme sur la pochette du dernier l'ciel était presque bleu Té-cla l'pilon, odeur de beuh, c'est pas du CBD, sa mère la pute J'continue à dormir sur trop d'cash, j'dois les hagar d'une façon qui frôle l'abus C'est pas d'la violence gratuite, dis-toi qu'j'suis payé pour J'vois des gens pour la sique-mu sinon, j'suis dans ma bulle En c'moment, j'suis dans l'jacuzzi du buzz, j'paye trop cher J'regarde les bulles, c'est plus une histoire d'oseille mais d'erreur qu'j'paye trop cher En c'moment, j'suis dans l'jacuzzi du buzz, j'le j'paye trop cher trop cher C'est plus une histoire d'oseille mais d'erreur qu'j'paye trop cher J'attends que le bon Dieu m'donne, j'entends mes pirates répéter Faut un paquet d'sommes En bas y a un paquet d'porcs, pour l'faire, faut un paquet d'bol Tu connais, faut les papiers pour acheter un pack de prods J'te fouille et j'te fais pas qu'les poches Une balle et ton âme ne touche pas que l'sol Oh, oh Larosh, j'suis celui qu'arrive faire un tas d'carnages J'te pénave, j'fume un kamas, en c'moment, j'ai un goût d'karma J'me dis ça sur un transat, avant d'la fumer, on l'tasse C'est pour la famille ou le blé qu'on s'tâche, la biatch, elle veut qu'on s'catch Les jaloux maigrissent, on devient laise-ba, moi, j'me taro, j'te laisse En c'moment, j'crée des enchaînements Vise la tête à la 'sique, c'est la guerre, c'est pas l'entrainement Taper la prod, j'le fais avant d'ger-man Pétasse, j'sais que t'aime le buzz, j'suis en gestion, boum, grand teh de beuh J'me barre, eh, garde ma place, boum, te-cla, garde ta 'tasse T'es fou, elle est conne mais douce, j'mélange mon rhum avec du Coca, j'ai plus d'appel juice On a drop, on attend qu'ça jugg J'ai la beuh de cali, c-be, c'est pas n'importe quel goût Tu connais Paname, c'est sale mais magique, un rhum ambré et j'm'agite Tu connais Paname, c'est sale mais magique, un whisky sec et j'm'agite Que du caviar, j'rarifie les sorties, j'ai fait d'l'oseille avec le quart d'ma peine J'réinvestis les trois quarts d'ma paye à ces phases d'enculé qu'j'ai sorties J'bosse pour l'histoire, fuck le buzz, fuck les compils' 2k24, énorme fuck off, Roshi, y a l'peu-ra qu'on pille</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2329,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Chacun sur sa route, mon bébé tout s'perd Elle reconnaît pas son keumé après douze tehs J'additionne les totaux, j'les vois s'soustraire Présumé innocent mais entouré d'bougzers suspects J'arme, je vise, j'ai plus qu'à ajuster J'arme, je vise, j'ai plus qu'à ajuster Avec le temps les Damiers s'gentrifient C'est plus facile d'quitter une salope qu'une gentille fille J'me pose des questions, pas les bonnes Quand est-ce qu'on me sanctifie? Quand j'ai besoin d'me retrouver seul Tu m'crois avec 110 filles Reste, bébé, j'anticipe J'crois qu'tu connais pas bien les gens d'ici C'est pas ma faute, bébé, si j'anticipe J'voulais pas m'égosiller Pesé, c'est payé Bébé, j'ai pas négocié J'voulais pas m'égosiller Pesé, c'est payé Bébé, j'ai pas négocié J'm'exécute, j'vous laisse podcaster J'déguste c'que t'as fantasmé Loin des gus' et des grandes tass-pé On ira demander à Jean-Marie une grande rassrah Désolé, bébé, j'ai fait une grande crasserie J'aurais dû blanchir la moula dans une bonne brasserie Donc t'étonne pas si Désolé, bébé, j'ai fait une grande crasserie J'suis fatigué, oui j'suis usé par ça Verse une larme de 'Sky Les graines de tabac s'parsèment On plie mais on rompt pas Gère l'équipe comme Arsène hey Si j'le fais, j'le fais comme personne Une histoire commence quand une autre s'achève J'écris romance en attendant qu'la nôtre s'achève Vivons heureux dans une pauvre cachette Des souvenirs sur une pauvre cassette Des souvenirs après des vodka secs J'vois s'accumuler les fautes par tonnes Mais est-ce que les torts s'pardonnent ? Uniquement quand les torts s'partagent ? La route mène ni à Rome ni à Carthage Est-ce que les torts s'pardonnent ? Uniquement quand les torts s'partagent ? La route mène ni à Rome ni à Carthage La route mène ni à Rome ni à Carthage Et si on trinquait aux femmes qu'on est incapable d'ret'nir Pourtant, on avait l'temps On aurait pu mettre un pied à Rome, un autre à Genève J'dois être un sacré enculé pour les perdre ça-comme Hey Ils veulent connaître la vérité qu'on cache à tous Mais les bâtons dans mes roues ne m'ont pas freiné mais m'ont boosté Mystère et discrétion pendant qu'le lâche agit en loucedé Gratuit, c'est pas cher Un jour, tu t'rends compte que tout s'paie You might also like Chacun sur sa route, mon bébé tout s'perd Elle reconnaît pas son keumé après douze tehs J'additionne les totaux, j'les vois s'soustraire Présumé innocent mais entouré d'bougzers suspects J'arme, je vise, j'ai plus qu'à ajuster J'arme, je vise, j'ai plus qu'à ajuster J'arme, je vise, j'ai plus qu'à ajuster J'arme, je vise, j'ai plus qu'à ajuster Hey Si j'le fais, j'le fais comme personne Serré comme un café, comme un poing Serré comme un lacet, comme un joint C'est Paris par ici, j'vais casser l'tête J'ai quitté la té-ci, j'ai lâché l'B2 Serré comme un café, comme un poing Serré comme un lacet, comme un joint C'est Paris par ici, j'vais casser l'tête J'ai quitté la té-ci, j'ai lâché l'B2 Serré comme un café, comme un poing Serré comme un lacet, comme un joint C'est Paris par ici, j'vais casser l'tête J'ai quitté la té-ci, j'ai lâché l'B2 Serré comme un café, comme un poing Serré comme un lacet, comme un joint C'est Paris par ici, j'vais casser l'tête J'ai quitté la té-ci, j'ai lâché l'B2</t>
+          <t>Chacun sur sa route, mon bébé tout s'perd Elle reconnaît pas son keumé après douze tehs J'additionne les totaux, j'les vois s'soustraire Présumé innocent mais entouré d'bougzers suspects J'arme, je vise, j'ai plus qu'à ajuster J'arme, je vise, j'ai plus qu'à ajuster Avec le temps les Damiers s'gentrifient C'est plus facile d'quitter une salope qu'une gentille fille J'me pose des questions, pas les bonnes Quand est-ce qu'on me sanctifie? Quand j'ai besoin d'me retrouver seul Tu m'crois avec 110 filles Reste, bébé, j'anticipe J'crois qu'tu connais pas bien les gens d'ici C'est pas ma faute, bébé, si j'anticipe J'voulais pas m'égosiller Pesé, c'est payé Bébé, j'ai pas négocié J'voulais pas m'égosiller Pesé, c'est payé Bébé, j'ai pas négocié J'm'exécute, j'vous laisse podcaster J'déguste c'que t'as fantasmé Loin des gus' et des grandes tass-pé On ira demander à Jean-Marie une grande rassrah Désolé, bébé, j'ai fait une grande crasserie J'aurais dû blanchir la moula dans une bonne brasserie Donc t'étonne pas si Désolé, bébé, j'ai fait une grande crasserie J'suis fatigué, oui j'suis usé par ça Verse une larme de 'Sky Les graines de tabac s'parsèment On plie mais on rompt pas Gère l'équipe comme Arsène hey Si j'le fais, j'le fais comme personne Une histoire commence quand une autre s'achève J'écris romance en attendant qu'la nôtre s'achève Vivons heureux dans une pauvre cachette Des souvenirs sur une pauvre cassette Des souvenirs après des vodka secs J'vois s'accumuler les fautes par tonnes Mais est-ce que les torts s'pardonnent ? Uniquement quand les torts s'partagent ? La route mène ni à Rome ni à Carthage Est-ce que les torts s'pardonnent ? Uniquement quand les torts s'partagent ? La route mène ni à Rome ni à Carthage La route mène ni à Rome ni à Carthage Et si on trinquait aux femmes qu'on est incapable d'ret'nir Pourtant, on avait l'temps On aurait pu mettre un pied à Rome, un autre à Genève J'dois être un sacré enculé pour les perdre ça-comme Hey Ils veulent connaître la vérité qu'on cache à tous Mais les bâtons dans mes roues ne m'ont pas freiné mais m'ont boosté Mystère et discrétion pendant qu'le lâche agit en loucedé Gratuit, c'est pas cher Un jour, tu t'rends compte que tout s'paie Chacun sur sa route, mon bébé tout s'perd Elle reconnaît pas son keumé après douze tehs J'additionne les totaux, j'les vois s'soustraire Présumé innocent mais entouré d'bougzers suspects J'arme, je vise, j'ai plus qu'à ajuster J'arme, je vise, j'ai plus qu'à ajuster J'arme, je vise, j'ai plus qu'à ajuster J'arme, je vise, j'ai plus qu'à ajuster Hey Si j'le fais, j'le fais comme personne Serré comme un café, comme un poing Serré comme un lacet, comme un joint C'est Paris par ici, j'vais casser l'tête J'ai quitté la té-ci, j'ai lâché l'B2 Serré comme un café, comme un poing Serré comme un lacet, comme un joint C'est Paris par ici, j'vais casser l'tête J'ai quitté la té-ci, j'ai lâché l'B2 Serré comme un café, comme un poing Serré comme un lacet, comme un joint C'est Paris par ici, j'vais casser l'tête J'ai quitté la té-ci, j'ai lâché l'B2 Serré comme un café, comme un poing Serré comme un lacet, comme un joint C'est Paris par ici, j'vais casser l'tête J'ai quitté la té-ci, j'ai lâché l'B2</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2346,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Hé Aujourd'hui, on a peu d'temps J'ai p't-être trop donné d'moi-même Eux ils comprennent pas c'qu'il m'anime Mais ils s'doutent quand même de c'qui m'amène J'irai la chercher peu importe la merde dans laquelle elle s'est mise T'es dans l'bourbier, t'oublies d'prendre ses news Six mois après, tu r'cherches ses nudes Eh Jacques, ferme ta gueule, le silence st noble L'autre soir, j'me suis j'té dans un silnce énorme Il faut qu'je souffle et que j'calme mes nerfs Mais parfois, même le calme m'énerve mais celui d'la nuit, j'l'adore Pense à repartir sans regret, quitte à laisser derrière toi des choses qu't'adores Fuck off mais qu'est-c'qu'il m'reste à dire Tu peux couper l'son dès maintenant, moi, il m'reste un seize Tous les rendez-vous sont maintenus mais moi j'fatigue Froide, comme un hiver sous l'pont Maintenant qu'j'sais où elle s'trouve, j'peux prendre les armes Même si j'peux m'le permettre, j'refuse de prendre mes aises Eh, le business, c'est la guerre, j'la mène Chacun pour soi, Dieu pour tous, amen Le business, c'est la guerre, j'la mène Chacun pour soi, Dieu pour tous, amen You might also like Beaucoup trop d'choses à gérer, il faut qu'j'délègue Quelques souvenirs brumeux qu'il est temps qu'j'delete J'ai b'soin d'souffler qu'la pupille s'dilate Commandant au poste d'la sentinelle Et t'imagines pas c'qu'on peut faire avec d'l'amour et cent dinars J'ai envie d'envoyer PDP sans promo et sans teaser Le business, c'est la guerre, j'la mène Chacun pour soi, Dieu pour tous, amen Le business, c'est la guerre, j'la mène Chacun pour soi, Dieu pour tous, amen Fuck, y a tout un business qu'il faut qu'je gère Les raisons qui la poussent à t'quitter sont les mêmes que celles qui l'ont attirée vers toi La couverture, avant d'la faire, j'voulais la tirer vers toi Fuck le rap, fuck le business, j'écris parce que j'ai b'soin d'le faire J'vois d'l'amour qui s'propage par la f'nêtre pendant qu'j'écris d'ssus Le micro quand j'lui crie dessus, c'est toujours avec grande classe J'peux compter qu'sur moi-même dans les grandes crises On r'ssort meurtri mais plus fort des grandes crasses New blues, old wine des grandes claques Cette semaine, j'reprends tout en main, quand il est tard, les lumières s'tamisent J'ai pris d'nouvelles habitudes depuis qu't'as quitté ma vie Un amour aveugle m'a poussé à m'voiler la face Quand t'y mets autant d'toi-même, t'as l'droit d'réfléchir avant d'lâcher la phase T'as besoin d'un plan s'tu veux lâcher la fac Jacques, j'ai pas l'droit d'lâcher l'affaire J'ai pas l'droit ou j'ai la flemme, ce soir j'fais un tour dans l'tieks Il faut qu'j'ravive la flamme, ensuite j'irai vivre ailleurs Loin des souvenirs brumeux qui n'cessent d's'épaissir N'oubliez pas les paroles mais oubliez Nagui Après tout, j'donne du crédit si j'en parle Donc y a beaucoup d'enculés dont j'dois taire les noms Ils s'souviendront d'moi jusqu'à père et mère Belek aux ambitions qu't'affiches, faut s'faire au fait qu'les relations s'abîment Phosphorescent, comme le haut qu'elle retire dès qu'ses amis s'arrachent J'en déduis qu'elle est d'humeur frivole Mais d'abord, elle veut savoir j'suis quel genre d'arabe Ni un arabe gentil, ni un arabe qui vole Donc j'remets juste un peu d'arak Des yeux clairs dans lesquels, quand j'fatigue, je navigue Si seulement tu savais, j'croyais qu'avec toi tout différemment se savoure Amertume comme ultime saveur Ça va bébé, on est jeunes donc sur l'temps, on lésine Sur un coup d'tête, à Lausanne, en leasing Ça va bébé, on est jeunes, donc sur l'temps, on lésine Sur un coup d'tête, à Lausanne, en leasing Ça va bébé, on est jeunes, sur l'temps, on lésine Sur un coup d'tête, à Lausanne, en leasing Ça va bébé, on est jeunes, donc sur l'temps, on lésine Sur un coup d'tête, à Lausanne, en leasing1</t>
+          <t>Hé Aujourd'hui, on a peu d'temps J'ai p't-être trop donné d'moi-même Eux ils comprennent pas c'qu'il m'anime Mais ils s'doutent quand même de c'qui m'amène J'irai la chercher peu importe la merde dans laquelle elle s'est mise T'es dans l'bourbier, t'oublies d'prendre ses news Six mois après, tu r'cherches ses nudes Eh Jacques, ferme ta gueule, le silence st noble L'autre soir, j'me suis j'té dans un silnce énorme Il faut qu'je souffle et que j'calme mes nerfs Mais parfois, même le calme m'énerve mais celui d'la nuit, j'l'adore Pense à repartir sans regret, quitte à laisser derrière toi des choses qu't'adores Fuck off mais qu'est-c'qu'il m'reste à dire Tu peux couper l'son dès maintenant, moi, il m'reste un seize Tous les rendez-vous sont maintenus mais moi j'fatigue Froide, comme un hiver sous l'pont Maintenant qu'j'sais où elle s'trouve, j'peux prendre les armes Même si j'peux m'le permettre, j'refuse de prendre mes aises Eh, le business, c'est la guerre, j'la mène Chacun pour soi, Dieu pour tous, amen Le business, c'est la guerre, j'la mène Chacun pour soi, Dieu pour tous, amen Beaucoup trop d'choses à gérer, il faut qu'j'délègue Quelques souvenirs brumeux qu'il est temps qu'j'delete J'ai b'soin d'souffler qu'la pupille s'dilate Commandant au poste d'la sentinelle Et t'imagines pas c'qu'on peut faire avec d'l'amour et cent dinars J'ai envie d'envoyer PDP sans promo et sans teaser Le business, c'est la guerre, j'la mène Chacun pour soi, Dieu pour tous, amen Le business, c'est la guerre, j'la mène Chacun pour soi, Dieu pour tous, amen Fuck, y a tout un business qu'il faut qu'je gère Les raisons qui la poussent à t'quitter sont les mêmes que celles qui l'ont attirée vers toi La couverture, avant d'la faire, j'voulais la tirer vers toi Fuck le rap, fuck le business, j'écris parce que j'ai b'soin d'le faire J'vois d'l'amour qui s'propage par la f'nêtre pendant qu'j'écris d'ssus Le micro quand j'lui crie dessus, c'est toujours avec grande classe J'peux compter qu'sur moi-même dans les grandes crises On r'ssort meurtri mais plus fort des grandes crasses New blues, old wine des grandes claques Cette semaine, j'reprends tout en main, quand il est tard, les lumières s'tamisent J'ai pris d'nouvelles habitudes depuis qu't'as quitté ma vie Un amour aveugle m'a poussé à m'voiler la face Quand t'y mets autant d'toi-même, t'as l'droit d'réfléchir avant d'lâcher la phase T'as besoin d'un plan s'tu veux lâcher la fac Jacques, j'ai pas l'droit d'lâcher l'affaire J'ai pas l'droit ou j'ai la flemme, ce soir j'fais un tour dans l'tieks Il faut qu'j'ravive la flamme, ensuite j'irai vivre ailleurs Loin des souvenirs brumeux qui n'cessent d's'épaissir N'oubliez pas les paroles mais oubliez Nagui Après tout, j'donne du crédit si j'en parle Donc y a beaucoup d'enculés dont j'dois taire les noms Ils s'souviendront d'moi jusqu'à père et mère Belek aux ambitions qu't'affiches, faut s'faire au fait qu'les relations s'abîment Phosphorescent, comme le haut qu'elle retire dès qu'ses amis s'arrachent J'en déduis qu'elle est d'humeur frivole Mais d'abord, elle veut savoir j'suis quel genre d'arabe Ni un arabe gentil, ni un arabe qui vole Donc j'remets juste un peu d'arak Des yeux clairs dans lesquels, quand j'fatigue, je navigue Si seulement tu savais, j'croyais qu'avec toi tout différemment se savoure Amertume comme ultime saveur Ça va bébé, on est jeunes donc sur l'temps, on lésine Sur un coup d'tête, à Lausanne, en leasing Ça va bébé, on est jeunes, donc sur l'temps, on lésine Sur un coup d'tête, à Lausanne, en leasing Ça va bébé, on est jeunes, sur l'temps, on lésine Sur un coup d'tête, à Lausanne, en leasing Ça va bébé, on est jeunes, donc sur l'temps, on lésine Sur un coup d'tête, à Lausanne, en leasing1</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2363,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Eh Le Keuj' triple balle Eh Let's go Encore un gros couplet d'batard, Dieu bénit, il nous a donné d'l'oseille et d'la gueule Si tu veux m'baiser va faire la queue, si tu veux m'baiser va faire la queue Veut finir du gioppino sur La Ciotat, elle est pas belle, elle est sautable sautable Ta go veut danser sur la soca, numéro 22 Fuck Off c'est floquable Eh Un son cinquante balles le vocal Allo NBOW, contrat avocat Allo Whisky Sour au Martinez à Canns J'arrive sur l'té-cô comme Bukayo Saka La vitess Mais nan, faut qu'j'parle plus au gens, j'sortirai sous la pluie d'mi-novembre Let's go J'ai dû m'faire violence faut qu'j'innove J'ai au moins le mérite d'sublimer tout c'dégoût Retenez-moi ou j'les goume, si j'arrête d'écrire j'retiens des coups J'suis arrivé dans l'game avec trop d'talent pour qu'on l'ignore, grande cavale faut qu'on y aille Let's go J'écris sur les routes qui mènent autour Laisse un peu d'lumière, j'aime te regarder quand j'te ken J'voulais pas mais ça s'trouve, j't'excite quand j'te peigne You might also like Encore un gros couplet d'batard, Dieu bénit, il nous a donné d'oseille et d'la gueule Si tu veux m'baiser va faire la queue, si tu veux m'baiser va faire la queue Veut finir du gioppino sur La Ciotat, elle est pas belle, elle est sautable sautable Ta go veut danser sur la soca, numéro 22 Fuck Off c'est floquable Eh Un son cinquante balles le vocal Allo NBOW, contrat avocat Allo Whisky Sour au Martinez à Cannes J'arrive sur l'té-cô comme Bukayo Saka La vitesse Mais nan, faut qu'j'parle plus au gens, j'sortirai sous la pluie d'mi-novembre Let's go J'ai dû m'faire violence faut qu'j'innove J'ai au moins le mérite d'sublimer tout c'dégoût Y a la concu' qui fait plus de chiffres Y a l'tour, j'dois pas sortir d'bum-al, j'prends sur moi j'fume plus de shit L'nom d'un titre sur l'cul ta gadji à l'encre de Chine Eh gros quand tu pe-ra c'est scolaire, ça manque de sel La confiance n'exclue pas l'contrôle, il manque d'l'oseille J'ai décidé d'être celui dont j'avais besoin quand j'tais jeune Jeune Jacques J'ai taffé d'façon constante pour les ken J'repense à tous ces textes écrit en vain sur les quais Passé pour la mer, juste assez pour s'la mettre Tu veux qu'j't'insulte quand j'te ken Même si la conv' est sur écoute il faut qu'j't'appelle Encore un gros couplet d'batard, Dieu bénit, il nous a donné d'oseille et d'la gueule Si tu veux m'baiser va faire la queue, si tu veux m'baiser va faire la queue Veut finir du gioppino sur La Ciotat, elle est pas belle, elle est sautable sautable Ta go veut danser sur la soca, numéro 22 Fuck Off c'est floquable Eh Un son cinquante balles le vocal Allo NBOW, contrat avocat Allo Whisky Sour au Martinez à Cannes J'arrive sur l'té-cô comme Bukayo Saka La vitesse Mais nan, faut qu'j'parle plus au gens, j'sortirai sous la pluie d'mi-novembre Let's go J'ai dû m'faire violence faut qu'j'innove J'ai au moins le mérite d'sublimer tout c'dégoût</t>
+          <t>Eh Le Keuj' triple balle Eh Let's go Encore un gros couplet d'batard, Dieu bénit, il nous a donné d'l'oseille et d'la gueule Si tu veux m'baiser va faire la queue, si tu veux m'baiser va faire la queue Veut finir du gioppino sur La Ciotat, elle est pas belle, elle est sautable sautable Ta go veut danser sur la soca, numéro 22 Fuck Off c'est floquable Eh Un son cinquante balles le vocal Allo NBOW, contrat avocat Allo Whisky Sour au Martinez à Canns J'arrive sur l'té-cô comme Bukayo Saka La vitess Mais nan, faut qu'j'parle plus au gens, j'sortirai sous la pluie d'mi-novembre Let's go J'ai dû m'faire violence faut qu'j'innove J'ai au moins le mérite d'sublimer tout c'dégoût Retenez-moi ou j'les goume, si j'arrête d'écrire j'retiens des coups J'suis arrivé dans l'game avec trop d'talent pour qu'on l'ignore, grande cavale faut qu'on y aille Let's go J'écris sur les routes qui mènent autour Laisse un peu d'lumière, j'aime te regarder quand j'te ken J'voulais pas mais ça s'trouve, j't'excite quand j'te peigne Encore un gros couplet d'batard, Dieu bénit, il nous a donné d'oseille et d'la gueule Si tu veux m'baiser va faire la queue, si tu veux m'baiser va faire la queue Veut finir du gioppino sur La Ciotat, elle est pas belle, elle est sautable sautable Ta go veut danser sur la soca, numéro 22 Fuck Off c'est floquable Eh Un son cinquante balles le vocal Allo NBOW, contrat avocat Allo Whisky Sour au Martinez à Cannes J'arrive sur l'té-cô comme Bukayo Saka La vitesse Mais nan, faut qu'j'parle plus au gens, j'sortirai sous la pluie d'mi-novembre Let's go J'ai dû m'faire violence faut qu'j'innove J'ai au moins le mérite d'sublimer tout c'dégoût Y a la concu' qui fait plus de chiffres Y a l'tour, j'dois pas sortir d'bum-al, j'prends sur moi j'fume plus de shit L'nom d'un titre sur l'cul ta gadji à l'encre de Chine Eh gros quand tu pe-ra c'est scolaire, ça manque de sel La confiance n'exclue pas l'contrôle, il manque d'l'oseille J'ai décidé d'être celui dont j'avais besoin quand j'tais jeune Jeune Jacques J'ai taffé d'façon constante pour les ken J'repense à tous ces textes écrit en vain sur les quais Passé pour la mer, juste assez pour s'la mettre Tu veux qu'j't'insulte quand j'te ken Même si la conv' est sur écoute il faut qu'j't'appelle Encore un gros couplet d'batard, Dieu bénit, il nous a donné d'oseille et d'la gueule Si tu veux m'baiser va faire la queue, si tu veux m'baiser va faire la queue Veut finir du gioppino sur La Ciotat, elle est pas belle, elle est sautable sautable Ta go veut danser sur la soca, numéro 22 Fuck Off c'est floquable Eh Un son cinquante balles le vocal Allo NBOW, contrat avocat Allo Whisky Sour au Martinez à Cannes J'arrive sur l'té-cô comme Bukayo Saka La vitesse Mais nan, faut qu'j'parle plus au gens, j'sortirai sous la pluie d'mi-novembre Let's go J'ai dû m'faire violence faut qu'j'innove J'ai au moins le mérite d'sublimer tout c'dégoût</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2380,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Dignity and culture Mes pulsions ont tué l'envie Crois moi, j'ai pas griffonné toutes ces feuilles en vain J'ai fait un cauchemar où je disais tant pis Un rêve où je disais enfin Des fils de putes propageaient les on dit Si j'ai ouvert ma gueule C'est que j'en pouvais plus du poids des non-dits motherfuck' Une identité, quatres facettes Mieux vaut être seul qu'accompagné d'quatre cassos quatre tchoins J'viens d'me vider sur quatre cassettes J'peux plus te voir après quatre bassesses Les apparences sont trompeuses Qu'en témoigne le chauffeur de cette belle classe S J'viens d'ôter la sûreté d'mes quatre gachettes la sûreté d'mes quatre gachettes L'innocence a une pureté, que j'ai vu que dans ses 'yeuz Faire pleurer Vénus, c'est risquer d'faire gronder Zeus gronder Zeus C'est juste pour te protéger que j'ai changé d'blaze que j'ai changé d'blaze C'était juste pour te protéger que j'ai changé d'blaze J'suis quand même pas descendu si bas pour faire monter l'buzz En attendant j'dis vrai, j'ai laissé tomber le masque donne un masque à un homme, il te dit la vérité You might also like Baby J'vois qu'ton reflet quand tu fais du lèche-vitrine On s'casse, j'nous ai prit une suite sur Leidseplein Hey J'vois qu'ton reflet quand tu fais du lèche-vitrine On s'casse, j'nous ai prit une suite sur Leidseplein Mais toi tu veux qu'on baise dans l'Vondelpark Oui ça sent fort hein Oui, ça sent fort oui Baby j'ai d'la Van Der Vaart Oui Des misères, les grandeurs partent J'me fais discret, j'bosse J'me suis fait à l'idée qu'je devais assurer près de 17 postes Naturel quand l'17 passe Fuck, il me faut des revenus pour assurer l'train d'vie de 17 gosses Quatre berlines, pour 19 places Il en reste une vacante Chez nous on dit pas des mais une vacance J'voulais même pas t'épater J'les aime mais c'est con j'peux pas m'permettre d'les gâter motherfuck' J'les aime mais c'est con j'peux pas m'permettre d'les gâter mmhmmh J'les aime mais c'est con j'peux pas m'permettre d'les gâter mmhmmh J'les aime mais c'est con j'peux pas m'permettre d'les gâter mmhmmh</t>
+          <t>Dignity and culture Mes pulsions ont tué l'envie Crois moi, j'ai pas griffonné toutes ces feuilles en vain J'ai fait un cauchemar où je disais tant pis Un rêve où je disais enfin Des fils de putes propageaient les on dit Si j'ai ouvert ma gueule C'est que j'en pouvais plus du poids des non-dits motherfuck' Une identité, quatres facettes Mieux vaut être seul qu'accompagné d'quatre cassos quatre tchoins J'viens d'me vider sur quatre cassettes J'peux plus te voir après quatre bassesses Les apparences sont trompeuses Qu'en témoigne le chauffeur de cette belle classe S J'viens d'ôter la sûreté d'mes quatre gachettes la sûreté d'mes quatre gachettes L'innocence a une pureté, que j'ai vu que dans ses 'yeuz Faire pleurer Vénus, c'est risquer d'faire gronder Zeus gronder Zeus C'est juste pour te protéger que j'ai changé d'blaze que j'ai changé d'blaze C'était juste pour te protéger que j'ai changé d'blaze J'suis quand même pas descendu si bas pour faire monter l'buzz En attendant j'dis vrai, j'ai laissé tomber le masque donne un masque à un homme, il te dit la vérité Baby J'vois qu'ton reflet quand tu fais du lèche-vitrine On s'casse, j'nous ai prit une suite sur Leidseplein Hey J'vois qu'ton reflet quand tu fais du lèche-vitrine On s'casse, j'nous ai prit une suite sur Leidseplein Mais toi tu veux qu'on baise dans l'Vondelpark Oui ça sent fort hein Oui, ça sent fort oui Baby j'ai d'la Van Der Vaart Oui Des misères, les grandeurs partent J'me fais discret, j'bosse J'me suis fait à l'idée qu'je devais assurer près de 17 postes Naturel quand l'17 passe Fuck, il me faut des revenus pour assurer l'train d'vie de 17 gosses Quatre berlines, pour 19 places Il en reste une vacante Chez nous on dit pas des mais une vacance J'voulais même pas t'épater J'les aime mais c'est con j'peux pas m'permettre d'les gâter motherfuck' J'les aime mais c'est con j'peux pas m'permettre d'les gâter mmhmmh J'les aime mais c'est con j'peux pas m'permettre d'les gâter mmhmmh J'les aime mais c'est con j'peux pas m'permettre d'les gâter mmhmmh</t>
         </is>
       </c>
     </row>
